--- a/PYPL_Model.xlsx
+++ b/PYPL_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E794EF-1233-4505-A1CA-74EEE34D3BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EB43F3-B501-4266-8340-80FF2867E646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="37770" yWindow="1860" windowWidth="14235" windowHeight="11895" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main | Overview" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,7 @@
     <author>tc={320EE886-3CCC-4AA0-89EC-6CEDDA66BB55}</author>
     <author>tc={C432C69B-E3F2-4EDD-9EE0-2164911AD911}</author>
     <author>tc={6FA3413F-0950-48BD-8319-2A8DA9CE50E4}</author>
+    <author>tc={38ADF2F8-1B4F-47C7-85FB-0FD1BE23E2EC}</author>
   </authors>
   <commentList>
     <comment ref="W43" authorId="0" shapeId="0" xr:uid="{320EE886-3CCC-4AA0-89EC-6CEDDA66BB55}">
@@ -80,12 +81,20 @@
 </t>
       </text>
     </comment>
+    <comment ref="AT43" authorId="3" shapeId="0" xr:uid="{38ADF2F8-1B4F-47C7-85FB-0FD1BE23E2EC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    4/15/25 FY Estimates - Low: 4.70 High: 6.02 Avg: 5.58</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="498">
   <si>
     <t>PYPL</t>
   </si>
@@ -2802,6 +2811,30 @@
   <si>
     <t>Master</t>
   </si>
+  <si>
+    <t>User growth has stagnated for the last couple of years, TPV is still growing faster than GDP… check against inflation/money supply growth</t>
+  </si>
+  <si>
+    <t>PayPal operates in many high value markets including:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My model is relatively conservative with most future projected figures, except for operating margin (which I believe will see some decent expansion over FY '25 due to braintree contract renegotiations). I believe PayPal is a decent long around the ($55-65) range and have an intial price target of ~$85… could be an incredible value trap though as there are a few challeneges I feel will be difficult for the firm to overcome.  </t>
+  </si>
+  <si>
+    <t>The Company has valuation multiples in line with a traditional bank, has little to no user growth, and is continuing to spend on expensive marketing campaigns while competing firms continue to seize market share in virtually every category Paypal operates in</t>
+  </si>
+  <si>
+    <t>Digital wallets (competing with AAPL, GOOG, XYZ, Zelle)</t>
+  </si>
+  <si>
+    <t>BNPL (competing with AFRM, XYZ and Klarna)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating a traditional payment network/CC offerings (competing with V, MA, and AXP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Commerce payment processing (competing with XYY, ADYEY, </t>
+  </si>
 </sst>
 </file>
 
@@ -2813,7 +2846,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2874,6 +2907,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4377,6 +4416,56 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>127187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A5F678-3BFC-4ED5-A892-E4779B125746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16623927" y="0"/>
+          <a:ext cx="0" cy="16280467"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4702,6 +4791,9 @@
     <text xml:space="preserve">3/21/25 FY Estimates - Low: 4.93 High: 5.32
 </text>
   </threadedComment>
+  <threadedComment ref="AT43" dT="2025-04-16T07:51:59.65" personId="{FF96766A-CA98-4257-8D69-1771F2919E73}" id="{38ADF2F8-1B4F-47C7-85FB-0FD1BE23E2EC}">
+    <text>4/15/25 FY Estimates - Low: 4.70 High: 6.02 Avg: 5.58</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -4709,27 +4801,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C8"/>
+    <sheetView topLeftCell="A53" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="19.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="14.25">
       <c r="A1" s="25" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="13.9">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4805,12 +4897,12 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" ht="13.9">
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" ht="13.9">
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
@@ -4835,7 +4927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15">
+    <row r="18" spans="2:5" ht="13.9">
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4843,22 +4935,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15">
+    <row r="20" spans="2:5" ht="13.9">
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15">
+    <row r="21" spans="2:5" ht="13.9">
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15">
+    <row r="22" spans="2:5" ht="13.9">
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15">
+    <row r="24" spans="2:5" ht="13.9">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
@@ -4868,7 +4960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15">
+    <row r="27" spans="2:5" ht="13.9">
       <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
@@ -4876,22 +4968,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15">
+    <row r="28" spans="2:5" ht="13.9">
       <c r="E28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15">
+    <row r="29" spans="2:5" ht="13.9">
       <c r="E29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="15">
+    <row r="30" spans="2:5" ht="13.9">
       <c r="E30" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15">
+    <row r="32" spans="2:5" ht="13.9">
       <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
@@ -4900,13 +4992,13 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="3:5" ht="15">
+    <row r="33" spans="3:5" ht="13.9">
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="15">
+    <row r="34" spans="3:5" ht="13.9">
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
         <v>106</v>
@@ -4922,7 +5014,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="3:5" ht="15">
+    <row r="37" spans="3:5" ht="13.9">
       <c r="C37" s="1" t="s">
         <v>45</v>
       </c>
@@ -4930,32 +5022,32 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="3:5" ht="15">
+    <row r="38" spans="3:5" ht="13.9">
       <c r="E38" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="3:5" ht="15">
+    <row r="39" spans="3:5" ht="13.9">
       <c r="E39" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="3:5" ht="15">
+    <row r="40" spans="3:5" ht="13.9">
       <c r="E40" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="15">
+    <row r="41" spans="3:5" ht="13.9">
       <c r="E41" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="15">
+    <row r="42" spans="3:5" ht="13.9">
       <c r="E42" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="3:5" ht="15">
+    <row r="44" spans="3:5" ht="13.9">
       <c r="C44" s="1" t="s">
         <v>46</v>
       </c>
@@ -4963,22 +5055,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="3:5" ht="15">
+    <row r="45" spans="3:5" ht="13.9">
       <c r="E45" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="3:5" ht="15">
+    <row r="46" spans="3:5" ht="13.9">
       <c r="E46" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="15">
+    <row r="47" spans="3:5" ht="13.9">
       <c r="E47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="3:5" ht="15">
+    <row r="48" spans="3:5" ht="13.9">
       <c r="E48" s="1" t="s">
         <v>66</v>
       </c>
@@ -5090,17 +5182,17 @@
         <v>474</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15">
+    <row r="73" spans="2:6" ht="13.9">
       <c r="B73" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15">
+    <row r="75" spans="2:6" ht="13.9">
       <c r="B75" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="15">
+    <row r="77" spans="2:6" ht="13.9">
       <c r="B77" s="2" t="s">
         <v>38</v>
       </c>
@@ -5108,12 +5200,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="15">
+    <row r="78" spans="2:6" ht="13.9">
       <c r="B78" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15">
+    <row r="79" spans="2:6" ht="13.9">
       <c r="C79" s="1" t="s">
         <v>203</v>
       </c>
@@ -5123,7 +5215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15">
+    <row r="82" spans="2:7" ht="13.9">
       <c r="B82" s="2" t="s">
         <v>135</v>
       </c>
@@ -5132,12 +5224,12 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="2:7" ht="15">
+    <row r="83" spans="2:7" ht="13.9">
       <c r="B83" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="15">
+    <row r="84" spans="2:7" ht="13.9">
       <c r="C84" s="1" t="s">
         <v>36</v>
       </c>
@@ -5147,29 +5239,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="15">
+    <row r="86" spans="2:7" ht="13.9">
       <c r="B86" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="2:7" ht="15">
+    <row r="87" spans="2:7" ht="13.9">
       <c r="C87" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="15">
+    <row r="88" spans="2:7" ht="13.9">
       <c r="C88" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="15">
+    <row r="89" spans="2:7" ht="13.9">
       <c r="B89" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="15">
+    <row r="90" spans="2:7" ht="13.9">
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
         <v>31</v>
@@ -5177,17 +5269,17 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="2:7" ht="15">
+    <row r="91" spans="2:7" ht="13.9">
       <c r="C91" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="15">
+    <row r="92" spans="2:7" ht="13.9">
       <c r="C92" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="15">
+    <row r="94" spans="2:7" ht="13.9">
       <c r="B94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -5208,7 +5300,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5222,7 +5314,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5234,7 +5326,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5246,7 +5338,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5256,26 +5348,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB43A2-E51B-468E-8B2C-40F5D1CFF37E}">
   <dimension ref="A1:CT96"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P68" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V90" sqref="V90"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
-    <col min="3" max="21" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="3" max="21" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.86328125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1328125" style="1"/>
     <col min="24" max="24" width="9" style="1" customWidth="1"/>
-    <col min="25" max="36" width="9.140625" style="1"/>
+    <col min="25" max="36" width="9.1328125" style="1"/>
     <col min="37" max="37" width="9" style="1" customWidth="1"/>
-    <col min="38" max="39" width="9.140625" style="1"/>
+    <col min="38" max="39" width="9.1328125" style="1"/>
     <col min="40" max="98" width="9" style="1" customWidth="1"/>
-    <col min="99" max="16384" width="9.140625" style="1"/>
+    <col min="99" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98">
@@ -5379,7 +5471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:98" ht="15">
+    <row r="2" spans="1:98" ht="13.9">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -5795,27 +5887,27 @@
       </c>
       <c r="AS3" s="14">
         <f>AR3*(1+AS10)</f>
-        <v>31149.360000000001</v>
+        <v>30572.52</v>
       </c>
       <c r="AT3" s="14">
         <f t="shared" ref="AT3:AX3" si="41">AS3*(1+AT10)</f>
-        <v>33018.321600000003</v>
+        <v>32406.871200000001</v>
       </c>
       <c r="AU3" s="14">
         <f t="shared" si="41"/>
-        <v>34999.420896000003</v>
+        <v>34351.283472000003</v>
       </c>
       <c r="AV3" s="14">
         <f t="shared" si="41"/>
-        <v>36749.391940800007</v>
+        <v>36068.847645600006</v>
       </c>
       <c r="AW3" s="14">
         <f t="shared" si="41"/>
-        <v>38586.861537840006</v>
+        <v>37872.290027880008</v>
       </c>
       <c r="AX3" s="14">
         <f t="shared" si="41"/>
-        <v>40130.335999353607</v>
+        <v>39387.181628995211</v>
       </c>
       <c r="AY3" s="14"/>
       <c r="AZ3" s="14"/>
@@ -5954,27 +6046,27 @@
       </c>
       <c r="AS4" s="14">
         <f>AR4*(1+AS11)</f>
-        <v>3250.5000000000005</v>
+        <v>3161.8500000000004</v>
       </c>
       <c r="AT4" s="14">
         <f t="shared" ref="AT4:AX4" si="42">AS4*(1+AT11)</f>
-        <v>3640.5600000000009</v>
+        <v>3414.7980000000007</v>
       </c>
       <c r="AU4" s="14">
         <f t="shared" si="42"/>
-        <v>4077.4272000000014</v>
+        <v>3824.5737600000011</v>
       </c>
       <c r="AV4" s="14">
         <f t="shared" si="42"/>
-        <v>4689.0412800000013</v>
+        <v>4398.2598240000007</v>
       </c>
       <c r="AW4" s="14">
         <f t="shared" si="42"/>
-        <v>5157.9454080000014</v>
+        <v>4838.0858064000013</v>
       </c>
       <c r="AX4" s="14">
         <f t="shared" si="42"/>
-        <v>5673.7399488000019</v>
+        <v>5321.8943870400017</v>
       </c>
       <c r="AY4" s="14"/>
       <c r="AZ4" s="14"/>
@@ -6022,7 +6114,7 @@
       <c r="CP4" s="14"/>
       <c r="CQ4" s="14"/>
     </row>
-    <row r="5" spans="1:98" ht="15">
+    <row r="5" spans="1:98" ht="13.9">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -6130,27 +6222,27 @@
       </c>
       <c r="AS5" s="14">
         <f>SUM(AS3:AS4)</f>
-        <v>34399.86</v>
+        <v>33734.370000000003</v>
       </c>
       <c r="AT5" s="14">
         <f t="shared" ref="AT5:AX5" si="54">SUM(AT3:AT4)</f>
-        <v>36658.881600000001</v>
+        <v>35821.669200000004</v>
       </c>
       <c r="AU5" s="14">
         <f t="shared" si="54"/>
-        <v>39076.848096000002</v>
+        <v>38175.857232000002</v>
       </c>
       <c r="AV5" s="14">
         <f t="shared" si="54"/>
-        <v>41438.433220800012</v>
+        <v>40467.107469600007</v>
       </c>
       <c r="AW5" s="14">
         <f t="shared" si="54"/>
-        <v>43744.806945840006</v>
+        <v>42710.375834280007</v>
       </c>
       <c r="AX5" s="14">
         <f t="shared" si="54"/>
-        <v>45804.075948153608</v>
+        <v>44709.076016035215</v>
       </c>
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
@@ -6198,7 +6290,7 @@
       <c r="CP5" s="14"/>
       <c r="CQ5" s="14"/>
     </row>
-    <row r="6" spans="1:98" ht="15">
+    <row r="6" spans="1:98" ht="13.9">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -6398,27 +6490,27 @@
       </c>
       <c r="AS7" s="15">
         <f>AS3/AS5</f>
-        <v>0.90550833637113637</v>
+        <v>0.90627214914640464</v>
       </c>
       <c r="AT7" s="15">
         <f t="shared" ref="AT7:AX7" si="57">AT3/AT5</f>
-        <v>0.90069091469500806</v>
+        <v>0.90467228143572931</v>
       </c>
       <c r="AU7" s="15">
         <f t="shared" si="57"/>
-        <v>0.89565619033595056</v>
+        <v>0.89981695141100482</v>
       </c>
       <c r="AV7" s="15">
         <f t="shared" si="57"/>
-        <v>0.88684318118363747</v>
+        <v>0.89131272040374787</v>
       </c>
       <c r="AW7" s="15">
         <f t="shared" si="57"/>
-        <v>0.88209010924688735</v>
+        <v>0.88672340826097629</v>
       </c>
       <c r="AX7" s="15">
         <f t="shared" si="57"/>
-        <v>0.8761302388193094</v>
+        <v>0.8809661289995957</v>
       </c>
       <c r="AY7" s="15"/>
       <c r="AZ7" s="15"/>
@@ -6590,27 +6682,27 @@
       </c>
       <c r="AS8" s="15">
         <f>AS4/AS5</f>
-        <v>9.4491663628863617E-2</v>
+        <v>9.3727850853595307E-2</v>
       </c>
       <c r="AT8" s="15">
         <f t="shared" ref="AT8:AX8" si="60">AT4/AT5</f>
-        <v>9.9309085304991981E-2</v>
+        <v>9.5327718564270594E-2</v>
       </c>
       <c r="AU8" s="15">
         <f t="shared" si="60"/>
-        <v>0.10434380966404956</v>
+        <v>0.10018304858899522</v>
       </c>
       <c r="AV8" s="15">
         <f t="shared" si="60"/>
-        <v>0.11315681881636244</v>
+        <v>0.10868727959625217</v>
       </c>
       <c r="AW8" s="15">
         <f t="shared" si="60"/>
-        <v>0.11790989075311271</v>
+        <v>0.11327659173902373</v>
       </c>
       <c r="AX8" s="15">
         <f t="shared" si="60"/>
-        <v>0.1238697611806906</v>
+        <v>0.11903387100040422</v>
       </c>
       <c r="AY8" s="15"/>
       <c r="AZ8" s="15"/>
@@ -6838,7 +6930,7 @@
         <v>7.3909967606210714E-2</v>
       </c>
       <c r="AS10" s="15">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AT10" s="15">
         <v>0.06</v>
@@ -7004,10 +7096,10 @@
         <v>1.4070006863418083E-2</v>
       </c>
       <c r="AS11" s="15">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AT11" s="15">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AU11" s="15">
         <v>0.12</v>
@@ -7171,27 +7263,27 @@
       </c>
       <c r="AS12" s="15">
         <f>AS5/AR5-1</f>
-        <v>8.1858665911878514E-2</v>
+        <v>6.0929332955939275E-2</v>
       </c>
       <c r="AT12" s="15">
         <f t="shared" ref="AT12:AX12" si="67">AT5/AS5-1</f>
-        <v>6.5669499817731847E-2</v>
+        <v>6.1874557017072007E-2</v>
       </c>
       <c r="AU12" s="15">
         <f t="shared" si="67"/>
-        <v>6.5958545118299572E-2</v>
+        <v>6.571966311385613E-2</v>
       </c>
       <c r="AV12" s="15">
         <f t="shared" si="67"/>
-        <v>6.0434380966405188E-2</v>
+        <v>6.0018304858899585E-2</v>
       </c>
       <c r="AW12" s="15">
         <f t="shared" si="67"/>
-        <v>5.5657840940817938E-2</v>
+        <v>5.5434363979812495E-2</v>
       </c>
       <c r="AX12" s="15">
         <f t="shared" si="67"/>
-        <v>4.707459344518683E-2</v>
+        <v>4.6796595504341676E-2</v>
       </c>
       <c r="AY12" s="15">
         <f>AU51</f>
@@ -7427,7 +7519,7 @@
       <c r="CP13" s="14"/>
       <c r="CQ13" s="14"/>
     </row>
-    <row r="14" spans="1:98" ht="15">
+    <row r="14" spans="1:98" ht="13.9">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -7771,7 +7863,7 @@
       <c r="CP16" s="14"/>
       <c r="CQ16" s="14"/>
     </row>
-    <row r="17" spans="2:98" ht="15">
+    <row r="17" spans="2:98" ht="13.9">
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -7929,7 +8021,7 @@
       <c r="CP17" s="14"/>
       <c r="CQ17" s="14"/>
     </row>
-    <row r="18" spans="2:98" ht="15">
+    <row r="18" spans="2:98" ht="13.9">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -9210,207 +9302,207 @@
       </c>
       <c r="AS29" s="17">
         <f>AS5</f>
-        <v>34399.86</v>
+        <v>33734.370000000003</v>
       </c>
       <c r="AT29" s="17">
         <f t="shared" ref="AT29:AW29" si="94">AT5</f>
-        <v>36658.881600000001</v>
+        <v>35821.669200000004</v>
       </c>
       <c r="AU29" s="17">
         <f t="shared" si="94"/>
-        <v>39076.848096000002</v>
+        <v>38175.857232000002</v>
       </c>
       <c r="AV29" s="17">
         <f t="shared" si="94"/>
-        <v>41438.433220800012</v>
+        <v>40467.107469600007</v>
       </c>
       <c r="AW29" s="17">
         <f t="shared" si="94"/>
-        <v>43744.806945840006</v>
+        <v>42710.375834280007</v>
       </c>
       <c r="AX29" s="17">
         <f>AX5</f>
-        <v>45804.075948153608</v>
+        <v>44709.076016035215</v>
       </c>
       <c r="AY29" s="17">
         <f t="shared" ref="AY29:CQ29" si="95">AX29*(1+$AU$51)</f>
-        <v>46720.157467116682</v>
+        <v>45603.257536355923</v>
       </c>
       <c r="AZ29" s="17">
         <f t="shared" si="95"/>
-        <v>47654.560616459014</v>
+        <v>46515.32268708304</v>
       </c>
       <c r="BA29" s="17">
         <f t="shared" si="95"/>
-        <v>48607.651828788192</v>
+        <v>47445.629140824705</v>
       </c>
       <c r="BB29" s="17">
         <f t="shared" si="95"/>
-        <v>49579.804865363956</v>
+        <v>48394.541723641203</v>
       </c>
       <c r="BC29" s="17">
         <f t="shared" si="95"/>
-        <v>50571.400962671236</v>
+        <v>49362.432558114029</v>
       </c>
       <c r="BD29" s="17">
         <f t="shared" si="95"/>
-        <v>51582.828981924664</v>
+        <v>50349.681209276314</v>
       </c>
       <c r="BE29" s="17">
         <f t="shared" si="95"/>
-        <v>52614.48556156316</v>
+        <v>51356.674833461839</v>
       </c>
       <c r="BF29" s="17">
         <f t="shared" si="95"/>
-        <v>53666.775272794424</v>
+        <v>52383.808330131076</v>
       </c>
       <c r="BG29" s="17">
         <f t="shared" si="95"/>
-        <v>54740.110778250317</v>
+        <v>53431.484496733698</v>
       </c>
       <c r="BH29" s="17">
         <f t="shared" si="95"/>
-        <v>55834.912993815327</v>
+        <v>54500.114186668376</v>
       </c>
       <c r="BI29" s="17">
         <f t="shared" si="95"/>
-        <v>56951.611253691633</v>
+        <v>55590.116470401743</v>
       </c>
       <c r="BJ29" s="17">
         <f t="shared" si="95"/>
-        <v>58090.643478765465</v>
+        <v>56701.918799809777</v>
       </c>
       <c r="BK29" s="17">
         <f t="shared" si="95"/>
-        <v>59252.456348340776</v>
+        <v>57835.957175805976</v>
       </c>
       <c r="BL29" s="17">
         <f t="shared" si="95"/>
-        <v>60437.505475307596</v>
+        <v>58992.676319322098</v>
       </c>
       <c r="BM29" s="17">
         <f t="shared" si="95"/>
-        <v>61646.255584813749</v>
+        <v>60172.529845708537</v>
       </c>
       <c r="BN29" s="17">
         <f t="shared" si="95"/>
-        <v>62879.180696510026</v>
+        <v>61375.980442622706</v>
       </c>
       <c r="BO29" s="17">
         <f t="shared" si="95"/>
-        <v>64136.76431044023</v>
+        <v>62603.500051475159</v>
       </c>
       <c r="BP29" s="17">
         <f t="shared" si="95"/>
-        <v>65419.499596649039</v>
+        <v>63855.570052504663</v>
       </c>
       <c r="BQ29" s="17">
         <f t="shared" si="95"/>
-        <v>66727.889588582024</v>
+        <v>65132.68145355476</v>
       </c>
       <c r="BR29" s="17">
         <f t="shared" si="95"/>
-        <v>68062.447380353668</v>
+        <v>66435.335082625854</v>
       </c>
       <c r="BS29" s="17">
         <f t="shared" si="95"/>
-        <v>69423.696327960744</v>
+        <v>67764.041784278379</v>
       </c>
       <c r="BT29" s="17">
         <f t="shared" si="95"/>
-        <v>70812.170254519966</v>
+        <v>69119.322619963947</v>
       </c>
       <c r="BU29" s="17">
         <f t="shared" si="95"/>
-        <v>72228.413659610364</v>
+        <v>70501.709072363228</v>
       </c>
       <c r="BV29" s="17">
         <f t="shared" si="95"/>
-        <v>73672.981932802577</v>
+        <v>71911.743253810491</v>
       </c>
       <c r="BW29" s="17">
         <f t="shared" si="95"/>
-        <v>75146.441571458636</v>
+        <v>73349.978118886705</v>
       </c>
       <c r="BX29" s="17">
         <f t="shared" si="95"/>
-        <v>76649.370402887813</v>
+        <v>74816.977681264441</v>
       </c>
       <c r="BY29" s="17">
         <f t="shared" si="95"/>
-        <v>78182.35781094557</v>
+        <v>76313.317234889735</v>
       </c>
       <c r="BZ29" s="17">
         <f t="shared" si="95"/>
-        <v>79746.004967164481</v>
+        <v>77839.583579587532</v>
       </c>
       <c r="CA29" s="17">
         <f t="shared" si="95"/>
-        <v>81340.925066507771</v>
+        <v>79396.375251179285</v>
       </c>
       <c r="CB29" s="17">
         <f t="shared" si="95"/>
-        <v>82967.743567837926</v>
+        <v>80984.302756202873</v>
       </c>
       <c r="CC29" s="17">
         <f t="shared" si="95"/>
-        <v>84627.098439194684</v>
+        <v>82603.988811326926</v>
       </c>
       <c r="CD29" s="17">
         <f t="shared" si="95"/>
-        <v>86319.640407978586</v>
+        <v>84256.068587553469</v>
       </c>
       <c r="CE29" s="17">
         <f t="shared" si="95"/>
-        <v>88046.033216138167</v>
+        <v>85941.189959304538</v>
       </c>
       <c r="CF29" s="17">
         <f t="shared" si="95"/>
-        <v>89806.953880460933</v>
+        <v>87660.013758490633</v>
       </c>
       <c r="CG29" s="17">
         <f t="shared" si="95"/>
-        <v>91603.092958070149</v>
+        <v>89413.21403366045</v>
       </c>
       <c r="CH29" s="17">
         <f t="shared" si="95"/>
-        <v>93435.154817231552</v>
+        <v>91201.478314333654</v>
       </c>
       <c r="CI29" s="17">
         <f t="shared" si="95"/>
-        <v>95303.857913576183</v>
+        <v>93025.507880620324</v>
       </c>
       <c r="CJ29" s="17">
         <f t="shared" si="95"/>
-        <v>97209.935071847707</v>
+        <v>94886.018038232738</v>
       </c>
       <c r="CK29" s="17">
         <f t="shared" si="95"/>
-        <v>99154.133773284659</v>
+        <v>96783.73839899739</v>
       </c>
       <c r="CL29" s="17">
         <f t="shared" si="95"/>
-        <v>101137.21644875035</v>
+        <v>98719.413166977334</v>
       </c>
       <c r="CM29" s="17">
         <f t="shared" si="95"/>
-        <v>103159.96077772536</v>
+        <v>100693.80143031689</v>
       </c>
       <c r="CN29" s="17">
         <f t="shared" si="95"/>
-        <v>105223.15999327987</v>
+        <v>102707.67745892322</v>
       </c>
       <c r="CO29" s="17">
         <f t="shared" si="95"/>
-        <v>107327.62319314547</v>
+        <v>104761.83100810168</v>
       </c>
       <c r="CP29" s="17">
         <f t="shared" si="95"/>
-        <v>109474.17565700838</v>
+        <v>106857.06762826371</v>
       </c>
       <c r="CQ29" s="17">
         <f t="shared" si="95"/>
-        <v>111663.65917014854</v>
+        <v>108994.20898082899</v>
       </c>
       <c r="CR29" s="9"/>
       <c r="CS29" s="9"/>
@@ -10403,7 +10495,7 @@
       <c r="CP36" s="14"/>
       <c r="CQ36" s="14"/>
     </row>
-    <row r="37" spans="2:98" ht="15">
+    <row r="37" spans="2:98" ht="13.9">
       <c r="B37" s="2" t="s">
         <v>137</v>
       </c>
@@ -10509,207 +10601,207 @@
       </c>
       <c r="AS37" s="17">
         <f>AS29*AS45</f>
-        <v>6019.9754999999996</v>
+        <v>6072.1866</v>
       </c>
       <c r="AT37" s="17">
         <f t="shared" ref="AT37:BH37" si="100">AT29*AT45</f>
-        <v>6598.598688</v>
+        <v>6447.9004560000003</v>
       </c>
       <c r="AU37" s="17">
         <f t="shared" si="100"/>
-        <v>7111.9863534719998</v>
+        <v>6948.0060162240006</v>
       </c>
       <c r="AV37" s="17">
         <f t="shared" si="100"/>
-        <v>7624.6717126272024</v>
+        <v>7445.9477744064015</v>
       </c>
       <c r="AW37" s="17">
         <f t="shared" si="100"/>
-        <v>8180.2788988720813</v>
+        <v>7986.8402810103617</v>
       </c>
       <c r="AX37" s="17">
         <f t="shared" si="100"/>
-        <v>8702.7744301491857</v>
+        <v>8494.7244430466908</v>
       </c>
       <c r="AY37" s="17">
         <f t="shared" si="100"/>
-        <v>8409.6283440810021</v>
+        <v>8208.586356544065</v>
       </c>
       <c r="AZ37" s="17">
         <f t="shared" si="100"/>
-        <v>8577.8209109626223</v>
+        <v>8372.7580836749476</v>
       </c>
       <c r="BA37" s="17">
         <f t="shared" si="100"/>
-        <v>8749.3773291818743</v>
+        <v>8540.2132453484464</v>
       </c>
       <c r="BB37" s="17">
         <f t="shared" si="100"/>
-        <v>8924.3648757655119</v>
+        <v>8711.0175102554167</v>
       </c>
       <c r="BC37" s="17">
         <f t="shared" si="100"/>
-        <v>9102.8521732808222</v>
+        <v>8885.2378604605256</v>
       </c>
       <c r="BD37" s="17">
         <f t="shared" si="100"/>
-        <v>9284.9092167464387</v>
+        <v>9062.9426176697361</v>
       </c>
       <c r="BE37" s="17">
         <f t="shared" si="100"/>
-        <v>9470.6074010813682</v>
+        <v>9244.2014700231302</v>
       </c>
       <c r="BF37" s="17">
         <f t="shared" si="100"/>
-        <v>9660.0195491029954</v>
+        <v>9429.0854994235942</v>
       </c>
       <c r="BG37" s="17">
         <f t="shared" si="100"/>
-        <v>9853.2199400850568</v>
+        <v>9617.6672094120659</v>
       </c>
       <c r="BH37" s="17">
         <f t="shared" si="100"/>
-        <v>10050.284338886759</v>
+        <v>9810.0205536003068</v>
       </c>
       <c r="BI37" s="17">
         <f t="shared" ref="BI37:CP37" si="101">BI29*BI45</f>
-        <v>10251.290025664493</v>
+        <v>10006.220964672313</v>
       </c>
       <c r="BJ37" s="17">
         <f t="shared" si="101"/>
-        <v>10456.315826177783</v>
+        <v>10206.34538396576</v>
       </c>
       <c r="BK37" s="17">
         <f t="shared" si="101"/>
-        <v>10665.442142701339</v>
+        <v>10410.472291645076</v>
       </c>
       <c r="BL37" s="17">
         <f t="shared" si="101"/>
-        <v>10878.750985555367</v>
+        <v>10618.681737477977</v>
       </c>
       <c r="BM37" s="17">
         <f t="shared" si="101"/>
-        <v>11096.326005266474</v>
+        <v>10831.055372227536</v>
       </c>
       <c r="BN37" s="17">
         <f t="shared" si="101"/>
-        <v>11318.252525371805</v>
+        <v>11047.676479672087</v>
       </c>
       <c r="BO37" s="17">
         <f t="shared" si="101"/>
-        <v>11544.617575879241</v>
+        <v>11268.630009265527</v>
       </c>
       <c r="BP37" s="17">
         <f t="shared" si="101"/>
-        <v>11775.509927396826</v>
+        <v>11494.002609450839</v>
       </c>
       <c r="BQ37" s="17">
         <f t="shared" si="101"/>
-        <v>12011.020125944764</v>
+        <v>11723.882661639856</v>
       </c>
       <c r="BR37" s="17">
         <f t="shared" si="101"/>
-        <v>12251.240528463659</v>
+        <v>11958.360314872652</v>
       </c>
       <c r="BS37" s="17">
         <f t="shared" si="101"/>
-        <v>12496.265339032934</v>
+        <v>12197.527521170108</v>
       </c>
       <c r="BT37" s="17">
         <f t="shared" si="101"/>
-        <v>12746.190645813593</v>
+        <v>12441.47807159351</v>
       </c>
       <c r="BU37" s="17">
         <f t="shared" si="101"/>
-        <v>13001.114458729864</v>
+        <v>12690.307633025381</v>
       </c>
       <c r="BV37" s="17">
         <f t="shared" si="101"/>
-        <v>13261.136747904464</v>
+        <v>12944.113785685888</v>
       </c>
       <c r="BW37" s="17">
         <f t="shared" si="101"/>
-        <v>13526.359482862554</v>
+        <v>13202.996061399606</v>
       </c>
       <c r="BX37" s="17">
         <f t="shared" si="101"/>
-        <v>13796.886672519806</v>
+        <v>13467.055982627598</v>
       </c>
       <c r="BY37" s="17">
         <f t="shared" si="101"/>
-        <v>14072.824405970203</v>
+        <v>13736.397102280152</v>
       </c>
       <c r="BZ37" s="17">
         <f t="shared" si="101"/>
-        <v>14354.280894089607</v>
+        <v>14011.125044325756</v>
       </c>
       <c r="CA37" s="17">
         <f t="shared" si="101"/>
-        <v>14641.366511971399</v>
+        <v>14291.347545212271</v>
       </c>
       <c r="CB37" s="17">
         <f t="shared" si="101"/>
-        <v>14934.193842210827</v>
+        <v>14577.174496116517</v>
       </c>
       <c r="CC37" s="17">
         <f t="shared" si="101"/>
-        <v>15232.877719055043</v>
+        <v>14868.717986038846</v>
       </c>
       <c r="CD37" s="17">
         <f t="shared" si="101"/>
-        <v>15537.535273436144</v>
+        <v>15166.092345759624</v>
       </c>
       <c r="CE37" s="17">
         <f t="shared" si="101"/>
-        <v>15848.285978904869</v>
+        <v>15469.414192674816</v>
       </c>
       <c r="CF37" s="17">
         <f t="shared" si="101"/>
-        <v>16165.251698482967</v>
+        <v>15778.802476528313</v>
       </c>
       <c r="CG37" s="17">
         <f t="shared" si="101"/>
-        <v>16488.556732452627</v>
+        <v>16094.378526058881</v>
       </c>
       <c r="CH37" s="17">
         <f t="shared" si="101"/>
-        <v>16818.327867101678</v>
+        <v>16416.266096580057</v>
       </c>
       <c r="CI37" s="17">
         <f t="shared" si="101"/>
-        <v>17154.694424443711</v>
+        <v>16744.591418511656</v>
       </c>
       <c r="CJ37" s="17">
         <f t="shared" si="101"/>
-        <v>17497.788312932586</v>
+        <v>17079.483246881893</v>
       </c>
       <c r="CK37" s="17">
         <f t="shared" si="101"/>
-        <v>17847.744079191238</v>
+        <v>17421.07291181953</v>
       </c>
       <c r="CL37" s="17">
         <f t="shared" si="101"/>
-        <v>18204.698960775062</v>
+        <v>17769.49437005592</v>
       </c>
       <c r="CM37" s="17">
         <f t="shared" si="101"/>
-        <v>18568.792939990562</v>
+        <v>18124.884257457041</v>
       </c>
       <c r="CN37" s="17">
         <f t="shared" si="101"/>
-        <v>18940.168798790375</v>
+        <v>18487.381942606178</v>
       </c>
       <c r="CO37" s="17">
         <f t="shared" si="101"/>
-        <v>19318.972174766182</v>
+        <v>18857.129581458303</v>
       </c>
       <c r="CP37" s="17">
         <f t="shared" si="101"/>
-        <v>19705.351618261509</v>
+        <v>19234.272173087469</v>
       </c>
       <c r="CQ37" s="17">
         <f>CQ29*CQ45</f>
-        <v>20099.458650626737</v>
+        <v>19618.957616549218</v>
       </c>
       <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
@@ -11103,210 +11195,210 @@
       </c>
       <c r="AS40" s="14">
         <f>AS37*0.18</f>
-        <v>1083.5955899999999</v>
+        <v>1092.993588</v>
       </c>
       <c r="AT40" s="14">
         <f t="shared" ref="AT40:BM40" si="104">AT37*0.18</f>
-        <v>1187.7477638400001</v>
+        <v>1160.6220820799999</v>
       </c>
       <c r="AU40" s="14">
         <f t="shared" si="104"/>
-        <v>1280.15754362496</v>
+        <v>1250.6410829203201</v>
       </c>
       <c r="AV40" s="14">
         <f t="shared" si="104"/>
-        <v>1372.4409082728964</v>
+        <v>1340.2705993931522</v>
       </c>
       <c r="AW40" s="14">
         <f t="shared" si="104"/>
-        <v>1472.4502017969746</v>
+        <v>1437.6312505818651</v>
       </c>
       <c r="AX40" s="14">
         <f t="shared" si="104"/>
-        <v>1566.4993974268534</v>
+        <v>1529.0503997484043</v>
       </c>
       <c r="AY40" s="14">
         <f t="shared" si="104"/>
-        <v>1513.7331019345804</v>
+        <v>1477.5455441779316</v>
       </c>
       <c r="AZ40" s="14">
         <f t="shared" si="104"/>
-        <v>1544.0077639732719</v>
+        <v>1507.0964550614906</v>
       </c>
       <c r="BA40" s="14">
         <f t="shared" si="104"/>
-        <v>1574.8879192527372</v>
+        <v>1537.2383841627202</v>
       </c>
       <c r="BB40" s="14">
         <f t="shared" si="104"/>
-        <v>1606.385677637792</v>
+        <v>1567.983151845975</v>
       </c>
       <c r="BC40" s="14">
         <f t="shared" si="104"/>
-        <v>1638.513391190548</v>
+        <v>1599.3428148828946</v>
       </c>
       <c r="BD40" s="14">
         <f t="shared" si="104"/>
-        <v>1671.2836590143588</v>
+        <v>1631.3296711805524</v>
       </c>
       <c r="BE40" s="14">
         <f t="shared" si="104"/>
-        <v>1704.7093321946461</v>
+        <v>1663.9562646041634</v>
       </c>
       <c r="BF40" s="14">
         <f t="shared" si="104"/>
-        <v>1738.803518838539</v>
+        <v>1697.2353898962469</v>
       </c>
       <c r="BG40" s="14">
         <f t="shared" si="104"/>
-        <v>1773.5795892153101</v>
+        <v>1731.1800976941718</v>
       </c>
       <c r="BH40" s="14">
         <f t="shared" si="104"/>
-        <v>1809.0511809996165</v>
+        <v>1765.8036996480553</v>
       </c>
       <c r="BI40" s="14">
         <f t="shared" si="104"/>
-        <v>1845.2322046196086</v>
+        <v>1801.1197736410163</v>
       </c>
       <c r="BJ40" s="14">
         <f t="shared" si="104"/>
-        <v>1882.1368487120008</v>
+        <v>1837.1421691138366</v>
       </c>
       <c r="BK40" s="14">
         <f t="shared" si="104"/>
-        <v>1919.7795856862408</v>
+        <v>1873.8850124961136</v>
       </c>
       <c r="BL40" s="14">
         <f t="shared" si="104"/>
-        <v>1958.1751773999661</v>
+        <v>1911.3627127460356</v>
       </c>
       <c r="BM40" s="14">
         <f t="shared" si="104"/>
-        <v>1997.3386809479653</v>
+        <v>1949.5899670009564</v>
       </c>
       <c r="BN40" s="14">
         <f t="shared" ref="BN40:BT40" si="105">BN37*0.18</f>
-        <v>2037.2854545669247</v>
+        <v>1988.5817663409757</v>
       </c>
       <c r="BO40" s="14">
         <f t="shared" si="105"/>
-        <v>2078.0311636582633</v>
+        <v>2028.353401667795</v>
       </c>
       <c r="BP40" s="14">
         <f t="shared" si="105"/>
-        <v>2119.5917869314285</v>
+        <v>2068.920469701151</v>
       </c>
       <c r="BQ40" s="14">
         <f t="shared" si="105"/>
-        <v>2161.9836226700572</v>
+        <v>2110.298879095174</v>
       </c>
       <c r="BR40" s="14">
         <f t="shared" si="105"/>
-        <v>2205.2232951234587</v>
+        <v>2152.5048566770774</v>
       </c>
       <c r="BS40" s="14">
         <f t="shared" si="105"/>
-        <v>2249.3277610259279</v>
+        <v>2195.5549538106193</v>
       </c>
       <c r="BT40" s="14">
         <f t="shared" si="105"/>
-        <v>2294.3143162464467</v>
+        <v>2239.4660528868317</v>
       </c>
       <c r="BU40" s="14">
         <f t="shared" ref="BU40:CB40" si="106">BU37*0.18</f>
-        <v>2340.2006025713754</v>
+        <v>2284.2553739445684</v>
       </c>
       <c r="BV40" s="14">
         <f t="shared" si="106"/>
-        <v>2387.0046146228033</v>
+        <v>2329.9404814234599</v>
       </c>
       <c r="BW40" s="14">
         <f t="shared" si="106"/>
-        <v>2434.7447069152595</v>
+        <v>2376.539291051929</v>
       </c>
       <c r="BX40" s="14">
         <f t="shared" si="106"/>
-        <v>2483.4396010535652</v>
+        <v>2424.0700768729675</v>
       </c>
       <c r="BY40" s="14">
         <f t="shared" si="106"/>
-        <v>2533.1083930746363</v>
+        <v>2472.5514784104275</v>
       </c>
       <c r="BZ40" s="14">
         <f t="shared" si="106"/>
-        <v>2583.7705609361292</v>
+        <v>2522.002507978636</v>
       </c>
       <c r="CA40" s="14">
         <f t="shared" si="106"/>
-        <v>2635.4459721548515</v>
+        <v>2572.4425581382088</v>
       </c>
       <c r="CB40" s="14">
         <f t="shared" si="106"/>
-        <v>2688.1548915979488</v>
+        <v>2623.891409300973</v>
       </c>
       <c r="CC40" s="14">
         <f t="shared" ref="CC40:CG40" si="107">CC37*0.18</f>
-        <v>2741.9179894299077</v>
+        <v>2676.369237486992</v>
       </c>
       <c r="CD40" s="14">
         <f t="shared" si="107"/>
-        <v>2796.7563492185059</v>
+        <v>2729.8966222367321</v>
       </c>
       <c r="CE40" s="14">
         <f t="shared" si="107"/>
-        <v>2852.6914762028764</v>
+        <v>2784.494554681467</v>
       </c>
       <c r="CF40" s="14">
         <f t="shared" si="107"/>
-        <v>2909.745305726934</v>
+        <v>2840.1844457750963</v>
       </c>
       <c r="CG40" s="14">
         <f t="shared" si="107"/>
-        <v>2967.9402118414728</v>
+        <v>2896.9881346905986</v>
       </c>
       <c r="CH40" s="14">
         <f t="shared" ref="CH40:CQ40" si="108">CH37*0.18</f>
-        <v>3027.299016078302</v>
+        <v>2954.9278973844102</v>
       </c>
       <c r="CI40" s="14">
         <f t="shared" si="108"/>
-        <v>3087.8449963998678</v>
+        <v>3014.0264553320981</v>
       </c>
       <c r="CJ40" s="14">
         <f t="shared" si="108"/>
-        <v>3149.6018963278652</v>
+        <v>3074.3069844387405</v>
       </c>
       <c r="CK40" s="14">
         <f t="shared" si="108"/>
-        <v>3212.5939342544225</v>
+        <v>3135.7931241275155</v>
       </c>
       <c r="CL40" s="14">
         <f t="shared" si="108"/>
-        <v>3276.8458129395112</v>
+        <v>3198.5089866100652</v>
       </c>
       <c r="CM40" s="14">
         <f t="shared" si="108"/>
-        <v>3342.3827291983011</v>
+        <v>3262.479166342267</v>
       </c>
       <c r="CN40" s="14">
         <f t="shared" si="108"/>
-        <v>3409.2303837822674</v>
+        <v>3327.7287496691119</v>
       </c>
       <c r="CO40" s="14">
         <f t="shared" si="108"/>
-        <v>3477.4149914579125</v>
+        <v>3394.2833246624946</v>
       </c>
       <c r="CP40" s="14">
         <f t="shared" si="108"/>
-        <v>3546.9632912870716</v>
+        <v>3462.1689911557442</v>
       </c>
       <c r="CQ40" s="14">
         <f t="shared" si="108"/>
-        <v>3617.9025571128127</v>
-      </c>
-    </row>
-    <row r="41" spans="2:98" ht="15">
+        <v>3531.4123709788591</v>
+      </c>
+    </row>
+    <row r="41" spans="2:98" ht="13.9">
       <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
@@ -11412,207 +11504,207 @@
       </c>
       <c r="AS41" s="17">
         <f>AS37-AS40</f>
-        <v>4936.3799099999997</v>
+        <v>4979.1930119999997</v>
       </c>
       <c r="AT41" s="14">
         <f t="shared" ref="AT41:BM41" si="111">AT37-AT40</f>
-        <v>5410.8509241600004</v>
+        <v>5287.2783739200004</v>
       </c>
       <c r="AU41" s="14">
         <f t="shared" si="111"/>
-        <v>5831.8288098470402</v>
+        <v>5697.364933303681</v>
       </c>
       <c r="AV41" s="14">
         <f t="shared" si="111"/>
-        <v>6252.2308043543062</v>
+        <v>6105.6771750132493</v>
       </c>
       <c r="AW41" s="14">
         <f t="shared" si="111"/>
-        <v>6707.8286970751069</v>
+        <v>6549.2090304284966</v>
       </c>
       <c r="AX41" s="14">
         <f t="shared" si="111"/>
-        <v>7136.2750327223321</v>
+        <v>6965.6740432982861</v>
       </c>
       <c r="AY41" s="14">
         <f t="shared" si="111"/>
-        <v>6895.8952421464219</v>
+        <v>6731.0408123661337</v>
       </c>
       <c r="AZ41" s="14">
         <f t="shared" si="111"/>
-        <v>7033.8131469893506</v>
+        <v>6865.6616286134567</v>
       </c>
       <c r="BA41" s="14">
         <f t="shared" si="111"/>
-        <v>7174.4894099291369</v>
+        <v>7002.9748611857267</v>
       </c>
       <c r="BB41" s="14">
         <f t="shared" si="111"/>
-        <v>7317.9791981277194</v>
+        <v>7143.0343584094417</v>
       </c>
       <c r="BC41" s="14">
         <f t="shared" si="111"/>
-        <v>7464.3387820902744</v>
+        <v>7285.8950455776312</v>
       </c>
       <c r="BD41" s="14">
         <f t="shared" si="111"/>
-        <v>7613.6255577320799</v>
+        <v>7431.6129464891837</v>
       </c>
       <c r="BE41" s="14">
         <f t="shared" si="111"/>
-        <v>7765.8980688867223</v>
+        <v>7580.2452054189671</v>
       </c>
       <c r="BF41" s="14">
         <f t="shared" si="111"/>
-        <v>7921.2160302644561</v>
+        <v>7731.8501095273477</v>
       </c>
       <c r="BG41" s="14">
         <f t="shared" si="111"/>
-        <v>8079.6403508697467</v>
+        <v>7886.4871117178936</v>
       </c>
       <c r="BH41" s="14">
         <f t="shared" si="111"/>
-        <v>8241.2331578871417</v>
+        <v>8044.2168539522518</v>
       </c>
       <c r="BI41" s="14">
         <f t="shared" si="111"/>
-        <v>8406.0578210448839</v>
+        <v>8205.1011910312973</v>
       </c>
       <c r="BJ41" s="14">
         <f t="shared" si="111"/>
-        <v>8574.1789774657809</v>
+        <v>8369.2032148519229</v>
       </c>
       <c r="BK41" s="14">
         <f t="shared" si="111"/>
-        <v>8745.6625570150973</v>
+        <v>8536.5872791489619</v>
       </c>
       <c r="BL41" s="14">
         <f t="shared" si="111"/>
-        <v>8920.5758081554013</v>
+        <v>8707.3190247319417</v>
       </c>
       <c r="BM41" s="14">
         <f t="shared" si="111"/>
-        <v>9098.9873243185084</v>
+        <v>8881.4654052265796</v>
       </c>
       <c r="BN41" s="14">
         <f t="shared" ref="BN41" si="112">BN37-BN40</f>
-        <v>9280.9670708048798</v>
+        <v>9059.0947133311111</v>
       </c>
       <c r="BO41" s="14">
         <f t="shared" ref="BO41" si="113">BO37-BO40</f>
-        <v>9466.5864122209787</v>
+        <v>9240.2766075977324</v>
       </c>
       <c r="BP41" s="14">
         <f t="shared" ref="BP41" si="114">BP37-BP40</f>
-        <v>9655.9181404653973</v>
+        <v>9425.0821397496875</v>
       </c>
       <c r="BQ41" s="14">
         <f t="shared" ref="BQ41" si="115">BQ37-BQ40</f>
-        <v>9849.0365032747068</v>
+        <v>9613.5837825446833</v>
       </c>
       <c r="BR41" s="14">
         <f t="shared" ref="BR41" si="116">BR37-BR40</f>
-        <v>10046.017233340201</v>
+        <v>9805.8554581955759</v>
       </c>
       <c r="BS41" s="14">
         <f t="shared" ref="BS41" si="117">BS37-BS40</f>
-        <v>10246.937578007006</v>
+        <v>10001.972567359489</v>
       </c>
       <c r="BT41" s="14">
         <f t="shared" ref="BT41" si="118">BT37-BT40</f>
-        <v>10451.876329567145</v>
+        <v>10202.012018706679</v>
       </c>
       <c r="BU41" s="14">
         <f t="shared" ref="BU41" si="119">BU37-BU40</f>
-        <v>10660.913856158488</v>
+        <v>10406.052259080812</v>
       </c>
       <c r="BV41" s="14">
         <f t="shared" ref="BV41" si="120">BV37-BV40</f>
-        <v>10874.132133281661</v>
+        <v>10614.173304262427</v>
       </c>
       <c r="BW41" s="14">
         <f t="shared" ref="BW41" si="121">BW37-BW40</f>
-        <v>11091.614775947295</v>
+        <v>10826.456770347677</v>
       </c>
       <c r="BX41" s="14">
         <f t="shared" ref="BX41" si="122">BX37-BX40</f>
-        <v>11313.44707146624</v>
+        <v>11042.985905754631</v>
       </c>
       <c r="BY41" s="14">
         <f t="shared" ref="BY41" si="123">BY37-BY40</f>
-        <v>11539.716012895566</v>
+        <v>11263.845623869725</v>
       </c>
       <c r="BZ41" s="14">
         <f t="shared" ref="BZ41" si="124">BZ37-BZ40</f>
-        <v>11770.510333153477</v>
+        <v>11489.12253634712</v>
       </c>
       <c r="CA41" s="14">
         <f t="shared" ref="CA41" si="125">CA37-CA40</f>
-        <v>12005.920539816547</v>
+        <v>11718.904987074062</v>
       </c>
       <c r="CB41" s="14">
         <f t="shared" ref="CB41" si="126">CB37-CB40</f>
-        <v>12246.038950612878</v>
+        <v>11953.283086815543</v>
       </c>
       <c r="CC41" s="14">
         <f t="shared" ref="CC41" si="127">CC37-CC40</f>
-        <v>12490.959729625134</v>
+        <v>12192.348748551854</v>
       </c>
       <c r="CD41" s="14">
         <f t="shared" ref="CD41" si="128">CD37-CD40</f>
-        <v>12740.778924217639</v>
+        <v>12436.195723522891</v>
       </c>
       <c r="CE41" s="14">
         <f t="shared" ref="CE41" si="129">CE37-CE40</f>
-        <v>12995.594502701992</v>
+        <v>12684.919637993349</v>
       </c>
       <c r="CF41" s="14">
         <f t="shared" ref="CF41" si="130">CF37-CF40</f>
-        <v>13255.506392756033</v>
+        <v>12938.618030753218</v>
       </c>
       <c r="CG41" s="14">
         <f t="shared" ref="CG41" si="131">CG37-CG40</f>
-        <v>13520.616520611155</v>
+        <v>13197.390391368283</v>
       </c>
       <c r="CH41" s="14">
         <f t="shared" ref="CH41" si="132">CH37-CH40</f>
-        <v>13791.028851023377</v>
+        <v>13461.338199195647</v>
       </c>
       <c r="CI41" s="14">
         <f t="shared" ref="CI41" si="133">CI37-CI40</f>
-        <v>14066.849428043843</v>
+        <v>13730.564963179559</v>
       </c>
       <c r="CJ41" s="14">
         <f t="shared" ref="CJ41" si="134">CJ37-CJ40</f>
-        <v>14348.18641660472</v>
+        <v>14005.176262443152</v>
       </c>
       <c r="CK41" s="14">
         <f t="shared" ref="CK41" si="135">CK37-CK40</f>
-        <v>14635.150144936815</v>
+        <v>14285.279787692016</v>
       </c>
       <c r="CL41" s="14">
         <f t="shared" ref="CL41" si="136">CL37-CL40</f>
-        <v>14927.853147835551</v>
+        <v>14570.985383445855</v>
       </c>
       <c r="CM41" s="14">
         <f t="shared" ref="CM41" si="137">CM37-CM40</f>
-        <v>15226.410210792261</v>
+        <v>14862.405091114773</v>
       </c>
       <c r="CN41" s="14">
         <f t="shared" ref="CN41" si="138">CN37-CN40</f>
-        <v>15530.938415008108</v>
+        <v>15159.653192937067</v>
       </c>
       <c r="CO41" s="14">
         <f t="shared" ref="CO41" si="139">CO37-CO40</f>
-        <v>15841.55718330827</v>
+        <v>15462.846256795809</v>
       </c>
       <c r="CP41" s="14">
         <f t="shared" ref="CP41" si="140">CP37-CP40</f>
-        <v>16158.388326974438</v>
+        <v>15772.103181931725</v>
       </c>
       <c r="CQ41" s="14">
         <f t="shared" ref="CQ41" si="141">CQ37-CQ40</f>
-        <v>16481.556093513926</v>
+        <v>16087.54524557036</v>
       </c>
     </row>
     <row r="42" spans="2:98">
@@ -12013,207 +12105,207 @@
       </c>
       <c r="AS43" s="14">
         <f>AS41/AS42</f>
-        <v>5.0301930096295919</v>
+        <v>5.0738197503439144</v>
       </c>
       <c r="AT43" s="14">
         <f t="shared" ref="AT43:BM43" si="147">AT41/AT42</f>
-        <v>5.8038748170860242</v>
+        <v>5.671326420822016</v>
       </c>
       <c r="AU43" s="14">
         <f t="shared" si="147"/>
-        <v>6.5846641637701486</v>
+        <v>6.4328422399678455</v>
       </c>
       <c r="AV43" s="14">
         <f t="shared" si="147"/>
-        <v>7.4308801909415019</v>
+        <v>7.2566987675009909</v>
       </c>
       <c r="AW43" s="14">
         <f t="shared" si="147"/>
-        <v>8.3919640590919364</v>
+        <v>8.1935197335616898</v>
       </c>
       <c r="AX43" s="14">
         <f t="shared" si="147"/>
-        <v>9.397874176877334</v>
+        <v>9.1732070184919969</v>
       </c>
       <c r="AY43" s="14">
         <f t="shared" si="147"/>
-        <v>9.5592781101090232</v>
+        <v>9.3307524021890895</v>
       </c>
       <c r="AZ43" s="14">
         <f t="shared" si="147"/>
-        <v>10.263645970853899</v>
+        <v>10.018281526560918</v>
       </c>
       <c r="BA43" s="14">
         <f t="shared" si="147"/>
-        <v>11.019914621337868</v>
+        <v>10.756470691675935</v>
       </c>
       <c r="BB43" s="14">
         <f t="shared" si="147"/>
-        <v>11.831908330278555</v>
+        <v>11.54905274264153</v>
       </c>
       <c r="BC43" s="14">
         <f t="shared" si="147"/>
-        <v>12.70373315461487</v>
+        <v>12.400035576309854</v>
       </c>
       <c r="BD43" s="14">
         <f t="shared" si="147"/>
-        <v>13.63979770284965</v>
+        <v>13.313722408248475</v>
       </c>
       <c r="BE43" s="14">
         <f t="shared" si="147"/>
-        <v>14.644835428322784</v>
+        <v>14.294733533066784</v>
       </c>
       <c r="BF43" s="14">
         <f t="shared" si="147"/>
-        <v>15.723928565146567</v>
+        <v>15.348029688134865</v>
       </c>
       <c r="BG43" s="14">
         <f t="shared" si="147"/>
-        <v>16.882533827841581</v>
+        <v>16.478937138839537</v>
       </c>
       <c r="BH43" s="14">
         <f t="shared" si="147"/>
-        <v>18.12651000462991</v>
+        <v>17.693174612227715</v>
       </c>
       <c r="BI43" s="14">
         <f t="shared" si="147"/>
-        <v>19.46214758391843</v>
+        <v>18.99688221523397</v>
       </c>
       <c r="BJ43" s="14">
         <f t="shared" si="147"/>
-        <v>20.896200563786103</v>
+        <v>20.396652483724896</v>
       </c>
       <c r="BK43" s="14">
         <f t="shared" si="147"/>
-        <v>22.435920605328239</v>
+        <v>21.899563719367784</v>
       </c>
       <c r="BL43" s="14">
         <f t="shared" si="147"/>
-        <v>24.089093702562959</v>
+        <v>23.513215782900151</v>
       </c>
       <c r="BM43" s="14">
         <f t="shared" si="147"/>
-        <v>25.864079554330754</v>
+        <v>25.245768524798056</v>
       </c>
       <c r="BN43" s="14">
         <f t="shared" ref="BN43" si="148">BN41/BN42</f>
-        <v>27.769853837281445</v>
+        <v>27.105983047677913</v>
       </c>
       <c r="BO43" s="14">
         <f t="shared" ref="BO43" si="149">BO41/BO42</f>
-        <v>29.816053593712716</v>
+        <v>29.103266009085758</v>
       </c>
       <c r="BP43" s="14">
         <f t="shared" ref="BP43" si="150">BP41/BP42</f>
-        <v>32.013025963775753</v>
+        <v>31.247717188702605</v>
       </c>
       <c r="BQ43" s="14">
         <f t="shared" ref="BQ43" si="151">BQ41/BQ42</f>
-        <v>34.371880508475023</v>
+        <v>33.550180560501751</v>
       </c>
       <c r="BR43" s="14">
         <f t="shared" ref="BR43" si="152">BR41/BR42</f>
-        <v>36.90454538804687</v>
+        <v>36.022299128117666</v>
       </c>
       <c r="BS43" s="14">
         <f t="shared" ref="BS43" si="153">BS41/BS42</f>
-        <v>39.623827679797706</v>
+        <v>38.676573800715829</v>
       </c>
       <c r="BT43" s="14">
         <f t="shared" ref="BT43" si="154">BT41/BT42</f>
-        <v>42.543478140414379</v>
+        <v>41.52642660708436</v>
       </c>
       <c r="BU43" s="14">
         <f t="shared" ref="BU43" si="155">BU41/BU42</f>
-        <v>45.678260740234386</v>
+        <v>44.586268567606368</v>
       </c>
       <c r="BV43" s="14">
         <f t="shared" ref="BV43" si="156">BV41/BV42</f>
-        <v>49.044027321093779</v>
+        <v>47.871572567324733</v>
       </c>
       <c r="BW43" s="14">
         <f t="shared" ref="BW43" si="157">BW41/BW42</f>
-        <v>52.657797755279645</v>
+        <v>51.3989515986013</v>
       </c>
       <c r="BX43" s="14">
         <f t="shared" ref="BX43" si="158">BX41/BX42</f>
-        <v>56.53784601093183</v>
+        <v>55.18624276902456</v>
       </c>
       <c r="BY43" s="14">
         <f t="shared" ref="BY43" si="159">BY41/BY42</f>
-        <v>60.703792559105764</v>
+        <v>59.252597499373756</v>
       </c>
       <c r="BZ43" s="14">
         <f t="shared" ref="BZ43" si="160">BZ41/BZ42</f>
-        <v>65.176703589776722</v>
+        <v>63.618578367748668</v>
       </c>
       <c r="CA43" s="14">
         <f t="shared" ref="CA43" si="161">CA41/CA42</f>
-        <v>69.979197538497104</v>
+        <v>68.306263089582771</v>
       </c>
       <c r="CB43" s="14">
         <f t="shared" ref="CB43" si="162">CB41/CB42</f>
-        <v>75.135559462386368</v>
+        <v>73.339356159341506</v>
       </c>
       <c r="CC43" s="14">
         <f t="shared" ref="CC43" si="163">CC41/CC42</f>
-        <v>80.671863843825363</v>
+        <v>78.743308718450891</v>
       </c>
       <c r="CD43" s="14">
         <f t="shared" ref="CD43" si="164">CD41/CD42</f>
-        <v>86.616106442844085</v>
+        <v>84.545447255599896</v>
       </c>
       <c r="CE43" s="14">
         <f t="shared" ref="CE43" si="165">CE41/CE42</f>
-        <v>92.998345864948391</v>
+        <v>90.77511179022305</v>
       </c>
       <c r="CF43" s="14">
         <f t="shared" ref="CF43" si="166">CF41/CF42</f>
-        <v>99.850855560260399</v>
+        <v>97.463804237923725</v>
       </c>
       <c r="CG43" s="14">
         <f t="shared" ref="CG43" si="167">CG41/CG42</f>
-        <v>107.2082870225954</v>
+        <v>104.64534770808653</v>
       </c>
       <c r="CH43" s="14">
         <f t="shared" ref="CH43" si="168">CH41/CH42</f>
-        <v>115.10784501373401</v>
+        <v>112.35605753920869</v>
       </c>
       <c r="CI43" s="14">
         <f t="shared" ref="CI43" si="169">CI41/CI42</f>
-        <v>123.58947569895649</v>
+        <v>120.63492493683459</v>
       </c>
       <c r="CJ43" s="14">
         <f t="shared" ref="CJ43" si="170">CJ41/CJ42</f>
-        <v>132.6960686451954</v>
+        <v>129.52381414270664</v>
       </c>
       <c r="CK43" s="14">
         <f t="shared" ref="CK43" si="171">CK41/CK42</f>
-        <v>142.47367370326245</v>
+        <v>139.06767413216926</v>
       </c>
       <c r="CL43" s="14">
         <f t="shared" ref="CL43" si="172">CL41/CL42</f>
-        <v>152.97173387087128</v>
+        <v>149.3147659103291</v>
       </c>
       <c r="CM43" s="14">
         <f t="shared" ref="CM43" si="173">CM41/CM42</f>
-        <v>164.2433353139881</v>
+        <v>160.31690655635336</v>
       </c>
       <c r="CN43" s="14">
         <f t="shared" ref="CN43" si="174">CN41/CN42</f>
-        <v>176.3454758108083</v>
+        <v>172.12973124997936</v>
       </c>
       <c r="CO43" s="14">
         <f t="shared" ref="CO43" si="175">CO41/CO42</f>
-        <v>189.33935297581522</v>
+        <v>184.81297460524101</v>
       </c>
       <c r="CP43" s="14">
         <f t="shared" ref="CP43" si="176">CP41/CP42</f>
-        <v>203.29067372140165</v>
+        <v>198.43077273404825</v>
       </c>
       <c r="CQ43" s="14">
         <f t="shared" ref="CQ43" si="177">CQ41/CQ42</f>
-        <v>218.26998652192597</v>
+        <v>213.05198756708342</v>
       </c>
     </row>
     <row r="44" spans="2:98">
@@ -12269,7 +12361,7 @@
       <c r="CP44" s="14"/>
       <c r="CQ44" s="14"/>
     </row>
-    <row r="45" spans="2:98" ht="15">
+    <row r="45" spans="2:98" ht="13.9">
       <c r="B45" s="2" t="s">
         <v>138</v>
       </c>
@@ -12374,7 +12466,7 @@
         <v>0.16746862911595434</v>
       </c>
       <c r="AS45" s="20">
-        <v>0.17499999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="AT45" s="20">
         <v>0.18</v>
@@ -12668,7 +12760,7 @@
       <c r="CP46" s="14"/>
       <c r="CQ46" s="14"/>
     </row>
-    <row r="47" spans="2:98" ht="15">
+    <row r="47" spans="2:98" ht="13.9">
       <c r="B47" s="2" t="s">
         <v>70</v>
       </c>
@@ -13321,7 +13413,7 @@
       </c>
       <c r="AU52" s="17">
         <f>NPV(AU50,AS41:CQ41)</f>
-        <v>88051.794842338146</v>
+        <v>86107.083930199835</v>
       </c>
       <c r="AV52" s="14"/>
       <c r="AW52" s="14"/>
@@ -13544,7 +13636,7 @@
       </c>
       <c r="AU54" s="18">
         <f>AU52/AU53</f>
-        <v>89.031137353223599</v>
+        <v>87.06479669383198</v>
       </c>
       <c r="AV54" s="14"/>
       <c r="AW54" s="19"/>
@@ -13765,7 +13857,7 @@
       <c r="AT56" s="14"/>
       <c r="AU56" s="16">
         <f>AU54/AU55-1</f>
-        <v>0.42290454456166859</v>
+        <v>0.39147829141492685</v>
       </c>
       <c r="AV56" s="14" t="str">
         <f>IF(AU56&gt;0,"Upside","Downside")</f>
@@ -13877,8 +13969,6 @@
       <c r="AS57" s="14"/>
       <c r="AT57" s="14"/>
       <c r="AU57" s="14"/>
-      <c r="AV57" s="14"/>
-      <c r="AW57" s="14"/>
       <c r="AX57" s="14"/>
       <c r="AY57" s="14"/>
       <c r="AZ57" s="14"/>
@@ -13984,8 +14074,6 @@
       <c r="AS58" s="14"/>
       <c r="AT58" s="14"/>
       <c r="AU58" s="14"/>
-      <c r="AV58" s="14"/>
-      <c r="AW58" s="14"/>
       <c r="AX58" s="14"/>
       <c r="AY58" s="14"/>
       <c r="AZ58" s="14"/>
@@ -14091,8 +14179,6 @@
       <c r="AS59" s="14"/>
       <c r="AT59" s="14"/>
       <c r="AU59" s="14"/>
-      <c r="AV59" s="14"/>
-      <c r="AW59" s="14"/>
       <c r="AX59" s="14"/>
       <c r="AY59" s="14"/>
       <c r="AZ59" s="14"/>
@@ -14198,8 +14284,6 @@
       <c r="AS60" s="14"/>
       <c r="AT60" s="14"/>
       <c r="AU60" s="14"/>
-      <c r="AV60" s="14"/>
-      <c r="AW60" s="14"/>
       <c r="AX60" s="14"/>
       <c r="AY60" s="14"/>
       <c r="AZ60" s="14"/>
@@ -14305,8 +14389,6 @@
       <c r="AS61" s="14"/>
       <c r="AT61" s="14"/>
       <c r="AU61" s="14"/>
-      <c r="AV61" s="14"/>
-      <c r="AW61" s="14"/>
       <c r="AX61" s="14"/>
       <c r="AY61" s="14"/>
       <c r="AZ61" s="14"/>
@@ -14354,7 +14436,7 @@
       <c r="CP61" s="14"/>
       <c r="CQ61" s="14"/>
     </row>
-    <row r="62" spans="2:95" ht="15">
+    <row r="62" spans="2:95" ht="13.9">
       <c r="B62" s="2" t="s">
         <v>79</v>
       </c>
@@ -14768,7 +14850,7 @@
         <v>9879</v>
       </c>
     </row>
-    <row r="69" spans="1:44" ht="15">
+    <row r="69" spans="1:44" ht="13.9">
       <c r="B69" s="2" t="s">
         <v>112</v>
       </c>
@@ -14897,7 +14979,7 @@
         <v>20417</v>
       </c>
     </row>
-    <row r="71" spans="1:44" ht="15">
+    <row r="71" spans="1:44" ht="13.9">
       <c r="B71" s="2" t="s">
         <v>110</v>
       </c>
@@ -16233,7 +16315,7 @@
         <v>-558</v>
       </c>
     </row>
-    <row r="86" spans="2:44" ht="15">
+    <row r="86" spans="2:44" ht="13.9">
       <c r="B86" s="2" t="s">
         <v>163</v>
       </c>
@@ -16546,7 +16628,7 @@
         <v>-682</v>
       </c>
     </row>
-    <row r="90" spans="2:44" ht="15">
+    <row r="90" spans="2:44" ht="13.9">
       <c r="B90" s="2" t="s">
         <v>165</v>
       </c>
@@ -16963,31 +17045,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955662-3904-47FE-BB6C-F0C83886CFDD}">
   <dimension ref="B2:DX257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="90" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2:AX2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="9.1328125" style="1"/>
+    <col min="10" max="10" width="9.1328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="3.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="43" width="9.140625" style="1"/>
+    <col min="12" max="15" width="9.1328125" style="1"/>
+    <col min="16" max="16" width="3.265625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="43" width="9.1328125" style="1"/>
     <col min="44" max="44" width="13" style="1" customWidth="1"/>
-    <col min="45" max="45" width="9.140625" style="1"/>
-    <col min="46" max="46" width="9.28515625" style="1" customWidth="1"/>
-    <col min="47" max="52" width="9.140625" style="1"/>
-    <col min="53" max="53" width="10.85546875" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="1"/>
+    <col min="45" max="45" width="9.1328125" style="1"/>
+    <col min="46" max="46" width="9.265625" style="1" customWidth="1"/>
+    <col min="47" max="52" width="9.1328125" style="1"/>
+    <col min="53" max="53" width="10.86328125" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:128" ht="15">
+    <row r="2" spans="2:128" ht="13.9">
       <c r="B2" s="2" t="s">
         <v>143</v>
       </c>
@@ -17015,7 +17097,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="2:128" ht="15">
+    <row r="3" spans="2:128" ht="13.9">
       <c r="B3" s="2"/>
       <c r="AS3" s="21" t="s">
         <v>461</v>
@@ -17029,7 +17111,7 @@
       </c>
       <c r="AX3" s="5"/>
     </row>
-    <row r="4" spans="2:128" ht="15">
+    <row r="4" spans="2:128" ht="13.9">
       <c r="B4" s="2" t="s">
         <v>170</v>
       </c>
@@ -17044,7 +17126,7 @@
         <v>1.6413761505709959E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:128" ht="15">
+    <row r="5" spans="2:128" ht="13.9">
       <c r="R5" s="1" t="s">
         <v>187</v>
       </c>
@@ -17062,10 +17144,12 @@
         <v>-4.1893908261100675E-4</v>
       </c>
     </row>
+    <row r="6" spans="2:128">
+      <c r="R6" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
     <row r="7" spans="2:128">
-      <c r="Q7" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="AN7" s="21" t="s">
         <v>469</v>
       </c>
@@ -17089,8 +17173,8 @@
       </c>
     </row>
     <row r="8" spans="2:128">
-      <c r="R8" s="1" t="s">
-        <v>486</v>
+      <c r="Q8" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="AN8" s="23">
         <v>70.86</v>
@@ -17116,6 +17200,9 @@
       </c>
     </row>
     <row r="9" spans="2:128">
+      <c r="R9" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="AN9" s="23">
         <v>70.97</v>
       </c>
@@ -17140,9 +17227,6 @@
       </c>
     </row>
     <row r="10" spans="2:128">
-      <c r="Q10" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="AN10" s="23">
         <v>70.19</v>
       </c>
@@ -17167,8 +17251,8 @@
       </c>
     </row>
     <row r="11" spans="2:128">
-      <c r="R11" s="1" t="s">
-        <v>482</v>
+      <c r="Q11" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="AN11" s="23">
         <v>69.67</v>
@@ -17195,7 +17279,7 @@
     </row>
     <row r="12" spans="2:128">
       <c r="R12" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN12" s="23">
         <v>70</v>
@@ -17221,8 +17305,8 @@
       </c>
     </row>
     <row r="13" spans="2:128">
-      <c r="Q13" s="1" t="s">
-        <v>484</v>
+      <c r="R13" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="AN13" s="23">
         <v>68.88</v>
@@ -17248,8 +17332,8 @@
       </c>
     </row>
     <row r="14" spans="2:128">
-      <c r="R14" s="1" t="s">
-        <v>487</v>
+      <c r="Q14" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="AN14" s="23">
         <v>69.650000000000006</v>
@@ -17276,7 +17360,7 @@
     </row>
     <row r="15" spans="2:128">
       <c r="R15" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AN15" s="23">
         <v>68.95</v>
@@ -17302,6 +17386,9 @@
       </c>
     </row>
     <row r="16" spans="2:128">
+      <c r="R16" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="AN16" s="23">
         <v>66.91</v>
       </c>
@@ -17325,7 +17412,7 @@
         <v>-2.0781501536660363E-2</v>
       </c>
     </row>
-    <row r="17" spans="40:46">
+    <row r="17" spans="17:46">
       <c r="AN17" s="23">
         <v>68.62</v>
       </c>
@@ -17349,7 +17436,11 @@
         <v>-3.6300275882096278E-3</v>
       </c>
     </row>
-    <row r="18" spans="40:46">
+    <row r="18" spans="17:46">
+      <c r="Q18" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="R18" s="14"/>
       <c r="AN18" s="23">
         <v>67.98</v>
       </c>
@@ -17373,7 +17464,11 @@
         <v>-6.2856307557374036E-3</v>
       </c>
     </row>
-    <row r="19" spans="40:46">
+    <row r="19" spans="17:46">
+      <c r="Q19" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="R19" s="14"/>
       <c r="AN19" s="23">
         <v>68.16</v>
       </c>
@@ -17397,7 +17492,11 @@
         <v>-1.2460156476383655E-2</v>
       </c>
     </row>
-    <row r="20" spans="40:46">
+    <row r="20" spans="17:46">
+      <c r="Q20" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="R20" s="14"/>
       <c r="AN20" s="23">
         <v>70.48</v>
       </c>
@@ -17421,7 +17520,11 @@
         <v>3.6928056495512784E-2</v>
       </c>
     </row>
-    <row r="21" spans="40:46">
+    <row r="21" spans="17:46">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14" t="s">
+        <v>496</v>
+      </c>
       <c r="AN21" s="23">
         <v>68.08</v>
       </c>
@@ -17445,7 +17548,11 @@
         <v>-1.075268817204289E-2</v>
       </c>
     </row>
-    <row r="22" spans="40:46">
+    <row r="22" spans="17:46">
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14" t="s">
+        <v>494</v>
+      </c>
       <c r="AN22" s="23">
         <v>69.5</v>
       </c>
@@ -17469,7 +17576,11 @@
         <v>2.235951750514853E-2</v>
       </c>
     </row>
-    <row r="23" spans="40:46">
+    <row r="23" spans="17:46">
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14" t="s">
+        <v>495</v>
+      </c>
       <c r="AN23" s="23">
         <v>67.48</v>
       </c>
@@ -17493,7 +17604,11 @@
         <v>-2.2028985507246301E-2</v>
       </c>
     </row>
-    <row r="24" spans="40:46">
+    <row r="24" spans="17:46">
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14" t="s">
+        <v>497</v>
+      </c>
       <c r="AN24" s="23">
         <v>69.75</v>
       </c>
@@ -17517,7 +17632,7 @@
         <v>-1.8987341772151778E-2</v>
       </c>
     </row>
-    <row r="25" spans="40:46">
+    <row r="25" spans="17:46">
       <c r="AN25" s="23">
         <v>71.05</v>
       </c>
@@ -17541,7 +17656,7 @@
         <v>7.8014184397163788E-3</v>
       </c>
     </row>
-    <row r="26" spans="40:46">
+    <row r="26" spans="17:46">
       <c r="AN26" s="23">
         <v>70.73</v>
       </c>
@@ -17565,7 +17680,7 @@
         <v>-1.9681219681219719E-2</v>
       </c>
     </row>
-    <row r="27" spans="40:46">
+    <row r="27" spans="17:46">
       <c r="AN27" s="23">
         <v>72.05</v>
       </c>
@@ -17589,7 +17704,7 @@
         <v>-3.0674021256558603E-2</v>
       </c>
     </row>
-    <row r="28" spans="40:46">
+    <row r="28" spans="17:46">
       <c r="AN28" s="23">
         <v>74.069999999999993</v>
       </c>
@@ -17613,7 +17728,7 @@
         <v>-3.9735528618655702E-2</v>
       </c>
     </row>
-    <row r="29" spans="40:46">
+    <row r="29" spans="17:46">
       <c r="AN29" s="23">
         <v>75.25</v>
       </c>
@@ -17637,7 +17752,7 @@
         <v>6.6449597979856279E-5</v>
       </c>
     </row>
-    <row r="30" spans="40:46">
+    <row r="30" spans="17:46">
       <c r="AN30" s="23">
         <v>74.95</v>
       </c>
@@ -17661,7 +17776,7 @@
         <v>-3.2153925619834656E-2</v>
       </c>
     </row>
-    <row r="31" spans="40:46">
+    <row r="31" spans="17:46">
       <c r="AN31" s="23">
         <v>77.63</v>
       </c>
@@ -17685,7 +17800,7 @@
         <v>-6.2724014336918987E-3</v>
       </c>
     </row>
-    <row r="32" spans="40:46">
+    <row r="32" spans="17:46">
       <c r="AN32" s="23">
         <v>78.36</v>
       </c>
@@ -23130,10 +23245,10 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.86328125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -23159,10 +23274,10 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.86328125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
@@ -23188,7 +23303,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23202,7 +23317,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23216,7 +23331,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23230,7 +23345,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PYPL_Model.xlsx
+++ b/PYPL_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EB43F3-B501-4266-8340-80FF2867E646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F305AB-072B-418A-934A-77E74B633F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43118" yWindow="0" windowWidth="14565" windowHeight="15563" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main | Overview" sheetId="1" r:id="rId1"/>
@@ -2846,7 +2846,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2907,12 +2907,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -17045,7 +17039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955662-3904-47FE-BB6C-F0C83886CFDD}">
   <dimension ref="B2:DX257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>

--- a/PYPL_Model.xlsx
+++ b/PYPL_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15ABF72-52C7-4E38-AC81-01D16F438B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85888A8C-41A4-4313-97D2-30586F03CC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4307,56 +4307,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Connector 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729CA779-A9FE-4654-BD5C-EC65465BE65A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15173325" y="0"/>
-          <a:ext cx="0" cy="16430625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -4407,13 +4357,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>127187</xdr:rowOff>
@@ -4431,8 +4381,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16623927" y="0"/>
-          <a:ext cx="0" cy="16280467"/>
+          <a:off x="16097250" y="0"/>
+          <a:ext cx="0" cy="16755116"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5331,11 +5281,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB43A2-E51B-468E-8B2C-40F5D1CFF37E}">
   <dimension ref="A1:CT101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI23" sqref="AI23"/>
+      <selection pane="bottomRight" activeCell="AS42" sqref="AS42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -5420,7 +5370,7 @@
       <c r="V1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X1" s="20" t="s">
@@ -5521,7 +5471,7 @@
       <c r="V2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="2" t="s">
         <v>89</v>
       </c>
       <c r="X2" s="21" t="s">
@@ -5851,6 +5801,9 @@
         <f>28842-SUM(S3:U3)</f>
         <v>7588</v>
       </c>
+      <c r="W3" s="1">
+        <v>7016</v>
+      </c>
       <c r="AN3" s="1">
         <f>SUM(C3:F3)</f>
         <v>19918</v>
@@ -5877,23 +5830,23 @@
       </c>
       <c r="AT3" s="20">
         <f t="shared" ref="AT3:AX3" si="41">AS3*(1+AT10)</f>
-        <v>31192.623000000003</v>
+        <v>30598.477800000004</v>
       </c>
       <c r="AU3" s="20">
         <f t="shared" si="41"/>
-        <v>32658.676281</v>
+        <v>31516.432134000006</v>
       </c>
       <c r="AV3" s="20">
         <f t="shared" si="41"/>
-        <v>34128.316713644999</v>
+        <v>32461.925098020009</v>
       </c>
       <c r="AW3" s="20">
         <f t="shared" si="41"/>
-        <v>35595.834332331731</v>
+        <v>33111.163599980406</v>
       </c>
       <c r="AX3" s="20">
         <f t="shared" si="41"/>
-        <v>37019.667705625005</v>
+        <v>33773.386871980016</v>
       </c>
     </row>
     <row r="4" spans="1:98">
@@ -5965,6 +5918,9 @@
         <f>2955-SUM(S4:U4)</f>
         <v>778</v>
       </c>
+      <c r="W4" s="1">
+        <v>775</v>
+      </c>
       <c r="AN4" s="1">
         <f>SUM(C4:F4)</f>
         <v>1536</v>
@@ -6087,14 +6043,17 @@
         <v>7885</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" ref="U5" si="52">SUM(U3:U4)</f>
+        <f t="shared" ref="U5:W5" si="52">SUM(U3:U4)</f>
         <v>7847</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" ref="V5" si="53">SUM(V3:V4)</f>
         <v>8366</v>
       </c>
-      <c r="W5" s="21"/>
+      <c r="W5" s="2">
+        <f t="shared" si="52"/>
+        <v>7791</v>
+      </c>
       <c r="X5" s="21"/>
       <c r="AN5" s="1">
         <f>SUM(C5:F5)</f>
@@ -6122,23 +6081,23 @@
       </c>
       <c r="AT5" s="20">
         <f t="shared" ref="AT5:AX5" si="54">SUM(AT3:AT4)</f>
-        <v>34575.507000000005</v>
+        <v>33981.361800000006</v>
       </c>
       <c r="AU5" s="20">
         <f t="shared" si="54"/>
-        <v>36447.506361</v>
+        <v>35305.262214000009</v>
       </c>
       <c r="AV5" s="20">
         <f t="shared" si="54"/>
-        <v>38409.694704045003</v>
+        <v>36743.303088420013</v>
       </c>
       <c r="AW5" s="20">
         <f t="shared" si="54"/>
-        <v>40390.97768157973</v>
+        <v>37906.306949228405</v>
       </c>
       <c r="AX5" s="20">
         <f t="shared" si="54"/>
-        <v>42294.325389797807</v>
+        <v>39048.044556152818</v>
       </c>
     </row>
     <row r="6" spans="1:98" ht="15">
@@ -6163,7 +6122,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="21"/>
+      <c r="W6" s="2"/>
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1">
@@ -6251,7 +6210,10 @@
         <f>V3/V5</f>
         <v>0.90700454219459714</v>
       </c>
-      <c r="W7" s="20"/>
+      <c r="W7" s="8">
+        <f t="shared" ref="W7" si="56">W3/W5</f>
+        <v>0.90052624823514316</v>
+      </c>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
@@ -6269,19 +6231,19 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="8">
-        <f t="shared" ref="AN7:AQ7" si="56">AN3/AN5</f>
+        <f t="shared" ref="AN7:AQ7" si="57">AN3/AN5</f>
         <v>0.92840495944812151</v>
       </c>
       <c r="AO7" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.92239170706712392</v>
       </c>
       <c r="AP7" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.91598226615306344</v>
       </c>
       <c r="AQ7" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.90211951227704812</v>
       </c>
       <c r="AR7" s="8">
@@ -6293,24 +6255,24 @@
         <v>0.90461808867110272</v>
       </c>
       <c r="AT7" s="22">
-        <f t="shared" ref="AT7:AX7" si="57">AT3/AT5</f>
-        <v>0.9021595258169316</v>
+        <f t="shared" ref="AT7:AX7" si="58">AT3/AT5</f>
+        <v>0.90044883957534627</v>
       </c>
       <c r="AU7" s="22">
-        <f t="shared" si="57"/>
-        <v>0.89604693274560565</v>
+        <f t="shared" si="58"/>
+        <v>0.8926837008875812</v>
       </c>
       <c r="AV7" s="22">
-        <f t="shared" si="57"/>
-        <v>0.88853392292261246</v>
+        <f t="shared" si="58"/>
+        <v>0.88347868507909622</v>
       </c>
       <c r="AW7" s="22">
-        <f t="shared" si="57"/>
-        <v>0.88128182023593804</v>
+        <f t="shared" si="58"/>
+        <v>0.87350011818163664</v>
       </c>
       <c r="AX7" s="22">
-        <f t="shared" si="57"/>
-        <v>0.87528687038840558</v>
+        <f t="shared" si="58"/>
+        <v>0.86491877521324756</v>
       </c>
       <c r="AY7" s="22"/>
       <c r="AZ7" s="22"/>
@@ -6364,86 +6326,89 @@
         <v>119</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" ref="C8:U8" si="58">C4/C5</f>
+        <f t="shared" ref="C8:U8" si="59">C4/C5</f>
         <v>8.7267215244694676E-2</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>6.0064626496863713E-2</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7.0159369847957495E-2</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7.0961412688031397E-2</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>6.8291065804740592E-2</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7.0695735812760493E-2</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9.3011970236169528E-2</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7.8201792425556513E-2</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7.4811044269628257E-2</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7.846018219218337E-2</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>8.9395267309377732E-2</v>
       </c>
       <c r="N8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9.2238927265339291E-2</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9.6022727272727273E-2</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.10031563057499657</v>
       </c>
       <c r="Q8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.10299272040981397</v>
       </c>
       <c r="R8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9.2574134064291061E-2</v>
       </c>
       <c r="S8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>8.63748538771269E-2</v>
       </c>
       <c r="T8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9.2834495878249837E-2</v>
       </c>
       <c r="U8" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9.9401044985344716E-2</v>
       </c>
       <c r="V8" s="8">
         <f>V4/V5</f>
         <v>9.2995457805402817E-2</v>
       </c>
-      <c r="W8" s="20"/>
+      <c r="W8" s="8">
+        <f t="shared" ref="W8" si="60">W4/W5</f>
+        <v>9.9473751764856885E-2</v>
+      </c>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
@@ -6461,19 +6426,19 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="8">
-        <f t="shared" ref="AN8:AQ8" si="59">AN4/AN5</f>
+        <f t="shared" ref="AN8:AQ8" si="61">AN4/AN5</f>
         <v>7.1595040551878444E-2</v>
       </c>
       <c r="AO8" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>7.7608292932876119E-2</v>
       </c>
       <c r="AP8" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>8.4017733846936546E-2</v>
       </c>
       <c r="AQ8" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>9.7880487722951867E-2</v>
       </c>
       <c r="AR8" s="8">
@@ -6485,24 +6450,24 @@
         <v>9.5381911328897215E-2</v>
       </c>
       <c r="AT8" s="22">
-        <f t="shared" ref="AT8:AX8" si="60">AT4/AT5</f>
-        <v>9.7840474183068377E-2</v>
+        <f t="shared" ref="AT8:AX8" si="62">AT4/AT5</f>
+        <v>9.9551160424653728E-2</v>
       </c>
       <c r="AU8" s="22">
-        <f t="shared" si="60"/>
-        <v>0.1039530672543944</v>
+        <f t="shared" si="62"/>
+        <v>0.10731629911241877</v>
       </c>
       <c r="AV8" s="22">
-        <f t="shared" si="60"/>
-        <v>0.11146607707738745</v>
+        <f t="shared" si="62"/>
+        <v>0.11652131492090369</v>
       </c>
       <c r="AW8" s="22">
-        <f t="shared" si="60"/>
-        <v>0.11871817976406208</v>
+        <f t="shared" si="62"/>
+        <v>0.12649988181836344</v>
       </c>
       <c r="AX8" s="22">
-        <f t="shared" si="60"/>
-        <v>0.12471312961159443</v>
+        <f t="shared" si="62"/>
+        <v>0.13508122478675241</v>
       </c>
       <c r="AY8" s="22"/>
       <c r="AZ8" s="22"/>
@@ -6553,7 +6518,6 @@
     <row r="9" spans="1:98" s="8" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
@@ -6637,66 +6601,69 @@
         <v>0.3335705812574139</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" ref="H10:U10" si="61">H3/D3-1</f>
+        <f t="shared" ref="H10:W10" si="63">H3/D3-1</f>
         <v>0.17229524772497462</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.10460992907801425</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.12231608588525167</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>6.7069916384984829E-2</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>8.1938933931343882E-2</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.11182450508293207</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5.0964403324447183E-2</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>6.1020340113371097E-2</v>
       </c>
       <c r="P10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>4.5280612244897878E-2</v>
       </c>
       <c r="Q10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>6.7372473532242516E-2</v>
       </c>
       <c r="R10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>8.6690540137272398E-2</v>
       </c>
       <c r="S10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.10527969830295403</v>
       </c>
       <c r="T10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>9.1061622940817655E-2</v>
       </c>
       <c r="U10" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>6.2067929065223959E-2</v>
       </c>
       <c r="V10" s="8">
         <f>V3/R3-1</f>
         <v>4.1878346835095392E-2</v>
       </c>
-      <c r="W10" s="20"/>
+      <c r="W10" s="8">
+        <f t="shared" si="63"/>
+        <v>-2.5589991470003071E-3</v>
+      </c>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
@@ -6714,15 +6681,15 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AO10" s="8">
-        <f t="shared" ref="AO10:AQ10" si="62">AO3/AN3-1</f>
+        <f t="shared" ref="AO10:AQ10" si="64">AO3/AN3-1</f>
         <v>0.17491716035746552</v>
       </c>
       <c r="AP10" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>7.7087428424921001E-2</v>
       </c>
       <c r="AQ10" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>6.5500277711656008E-2</v>
       </c>
       <c r="AR10" s="8">
@@ -6733,19 +6700,19 @@
         <v>0.03</v>
       </c>
       <c r="AT10" s="22">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AU10" s="22">
-        <v>4.7E-2</v>
+        <v>0.03</v>
       </c>
       <c r="AV10" s="22">
-        <v>4.4999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="AW10" s="22">
-        <v>4.2999999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AX10" s="22">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AY10" s="22"/>
       <c r="AZ10" s="22"/>
@@ -6799,70 +6766,73 @@
         <v>190</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" ref="G11:V11" si="63">G4/C4-1</f>
+        <f t="shared" ref="G11:W11" si="65">G4/C4-1</f>
         <v>2.2332506203474045E-2</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.39556962025316467</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.50130548302872069</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.24654377880184342</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.17718446601941751</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.21088435374149661</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>6.434782608695655E-2</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.25878003696857665</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.39381443298969065</v>
       </c>
       <c r="P11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.36891385767790252</v>
       </c>
       <c r="Q11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.24836601307189543</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>9.1042584434654961E-2</v>
       </c>
       <c r="S11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-1.6272189349112454E-2</v>
       </c>
       <c r="T11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.3679890560875929E-3</v>
       </c>
       <c r="U11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>2.0942408376963373E-2</v>
       </c>
       <c r="V11" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>4.7106325706594898E-2</v>
       </c>
-      <c r="W11" s="20"/>
+      <c r="W11" s="8">
+        <f t="shared" si="65"/>
+        <v>0.16541353383458657</v>
+      </c>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
@@ -6880,15 +6850,15 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AO11" s="8">
-        <f t="shared" ref="AO11:AQ11" si="64">AO4/AN4-1</f>
+        <f t="shared" ref="AO11:AQ11" si="66">AO4/AN4-1</f>
         <v>0.28190104166666674</v>
       </c>
       <c r="AP11" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.17420010157440324</v>
       </c>
       <c r="AQ11" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.26038062283737018</v>
       </c>
       <c r="AR11" s="8">
@@ -6965,70 +6935,73 @@
         <v>189</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12:U12" si="65">G5/C5-1</f>
+        <f t="shared" ref="G12:W12" si="67">G5/C5-1</f>
         <v>0.30640970116933741</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.18570613951720216</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.13244183916468222</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.13113145846958796</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>7.458975634012921E-2</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>9.105482526450781E-2</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.10740860562924626</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>6.7215958369470918E-2</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>8.5917013728212144E-2</v>
       </c>
       <c r="P12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>7.0672935645019086E-2</v>
       </c>
       <c r="Q12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>8.3552439380660148E-2</v>
       </c>
       <c r="R12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>8.7091968034674228E-2</v>
       </c>
       <c r="S12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="T12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="U12" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="V12" s="8">
         <f>V5/R5-1</f>
         <v>4.2362322452030865E-2</v>
       </c>
-      <c r="W12" s="20"/>
+      <c r="W12" s="8">
+        <f t="shared" si="67"/>
+        <v>1.1949603844655154E-2</v>
+      </c>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
@@ -7046,15 +7019,15 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
       <c r="AO12" s="8">
-        <f t="shared" ref="AO12:AQ12" si="66">AO5/AN5-1</f>
+        <f t="shared" ref="AO12:AQ12" si="68">AO5/AN5-1</f>
         <v>0.18257667567819524</v>
       </c>
       <c r="AP12" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>8.4624177210200546E-2</v>
       </c>
       <c r="AQ12" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>8.1873682680427384E-2</v>
       </c>
       <c r="AR12" s="8">
@@ -7066,210 +7039,214 @@
         <v>3.2787998867817914E-2</v>
       </c>
       <c r="AT12" s="22">
-        <f t="shared" ref="AT12:AX12" si="67">AT5/AS5-1</f>
-        <v>5.2861457339866913E-2</v>
+        <f t="shared" ref="AT12:AX12" si="69">AT5/AS5-1</f>
+        <v>3.4769095566444808E-2</v>
       </c>
       <c r="AU12" s="22">
-        <f t="shared" si="67"/>
-        <v>5.4142354615363875E-2</v>
+        <f t="shared" si="69"/>
+        <v>3.8959604438218998E-2</v>
       </c>
       <c r="AV12" s="22">
-        <f t="shared" si="67"/>
-        <v>5.3836010716623584E-2</v>
+        <f t="shared" si="69"/>
+        <v>4.0731629911241907E-2</v>
       </c>
       <c r="AW12" s="22">
-        <f t="shared" si="67"/>
-        <v>5.1582887934958688E-2</v>
+        <f t="shared" si="69"/>
+        <v>3.1652131492090119E-2</v>
       </c>
       <c r="AX12" s="22">
-        <f t="shared" si="67"/>
-        <v>4.712309078584398E-2</v>
+        <f t="shared" si="69"/>
+        <v>3.0119990545469211E-2</v>
       </c>
       <c r="AY12" s="22">
         <f>AU51</f>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AZ12" s="22">
         <f>AY12</f>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BA12" s="22">
-        <f t="shared" ref="BA12:BM12" si="68">AZ12</f>
-        <v>0.02</v>
+        <f t="shared" ref="BA12:BM12" si="70">AZ12</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BB12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BC12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BD12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BE12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BF12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BG12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BH12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BI12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BJ12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BK12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BL12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BM12" s="22">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
+        <f t="shared" si="70"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BN12" s="22">
-        <f t="shared" ref="BN12:BT12" si="69">BM12</f>
-        <v>0.02</v>
+        <f t="shared" ref="BN12:BT12" si="71">BM12</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BO12" s="22">
-        <f t="shared" si="69"/>
-        <v>0.02</v>
+        <f t="shared" si="71"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BP12" s="22">
-        <f t="shared" si="69"/>
-        <v>0.02</v>
+        <f t="shared" si="71"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BQ12" s="22">
-        <f t="shared" si="69"/>
-        <v>0.02</v>
+        <f t="shared" si="71"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BR12" s="22">
-        <f t="shared" si="69"/>
-        <v>0.02</v>
+        <f t="shared" si="71"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BS12" s="22">
-        <f t="shared" si="69"/>
-        <v>0.02</v>
+        <f t="shared" si="71"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BT12" s="22">
-        <f t="shared" si="69"/>
-        <v>0.02</v>
+        <f t="shared" si="71"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BU12" s="22">
-        <f t="shared" ref="BU12:CB12" si="70">BT12</f>
-        <v>0.02</v>
+        <f t="shared" ref="BU12:CB12" si="72">BT12</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BV12" s="22">
-        <f t="shared" si="70"/>
-        <v>0.02</v>
+        <f t="shared" si="72"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BW12" s="22">
-        <f t="shared" si="70"/>
-        <v>0.02</v>
+        <f t="shared" si="72"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BX12" s="22">
-        <f t="shared" si="70"/>
-        <v>0.02</v>
+        <f t="shared" si="72"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BY12" s="22">
-        <f t="shared" si="70"/>
-        <v>0.02</v>
+        <f t="shared" si="72"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BZ12" s="22">
-        <f t="shared" si="70"/>
-        <v>0.02</v>
+        <f t="shared" si="72"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CA12" s="22">
-        <f t="shared" si="70"/>
-        <v>0.02</v>
+        <f t="shared" si="72"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CB12" s="22">
-        <f t="shared" si="70"/>
-        <v>0.02</v>
+        <f t="shared" si="72"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CC12" s="22">
-        <f t="shared" ref="CC12:CG12" si="71">CB12</f>
-        <v>0.02</v>
+        <f t="shared" ref="CC12:CG12" si="73">CB12</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CD12" s="22">
-        <f t="shared" si="71"/>
-        <v>0.02</v>
+        <f t="shared" si="73"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CE12" s="22">
-        <f t="shared" si="71"/>
-        <v>0.02</v>
+        <f t="shared" si="73"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CF12" s="22">
-        <f t="shared" si="71"/>
-        <v>0.02</v>
+        <f t="shared" si="73"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CG12" s="22">
-        <f t="shared" si="71"/>
-        <v>0.02</v>
+        <f t="shared" si="73"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CH12" s="22">
-        <f t="shared" ref="CH12:CQ12" si="72">CG12</f>
-        <v>0.02</v>
+        <f t="shared" ref="CH12:CQ12" si="74">CG12</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CI12" s="22">
-        <f t="shared" si="72"/>
-        <v>0.02</v>
+        <f t="shared" si="74"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CJ12" s="22">
-        <f t="shared" si="72"/>
-        <v>0.02</v>
+        <f t="shared" si="74"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CK12" s="22">
-        <f t="shared" si="72"/>
-        <v>0.02</v>
+        <f t="shared" si="74"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CL12" s="22">
-        <f t="shared" si="72"/>
-        <v>0.02</v>
+        <f t="shared" si="74"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CM12" s="22">
-        <f t="shared" si="72"/>
-        <v>0.02</v>
+        <f t="shared" si="74"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CN12" s="22">
-        <f t="shared" si="72"/>
-        <v>0.02</v>
+        <f t="shared" si="74"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CO12" s="22">
-        <f t="shared" si="72"/>
-        <v>0.02</v>
+        <f t="shared" si="74"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CP12" s="22">
-        <f t="shared" si="72"/>
-        <v>0.02</v>
+        <f t="shared" si="74"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="CQ12" s="22">
-        <f t="shared" si="72"/>
-        <v>0.02</v>
-      </c>
+        <f t="shared" si="74"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:98">
+      <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:98" ht="15">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:98">
       <c r="B15" s="1" t="s">
@@ -7340,6 +7317,9 @@
         <f>18267-SUM(S15:U15)</f>
         <v>4732</v>
       </c>
+      <c r="W15" s="1">
+        <v>4463</v>
+      </c>
       <c r="AN15" s="1">
         <f>SUM(C15:F15)</f>
         <v>11013</v>
@@ -7436,6 +7416,9 @@
         <f>13530-SUM(S16:U16)</f>
         <v>3634</v>
       </c>
+      <c r="W16" s="1">
+        <v>3328</v>
+      </c>
       <c r="AN16" s="1">
         <f>SUM(C16:F16)</f>
         <v>10441</v>
@@ -7462,75 +7445,75 @@
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17" si="73">C16+C15</f>
+        <f t="shared" ref="C17" si="75">C16+C15</f>
         <v>4618</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17" si="74">D16+D15</f>
+        <f t="shared" ref="D17" si="76">D16+D15</f>
         <v>5261</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17" si="75">E16+E15</f>
+        <f t="shared" ref="E17" si="77">E16+E15</f>
         <v>5459</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ref="F17" si="76">F16+F15</f>
+        <f t="shared" ref="F17" si="78">F16+F15</f>
         <v>6116</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" ref="G17" si="77">G16+G15</f>
+        <f t="shared" ref="G17" si="79">G16+G15</f>
         <v>6033</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" ref="H17" si="78">H16+H15</f>
+        <f t="shared" ref="H17" si="80">H16+H15</f>
         <v>6238</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" ref="I17" si="79">I16+I15</f>
+        <f t="shared" ref="I17" si="81">I16+I15</f>
         <v>6182</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" ref="J17" si="80">J16+J15</f>
+        <f t="shared" ref="J17" si="82">J16+J15</f>
         <v>6918</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" ref="K17:T17" si="81">K16+K15</f>
+        <f t="shared" ref="K17:T17" si="83">K16+K15</f>
         <v>6483</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>6806</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>6846</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>7383</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>7040</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>7287</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>7418</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>8026</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>7699</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>7885</v>
       </c>
       <c r="U17" s="2">
@@ -7541,7 +7524,10 @@
         <f>V16+V15</f>
         <v>8366</v>
       </c>
-      <c r="W17" s="21"/>
+      <c r="W17" s="2">
+        <f>W16+W15</f>
+        <v>7791</v>
+      </c>
       <c r="X17" s="21"/>
       <c r="AN17" s="1">
         <f>SUM(C17:F17)</f>
@@ -7586,7 +7572,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="21"/>
+      <c r="W18" s="2"/>
       <c r="X18" s="21"/>
     </row>
     <row r="19" spans="2:98">
@@ -7594,99 +7580,103 @@
         <v>116</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:U19" si="82">C15/C17</f>
+        <f t="shared" ref="C19:U19" si="84">C15/C17</f>
         <v>0.53464703334776964</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.50389659760501804</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.51657812786224588</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.50245258338783516</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.50770760815514671</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.52452709201667203</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.56227758007117434</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.56389129806302396</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.56625019281196975</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.56758742286218045</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.58106923751095529</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.58174183936069346</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.58906250000000004</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.57774118292850285</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.57387435966567812</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.577996511338151</v>
       </c>
       <c r="S19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.58020522145733211</v>
       </c>
       <c r="T19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.5770450221940393</v>
       </c>
       <c r="U19" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.57576143749203512</v>
       </c>
       <c r="V19" s="8">
         <f>V15/V17</f>
         <v>0.56562275878556056</v>
       </c>
+      <c r="W19" s="8">
+        <f t="shared" ref="W19" si="85">W15/W17</f>
+        <v>0.57284045693749197</v>
+      </c>
       <c r="AN19" s="8">
-        <f t="shared" ref="AN19:AQ19" si="83">AN15/AN17</f>
+        <f t="shared" ref="AN19:AQ19" si="86">AN15/AN17</f>
         <v>0.51333084739442525</v>
       </c>
       <c r="AO19" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.54045957983524495</v>
       </c>
       <c r="AP19" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.57442401337306492</v>
       </c>
       <c r="AQ19" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.57952369755802624</v>
       </c>
       <c r="AR19" s="8">
@@ -7699,99 +7689,103 @@
         <v>117</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" ref="C20:U20" si="84">C16/C17</f>
+        <f t="shared" ref="C20:U20" si="87">C16/C17</f>
         <v>0.46535296665223042</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.49610340239498196</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.48342187213775417</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.49754741661216484</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.49229239184485329</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.47547290798332797</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.4377224199288256</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.43610870193697598</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.43374980718803025</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.43241257713781955</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.41893076248904471</v>
       </c>
       <c r="N20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.41825816063930654</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.41093750000000001</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.42225881707149721</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.42612564033432193</v>
       </c>
       <c r="R20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.422003488661849</v>
       </c>
       <c r="S20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.41979477854266789</v>
       </c>
       <c r="T20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.4229549778059607</v>
       </c>
       <c r="U20" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.42423856250796482</v>
       </c>
       <c r="V20" s="8">
         <f>V16/V17</f>
         <v>0.43437724121443938</v>
       </c>
+      <c r="W20" s="8">
+        <f t="shared" ref="W20" si="88">W16/W17</f>
+        <v>0.42715954306250803</v>
+      </c>
       <c r="AN20" s="8">
-        <f t="shared" ref="AN20:AQ20" si="85">AN16/AN17</f>
+        <f t="shared" ref="AN20:AQ20" si="89">AN16/AN17</f>
         <v>0.4866691526055747</v>
       </c>
       <c r="AO20" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>0.45954042016475505</v>
       </c>
       <c r="AP20" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>0.42557598662693508</v>
       </c>
       <c r="AQ20" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>0.42047630244197376</v>
       </c>
       <c r="AR20" s="8">
@@ -7820,6 +7814,7 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
     </row>
     <row r="22" spans="2:98">
       <c r="B22" s="1" t="s">
@@ -7834,79 +7829,83 @@
         <v>0.24058323207776433</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" ref="H22:U22" si="86">H15/D15-1</f>
+        <f t="shared" ref="H22:W22" si="90">H15/D15-1</f>
         <v>0.23425122595247072</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0.2326241134751772</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0.26944354051415553</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0.19849820437479604</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0.1806234718826405</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0.14441887226697347</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0.10099974365547304</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0.12966494143285212</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>8.9826559668651385E-2</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>7.0135746606334815E-2</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>8.0093131548311991E-2</v>
       </c>
       <c r="S22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>7.7164215095249622E-2</v>
       </c>
       <c r="T22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>8.0760095011876532E-2</v>
       </c>
       <c r="U22" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>6.1310782241014827E-2</v>
       </c>
       <c r="V22" s="8">
         <f>V15/R15-1</f>
         <v>2.0047424013796E-2</v>
       </c>
+      <c r="W22" s="8">
+        <f t="shared" si="90"/>
+        <v>-8.9545556301773299E-4</v>
+      </c>
       <c r="AO22" s="8">
-        <f t="shared" ref="AO22:AR23" si="87">AO15/AN15-1</f>
+        <f t="shared" ref="AO22:AR23" si="91">AO15/AN15-1</f>
         <v>0.2450740034504677</v>
       </c>
       <c r="AP22" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>0.15278588098016344</v>
       </c>
       <c r="AQ22" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>9.1478458910609239E-2</v>
       </c>
       <c r="AR22" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>5.8772387410884974E-2</v>
       </c>
     </row>
@@ -7919,83 +7918,87 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8">
-        <f t="shared" ref="G23:V23" si="88">G16/C16-1</f>
+        <f t="shared" ref="G23:W23" si="92">G16/C16-1</f>
         <v>0.38203815728245694</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0.13639846743295014</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>2.5388404698749589E-2</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>-8.544199802826169E-3</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>-5.3198653198653245E-2</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>-7.7545515846257906E-3</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>5.9866962305986648E-2</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>2.3533311236327403E-2</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>2.8805120910384119E-2</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>4.5531770302412511E-2</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0.10216178521617847</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>9.6826424870466221E-2</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0.1171793985482199</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>8.3847903802404922E-2</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>5.3147738057576666E-2</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>7.2925893120755925E-2</v>
       </c>
+      <c r="W23" s="8">
+        <f t="shared" si="92"/>
+        <v>2.9702970297029729E-2</v>
+      </c>
       <c r="AO23" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>0.11665549276889187</v>
       </c>
       <c r="AP23" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>4.4600737627584763E-3</v>
       </c>
       <c r="AQ23" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>6.8909572197079605E-2</v>
       </c>
       <c r="AR23" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>8.0843585237258431E-2</v>
       </c>
     </row>
@@ -8008,79 +8011,83 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8">
-        <f t="shared" ref="G24:V24" si="89">G17/C17-1</f>
+        <f t="shared" ref="G24:W24" si="93">G17/C17-1</f>
         <v>0.30640970116933741</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>0.18570613951720216</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>0.13244183916468222</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>0.13113145846958796</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>7.458975634012921E-2</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>9.105482526450781E-2</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>0.10740860562924626</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>6.7215958369470918E-2</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>8.5917013728212144E-2</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>7.0672935645019086E-2</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>8.3552439380660148E-2</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>8.7091968034674228E-2</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>4.2362322452030865E-2</v>
       </c>
+      <c r="W24" s="8">
+        <f t="shared" si="93"/>
+        <v>1.1949603844655154E-2</v>
+      </c>
       <c r="AO24" s="8">
-        <f t="shared" ref="AO24:AQ24" si="90">AO17/AN17-1</f>
+        <f t="shared" ref="AO24:AQ24" si="94">AO17/AN17-1</f>
         <v>0.18257667567819524</v>
       </c>
       <c r="AP24" s="8">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>8.4624177210200546E-2</v>
       </c>
       <c r="AQ24" s="8">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>8.1873682680427384E-2</v>
       </c>
       <c r="AR24" s="8">
@@ -8091,6 +8098,9 @@
       <c r="CS24" s="5"/>
       <c r="CT24" s="5"/>
     </row>
+    <row r="25" spans="2:98">
+      <c r="W25" s="1"/>
+    </row>
     <row r="26" spans="2:98">
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -8134,16 +8144,19 @@
       <c r="V26" s="1">
         <v>434</v>
       </c>
+      <c r="W26" s="1">
+        <v>432</v>
+      </c>
       <c r="AN26" s="1">
         <f>AVERAGE(O26:R26)</f>
         <v>429.5</v>
       </c>
       <c r="AO26" s="1">
-        <f t="shared" ref="AO26:AP26" si="91">AVERAGE(P26:S26)</f>
+        <f t="shared" ref="AO26:AP26" si="95">AVERAGE(P26:S26)</f>
         <v>428</v>
       </c>
       <c r="AP26" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>427.5</v>
       </c>
       <c r="AQ26" s="1">
@@ -8158,6 +8171,7 @@
       <c r="B27" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="W27" s="1"/>
       <c r="AN27" s="11" t="s">
         <v>200</v>
       </c>
@@ -8173,93 +8187,97 @@
       <c r="AR27" s="11" t="s">
         <v>193</v>
       </c>
+    </row>
+    <row r="28" spans="2:98">
+      <c r="W28" s="1"/>
     </row>
     <row r="29" spans="2:98" s="2" customFormat="1" ht="15">
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ref="C29:V29" si="92">C5</f>
+        <f t="shared" ref="C29:V29" si="96">C5</f>
         <v>4618</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>5261</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>5459</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>6116</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>6033</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>6238</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>6182</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>6918</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>6483</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>6806</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>6846</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>7383</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>7040</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>7287</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>7418</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>8026</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>7699</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>7885</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>7847</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>8366</v>
       </c>
-      <c r="W29" s="21">
-        <v>7.85</v>
+      <c r="W29" s="2">
+        <f t="shared" ref="W29" si="97">W5</f>
+        <v>7791</v>
       </c>
       <c r="X29" s="21">
         <v>8.09</v>
@@ -8289,19 +8307,19 @@
       <c r="AG29" s="21"/>
       <c r="AH29" s="21"/>
       <c r="AN29" s="2">
-        <f t="shared" ref="AN29:AQ40" si="93">SUM(O29:R29)</f>
+        <f t="shared" ref="AN29:AQ40" si="98">SUM(O29:R29)</f>
         <v>29771</v>
       </c>
       <c r="AO29" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>30430</v>
       </c>
       <c r="AP29" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>31028</v>
       </c>
       <c r="AQ29" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>31457</v>
       </c>
       <c r="AR29" s="2">
@@ -8313,204 +8331,204 @@
         <v>32839.560000000005</v>
       </c>
       <c r="AT29" s="23">
-        <f t="shared" ref="AT29:AW29" si="94">AT5</f>
-        <v>34575.507000000005</v>
+        <f t="shared" ref="AT29:AW29" si="99">AT5</f>
+        <v>33981.361800000006</v>
       </c>
       <c r="AU29" s="23">
-        <f t="shared" si="94"/>
-        <v>36447.506361</v>
+        <f t="shared" si="99"/>
+        <v>35305.262214000009</v>
       </c>
       <c r="AV29" s="23">
-        <f t="shared" si="94"/>
-        <v>38409.694704045003</v>
+        <f t="shared" si="99"/>
+        <v>36743.303088420013</v>
       </c>
       <c r="AW29" s="23">
-        <f t="shared" si="94"/>
-        <v>40390.97768157973</v>
+        <f t="shared" si="99"/>
+        <v>37906.306949228405</v>
       </c>
       <c r="AX29" s="23">
         <f>AX5</f>
-        <v>42294.325389797807</v>
+        <v>39048.044556152818</v>
       </c>
       <c r="AY29" s="23">
-        <f t="shared" ref="AY29:CQ29" si="95">AX29*(1+$AU$51)</f>
-        <v>43140.211897593763</v>
+        <f t="shared" ref="AY29:CQ29" si="100">AX29*(1+$AU$51)</f>
+        <v>39633.76522449511</v>
       </c>
       <c r="AZ29" s="23">
-        <f t="shared" si="95"/>
-        <v>44003.016135545637</v>
+        <f t="shared" si="100"/>
+        <v>40228.271702862534</v>
       </c>
       <c r="BA29" s="23">
-        <f t="shared" si="95"/>
-        <v>44883.076458256553</v>
+        <f t="shared" si="100"/>
+        <v>40831.695778405468</v>
       </c>
       <c r="BB29" s="23">
-        <f t="shared" si="95"/>
-        <v>45780.737987421686</v>
+        <f t="shared" si="100"/>
+        <v>41444.171215081544</v>
       </c>
       <c r="BC29" s="23">
-        <f t="shared" si="95"/>
-        <v>46696.352747170124</v>
+        <f t="shared" si="100"/>
+        <v>42065.83378330776</v>
       </c>
       <c r="BD29" s="23">
-        <f t="shared" si="95"/>
-        <v>47630.279802113524</v>
+        <f t="shared" si="100"/>
+        <v>42696.821290057371</v>
       </c>
       <c r="BE29" s="23">
-        <f t="shared" si="95"/>
-        <v>48582.885398155799</v>
+        <f t="shared" si="100"/>
+        <v>43337.273609408228</v>
       </c>
       <c r="BF29" s="23">
-        <f t="shared" si="95"/>
-        <v>49554.543106118916</v>
+        <f t="shared" si="100"/>
+        <v>43987.332713549345</v>
       </c>
       <c r="BG29" s="23">
-        <f t="shared" si="95"/>
-        <v>50545.633968241294</v>
+        <f t="shared" si="100"/>
+        <v>44647.142704252583</v>
       </c>
       <c r="BH29" s="23">
-        <f t="shared" si="95"/>
-        <v>51556.546647606119</v>
+        <f t="shared" si="100"/>
+        <v>45316.849844816366</v>
       </c>
       <c r="BI29" s="23">
-        <f t="shared" si="95"/>
-        <v>52587.677580558244</v>
+        <f t="shared" si="100"/>
+        <v>45996.602592488605</v>
       </c>
       <c r="BJ29" s="23">
-        <f t="shared" si="95"/>
-        <v>53639.431132169411</v>
+        <f t="shared" si="100"/>
+        <v>46686.551631375929</v>
       </c>
       <c r="BK29" s="23">
-        <f t="shared" si="95"/>
-        <v>54712.219754812802</v>
+        <f t="shared" si="100"/>
+        <v>47386.84990584656</v>
       </c>
       <c r="BL29" s="23">
-        <f t="shared" si="95"/>
-        <v>55806.464149909058</v>
+        <f t="shared" si="100"/>
+        <v>48097.652654434256</v>
       </c>
       <c r="BM29" s="23">
-        <f t="shared" si="95"/>
-        <v>56922.593432907241</v>
+        <f t="shared" si="100"/>
+        <v>48819.117444250762</v>
       </c>
       <c r="BN29" s="23">
-        <f t="shared" si="95"/>
-        <v>58061.045301565384</v>
+        <f t="shared" si="100"/>
+        <v>49551.404205914521</v>
       </c>
       <c r="BO29" s="23">
-        <f t="shared" si="95"/>
-        <v>59222.266207596695</v>
+        <f t="shared" si="100"/>
+        <v>50294.675269003237</v>
       </c>
       <c r="BP29" s="23">
-        <f t="shared" si="95"/>
-        <v>60406.711531748631</v>
+        <f t="shared" si="100"/>
+        <v>51049.095398038284</v>
       </c>
       <c r="BQ29" s="23">
-        <f t="shared" si="95"/>
-        <v>61614.845762383608</v>
+        <f t="shared" si="100"/>
+        <v>51814.83182900885</v>
       </c>
       <c r="BR29" s="23">
-        <f t="shared" si="95"/>
-        <v>62847.14267763128</v>
+        <f t="shared" si="100"/>
+        <v>52592.054306443977</v>
       </c>
       <c r="BS29" s="23">
-        <f t="shared" si="95"/>
-        <v>64104.085531183904</v>
+        <f t="shared" si="100"/>
+        <v>53380.935121040631</v>
       </c>
       <c r="BT29" s="23">
-        <f t="shared" si="95"/>
-        <v>65386.167241807583</v>
+        <f t="shared" si="100"/>
+        <v>54181.649147856238</v>
       </c>
       <c r="BU29" s="23">
-        <f t="shared" si="95"/>
-        <v>66693.890586643742</v>
+        <f t="shared" si="100"/>
+        <v>54994.373885074077</v>
       </c>
       <c r="BV29" s="23">
-        <f t="shared" si="95"/>
-        <v>68027.768398376618</v>
+        <f t="shared" si="100"/>
+        <v>55819.289493350181</v>
       </c>
       <c r="BW29" s="23">
-        <f t="shared" si="95"/>
-        <v>69388.323766344154</v>
+        <f t="shared" si="100"/>
+        <v>56656.578835750428</v>
       </c>
       <c r="BX29" s="23">
-        <f t="shared" si="95"/>
-        <v>70776.090241671045</v>
+        <f t="shared" si="100"/>
+        <v>57506.427518286677</v>
       </c>
       <c r="BY29" s="23">
-        <f t="shared" si="95"/>
-        <v>72191.612046504466</v>
+        <f t="shared" si="100"/>
+        <v>58369.023931060969</v>
       </c>
       <c r="BZ29" s="23">
-        <f t="shared" si="95"/>
-        <v>73635.444287434555</v>
+        <f t="shared" si="100"/>
+        <v>59244.559290026875</v>
       </c>
       <c r="CA29" s="23">
-        <f t="shared" si="95"/>
-        <v>75108.153173183251</v>
+        <f t="shared" si="100"/>
+        <v>60133.227679377269</v>
       </c>
       <c r="CB29" s="23">
-        <f t="shared" si="95"/>
-        <v>76610.316236646919</v>
+        <f t="shared" si="100"/>
+        <v>61035.226094567923</v>
       </c>
       <c r="CC29" s="23">
-        <f t="shared" si="95"/>
-        <v>78142.522561379854</v>
+        <f t="shared" si="100"/>
+        <v>61950.754485986436</v>
       </c>
       <c r="CD29" s="23">
-        <f t="shared" si="95"/>
-        <v>79705.373012607452</v>
+        <f t="shared" si="100"/>
+        <v>62880.015803276227</v>
       </c>
       <c r="CE29" s="23">
-        <f t="shared" si="95"/>
-        <v>81299.480472859606</v>
+        <f t="shared" si="100"/>
+        <v>63823.216040325366</v>
       </c>
       <c r="CF29" s="23">
-        <f t="shared" si="95"/>
-        <v>82925.470082316795</v>
+        <f t="shared" si="100"/>
+        <v>64780.564280930237</v>
       </c>
       <c r="CG29" s="23">
-        <f t="shared" si="95"/>
-        <v>84583.979483963136</v>
+        <f t="shared" si="100"/>
+        <v>65752.27274514419</v>
       </c>
       <c r="CH29" s="23">
-        <f t="shared" si="95"/>
-        <v>86275.659073642397</v>
+        <f t="shared" si="100"/>
+        <v>66738.556836321353</v>
       </c>
       <c r="CI29" s="23">
-        <f t="shared" si="95"/>
-        <v>88001.172255115249</v>
+        <f t="shared" si="100"/>
+        <v>67739.635188866174</v>
       </c>
       <c r="CJ29" s="23">
-        <f t="shared" si="95"/>
-        <v>89761.195700217562</v>
+        <f t="shared" si="100"/>
+        <v>68755.729716699163</v>
       </c>
       <c r="CK29" s="23">
-        <f t="shared" si="95"/>
-        <v>91556.419614221915</v>
+        <f t="shared" si="100"/>
+        <v>69787.065662449648</v>
       </c>
       <c r="CL29" s="23">
-        <f t="shared" si="95"/>
-        <v>93387.54800650636</v>
+        <f t="shared" si="100"/>
+        <v>70833.87164738639</v>
       </c>
       <c r="CM29" s="23">
-        <f t="shared" si="95"/>
-        <v>95255.298966636488</v>
+        <f t="shared" si="100"/>
+        <v>71896.379722097176</v>
       </c>
       <c r="CN29" s="23">
-        <f t="shared" si="95"/>
-        <v>97160.404945969218</v>
+        <f t="shared" si="100"/>
+        <v>72974.82541792863</v>
       </c>
       <c r="CO29" s="23">
-        <f t="shared" si="95"/>
-        <v>99103.613044888611</v>
+        <f t="shared" si="100"/>
+        <v>74069.447799197558</v>
       </c>
       <c r="CP29" s="23">
-        <f t="shared" si="95"/>
-        <v>101085.68530578639</v>
+        <f t="shared" si="100"/>
+        <v>75180.489516185509</v>
       </c>
       <c r="CQ29" s="23">
-        <f t="shared" si="95"/>
-        <v>103107.39901190212</v>
+        <f t="shared" si="100"/>
+        <v>76308.196858928291</v>
       </c>
       <c r="CR29" s="19"/>
       <c r="CS29" s="19"/>
@@ -8585,24 +8603,27 @@
         <f>15697-SUM(S30:U30)</f>
         <v>3997</v>
       </c>
+      <c r="W30" s="1">
+        <v>3704</v>
+      </c>
       <c r="AN30" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>14385</v>
       </c>
       <c r="AO30" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>15019</v>
       </c>
       <c r="AP30" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>15420</v>
       </c>
       <c r="AQ30" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>15658</v>
       </c>
       <c r="AR30" s="1">
-        <f t="shared" ref="AR30" si="96">SUM(S30:V30)</f>
+        <f t="shared" ref="AR30" si="101">SUM(S30:V30)</f>
         <v>15697</v>
       </c>
     </row>
@@ -8675,24 +8696,27 @@
         <f>1442-SUM(S31:U31)</f>
         <v>434</v>
       </c>
+      <c r="W31" s="1">
+        <v>371</v>
+      </c>
       <c r="AN31" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1682</v>
       </c>
       <c r="AO31" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1561</v>
       </c>
       <c r="AP31" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1498</v>
       </c>
       <c r="AQ31" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1404</v>
       </c>
       <c r="AR31" s="1">
-        <f t="shared" ref="AR31:AR41" si="97">SUM(S31:V31)</f>
+        <f t="shared" ref="AR31:AR41" si="102">SUM(S31:V31)</f>
         <v>1442</v>
       </c>
     </row>
@@ -8765,24 +8789,27 @@
         <f>1768-SUM(S32:U32)</f>
         <v>451</v>
       </c>
+      <c r="W32" s="1">
+        <v>398</v>
+      </c>
       <c r="AN32" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1919</v>
       </c>
       <c r="AO32" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1885</v>
       </c>
       <c r="AP32" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1829</v>
       </c>
       <c r="AQ32" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1782</v>
       </c>
       <c r="AR32" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>1768</v>
       </c>
     </row>
@@ -8855,24 +8882,27 @@
         <f>2001-SUM(S33:U33)</f>
         <v>626</v>
       </c>
+      <c r="W33" s="1">
+        <v>488</v>
+      </c>
       <c r="AN33" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1809</v>
       </c>
       <c r="AO33" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1794</v>
       </c>
       <c r="AP33" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1775</v>
       </c>
       <c r="AQ33" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1841</v>
       </c>
       <c r="AR33" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>2001</v>
       </c>
     </row>
@@ -8945,24 +8975,27 @@
         <f>2979-SUM(S34:U34)</f>
         <v>773</v>
       </c>
+      <c r="W34" s="1">
+        <v>731</v>
+      </c>
       <c r="AN34" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>2973</v>
       </c>
       <c r="AO34" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>2994</v>
       </c>
       <c r="AP34" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>2969</v>
       </c>
       <c r="AQ34" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>2976</v>
       </c>
       <c r="AR34" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>2979</v>
       </c>
     </row>
@@ -9035,24 +9068,27 @@
         <f>2147-SUM(S35:U35)</f>
         <v>594</v>
       </c>
+      <c r="W35" s="1">
+        <v>503</v>
+      </c>
       <c r="AN35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>2059</v>
       </c>
       <c r="AO35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>2016</v>
       </c>
       <c r="AP35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>2095</v>
       </c>
       <c r="AQ35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>2107</v>
       </c>
       <c r="AR35" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>2147</v>
       </c>
     </row>
@@ -9125,24 +9161,27 @@
         <f>438-SUM(S36:U36)</f>
         <v>50</v>
       </c>
+      <c r="W36" s="1">
+        <v>66</v>
+      </c>
       <c r="AN36" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>-84</v>
       </c>
       <c r="AO36" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>-36</v>
       </c>
       <c r="AP36" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>53</v>
       </c>
       <c r="AQ36" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>77</v>
       </c>
       <c r="AR36" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>438</v>
       </c>
     </row>
@@ -9151,11 +9190,11 @@
         <v>135</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ref="C37:T37" si="98">C29-SUM(C30:C36)</f>
+        <f t="shared" ref="C37:T37" si="103">C29-SUM(C30:C36)</f>
         <v>398</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>951</v>
       </c>
       <c r="E37" s="1">
@@ -9167,15 +9206,15 @@
         <v>963</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>1042</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>1127</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>1043</v>
       </c>
       <c r="J37" s="1">
@@ -9183,15 +9222,15 @@
         <v>1050</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>711</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>764</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>1118</v>
       </c>
       <c r="N37" s="1">
@@ -9199,27 +9238,27 @@
         <v>1244</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>999</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>1133</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>1168</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>1728</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>1168</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>1325</v>
       </c>
       <c r="U37" s="1">
@@ -9227,8 +9266,12 @@
         <v>1391</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" ref="V37" si="99">V29-SUM(V30:V36)</f>
+        <f t="shared" ref="V37" si="104">V29-SUM(V30:V36)</f>
         <v>1441</v>
+      </c>
+      <c r="W37" s="1">
+        <f>W29-SUM(W30:W36)</f>
+        <v>1530</v>
       </c>
       <c r="AN37" s="1">
         <f>AN29-SUM(AN30:AN36)</f>
@@ -9252,207 +9295,207 @@
       </c>
       <c r="AS37" s="24">
         <f>AS29*AS47</f>
-        <v>6009.6394800000007</v>
+        <v>6469.393320000001</v>
       </c>
       <c r="AT37" s="24">
-        <f t="shared" ref="AT37:BH37" si="100">AT29*AT47</f>
-        <v>6396.4687950000007</v>
+        <f t="shared" ref="AT37:BH37" si="105">AT29*AT47</f>
+        <v>6966.1791690000009</v>
       </c>
       <c r="AU37" s="24">
-        <f t="shared" si="100"/>
-        <v>6852.1311958679998</v>
+        <f t="shared" si="105"/>
+        <v>7308.1892782980012</v>
       </c>
       <c r="AV37" s="24">
-        <f t="shared" si="100"/>
-        <v>7259.432299064506</v>
+        <f t="shared" si="105"/>
+        <v>7679.3503454797819</v>
       </c>
       <c r="AW37" s="24">
-        <f t="shared" si="100"/>
-        <v>7674.2857595001487</v>
+        <f t="shared" si="105"/>
+        <v>7960.324459337965</v>
       </c>
       <c r="AX37" s="24">
-        <f t="shared" si="100"/>
-        <v>8035.9218240615837</v>
+        <f t="shared" si="105"/>
+        <v>8239.1374013482437</v>
       </c>
       <c r="AY37" s="24">
-        <f t="shared" si="100"/>
-        <v>8196.6402605428157</v>
+        <f t="shared" si="105"/>
+        <v>8362.7244623684674</v>
       </c>
       <c r="AZ37" s="24">
-        <f t="shared" si="100"/>
-        <v>8360.5730657536715</v>
+        <f t="shared" si="105"/>
+        <v>8488.1653293039944</v>
       </c>
       <c r="BA37" s="24">
-        <f t="shared" si="100"/>
-        <v>8527.7845270687449</v>
+        <f t="shared" si="105"/>
+        <v>8615.4878092435538</v>
       </c>
       <c r="BB37" s="24">
-        <f t="shared" si="100"/>
-        <v>8698.3402176101208</v>
+        <f t="shared" si="105"/>
+        <v>8744.7201263822062</v>
       </c>
       <c r="BC37" s="24">
-        <f t="shared" si="100"/>
-        <v>8872.3070219623241</v>
+        <f t="shared" si="105"/>
+        <v>8875.8909282779368</v>
       </c>
       <c r="BD37" s="24">
-        <f t="shared" si="100"/>
-        <v>9049.7531624015701</v>
+        <f t="shared" si="105"/>
+        <v>9009.0292922021054</v>
       </c>
       <c r="BE37" s="24">
-        <f t="shared" si="100"/>
-        <v>9230.7482256496023</v>
+        <f t="shared" si="105"/>
+        <v>9144.1647315851351</v>
       </c>
       <c r="BF37" s="24">
-        <f t="shared" si="100"/>
-        <v>9415.363190162594</v>
+        <f t="shared" si="105"/>
+        <v>9281.3272025589122</v>
       </c>
       <c r="BG37" s="24">
-        <f t="shared" si="100"/>
-        <v>9603.6704539658458</v>
+        <f t="shared" si="105"/>
+        <v>9420.5471105972938</v>
       </c>
       <c r="BH37" s="24">
-        <f t="shared" si="100"/>
-        <v>9795.7438630451634</v>
+        <f t="shared" si="105"/>
+        <v>9561.8553172562533</v>
       </c>
       <c r="BI37" s="24">
-        <f t="shared" ref="BI37:CP37" si="101">BI29*BI47</f>
-        <v>9991.6587403060657</v>
+        <f t="shared" ref="BI37:CP37" si="106">BI29*BI47</f>
+        <v>9705.2831470150959</v>
       </c>
       <c r="BJ37" s="24">
-        <f t="shared" si="101"/>
-        <v>10191.491915112189</v>
+        <f t="shared" si="106"/>
+        <v>9850.8623942203212</v>
       </c>
       <c r="BK37" s="24">
-        <f t="shared" si="101"/>
-        <v>10395.321753414433</v>
+        <f t="shared" si="106"/>
+        <v>9998.6253301336237</v>
       </c>
       <c r="BL37" s="24">
-        <f t="shared" si="101"/>
-        <v>10603.228188482721</v>
+        <f t="shared" si="106"/>
+        <v>10148.604710085629</v>
       </c>
       <c r="BM37" s="24">
-        <f t="shared" si="101"/>
-        <v>10815.292752252375</v>
+        <f t="shared" si="106"/>
+        <v>10300.83378073691</v>
       </c>
       <c r="BN37" s="24">
-        <f t="shared" si="101"/>
-        <v>11031.598607297423</v>
+        <f t="shared" si="106"/>
+        <v>10455.346287447963</v>
       </c>
       <c r="BO37" s="24">
-        <f t="shared" si="101"/>
-        <v>11252.230579443372</v>
+        <f t="shared" si="106"/>
+        <v>10612.176481759683</v>
       </c>
       <c r="BP37" s="24">
-        <f t="shared" si="101"/>
-        <v>11477.27519103224</v>
+        <f t="shared" si="106"/>
+        <v>10771.359128986078</v>
       </c>
       <c r="BQ37" s="24">
-        <f t="shared" si="101"/>
-        <v>11706.820694852886</v>
+        <f t="shared" si="106"/>
+        <v>10932.929515920867</v>
       </c>
       <c r="BR37" s="24">
-        <f t="shared" si="101"/>
-        <v>11940.957108749943</v>
+        <f t="shared" si="106"/>
+        <v>11096.923458659679</v>
       </c>
       <c r="BS37" s="24">
-        <f t="shared" si="101"/>
-        <v>12179.776250924942</v>
+        <f t="shared" si="106"/>
+        <v>11263.377310539572</v>
       </c>
       <c r="BT37" s="24">
-        <f t="shared" si="101"/>
-        <v>12423.37177594344</v>
+        <f t="shared" si="106"/>
+        <v>11432.327970197666</v>
       </c>
       <c r="BU37" s="24">
-        <f t="shared" si="101"/>
-        <v>12671.839211462311</v>
+        <f t="shared" si="106"/>
+        <v>11603.81288975063</v>
       </c>
       <c r="BV37" s="24">
-        <f t="shared" si="101"/>
-        <v>12925.275995691558</v>
+        <f t="shared" si="106"/>
+        <v>11777.870083096888</v>
       </c>
       <c r="BW37" s="24">
-        <f t="shared" si="101"/>
-        <v>13183.781515605389</v>
+        <f t="shared" si="106"/>
+        <v>11954.53813434334</v>
       </c>
       <c r="BX37" s="24">
-        <f t="shared" si="101"/>
-        <v>13447.457145917499</v>
+        <f t="shared" si="106"/>
+        <v>12133.856206358489</v>
       </c>
       <c r="BY37" s="24">
-        <f t="shared" si="101"/>
-        <v>13716.406288835849</v>
+        <f t="shared" si="106"/>
+        <v>12315.864049453863</v>
       </c>
       <c r="BZ37" s="24">
-        <f t="shared" si="101"/>
-        <v>13990.734414612565</v>
+        <f t="shared" si="106"/>
+        <v>12500.602010195671</v>
       </c>
       <c r="CA37" s="24">
-        <f t="shared" si="101"/>
-        <v>14270.549102904817</v>
+        <f t="shared" si="106"/>
+        <v>12688.111040348604</v>
       </c>
       <c r="CB37" s="24">
-        <f t="shared" si="101"/>
-        <v>14555.960084962915</v>
+        <f t="shared" si="106"/>
+        <v>12878.432705953832</v>
       </c>
       <c r="CC37" s="24">
-        <f t="shared" si="101"/>
-        <v>14847.079286662172</v>
+        <f t="shared" si="106"/>
+        <v>13071.609196543137</v>
       </c>
       <c r="CD37" s="24">
-        <f t="shared" si="101"/>
-        <v>15144.020872395417</v>
+        <f t="shared" si="106"/>
+        <v>13267.683334491283</v>
       </c>
       <c r="CE37" s="24">
-        <f t="shared" si="101"/>
-        <v>15446.901289843325</v>
+        <f t="shared" si="106"/>
+        <v>13466.698584508651</v>
       </c>
       <c r="CF37" s="24">
-        <f t="shared" si="101"/>
-        <v>15755.839315640191</v>
+        <f t="shared" si="106"/>
+        <v>13668.699063276279</v>
       </c>
       <c r="CG37" s="24">
-        <f t="shared" si="101"/>
-        <v>16070.956101952996</v>
+        <f t="shared" si="106"/>
+        <v>13873.729549225423</v>
       </c>
       <c r="CH37" s="24">
-        <f t="shared" si="101"/>
-        <v>16392.375223992054</v>
+        <f t="shared" si="106"/>
+        <v>14081.835492463804</v>
       </c>
       <c r="CI37" s="24">
-        <f t="shared" si="101"/>
-        <v>16720.222728471897</v>
+        <f t="shared" si="106"/>
+        <v>14293.063024850762</v>
       </c>
       <c r="CJ37" s="24">
-        <f t="shared" si="101"/>
-        <v>17054.627183041335</v>
+        <f t="shared" si="106"/>
+        <v>14507.458970223523</v>
       </c>
       <c r="CK37" s="24">
-        <f t="shared" si="101"/>
-        <v>17395.719726702166</v>
+        <f t="shared" si="106"/>
+        <v>14725.070854776875</v>
       </c>
       <c r="CL37" s="24">
-        <f t="shared" si="101"/>
-        <v>17743.634121236209</v>
+        <f t="shared" si="106"/>
+        <v>14945.946917598527</v>
       </c>
       <c r="CM37" s="24">
-        <f t="shared" si="101"/>
-        <v>18098.506803660934</v>
+        <f t="shared" si="106"/>
+        <v>15170.136121362504</v>
       </c>
       <c r="CN37" s="24">
-        <f t="shared" si="101"/>
-        <v>18460.476939734152</v>
+        <f t="shared" si="106"/>
+        <v>15397.68816318294</v>
       </c>
       <c r="CO37" s="24">
-        <f t="shared" si="101"/>
-        <v>18829.686478528838</v>
+        <f t="shared" si="106"/>
+        <v>15628.653485630684</v>
       </c>
       <c r="CP37" s="24">
-        <f t="shared" si="101"/>
-        <v>19206.280208099415</v>
+        <f t="shared" si="106"/>
+        <v>15863.083287915142</v>
       </c>
       <c r="CQ37" s="24">
         <f>CQ29*CQ47</f>
-        <v>19590.405812261404</v>
+        <v>16101.02953723387</v>
       </c>
       <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
@@ -9527,24 +9570,27 @@
         <f>4-SUM(S38:U38)</f>
         <v>-31</v>
       </c>
+      <c r="W38" s="1">
+        <v>73</v>
+      </c>
       <c r="AN38" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>383</v>
       </c>
       <c r="AO38" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>349</v>
       </c>
       <c r="AP38" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>253</v>
       </c>
       <c r="AQ38" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>100</v>
       </c>
       <c r="AR38" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>4</v>
       </c>
     </row>
@@ -9553,15 +9599,15 @@
         <v>17</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" ref="C39:U39" si="102">C37+C38</f>
+        <f t="shared" ref="C39:U39" si="107">C37+C38</f>
         <v>263</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>1799</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" ref="E39" si="103">E37+E38</f>
+        <f t="shared" ref="E39" si="108">E37+E38</f>
         <v>1144</v>
       </c>
       <c r="F39" s="1">
@@ -9569,15 +9615,15 @@
         <v>1859</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>872</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>1356</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>1165</v>
       </c>
       <c r="J39" s="1">
@@ -9585,15 +9631,15 @@
         <v>706</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>629</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>49</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>1578</v>
       </c>
       <c r="N39" s="1">
@@ -9601,15 +9647,15 @@
         <v>1110</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>1074</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>1303</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>1241</v>
       </c>
       <c r="R39" s="1">
@@ -9617,21 +9663,25 @@
         <v>1793</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>1209</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>1399</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>1311</v>
       </c>
       <c r="V39" s="1">
         <f>V37+V38</f>
         <v>1410</v>
       </c>
+      <c r="W39" s="1">
+        <f t="shared" ref="W39" si="109">W37+W38</f>
+        <v>1603</v>
+      </c>
       <c r="AN39" s="1">
         <f>AN37+AN38</f>
         <v>5411</v>
@@ -9722,229 +9772,232 @@
         <f>1182-SUM(S40:U40)</f>
         <v>289</v>
       </c>
+      <c r="W40" s="1">
+        <v>316</v>
+      </c>
       <c r="AN40" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1165</v>
       </c>
       <c r="AO40" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1207</v>
       </c>
       <c r="AP40" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1204</v>
       </c>
       <c r="AQ40" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>1284</v>
       </c>
       <c r="AR40" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>1182</v>
       </c>
       <c r="AS40" s="20">
         <f>AS37*0.21</f>
-        <v>1262.0242908</v>
+        <v>1358.5725972000002</v>
       </c>
       <c r="AT40" s="20">
-        <f t="shared" ref="AT40:CQ40" si="104">AT37*0.21</f>
-        <v>1343.25844695</v>
+        <f t="shared" ref="AT40:CQ40" si="110">AT37*0.21</f>
+        <v>1462.8976254900001</v>
       </c>
       <c r="AU40" s="20">
-        <f t="shared" si="104"/>
-        <v>1438.9475511322798</v>
+        <f t="shared" si="110"/>
+        <v>1534.7197484425801</v>
       </c>
       <c r="AV40" s="20">
-        <f t="shared" si="104"/>
-        <v>1524.4807828035462</v>
+        <f t="shared" si="110"/>
+        <v>1612.6635725507542</v>
       </c>
       <c r="AW40" s="20">
-        <f t="shared" si="104"/>
-        <v>1611.6000094950311</v>
+        <f t="shared" si="110"/>
+        <v>1671.6681364609726</v>
       </c>
       <c r="AX40" s="20">
-        <f t="shared" si="104"/>
-        <v>1687.5435830529325</v>
+        <f t="shared" si="110"/>
+        <v>1730.2188542831311</v>
       </c>
       <c r="AY40" s="20">
-        <f t="shared" si="104"/>
-        <v>1721.2944547139912</v>
+        <f t="shared" si="110"/>
+        <v>1756.172137097378</v>
       </c>
       <c r="AZ40" s="20">
-        <f t="shared" si="104"/>
-        <v>1755.7203438082709</v>
+        <f t="shared" si="110"/>
+        <v>1782.5147191538388</v>
       </c>
       <c r="BA40" s="20">
-        <f t="shared" si="104"/>
-        <v>1790.8347506844364</v>
+        <f t="shared" si="110"/>
+        <v>1809.2524399411461</v>
       </c>
       <c r="BB40" s="20">
-        <f t="shared" si="104"/>
-        <v>1826.6514456981254</v>
+        <f t="shared" si="110"/>
+        <v>1836.3912265402632</v>
       </c>
       <c r="BC40" s="20">
-        <f t="shared" si="104"/>
-        <v>1863.184474612088</v>
+        <f t="shared" si="110"/>
+        <v>1863.9370949383667</v>
       </c>
       <c r="BD40" s="20">
-        <f t="shared" si="104"/>
-        <v>1900.4481641043296</v>
+        <f t="shared" si="110"/>
+        <v>1891.896151362442</v>
       </c>
       <c r="BE40" s="20">
-        <f t="shared" si="104"/>
-        <v>1938.4571273864165</v>
+        <f t="shared" si="110"/>
+        <v>1920.2745936328784</v>
       </c>
       <c r="BF40" s="20">
-        <f t="shared" si="104"/>
-        <v>1977.2262699341447</v>
+        <f t="shared" si="110"/>
+        <v>1949.0787125373715</v>
       </c>
       <c r="BG40" s="20">
-        <f t="shared" si="104"/>
-        <v>2016.7707953328274</v>
+        <f t="shared" si="110"/>
+        <v>1978.3148932254317</v>
       </c>
       <c r="BH40" s="20">
-        <f t="shared" si="104"/>
-        <v>2057.1062112394843</v>
+        <f t="shared" si="110"/>
+        <v>2007.9896166238132</v>
       </c>
       <c r="BI40" s="20">
-        <f t="shared" si="104"/>
-        <v>2098.2483354642736</v>
+        <f t="shared" si="110"/>
+        <v>2038.1094608731701</v>
       </c>
       <c r="BJ40" s="20">
-        <f t="shared" si="104"/>
-        <v>2140.2133021735594</v>
+        <f t="shared" si="110"/>
+        <v>2068.6811027862673</v>
       </c>
       <c r="BK40" s="20">
-        <f t="shared" si="104"/>
-        <v>2183.0175682170311</v>
+        <f t="shared" si="110"/>
+        <v>2099.7113193280611</v>
       </c>
       <c r="BL40" s="20">
-        <f t="shared" si="104"/>
-        <v>2226.677919581371</v>
+        <f t="shared" si="110"/>
+        <v>2131.2069891179817</v>
       </c>
       <c r="BM40" s="20">
-        <f t="shared" si="104"/>
-        <v>2271.2114779729986</v>
+        <f t="shared" si="110"/>
+        <v>2163.175093954751</v>
       </c>
       <c r="BN40" s="20">
-        <f t="shared" si="104"/>
-        <v>2316.6357075324586</v>
+        <f t="shared" si="110"/>
+        <v>2195.6227203640719</v>
       </c>
       <c r="BO40" s="20">
-        <f t="shared" si="104"/>
-        <v>2362.9684216831083</v>
+        <f t="shared" si="110"/>
+        <v>2228.5570611695334</v>
       </c>
       <c r="BP40" s="20">
-        <f t="shared" si="104"/>
-        <v>2410.2277901167704</v>
+        <f t="shared" si="110"/>
+        <v>2261.9854170870763</v>
       </c>
       <c r="BQ40" s="20">
-        <f t="shared" si="104"/>
-        <v>2458.432345919106</v>
+        <f t="shared" si="110"/>
+        <v>2295.9151983433821</v>
       </c>
       <c r="BR40" s="20">
-        <f t="shared" si="104"/>
-        <v>2507.6009928374879</v>
+        <f t="shared" si="110"/>
+        <v>2330.3539263185326</v>
       </c>
       <c r="BS40" s="20">
-        <f t="shared" si="104"/>
-        <v>2557.7530126942379</v>
+        <f t="shared" si="110"/>
+        <v>2365.3092352133099</v>
       </c>
       <c r="BT40" s="20">
-        <f t="shared" si="104"/>
-        <v>2608.9080729481225</v>
+        <f t="shared" si="110"/>
+        <v>2400.7888737415096</v>
       </c>
       <c r="BU40" s="20">
-        <f t="shared" si="104"/>
-        <v>2661.0862344070852</v>
+        <f t="shared" si="110"/>
+        <v>2436.8007068476322</v>
       </c>
       <c r="BV40" s="20">
-        <f t="shared" si="104"/>
-        <v>2714.307959095227</v>
+        <f t="shared" si="110"/>
+        <v>2473.3527174503465</v>
       </c>
       <c r="BW40" s="20">
-        <f t="shared" si="104"/>
-        <v>2768.5941182771317</v>
+        <f t="shared" si="110"/>
+        <v>2510.4530082121014</v>
       </c>
       <c r="BX40" s="20">
-        <f t="shared" si="104"/>
-        <v>2823.9660006426748</v>
+        <f t="shared" si="110"/>
+        <v>2548.1098033352823</v>
       </c>
       <c r="BY40" s="20">
-        <f t="shared" si="104"/>
-        <v>2880.4453206555281</v>
+        <f t="shared" si="110"/>
+        <v>2586.3314503853112</v>
       </c>
       <c r="BZ40" s="20">
-        <f t="shared" si="104"/>
-        <v>2938.0542270686387</v>
+        <f t="shared" si="110"/>
+        <v>2625.1264221410906</v>
       </c>
       <c r="CA40" s="20">
-        <f t="shared" si="104"/>
-        <v>2996.8153116100116</v>
+        <f t="shared" si="110"/>
+        <v>2664.5033184732065</v>
       </c>
       <c r="CB40" s="20">
-        <f t="shared" si="104"/>
-        <v>3056.751617842212</v>
+        <f t="shared" si="110"/>
+        <v>2704.4708682503046</v>
       </c>
       <c r="CC40" s="20">
-        <f t="shared" si="104"/>
-        <v>3117.886650199056</v>
+        <f t="shared" si="110"/>
+        <v>2745.0379312740588</v>
       </c>
       <c r="CD40" s="20">
-        <f t="shared" si="104"/>
-        <v>3180.2443832030372</v>
+        <f t="shared" si="110"/>
+        <v>2786.2135002431692</v>
       </c>
       <c r="CE40" s="20">
-        <f t="shared" si="104"/>
-        <v>3243.8492708670979</v>
+        <f t="shared" si="110"/>
+        <v>2828.0067027468167</v>
       </c>
       <c r="CF40" s="20">
-        <f t="shared" si="104"/>
-        <v>3308.7262562844398</v>
+        <f t="shared" si="110"/>
+        <v>2870.4268032880186</v>
       </c>
       <c r="CG40" s="20">
-        <f t="shared" si="104"/>
-        <v>3374.9007814101287</v>
+        <f t="shared" si="110"/>
+        <v>2913.4832053373389</v>
       </c>
       <c r="CH40" s="20">
-        <f t="shared" si="104"/>
-        <v>3442.3987970383314</v>
+        <f t="shared" si="110"/>
+        <v>2957.185453417399</v>
       </c>
       <c r="CI40" s="20">
-        <f t="shared" si="104"/>
-        <v>3511.2467729790983</v>
+        <f t="shared" si="110"/>
+        <v>3001.5432352186599</v>
       </c>
       <c r="CJ40" s="20">
-        <f t="shared" si="104"/>
-        <v>3581.4717084386803</v>
+        <f t="shared" si="110"/>
+        <v>3046.5663837469397</v>
       </c>
       <c r="CK40" s="20">
-        <f t="shared" si="104"/>
-        <v>3653.1011426074547</v>
+        <f t="shared" si="110"/>
+        <v>3092.2648795031437</v>
       </c>
       <c r="CL40" s="20">
-        <f t="shared" si="104"/>
-        <v>3726.163165459604</v>
+        <f t="shared" si="110"/>
+        <v>3138.6488526956905</v>
       </c>
       <c r="CM40" s="20">
-        <f t="shared" si="104"/>
-        <v>3800.6864287687958</v>
+        <f t="shared" si="110"/>
+        <v>3185.7285854861257</v>
       </c>
       <c r="CN40" s="20">
-        <f t="shared" si="104"/>
-        <v>3876.7001573441717</v>
+        <f t="shared" si="110"/>
+        <v>3233.5145142684173</v>
       </c>
       <c r="CO40" s="20">
-        <f t="shared" si="104"/>
-        <v>3954.2341604910557</v>
+        <f t="shared" si="110"/>
+        <v>3282.0172319824437</v>
       </c>
       <c r="CP40" s="20">
-        <f t="shared" si="104"/>
-        <v>4033.3188437008771</v>
+        <f t="shared" si="110"/>
+        <v>3331.2474904621799</v>
       </c>
       <c r="CQ40" s="20">
-        <f t="shared" si="104"/>
-        <v>4113.9852205748948</v>
+        <f t="shared" si="110"/>
+        <v>3381.2162028191124</v>
       </c>
     </row>
     <row r="41" spans="2:98" s="2" customFormat="1" ht="15">
@@ -9952,15 +10005,15 @@
         <v>18</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ref="C41:U41" si="105">C39-C40</f>
+        <f t="shared" ref="C41:U41" si="111">C39-C40</f>
         <v>84</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1530</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41" si="106">E39-E40</f>
+        <f t="shared" ref="E41" si="112">E39-E40</f>
         <v>1021</v>
       </c>
       <c r="F41" s="2">
@@ -9968,15 +10021,15 @@
         <v>1567</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1097</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1184</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1087</v>
       </c>
       <c r="J41" s="2">
@@ -9984,15 +10037,15 @@
         <v>801</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>509</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>-341</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1330</v>
       </c>
       <c r="N41" s="2">
@@ -10000,15 +10053,15 @@
         <v>921</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>795</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1029</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1020</v>
       </c>
       <c r="R41" s="2">
@@ -10016,23 +10069,24 @@
         <v>1402</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>888</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1128</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1010</v>
       </c>
       <c r="V41" s="2">
         <f>V39-V40</f>
         <v>1121</v>
       </c>
-      <c r="W41" s="21">
-        <v>1120</v>
+      <c r="W41" s="2">
+        <f t="shared" ref="W41" si="113">W39-W40</f>
+        <v>1287</v>
       </c>
       <c r="X41" s="21">
         <v>1150</v>
@@ -10078,212 +10132,212 @@
         <v>4246</v>
       </c>
       <c r="AR41" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>4147</v>
       </c>
       <c r="AS41" s="23">
         <f>AS37-AS40</f>
-        <v>4747.6151892000007</v>
+        <v>5110.820722800001</v>
       </c>
       <c r="AT41" s="21">
-        <f t="shared" ref="AT41:BM41" si="107">AT37-AT40</f>
-        <v>5053.2103480500009</v>
+        <f t="shared" ref="AT41:BM41" si="114">AT37-AT40</f>
+        <v>5503.281543510001</v>
       </c>
       <c r="AU41" s="21">
-        <f t="shared" si="107"/>
-        <v>5413.18364473572</v>
+        <f t="shared" si="114"/>
+        <v>5773.4695298554216</v>
       </c>
       <c r="AV41" s="21">
-        <f t="shared" si="107"/>
-        <v>5734.9515162609596</v>
+        <f t="shared" si="114"/>
+        <v>6066.6867729290279</v>
       </c>
       <c r="AW41" s="21">
-        <f t="shared" si="107"/>
-        <v>6062.6857500051174</v>
+        <f t="shared" si="114"/>
+        <v>6288.6563228769919</v>
       </c>
       <c r="AX41" s="21">
-        <f t="shared" si="107"/>
-        <v>6348.3782410086515</v>
+        <f t="shared" si="114"/>
+        <v>6508.9185470651128</v>
       </c>
       <c r="AY41" s="21">
-        <f t="shared" si="107"/>
-        <v>6475.3458058288243</v>
+        <f t="shared" si="114"/>
+        <v>6606.5523252710891</v>
       </c>
       <c r="AZ41" s="21">
-        <f t="shared" si="107"/>
-        <v>6604.8527219454008</v>
+        <f t="shared" si="114"/>
+        <v>6705.6506101501554</v>
       </c>
       <c r="BA41" s="21">
-        <f t="shared" si="107"/>
-        <v>6736.9497763843083</v>
+        <f t="shared" si="114"/>
+        <v>6806.2353693024079</v>
       </c>
       <c r="BB41" s="21">
-        <f t="shared" si="107"/>
-        <v>6871.688771911995</v>
+        <f t="shared" si="114"/>
+        <v>6908.328899841943</v>
       </c>
       <c r="BC41" s="21">
-        <f t="shared" si="107"/>
-        <v>7009.1225473502363</v>
+        <f t="shared" si="114"/>
+        <v>7011.9538333395703</v>
       </c>
       <c r="BD41" s="21">
-        <f t="shared" si="107"/>
-        <v>7149.3049982972407</v>
+        <f t="shared" si="114"/>
+        <v>7117.1331408396636</v>
       </c>
       <c r="BE41" s="21">
-        <f t="shared" si="107"/>
-        <v>7292.2910982631856</v>
+        <f t="shared" si="114"/>
+        <v>7223.8901379522567</v>
       </c>
       <c r="BF41" s="21">
-        <f t="shared" si="107"/>
-        <v>7438.1369202284495</v>
+        <f t="shared" si="114"/>
+        <v>7332.2484900215404</v>
       </c>
       <c r="BG41" s="21">
-        <f t="shared" si="107"/>
-        <v>7586.8996586330186</v>
+        <f t="shared" si="114"/>
+        <v>7442.2322173718621</v>
       </c>
       <c r="BH41" s="21">
-        <f t="shared" si="107"/>
-        <v>7738.6376518056786</v>
+        <f t="shared" si="114"/>
+        <v>7553.8657006324402</v>
       </c>
       <c r="BI41" s="21">
-        <f t="shared" si="107"/>
-        <v>7893.4104048417921</v>
+        <f t="shared" si="114"/>
+        <v>7667.1736861419258</v>
       </c>
       <c r="BJ41" s="21">
-        <f t="shared" si="107"/>
-        <v>8051.2786129386295</v>
+        <f t="shared" si="114"/>
+        <v>7782.1812914340535</v>
       </c>
       <c r="BK41" s="21">
-        <f t="shared" si="107"/>
-        <v>8212.3041851974012</v>
+        <f t="shared" si="114"/>
+        <v>7898.9140108055626</v>
       </c>
       <c r="BL41" s="21">
-        <f t="shared" si="107"/>
-        <v>8376.5502689013501</v>
+        <f t="shared" si="114"/>
+        <v>8017.3977209676468</v>
       </c>
       <c r="BM41" s="21">
-        <f t="shared" si="107"/>
-        <v>8544.0812742793769</v>
+        <f t="shared" si="114"/>
+        <v>8137.6586867821588</v>
       </c>
       <c r="BN41" s="21">
-        <f t="shared" ref="BN41" si="108">BN37-BN40</f>
-        <v>8714.9628997649634</v>
+        <f t="shared" ref="BN41" si="115">BN37-BN40</f>
+        <v>8259.7235670838909</v>
       </c>
       <c r="BO41" s="21">
-        <f t="shared" ref="BO41" si="109">BO37-BO40</f>
-        <v>8889.262157760264</v>
+        <f t="shared" ref="BO41" si="116">BO37-BO40</f>
+        <v>8383.6194205901502</v>
       </c>
       <c r="BP41" s="21">
-        <f t="shared" ref="BP41" si="110">BP37-BP40</f>
-        <v>9067.0474009154696</v>
+        <f t="shared" ref="BP41" si="117">BP37-BP40</f>
+        <v>8509.3737118990011</v>
       </c>
       <c r="BQ41" s="21">
-        <f t="shared" ref="BQ41" si="111">BQ37-BQ40</f>
-        <v>9248.3883489337804</v>
+        <f t="shared" ref="BQ41" si="118">BQ37-BQ40</f>
+        <v>8637.0143175774847</v>
       </c>
       <c r="BR41" s="21">
-        <f t="shared" ref="BR41" si="112">BR37-BR40</f>
-        <v>9433.3561159124547</v>
+        <f t="shared" ref="BR41" si="119">BR37-BR40</f>
+        <v>8766.5695323411474</v>
       </c>
       <c r="BS41" s="21">
-        <f t="shared" ref="BS41" si="113">BS37-BS40</f>
-        <v>9622.023238230704</v>
+        <f t="shared" ref="BS41" si="120">BS37-BS40</f>
+        <v>8898.0680753262623</v>
       </c>
       <c r="BT41" s="21">
-        <f t="shared" ref="BT41" si="114">BT37-BT40</f>
-        <v>9814.4637029953174</v>
+        <f t="shared" ref="BT41" si="121">BT37-BT40</f>
+        <v>9031.5390964561557</v>
       </c>
       <c r="BU41" s="21">
-        <f t="shared" ref="BU41" si="115">BU37-BU40</f>
-        <v>10010.752977055226</v>
+        <f t="shared" ref="BU41" si="122">BU37-BU40</f>
+        <v>9167.0121829029977</v>
       </c>
       <c r="BV41" s="21">
-        <f t="shared" ref="BV41" si="116">BV37-BV40</f>
-        <v>10210.96803659633</v>
+        <f t="shared" ref="BV41" si="123">BV37-BV40</f>
+        <v>9304.5173656465413</v>
       </c>
       <c r="BW41" s="21">
-        <f t="shared" ref="BW41" si="117">BW37-BW40</f>
-        <v>10415.187397328258</v>
+        <f t="shared" ref="BW41" si="124">BW37-BW40</f>
+        <v>9444.0851261312382</v>
       </c>
       <c r="BX41" s="21">
-        <f t="shared" ref="BX41" si="118">BX37-BX40</f>
-        <v>10623.491145274824</v>
+        <f t="shared" ref="BX41" si="125">BX37-BX40</f>
+        <v>9585.7464030232059</v>
       </c>
       <c r="BY41" s="21">
-        <f t="shared" ref="BY41" si="119">BY37-BY40</f>
-        <v>10835.960968180321</v>
+        <f t="shared" ref="BY41" si="126">BY37-BY40</f>
+        <v>9729.5325990685524</v>
       </c>
       <c r="BZ41" s="21">
-        <f t="shared" ref="BZ41" si="120">BZ37-BZ40</f>
-        <v>11052.680187543927</v>
+        <f t="shared" ref="BZ41" si="127">BZ37-BZ40</f>
+        <v>9875.4755880545799</v>
       </c>
       <c r="CA41" s="21">
-        <f t="shared" ref="CA41" si="121">CA37-CA40</f>
-        <v>11273.733791294806</v>
+        <f t="shared" ref="CA41" si="128">CA37-CA40</f>
+        <v>10023.607721875396</v>
       </c>
       <c r="CB41" s="21">
-        <f t="shared" ref="CB41" si="122">CB37-CB40</f>
-        <v>11499.208467120703</v>
+        <f t="shared" ref="CB41" si="129">CB37-CB40</f>
+        <v>10173.961837703528</v>
       </c>
       <c r="CC41" s="21">
-        <f t="shared" ref="CC41" si="123">CC37-CC40</f>
-        <v>11729.192636463116</v>
+        <f t="shared" ref="CC41" si="130">CC37-CC40</f>
+        <v>10326.571265269078</v>
       </c>
       <c r="CD41" s="21">
-        <f t="shared" ref="CD41" si="124">CD37-CD40</f>
-        <v>11963.77648919238</v>
+        <f t="shared" ref="CD41" si="131">CD37-CD40</f>
+        <v>10481.469834248113</v>
       </c>
       <c r="CE41" s="21">
-        <f t="shared" ref="CE41" si="125">CE37-CE40</f>
-        <v>12203.052018976226</v>
+        <f t="shared" ref="CE41" si="132">CE37-CE40</f>
+        <v>10638.691881761835</v>
       </c>
       <c r="CF41" s="21">
-        <f t="shared" ref="CF41" si="126">CF37-CF40</f>
-        <v>12447.11305935575</v>
+        <f t="shared" ref="CF41" si="133">CF37-CF40</f>
+        <v>10798.27225998826</v>
       </c>
       <c r="CG41" s="21">
-        <f t="shared" ref="CG41" si="127">CG37-CG40</f>
-        <v>12696.055320542866</v>
+        <f t="shared" ref="CG41" si="134">CG37-CG40</f>
+        <v>10960.246343888084</v>
       </c>
       <c r="CH41" s="21">
-        <f t="shared" ref="CH41" si="128">CH37-CH40</f>
-        <v>12949.976426953723</v>
+        <f t="shared" ref="CH41" si="135">CH37-CH40</f>
+        <v>11124.650039046406</v>
       </c>
       <c r="CI41" s="21">
-        <f t="shared" ref="CI41" si="129">CI37-CI40</f>
-        <v>13208.975955492799</v>
+        <f t="shared" ref="CI41" si="136">CI37-CI40</f>
+        <v>11291.519789632102</v>
       </c>
       <c r="CJ41" s="21">
-        <f t="shared" ref="CJ41" si="130">CJ37-CJ40</f>
-        <v>13473.155474602656</v>
+        <f t="shared" ref="CJ41" si="137">CJ37-CJ40</f>
+        <v>11460.892586476582</v>
       </c>
       <c r="CK41" s="21">
-        <f t="shared" ref="CK41" si="131">CK37-CK40</f>
-        <v>13742.618584094711</v>
+        <f t="shared" ref="CK41" si="138">CK37-CK40</f>
+        <v>11632.805975273732</v>
       </c>
       <c r="CL41" s="21">
-        <f t="shared" ref="CL41" si="132">CL37-CL40</f>
-        <v>14017.470955776605</v>
+        <f t="shared" ref="CL41" si="139">CL37-CL40</f>
+        <v>11807.298064902836</v>
       </c>
       <c r="CM41" s="21">
-        <f t="shared" ref="CM41" si="133">CM37-CM40</f>
-        <v>14297.820374892137</v>
+        <f t="shared" ref="CM41" si="140">CM37-CM40</f>
+        <v>11984.407535876378</v>
       </c>
       <c r="CN41" s="21">
-        <f t="shared" ref="CN41" si="134">CN37-CN40</f>
-        <v>14583.776782389979</v>
+        <f t="shared" ref="CN41" si="141">CN37-CN40</f>
+        <v>12164.173648914522</v>
       </c>
       <c r="CO41" s="21">
-        <f t="shared" ref="CO41" si="135">CO37-CO40</f>
-        <v>14875.452318037782</v>
+        <f t="shared" ref="CO41" si="142">CO37-CO40</f>
+        <v>12346.636253648241</v>
       </c>
       <c r="CP41" s="21">
-        <f t="shared" ref="CP41" si="136">CP37-CP40</f>
-        <v>15172.961364398538</v>
+        <f t="shared" ref="CP41" si="143">CP37-CP40</f>
+        <v>12531.835797452963</v>
       </c>
       <c r="CQ41" s="21">
-        <f t="shared" ref="CQ41" si="137">CQ37-CQ40</f>
-        <v>15476.42059168651</v>
+        <f t="shared" ref="CQ41" si="144">CQ37-CQ40</f>
+        <v>12719.813334414757</v>
       </c>
     </row>
     <row r="42" spans="2:98">
@@ -10350,36 +10404,35 @@
       <c r="V42" s="1">
         <v>989</v>
       </c>
-      <c r="W42" s="24">
-        <f t="shared" ref="W42:AD42" si="138">W41/W43</f>
-        <v>965.51724137931046</v>
+      <c r="W42" s="1">
+        <v>986</v>
       </c>
       <c r="X42" s="24">
-        <f t="shared" si="138"/>
+        <f t="shared" ref="W42:AD42" si="145">X41/X43</f>
         <v>950.41322314049592</v>
       </c>
       <c r="Y42" s="24">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>937.00787401574803</v>
       </c>
       <c r="Z42" s="24">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>934.78260869565224</v>
       </c>
       <c r="AA42" s="24">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>891.47286821705427</v>
       </c>
       <c r="AB42" s="24">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>882.35294117647049</v>
       </c>
       <c r="AC42" s="24">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>886.52482269503548</v>
       </c>
       <c r="AD42" s="24">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>896.10389610389609</v>
       </c>
       <c r="AE42" s="24">
@@ -10387,15 +10440,15 @@
         <v>876.71232876712327</v>
       </c>
       <c r="AN42" s="9">
-        <f t="shared" ref="AN42:AP42" si="139">AVERAGE(O42:R42)</f>
+        <f t="shared" ref="AN42:AP42" si="146">AVERAGE(O42:R42)</f>
         <v>1104.25</v>
       </c>
       <c r="AO42" s="9">
-        <f t="shared" si="139"/>
+        <f t="shared" si="146"/>
         <v>1088.75</v>
       </c>
       <c r="AP42" s="9">
-        <f t="shared" si="139"/>
+        <f t="shared" si="146"/>
         <v>1072</v>
       </c>
       <c r="AQ42" s="9">
@@ -10470,87 +10523,88 @@
         <v>494</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:V43" si="140">C41/C42</f>
+        <f t="shared" ref="C43:V43" si="147">C41/C42</f>
         <v>7.0886075949367092E-2</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>1.2922297297297298</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.85798319327731087</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>1.3347529812606473</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.92184873949579826</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.99831365935919059</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.91575400168491994</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" ref="J43" si="141">J41/J42</f>
+        <f t="shared" ref="J43" si="148">J41/J42</f>
         <v>0.68228279386712098</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.43766122098022359</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>-0.29447322970639034</v>
       </c>
       <c r="M43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>1.1495246326707</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.81432360742705567</v>
       </c>
       <c r="O43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.70105820105820105</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.92369838420107719</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.92896174863387981</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" ref="R43" si="142">R41/R42</f>
+        <f t="shared" ref="R43" si="149">R41/R42</f>
         <v>1.3090569561157797</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.82835820895522383</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>1.0773638968481376</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.986328125</v>
       </c>
       <c r="V43" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>1.1334681496461072</v>
       </c>
-      <c r="W43" s="25">
-        <v>1.1599999999999999</v>
+      <c r="W43" s="6">
+        <f t="shared" ref="W43" si="150">W41/W42</f>
+        <v>1.3052738336713996</v>
       </c>
       <c r="X43" s="25">
         <v>1.21</v>
@@ -10598,11 +10652,11 @@
       </c>
       <c r="AS43" s="25">
         <f>AS41/AS42</f>
-        <v>5.0133212135163685</v>
+        <v>5.396853983949315</v>
       </c>
       <c r="AT43" s="25">
-        <f t="shared" ref="AT43" si="143">AT41/AT42</f>
-        <v>5.7098422011864418</v>
+        <f t="shared" ref="AT43" si="151">AT41/AT42</f>
+        <v>6.218397224305086</v>
       </c>
       <c r="AU43" s="25"/>
       <c r="AV43" s="25"/>
@@ -10654,24 +10708,28 @@
       <c r="CP43" s="25"/>
       <c r="CQ43" s="25"/>
     </row>
+    <row r="44" spans="2:98">
+      <c r="W44" s="1"/>
+    </row>
     <row r="45" spans="2:98">
       <c r="B45" s="1" t="s">
         <v>492</v>
       </c>
+      <c r="W45" s="1"/>
       <c r="AN45" s="7">
-        <f t="shared" ref="AN45:AQ45" si="144">AN34/AN29</f>
+        <f t="shared" ref="AN45:AQ45" si="152">AN34/AN29</f>
         <v>9.9862282086594339E-2</v>
       </c>
       <c r="AO45" s="7">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>9.8389746960236613E-2</v>
       </c>
       <c r="AP45" s="7">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>9.5687765888874565E-2</v>
       </c>
       <c r="AQ45" s="7">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>9.4605334265823182E-2</v>
       </c>
       <c r="AR45" s="7">
@@ -10683,20 +10741,21 @@
       <c r="B46" s="1" t="s">
         <v>495</v>
       </c>
+      <c r="W46" s="1"/>
       <c r="AN46" s="7">
-        <f t="shared" ref="AN46:AQ46" si="145">AN35/AN29</f>
+        <f t="shared" ref="AN46:AQ46" si="153">AN35/AN29</f>
         <v>6.9161264317624538E-2</v>
       </c>
       <c r="AO46" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="153"/>
         <v>6.6250410778836671E-2</v>
       </c>
       <c r="AP46" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="153"/>
         <v>6.7519659662240564E-2</v>
       </c>
       <c r="AQ46" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="153"/>
         <v>6.6980322344788124E-2</v>
       </c>
       <c r="AR46" s="7">
@@ -10709,99 +10768,103 @@
         <v>136</v>
       </c>
       <c r="C47" s="7">
-        <f t="shared" ref="C47:U47" si="146">C37/C29</f>
+        <f t="shared" ref="C47:U47" si="154">C37/C29</f>
         <v>8.6184495452576879E-2</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.18076411328644745</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.17897050741894119</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.15745585349901897</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.17271672468092159</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.18066688041038795</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.16871562601099968</v>
       </c>
       <c r="J47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.15177797051170858</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.10967144840351689</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.11225389362327358</v>
       </c>
       <c r="M47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.16330704060765411</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.1684951916565082</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.14190340909090909</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.15548236585700562</v>
       </c>
       <c r="Q47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.15745483957940146</v>
       </c>
       <c r="R47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.21530027410914529</v>
       </c>
       <c r="S47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.15170801402779582</v>
       </c>
       <c r="T47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.16804058338617628</v>
       </c>
       <c r="U47" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.17726519689053141</v>
       </c>
       <c r="V47" s="7">
         <f>V37/V29</f>
         <v>0.17224480038250059</v>
       </c>
+      <c r="W47" s="7">
+        <f t="shared" ref="W47" si="155">W37/W29</f>
+        <v>0.19638043896804006</v>
+      </c>
       <c r="AN47" s="7">
-        <f t="shared" ref="AN47:AQ47" si="147">AN37/AN29</f>
+        <f t="shared" ref="AN47:AQ47" si="156">AN37/AN29</f>
         <v>0.16888918746431092</v>
       </c>
       <c r="AO47" s="7">
-        <f t="shared" si="147"/>
+        <f t="shared" si="156"/>
         <v>0.17078540913572132</v>
       </c>
       <c r="AP47" s="7">
-        <f t="shared" si="147"/>
+        <f t="shared" si="156"/>
         <v>0.1736818357612479</v>
       </c>
       <c r="AQ47" s="7">
-        <f t="shared" si="147"/>
+        <f t="shared" si="156"/>
         <v>0.17840226340719076</v>
       </c>
       <c r="AR47" s="7">
@@ -10809,202 +10872,202 @@
         <v>0.16746862911595434</v>
       </c>
       <c r="AS47" s="26">
-        <v>0.183</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="AT47" s="26">
-        <v>0.185</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="AU47" s="26">
-        <v>0.188</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="AV47" s="26">
-        <v>0.189</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="AW47" s="26">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="AX47" s="26">
-        <v>0.19</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="AY47" s="26">
         <f>$AX$47</f>
-        <v>0.19</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="AZ47" s="26">
-        <f t="shared" ref="AZ47:CQ47" si="148">$AX$47</f>
-        <v>0.19</v>
+        <f t="shared" ref="AZ47:CQ47" si="157">$AX$47</f>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BA47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BB47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BC47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BD47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BE47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BF47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BG47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BH47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BI47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BJ47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BK47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BL47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BM47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BN47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BO47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BP47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BQ47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BR47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BS47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BT47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BU47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BV47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BW47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BX47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BY47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="BZ47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CA47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CB47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CC47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CD47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CE47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CF47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CG47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CH47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CI47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CJ47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CK47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CL47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CM47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CN47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CO47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CP47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
       <c r="CQ47" s="26">
-        <f t="shared" si="148"/>
-        <v>0.19</v>
+        <f t="shared" si="157"/>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="48" spans="2:98">
@@ -11012,308 +11075,312 @@
         <v>69</v>
       </c>
       <c r="C48" s="7">
-        <f t="shared" ref="C48:V48" si="149">C41/C29</f>
+        <f t="shared" ref="C48:V48" si="158">C41/C29</f>
         <v>1.8189692507579038E-2</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.29081923588671355</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.18703059168345851</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.25621321124918245</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.1818332504558263</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.18980442449503046</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.17583306373341961</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.11578490893321769</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>7.8513034089156261E-2</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>-5.0102850426094622E-2</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.19427402862985685</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.12474603819585535</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.11292613636363637</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.14121037463976946</v>
       </c>
       <c r="Q48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.13750337018064168</v>
       </c>
       <c r="R48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.17468228258160975</v>
       </c>
       <c r="S48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.11533965450058449</v>
       </c>
       <c r="T48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.14305643627140138</v>
       </c>
       <c r="U48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.12871160953230534</v>
       </c>
       <c r="V48" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="158"/>
         <v>0.13399474061678221</v>
       </c>
+      <c r="W48" s="7">
+        <f t="shared" ref="W48" si="159">W41/W29</f>
+        <v>0.16519060454370427</v>
+      </c>
       <c r="AN48" s="7">
-        <f t="shared" ref="AN48:AX48" si="150">AN41/AN29</f>
+        <f t="shared" ref="AN48:AX48" si="160">AN41/AN29</f>
         <v>0.14114406637331631</v>
       </c>
       <c r="AO48" s="7">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.13700295760762404</v>
       </c>
       <c r="AP48" s="7">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>7.7961840917880623E-2</v>
       </c>
       <c r="AQ48" s="7">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.13497790634834855</v>
       </c>
       <c r="AR48" s="7">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.13042110890964556</v>
       </c>
       <c r="AS48" s="26">
-        <f t="shared" si="150"/>
-        <v>0.14457</v>
+        <f t="shared" si="160"/>
+        <v>0.15563000000000002</v>
       </c>
       <c r="AT48" s="26">
-        <f t="shared" si="150"/>
-        <v>0.14615</v>
+        <f t="shared" si="160"/>
+        <v>0.16195000000000001</v>
       </c>
       <c r="AU48" s="26">
-        <f t="shared" si="150"/>
-        <v>0.14852000000000001</v>
+        <f t="shared" si="160"/>
+        <v>0.16353000000000001</v>
       </c>
       <c r="AV48" s="26">
-        <f t="shared" si="150"/>
-        <v>0.14931</v>
+        <f t="shared" si="160"/>
+        <v>0.16510999999999998</v>
       </c>
       <c r="AW48" s="26">
-        <f t="shared" si="150"/>
-        <v>0.15009999999999998</v>
+        <f t="shared" si="160"/>
+        <v>0.16589999999999999</v>
       </c>
       <c r="AX48" s="26">
-        <f t="shared" si="150"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="160"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="AY48" s="26">
         <f>$AX$48</f>
-        <v>0.15010000000000001</v>
+        <v>0.16668999999999998</v>
       </c>
       <c r="AZ48" s="26">
-        <f t="shared" ref="AZ48:CQ48" si="151">$AX$48</f>
-        <v>0.15010000000000001</v>
+        <f t="shared" ref="AZ48:CQ48" si="161">$AX$48</f>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BA48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BB48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BC48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BD48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BE48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BF48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BG48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BH48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BI48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BJ48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BK48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BL48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BM48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BN48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BO48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BP48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BQ48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BR48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BS48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BT48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BU48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BV48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BW48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BX48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BY48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="BZ48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CA48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CB48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CC48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CD48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CE48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CF48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CG48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CH48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CI48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CJ48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CK48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CL48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CM48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CN48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CO48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CP48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
       <c r="CQ48" s="26">
-        <f t="shared" si="151"/>
-        <v>0.15010000000000001</v>
+        <f t="shared" si="161"/>
+        <v>0.16668999999999998</v>
       </c>
     </row>
     <row r="49" spans="2:67">
@@ -11337,6 +11404,7 @@
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
       <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
     </row>
     <row r="50" spans="2:67">
       <c r="B50" s="1" t="s">
@@ -11381,6 +11449,9 @@
       <c r="V50" s="1">
         <v>6561</v>
       </c>
+      <c r="W50" s="1">
+        <v>7449</v>
+      </c>
       <c r="AO50" s="1">
         <v>4794</v>
       </c>
@@ -11397,7 +11468,7 @@
         <v>168</v>
       </c>
       <c r="AU50" s="27">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="BO50" s="25"/>
     </row>
@@ -11444,6 +11515,9 @@
       <c r="V51" s="1">
         <v>4262</v>
       </c>
+      <c r="W51" s="1">
+        <v>3762</v>
+      </c>
       <c r="AO51" s="1">
         <v>8289</v>
       </c>
@@ -11460,7 +11534,7 @@
         <v>169</v>
       </c>
       <c r="AU51" s="27">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="2:67">
@@ -11506,6 +11580,9 @@
       <c r="V52" s="1">
         <v>984</v>
       </c>
+      <c r="W52" s="1">
+        <v>1082</v>
+      </c>
       <c r="AO52" s="1">
         <v>577</v>
       </c>
@@ -11523,7 +11600,7 @@
       </c>
       <c r="AU52" s="24">
         <f>NPV(AU50,AS41:CQ41)</f>
-        <v>88182.856966378706</v>
+        <v>81427.130098096677</v>
       </c>
     </row>
     <row r="53" spans="2:67">
@@ -11569,6 +11646,9 @@
       <c r="V53" s="1">
         <v>541</v>
       </c>
+      <c r="W53" s="1">
+        <v>714</v>
+      </c>
       <c r="AO53" s="1">
         <v>0</v>
       </c>
@@ -11631,6 +11711,9 @@
       <c r="V54" s="1">
         <v>6422</v>
       </c>
+      <c r="W54" s="1">
+        <v>6511</v>
+      </c>
       <c r="AO54" s="1">
         <v>2769</v>
       </c>
@@ -11648,7 +11731,7 @@
       </c>
       <c r="AU54" s="28">
         <f>AU52/AU53</f>
-        <v>89.163657195529524</v>
+        <v>82.332790796862156</v>
       </c>
       <c r="AW54" s="25"/>
     </row>
@@ -11695,6 +11778,9 @@
       <c r="V55" s="1">
         <v>37671</v>
       </c>
+      <c r="W55" s="1">
+        <v>39205</v>
+      </c>
       <c r="AO55" s="1">
         <v>33418</v>
       </c>
@@ -11757,6 +11843,9 @@
       <c r="V56" s="1">
         <v>4651</v>
       </c>
+      <c r="W56" s="1">
+        <v>1888</v>
+      </c>
       <c r="AO56" s="1">
         <v>1148</v>
       </c>
@@ -11771,7 +11860,7 @@
       </c>
       <c r="AU56" s="27">
         <f>AU54/AU55-1</f>
-        <v>0.42297569734327367</v>
+        <v>0.31396091281299321</v>
       </c>
       <c r="AV56" s="20" t="str">
         <f>IF(AU56&gt;0,"Upside","Downside")</f>
@@ -11821,6 +11910,9 @@
       <c r="V57" s="1">
         <v>4583</v>
       </c>
+      <c r="W57" s="1">
+        <v>4613</v>
+      </c>
       <c r="AO57" s="1">
         <v>6089</v>
       </c>
@@ -11877,6 +11969,9 @@
       <c r="V58" s="1">
         <v>1508</v>
       </c>
+      <c r="W58" s="1">
+        <v>1537</v>
+      </c>
       <c r="AO58" s="1">
         <v>1807</v>
       </c>
@@ -11933,6 +12028,9 @@
       <c r="V59" s="1">
         <v>10837</v>
       </c>
+      <c r="W59" s="1">
+        <v>10910</v>
+      </c>
       <c r="AO59" s="1">
         <v>9135</v>
       </c>
@@ -11989,6 +12087,9 @@
       <c r="V60" s="1">
         <v>326</v>
       </c>
+      <c r="W60" s="1">
+        <v>296</v>
+      </c>
       <c r="AO60" s="1">
         <v>1048</v>
       </c>
@@ -12045,6 +12146,9 @@
       <c r="V61" s="1">
         <v>3265</v>
       </c>
+      <c r="W61" s="1">
+        <v>3307</v>
+      </c>
       <c r="AO61" s="1">
         <v>1305</v>
       </c>
@@ -12063,73 +12167,80 @@
         <v>77</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" ref="J62:V62" si="152">SUM(J50:J61)</f>
+        <f t="shared" ref="J62:V62" si="162">SUM(J50:J61)</f>
         <v>70379</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>72517</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>73816</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>74534</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>78624</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>77186</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>74579</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>76440</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>82166</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>83347</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>84016</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>83511</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>81611</v>
       </c>
+      <c r="W62" s="1">
+        <f t="shared" ref="W62" si="163">SUM(W50:W61)</f>
+        <v>81274</v>
+      </c>
       <c r="AO62" s="1">
-        <f t="shared" ref="AO62" si="153">SUM(AO50:AO61)</f>
+        <f t="shared" ref="AO62" si="164">SUM(AO50:AO61)</f>
         <v>70379</v>
       </c>
       <c r="AP62" s="1">
-        <f t="shared" ref="AP62" si="154">SUM(AP50:AP61)</f>
+        <f t="shared" ref="AP62" si="165">SUM(AP50:AP61)</f>
         <v>78624</v>
       </c>
       <c r="AQ62" s="1">
-        <f t="shared" ref="AQ62" si="155">SUM(AQ50:AQ61)</f>
+        <f t="shared" ref="AQ62" si="166">SUM(AQ50:AQ61)</f>
         <v>82166</v>
       </c>
       <c r="AR62" s="1">
-        <f t="shared" ref="AR62" si="156">SUM(AR50:AR61)</f>
+        <f t="shared" ref="AR62" si="167">SUM(AR50:AR61)</f>
         <v>81611</v>
       </c>
+    </row>
+    <row r="63" spans="2:67">
+      <c r="W63" s="1"/>
     </row>
     <row r="64" spans="2:67">
       <c r="B64" s="1" t="s">
@@ -12174,6 +12285,9 @@
       <c r="V64" s="1">
         <v>227</v>
       </c>
+      <c r="W64" s="1">
+        <v>175</v>
+      </c>
       <c r="AO64" s="1">
         <v>252</v>
       </c>
@@ -12230,6 +12344,9 @@
       <c r="V65" s="1">
         <v>39671</v>
       </c>
+      <c r="W65" s="1">
+        <v>41205</v>
+      </c>
       <c r="AO65" s="1">
         <v>35418</v>
       </c>
@@ -12294,6 +12411,9 @@
       <c r="V66" s="1">
         <v>8478</v>
       </c>
+      <c r="W66" s="1">
+        <v>5242</v>
+      </c>
       <c r="AO66" s="1">
         <f>2648+129</f>
         <v>2777</v>
@@ -12352,6 +12472,9 @@
       <c r="V67" s="1">
         <v>2939</v>
       </c>
+      <c r="W67" s="1">
+        <v>2981</v>
+      </c>
       <c r="AO67" s="1">
         <v>2930</v>
       </c>
@@ -12408,6 +12531,9 @@
       <c r="V68" s="1">
         <v>9879</v>
       </c>
+      <c r="W68" s="1">
+        <v>11417</v>
+      </c>
       <c r="AO68" s="1">
         <v>8939</v>
       </c>
@@ -12426,7 +12552,7 @@
         <v>110</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" ref="J69:U69" si="157">SUM(J64:J68)</f>
+        <f t="shared" ref="J69:U69" si="168">SUM(J64:J68)</f>
         <v>50316</v>
       </c>
       <c r="K69" s="1">
@@ -12434,15 +12560,15 @@
         <v>53076</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>52911</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>52444</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>58350</v>
       </c>
       <c r="O69" s="1">
@@ -12450,43 +12576,47 @@
         <v>57328</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>54918</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>56700</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>61115</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>62645</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>63394</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>63337</v>
       </c>
       <c r="V69" s="1">
         <f>SUM(V64:V68)</f>
         <v>61194</v>
       </c>
+      <c r="W69" s="1">
+        <f t="shared" ref="W69" si="169">SUM(W64:W68)</f>
+        <v>61020</v>
+      </c>
       <c r="AO69" s="1">
-        <f t="shared" ref="AO69" si="158">SUM(AO64:AO68)</f>
+        <f t="shared" ref="AO69" si="170">SUM(AO64:AO68)</f>
         <v>50316</v>
       </c>
       <c r="AP69" s="1">
-        <f t="shared" ref="AP69" si="159">SUM(AP64:AP68)</f>
+        <f t="shared" ref="AP69" si="171">SUM(AP64:AP68)</f>
         <v>58350</v>
       </c>
       <c r="AQ69" s="1">
-        <f t="shared" ref="AQ69" si="160">SUM(AQ64:AQ68)</f>
+        <f t="shared" ref="AQ69" si="172">SUM(AQ64:AQ68)</f>
         <v>61115</v>
       </c>
       <c r="AR69" s="1">
@@ -12537,6 +12667,9 @@
       <c r="V70" s="1">
         <v>20417</v>
       </c>
+      <c r="W70" s="1">
+        <v>20254</v>
+      </c>
       <c r="AO70" s="1">
         <v>20063</v>
       </c>
@@ -12555,56 +12688,60 @@
         <v>108</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" ref="J71:V71" si="161">J70+J69</f>
+        <f t="shared" ref="J71:V71" si="173">J70+J69</f>
         <v>70379</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>72517</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>73816</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>74534</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>78624</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>77186</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>74579</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>76440</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>82166</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>83347</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>84016</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>83511</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>81611</v>
+      </c>
+      <c r="W71" s="1">
+        <f t="shared" ref="W71" si="174">W70+W69</f>
+        <v>81274</v>
       </c>
       <c r="AO71" s="1">
         <f>AO70+AO69</f>
@@ -12625,73 +12762,78 @@
     </row>
     <row r="72" spans="2:44" ht="15" hidden="1">
       <c r="B72" s="2"/>
+      <c r="W72" s="1"/>
     </row>
     <row r="73" spans="2:44" hidden="1">
       <c r="B73" s="1" t="s">
         <v>496</v>
       </c>
       <c r="J73" s="6">
-        <f t="shared" ref="J73:V73" si="162">SUM(J50:J56)/SUM(J64:J66)</f>
+        <f t="shared" ref="J73:V73" si="175">SUM(J50:J56)/SUM(J64:J66)</f>
         <v>1.3263713683772467</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.2925012094823416</v>
       </c>
       <c r="L73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.289885625666376</v>
       </c>
       <c r="M73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.2982371987048806</v>
       </c>
       <c r="N73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.2758620689655173</v>
       </c>
       <c r="O73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.2881186089412193</v>
       </c>
       <c r="P73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.2962829908511759</v>
       </c>
       <c r="Q73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.3036922793609871</v>
       </c>
       <c r="R73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.2909874963892214</v>
       </c>
       <c r="S73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.2780564137543635</v>
       </c>
       <c r="T73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.2417328890028199</v>
       </c>
       <c r="U73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.2467772738123657</v>
       </c>
       <c r="V73" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="175"/>
         <v>1.2628576153464528</v>
       </c>
+      <c r="W73" s="6">
+        <f t="shared" ref="W73" si="176">SUM(W50:W56)/SUM(W64:W66)</f>
+        <v>1.3000514778430783</v>
+      </c>
       <c r="AO73" s="6">
-        <f t="shared" ref="AO73:AQ73" si="163">SUM(AO50:AO56)/SUM(AO64:AO66)</f>
+        <f t="shared" ref="AO73:AQ73" si="177">SUM(AO50:AO56)/SUM(AO64:AO66)</f>
         <v>1.3263713683772467</v>
       </c>
       <c r="AP73" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="177"/>
         <v>1.2758620689655173</v>
       </c>
       <c r="AQ73" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="177"/>
         <v>1.2909874963892214</v>
       </c>
       <c r="AR73" s="6">
@@ -12704,56 +12846,60 @@
         <v>499</v>
       </c>
       <c r="J74" s="6">
-        <f t="shared" ref="J74:V74" si="164">J29/J62</f>
+        <f t="shared" ref="J74:V74" si="178">J29/J62</f>
         <v>9.8296366813964392E-2</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>8.9399726960574757E-2</v>
       </c>
       <c r="L74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>9.2202232578302804E-2</v>
       </c>
       <c r="M74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>9.1850699009847853E-2</v>
       </c>
       <c r="N74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>9.3902625152625152E-2</v>
       </c>
       <c r="O74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>9.120825020081362E-2</v>
       </c>
       <c r="P74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>9.7708470212794482E-2</v>
       </c>
       <c r="Q74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>9.704343275771847E-2</v>
       </c>
       <c r="R74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>9.7680305722561644E-2</v>
       </c>
       <c r="S74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>9.2372850852460192E-2</v>
       </c>
       <c r="T74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>9.3851171205484668E-2</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>9.3963669456718274E-2</v>
       </c>
       <c r="V74" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="178"/>
         <v>0.10251069096077735</v>
+      </c>
+      <c r="W74" s="6">
+        <f t="shared" ref="W74" si="179">W29/W62</f>
+        <v>9.5860914929743829E-2</v>
       </c>
       <c r="AO74" s="6">
         <f>AO29/AO62</f>
@@ -12777,58 +12923,61 @@
         <v>497</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" ref="J75:V75" si="165">J41/J62</f>
+        <f t="shared" ref="J75:V75" si="180">J41/J62</f>
         <v>1.1381235880021028E-2</v>
       </c>
       <c r="K75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>7.0190438104168681E-3</v>
       </c>
       <c r="L75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>-4.6195946678226942E-3</v>
       </c>
       <c r="M75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1.7844205329111545E-2</v>
       </c>
       <c r="N75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1.1713980463980464E-2</v>
       </c>
       <c r="O75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1.0299795299665742E-2</v>
       </c>
       <c r="P75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1.3797449684227463E-2</v>
       </c>
       <c r="Q75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1.3343799058084773E-2</v>
       </c>
       <c r="R75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1.7063018766886547E-2</v>
       </c>
       <c r="S75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1.0654252702556781E-2</v>
       </c>
       <c r="T75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1.34260140925538E-2</v>
       </c>
       <c r="U75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1.2094215133335728E-2</v>
       </c>
       <c r="V75" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1.3735893445736481E-2</v>
       </c>
-      <c r="W75" s="27"/>
+      <c r="W75" s="5">
+        <f t="shared" ref="W75" si="181">W41/W62</f>
+        <v>1.5835322489356991E-2</v>
+      </c>
       <c r="X75" s="27"/>
       <c r="Y75" s="27"/>
       <c r="Z75" s="27"/>
@@ -12847,15 +12996,15 @@
       <c r="AM75" s="5"/>
       <c r="AN75" s="5"/>
       <c r="AO75" s="5">
-        <f t="shared" ref="AO75:AQ75" si="166">AO41/AO62</f>
+        <f t="shared" ref="AO75:AQ75" si="182">AO41/AO62</f>
         <v>5.9236419954816065E-2</v>
       </c>
       <c r="AP75" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="182"/>
         <v>3.0766687016687017E-2</v>
       </c>
       <c r="AQ75" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="182"/>
         <v>5.1675875666334005E-2</v>
       </c>
       <c r="AR75" s="5">
@@ -12868,58 +13017,61 @@
         <v>498</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" ref="J76:V76" si="167">J41/J70</f>
+        <f t="shared" ref="J76:V76" si="183">J41/J70</f>
         <v>3.992423864825799E-2</v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>2.6181780772594001E-2</v>
       </c>
       <c r="L76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>-1.6311887108347287E-2</v>
       </c>
       <c r="M76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>6.0208239022181982E-2</v>
       </c>
       <c r="N76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>4.5427641313998221E-2</v>
       </c>
       <c r="O76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>4.0034243126195988E-2</v>
       </c>
       <c r="P76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>5.2337114083719036E-2</v>
       </c>
       <c r="Q76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>5.1671732522796353E-2</v>
       </c>
       <c r="R76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>6.6600161512517214E-2</v>
       </c>
       <c r="S76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>4.2894406337551927E-2</v>
       </c>
       <c r="T76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>5.4698865289496655E-2</v>
       </c>
       <c r="U76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>5.0064439377416475E-2</v>
       </c>
       <c r="V76" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>5.4905226037125922E-2</v>
       </c>
-      <c r="W76" s="27"/>
+      <c r="W76" s="5">
+        <f t="shared" ref="W76" si="184">W41/W70</f>
+        <v>6.3543003851091143E-2</v>
+      </c>
       <c r="X76" s="27"/>
       <c r="Y76" s="27"/>
       <c r="Z76" s="27"/>
@@ -12938,15 +13090,15 @@
       <c r="AM76" s="5"/>
       <c r="AN76" s="5"/>
       <c r="AO76" s="5">
-        <f t="shared" ref="AO76:AQ76" si="168">AO41/AO70</f>
+        <f t="shared" ref="AO76:AQ76" si="185">AO41/AO70</f>
         <v>0.20779544435029657</v>
       </c>
       <c r="AP76" s="5">
-        <f t="shared" si="168"/>
+        <f t="shared" si="185"/>
         <v>0.11931537930354148</v>
       </c>
       <c r="AQ76" s="5">
-        <f t="shared" si="168"/>
+        <f t="shared" si="185"/>
         <v>0.20170063179896441</v>
       </c>
       <c r="AR76" s="5">
@@ -12954,89 +13106,96 @@
         <v>0.20311505118283782</v>
       </c>
     </row>
+    <row r="77" spans="2:44">
+      <c r="W77" s="1"/>
+    </row>
     <row r="78" spans="2:44">
       <c r="B78" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ref="C78:V78" si="169">C41</f>
+        <f t="shared" ref="C78:V78" si="186">C41</f>
         <v>84</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1530</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1021</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1567</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1097</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1184</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1087</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>801</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>509</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>-341</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1330</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>921</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>795</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1029</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1020</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1402</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>888</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1128</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1010</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="186"/>
         <v>1121</v>
+      </c>
+      <c r="W78" s="1">
+        <f t="shared" ref="W78" si="187">W41</f>
+        <v>1287</v>
       </c>
       <c r="AN78" s="1">
         <f>SUM(C78:F78)</f>
@@ -13071,7 +13230,7 @@
         <v>440</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" ref="E79:E90" si="170">1184-SUM(C79:D79)</f>
+        <f t="shared" ref="E79:E90" si="188">1184-SUM(C79:D79)</f>
         <v>153</v>
       </c>
       <c r="F79" s="1">
@@ -13138,24 +13297,27 @@
         <f>1442-SUM(S79:U79)</f>
         <v>434</v>
       </c>
+      <c r="W79" s="1">
+        <v>371</v>
+      </c>
       <c r="AN79" s="1">
-        <f t="shared" ref="AN79:AN97" si="171">SUM(C79:F79)</f>
+        <f t="shared" ref="AN79:AN97" si="189">SUM(C79:F79)</f>
         <v>1741</v>
       </c>
       <c r="AO79" s="1">
-        <f t="shared" ref="AO79:AO97" si="172">SUM(G79:J79)</f>
+        <f t="shared" ref="AO79:AO97" si="190">SUM(G79:J79)</f>
         <v>1572</v>
       </c>
       <c r="AP79" s="1">
-        <f t="shared" ref="AP79:AP97" si="173">SUM(K79:N79)</f>
+        <f t="shared" ref="AP79:AP97" si="191">SUM(K79:N79)</f>
         <v>1572</v>
       </c>
       <c r="AQ79" s="1">
-        <f t="shared" ref="AQ79:AQ97" si="174">SUM(O79:R79)</f>
+        <f t="shared" ref="AQ79:AQ97" si="192">SUM(O79:R79)</f>
         <v>1682</v>
       </c>
       <c r="AR79" s="1">
-        <f t="shared" ref="AR79:AR97" si="175">SUM(S79:V79)</f>
+        <f t="shared" ref="AR79:AR97" si="193">SUM(S79:V79)</f>
         <v>1442</v>
       </c>
     </row>
@@ -13171,7 +13333,7 @@
         <v>297</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="188"/>
         <v>594</v>
       </c>
       <c r="F80" s="1">
@@ -13238,24 +13400,27 @@
         <f>1032-SUM(S80:U80)</f>
         <v>249</v>
       </c>
+      <c r="W80" s="1">
+        <v>245</v>
+      </c>
       <c r="AN80" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>1189</v>
       </c>
       <c r="AO80" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>1317</v>
       </c>
       <c r="AP80" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>1317</v>
       </c>
       <c r="AQ80" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>1072</v>
       </c>
       <c r="AR80" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>1032</v>
       </c>
     </row>
@@ -13274,7 +13439,7 @@
         <v>352</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="188"/>
         <v>549</v>
       </c>
       <c r="F81" s="1">
@@ -13341,24 +13506,27 @@
         <f>1230-SUM(S81:U81)</f>
         <v>283</v>
       </c>
+      <c r="W81" s="1">
+        <v>249</v>
+      </c>
       <c r="AN81" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>1376</v>
       </c>
       <c r="AO81" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>1261</v>
       </c>
       <c r="AP81" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>1261</v>
       </c>
       <c r="AQ81" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>1475</v>
       </c>
       <c r="AR81" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>1230</v>
       </c>
     </row>
@@ -13374,7 +13542,7 @@
         <v>110</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="188"/>
         <v>1153</v>
       </c>
       <c r="F82" s="1">
@@ -13441,24 +13609,27 @@
         <f>231-SUM(S82:U82)</f>
         <v>223</v>
       </c>
+      <c r="W82" s="1">
+        <v>-6</v>
+      </c>
       <c r="AN82" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>165</v>
       </c>
       <c r="AO82" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>-811</v>
       </c>
       <c r="AP82" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>-811</v>
       </c>
       <c r="AQ82" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>-668</v>
       </c>
       <c r="AR82" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>231</v>
       </c>
     </row>
@@ -13541,24 +13712,27 @@
         <f>285-SUM(S83:U83)</f>
         <v>59</v>
       </c>
+      <c r="W83" s="1">
+        <v>-48</v>
+      </c>
       <c r="AN83" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>-1914</v>
       </c>
       <c r="AO83" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>304</v>
       </c>
       <c r="AP83" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>304</v>
       </c>
       <c r="AQ83" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>-201</v>
       </c>
       <c r="AR83" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>285</v>
       </c>
     </row>
@@ -13626,24 +13800,27 @@
       <c r="V84" s="1">
         <v>0</v>
       </c>
+      <c r="W84" s="1">
+        <v>0</v>
+      </c>
       <c r="AN84" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="AO84" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="AP84" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="AQ84" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>-356</v>
       </c>
       <c r="AR84" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
     </row>
@@ -13718,24 +13895,27 @@
         <f>-335-SUM(S85:U85)</f>
         <v>-45</v>
       </c>
+      <c r="W85" s="1">
+        <v>-30</v>
+      </c>
       <c r="AN85" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="AO85" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="AP85" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>-70</v>
       </c>
       <c r="AQ85" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>-367</v>
       </c>
       <c r="AR85" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>-335</v>
       </c>
     </row>
@@ -13809,24 +13989,27 @@
         <f>125-SUM(S86:U86)</f>
         <v>33</v>
       </c>
+      <c r="W86" s="1">
+        <v>25</v>
+      </c>
       <c r="AN86" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="AO86" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="AP86" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="AQ86" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>53</v>
       </c>
       <c r="AR86" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>125</v>
       </c>
     </row>
@@ -13909,24 +14092,27 @@
         <f>-3-SUM(S87:U87)</f>
         <v>135</v>
       </c>
+      <c r="W87" s="1">
+        <v>-73</v>
+      </c>
       <c r="AN87" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>47</v>
       </c>
       <c r="AO87" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>100</v>
       </c>
       <c r="AP87" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>275</v>
       </c>
       <c r="AQ87" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>-104</v>
       </c>
       <c r="AR87" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>-3</v>
       </c>
     </row>
@@ -14000,24 +14186,27 @@
         <f>-24498-SUM(S88:U88)</f>
         <v>-7325</v>
       </c>
+      <c r="W88" s="1">
+        <v>-6629</v>
+      </c>
       <c r="AN88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="AO88" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="AP88" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="AQ88" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>-11470</v>
       </c>
       <c r="AR88" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>-24498</v>
       </c>
     </row>
@@ -14091,24 +14280,27 @@
         <f>24352-SUM(S89:U89)</f>
         <v>7193</v>
       </c>
+      <c r="W89" s="1">
+        <v>6445</v>
+      </c>
       <c r="AN89" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="AO89" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="AP89" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="AQ89" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>10795</v>
       </c>
       <c r="AR89" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>24352</v>
       </c>
     </row>
@@ -14125,7 +14317,7 @@
         <v>-70</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="188"/>
         <v>1126</v>
       </c>
       <c r="F90" s="1">
@@ -14196,24 +14388,28 @@
         <f>85-1131-8+83+413-SUM(S90:U90)</f>
         <v>34</v>
       </c>
+      <c r="W90" s="1">
+        <f>-98-52-526</f>
+        <v>-676</v>
+      </c>
       <c r="AN90" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>-587</v>
       </c>
       <c r="AO90" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>-673</v>
       </c>
       <c r="AP90" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>-454</v>
       </c>
       <c r="AQ90" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>-1314</v>
       </c>
       <c r="AR90" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>-558</v>
       </c>
     </row>
@@ -14222,19 +14418,19 @@
         <v>160</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" ref="C91:R91" si="176">C78+SUM(C79:C90)</f>
+        <f t="shared" ref="C91:R91" si="194">C78+SUM(C79:C90)</f>
         <v>1419</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>1774</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>4399</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>-1373</v>
       </c>
       <c r="G91" s="1">
@@ -14242,39 +14438,39 @@
         <v>1758</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>2335</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>484</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>2662</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>1217</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>1250</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>1755</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>1591</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>1170</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>-200</v>
       </c>
       <c r="Q91" s="1">
@@ -14282,7 +14478,7 @@
         <v>1259</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>2614</v>
       </c>
       <c r="S91" s="1">
@@ -14290,104 +14486,111 @@
         <v>1917</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" ref="T91:V91" si="177">T78+SUM(T79:T90)</f>
+        <f t="shared" ref="T91:V91" si="195">T78+SUM(T79:T90)</f>
         <v>1525</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="177"/>
+        <f t="shared" si="195"/>
         <v>1614</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" si="177"/>
+        <f t="shared" si="195"/>
         <v>2394</v>
       </c>
+      <c r="W91" s="1">
+        <f t="shared" ref="W91" si="196">W78+SUM(W79:W90)</f>
+        <v>1160</v>
+      </c>
       <c r="AN91" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>6219</v>
       </c>
       <c r="AO91" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>7239</v>
       </c>
       <c r="AP91" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>5813</v>
       </c>
       <c r="AQ91" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>4843</v>
       </c>
       <c r="AR91" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>7450</v>
       </c>
+    </row>
+    <row r="92" spans="1:44">
+      <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:44">
       <c r="B93" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" ref="C93:R93" si="178">C91</f>
+        <f t="shared" ref="C93:R93" si="197">C91</f>
         <v>1419</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>1774</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>4399</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>-1373</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>1758</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>2335</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>484</v>
       </c>
       <c r="J93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>2662</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>1217</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>1250</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>1755</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>1591</v>
       </c>
       <c r="O93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>1170</v>
       </c>
       <c r="P93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>-200</v>
       </c>
       <c r="Q93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>1259</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="197"/>
         <v>2614</v>
       </c>
       <c r="S93" s="1">
@@ -14395,35 +14598,39 @@
         <v>1917</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" ref="T93:V93" si="179">T91</f>
+        <f t="shared" ref="T93:V93" si="198">T91</f>
         <v>1525</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="179"/>
+        <f t="shared" si="198"/>
         <v>1614</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" si="179"/>
+        <f t="shared" si="198"/>
         <v>2394</v>
       </c>
+      <c r="W93" s="1">
+        <f t="shared" ref="W93" si="199">W91</f>
+        <v>1160</v>
+      </c>
       <c r="AN93" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>6219</v>
       </c>
       <c r="AO93" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>7239</v>
       </c>
       <c r="AP93" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>5813</v>
       </c>
       <c r="AQ93" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>4843</v>
       </c>
       <c r="AR93" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>7450</v>
       </c>
     </row>
@@ -14509,24 +14716,28 @@
         <f>-683+1-SUM(S94:U94)</f>
         <v>-202</v>
       </c>
+      <c r="W94" s="1">
+        <f>-196+2</f>
+        <v>-194</v>
+      </c>
       <c r="AN94" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>-746</v>
       </c>
       <c r="AO94" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>-903</v>
       </c>
       <c r="AP94" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>-701</v>
       </c>
       <c r="AQ94" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>-578</v>
       </c>
       <c r="AR94" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>-682</v>
       </c>
     </row>
@@ -14535,99 +14746,103 @@
         <v>162</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" ref="C95:U95" si="180">C93+C94</f>
+        <f t="shared" ref="C95:U95" si="200">C93+C94</f>
         <v>1332</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>1582</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>4158</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>-1599</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>1537</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>2089</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>259</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>2451</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>1029</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>1077</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>1573</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>1433</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>1001</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>-311</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>1105</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>2470</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>1763</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>1368</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="200"/>
         <v>1445</v>
       </c>
       <c r="V95" s="1">
         <f>V93+V94</f>
         <v>2192</v>
       </c>
+      <c r="W95" s="1">
+        <f t="shared" ref="W95" si="201">W93+W94</f>
+        <v>966</v>
+      </c>
       <c r="AN95" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>5473</v>
       </c>
       <c r="AO95" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>6336</v>
       </c>
       <c r="AP95" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>5112</v>
       </c>
       <c r="AQ95" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>4265</v>
       </c>
       <c r="AR95" s="1">
@@ -14640,103 +14855,107 @@
         <v>163</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" ref="C96:V96" si="181">C42</f>
+        <f t="shared" ref="C96:V96" si="202">C42</f>
         <v>1185</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1184</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1190</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1174</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1190</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1186</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1187</v>
       </c>
       <c r="J96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1174</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1163</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1158</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1157</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1131</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1134</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1114</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1098</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1071</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1072</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1047</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1024</v>
       </c>
       <c r="V96" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>989</v>
       </c>
+      <c r="W96" s="1">
+        <f t="shared" ref="W96" si="203">W42</f>
+        <v>986</v>
+      </c>
       <c r="AN96" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>4733</v>
       </c>
       <c r="AO96" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>4737</v>
       </c>
       <c r="AP96" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>4609</v>
       </c>
       <c r="AQ96" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>4417</v>
       </c>
       <c r="AR96" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>4132</v>
       </c>
     </row>
@@ -14745,63 +14964,63 @@
         <v>164</v>
       </c>
       <c r="C97" s="6">
-        <f t="shared" ref="C97:Q97" si="182">C95/C96</f>
+        <f t="shared" ref="C97:Q97" si="204">C95/C96</f>
         <v>1.1240506329113924</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1.3361486486486487</v>
       </c>
       <c r="E97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>3.4941176470588236</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>-1.3620102214650767</v>
       </c>
       <c r="G97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1.2915966386554623</v>
       </c>
       <c r="H97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1.7613827993254638</v>
       </c>
       <c r="I97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>0.21819713563605728</v>
       </c>
       <c r="J97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>2.0877342419080067</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>0.88478073946689595</v>
       </c>
       <c r="L97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>0.93005181347150256</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1.3595505617977528</v>
       </c>
       <c r="N97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1.2670203359858532</v>
       </c>
       <c r="O97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>0.88271604938271608</v>
       </c>
       <c r="P97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>-0.27917414721723521</v>
       </c>
       <c r="Q97" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1.0063752276867031</v>
       </c>
       <c r="R97" s="6">
@@ -14813,118 +15032,129 @@
         <v>1.6445895522388059</v>
       </c>
       <c r="T97" s="6">
-        <f t="shared" ref="T97:V97" si="183">T95/T96</f>
+        <f t="shared" ref="T97:V97" si="205">T95/T96</f>
         <v>1.3065902578796562</v>
       </c>
       <c r="U97" s="6">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>1.4111328125</v>
       </c>
       <c r="V97" s="6">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>2.2163801820020224</v>
       </c>
+      <c r="W97" s="6">
+        <f t="shared" ref="W97" si="206">W95/W96</f>
+        <v>0.97971602434077076</v>
+      </c>
       <c r="AN97" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="189"/>
         <v>4.5923067071537886</v>
       </c>
       <c r="AO97" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="190"/>
         <v>5.3589108155249896</v>
       </c>
       <c r="AP97" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>4.4414034507220048</v>
       </c>
       <c r="AQ97" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>3.9161729655197841</v>
       </c>
       <c r="AR97" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="193"/>
         <v>6.5786928046204842</v>
       </c>
+    </row>
+    <row r="98" spans="2:44">
+      <c r="W98" s="1"/>
     </row>
     <row r="99" spans="2:44">
       <c r="C99" s="7">
-        <f t="shared" ref="C99:V99" si="184">C95/C29</f>
+        <f t="shared" ref="C99:V99" si="207">C95/C29</f>
         <v>0.28843655262018192</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.3007032883482228</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.76167796299688584</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>-0.26144538914323084</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.25476545665506384</v>
       </c>
       <c r="H99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.3348829753126002</v>
       </c>
       <c r="I99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>4.1895826593335489E-2</v>
       </c>
       <c r="J99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.35429314830875974</v>
       </c>
       <c r="K99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.15872281351226283</v>
       </c>
       <c r="L99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.15824272700558331</v>
       </c>
       <c r="M99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.22976920829681566</v>
       </c>
       <c r="N99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.19409454151428959</v>
       </c>
       <c r="O99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.14218749999999999</v>
       </c>
       <c r="P99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>-4.2678742966927405E-2</v>
       </c>
       <c r="Q99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.14896198436236183</v>
       </c>
       <c r="R99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.30774981310740096</v>
       </c>
       <c r="S99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.22899077802311987</v>
       </c>
       <c r="T99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.17349397590361446</v>
       </c>
       <c r="U99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.18414680769720912</v>
       </c>
       <c r="V99" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="207"/>
         <v>0.26201290939517091</v>
+      </c>
+      <c r="W99" s="7">
+        <f t="shared" ref="W99" si="208">W95/W29</f>
+        <v>0.12398921832884097</v>
       </c>
     </row>
     <row r="101" spans="2:44">

--- a/PYPL_Model.xlsx
+++ b/PYPL_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85888A8C-41A4-4313-97D2-30586F03CC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D71BBD-2DC2-453A-A045-D0079136032A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43050" yWindow="3195" windowWidth="14295" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main | Overview" sheetId="1" r:id="rId1"/>
@@ -5282,10 +5282,10 @@
   <dimension ref="A1:CT101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS42" sqref="AS42"/>
+      <selection pane="bottomRight" activeCell="AU36" sqref="AU36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -10408,7 +10408,7 @@
         <v>986</v>
       </c>
       <c r="X42" s="24">
-        <f t="shared" ref="W42:AD42" si="145">X41/X43</f>
+        <f t="shared" ref="X42:AD42" si="145">X41/X43</f>
         <v>950.41322314049592</v>
       </c>
       <c r="Y42" s="24">

--- a/PYPL_Model.xlsx
+++ b/PYPL_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D71BBD-2DC2-453A-A045-D0079136032A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF55276-61ED-4396-AB75-BA492BB207EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43050" yWindow="3195" windowWidth="14295" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main | Overview" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">Price </t>
-  </si>
-  <si>
-    <t>Shares Outstanding</t>
   </si>
   <si>
     <t>MC</t>
@@ -690,78 +687,6 @@
         <rFont val="Calibre"/>
       </rPr>
       <t xml:space="preserve"> that connects consumers and merchants with a secure and convenient way to transact online, in-store, and across borders.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>PayPal Credit is a digital, reusable line of credit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve"> that </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>functions similarly to a credit card</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve"> but without a physical card. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve">Revolving credit line </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve">that is automatically </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>integrated into the user's PayPal account</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve"> upon approval</t>
     </r>
   </si>
   <si>
@@ -2823,6 +2748,69 @@
   <si>
     <t>Ttl Asset Turnover</t>
   </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <r>
+      <t>PayPal Credit is a digital, reusable line of credit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>functions similarly to a credit card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve"> but without a physical card. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Revolving credit line </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve">that is automatically </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>integrated into the user's PayPal account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve"> upon approval</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2883,14 +2871,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="5" tint="-0.749992370372631"/>
       <name val="Calibre"/>
@@ -2899,6 +2879,12 @@
       <b/>
       <sz val="11"/>
       <color theme="5" tint="-0.749992370372631"/>
+      <name val="Calibre"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
       <name val="Calibre"/>
     </font>
   </fonts>
@@ -2958,18 +2944,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3065,6 +3051,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30518009765783499"/>
+          <c:y val="9.2071596419985666E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3101,8 +3095,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6951676379090607E-2"/>
-          <c:y val="8.5999978502692531E-2"/>
+          <c:x val="8.9600525299547276E-2"/>
+          <c:y val="0.14431195693465865"/>
           <c:w val="0.88298155587988192"/>
           <c:h val="0.83780956435206488"/>
         </c:manualLayout>
@@ -3111,173 +3105,6 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$B$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenues</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Model!$C$2:$V$2</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>Q1'20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q2'20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q3'20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q4'20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q1'21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q2'21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q3'21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q4'21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q1'22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q2'22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q3'22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q4'22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q1'23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q2'23</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q3'23</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q4'23</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Q1'24</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Q2'24</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Q3'24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Q4'24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Model!$C$29:$V$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>4618</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5261</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5459</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6116</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6033</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6238</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6182</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6918</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6483</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6806</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6846</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7383</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7040</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7287</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7418</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8026</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7699</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7885</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7847</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8366</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-17CE-4284-9D2C-ECACB0B38A89}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
@@ -3555,8 +3382,193 @@
         <c:gapWidth val="219"/>
         <c:axId val="1856879087"/>
         <c:axId val="1856878127"/>
-        <c:extLst/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$C$2:$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Q1'20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2'20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3'20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4'20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1'21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2'21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3'21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4'21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1'22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2'22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3'22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4'22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1'23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2'23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3'23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4'23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1'24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2'24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3'24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4'24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$C$29:$V$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6918</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6846</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7383</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7040</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7287</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7418</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7885</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7847</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17CE-4284-9D2C-ECACB0B38A89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1856879087"/>
+        <c:axId val="1856878127"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1856879087"/>
         <c:scaling>
@@ -3681,10 +3693,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31998919342085774"/>
-          <c:y val="0.83585480918514943"/>
-          <c:w val="0.35949806695485892"/>
-          <c:h val="0.10952828158273174"/>
+          <c:x val="0.29940603967136831"/>
+          <c:y val="2.8693714289028449E-2"/>
+          <c:w val="0.42424907552211311"/>
+          <c:h val="0.15537190641852605"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4415,12 +4427,12 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>209548</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4734,24 +4746,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="17" t="s">
-        <v>480</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="28" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15">
@@ -4775,20 +4787,20 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>497</v>
       </c>
       <c r="C4" s="1">
         <v>989</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17">
         <f>C3*C4</f>
         <v>69042.09</v>
       </c>
@@ -4796,35 +4808,35 @@
     </row>
     <row r="6" spans="1:8">
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17">
         <f>6561+4262+4583+1500</f>
         <v>16906</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17">
         <f>9879+1191+1500</f>
         <v>12570</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17">
         <f>C5-C6+C7</f>
         <v>64706.09</v>
       </c>
@@ -4832,115 +4844,115 @@
     </row>
     <row r="10" spans="1:8" ht="15">
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15">
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15">
       <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15">
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15">
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15">
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15">
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15">
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="15">
       <c r="E28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="15">
       <c r="E29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15">
       <c r="E30" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15">
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>498</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="3:5" ht="15">
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="15">
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="15" customHeight="1">
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="15" customHeight="1">
@@ -4949,267 +4961,267 @@
     </row>
     <row r="37" spans="3:5" ht="15">
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="15">
       <c r="E38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="15">
       <c r="E39" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="15">
       <c r="E40" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="15">
       <c r="E41" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="3:5" ht="15">
       <c r="E42" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="3:5" ht="15">
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="3:5" ht="15">
       <c r="E45" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="3:5" ht="15">
       <c r="E46" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="3:5" ht="15">
       <c r="E47" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="3:5" ht="15">
       <c r="E48" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="3:5">
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="3:5">
       <c r="E51" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="3:5">
       <c r="E52" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="3:5">
       <c r="E53" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="3:5">
       <c r="E54" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="3:5">
       <c r="C56" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="3:5" ht="15" customHeight="1">
       <c r="E57" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="3:5">
       <c r="E58" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="3:5">
       <c r="E59" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="3:5">
       <c r="D60" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="3:5">
       <c r="C62" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="3:5">
       <c r="E63" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="3:5">
       <c r="E64" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="E65" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="D66" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="C68" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="E69" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="E70" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="E71" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15">
       <c r="B73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15">
       <c r="B75" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="15">
       <c r="B77" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15">
       <c r="B78" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15">
       <c r="C79" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="2:6">
       <c r="C80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="15">
       <c r="B82" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="2:7" ht="15">
       <c r="B83" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="15">
       <c r="C84" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="C85" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="15">
       <c r="B86" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
     <row r="87" spans="2:7" ht="15">
       <c r="C87" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="15">
       <c r="C88" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="15">
       <c r="B89" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="15">
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
     <row r="91" spans="2:7" ht="15">
       <c r="C91" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="15">
       <c r="C92" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="15">
@@ -5281,11 +5293,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB43A2-E51B-468E-8B2C-40F5D1CFF37E}">
   <dimension ref="A1:CT101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AP26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU36" sqref="AU36"/>
+      <selection pane="bottomRight" activeCell="AS45" sqref="AS45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -5294,218 +5306,218 @@
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
     <col min="3" max="21" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="20"/>
-    <col min="24" max="24" width="9" style="20" customWidth="1"/>
-    <col min="25" max="34" width="9.140625" style="20"/>
+    <col min="23" max="23" width="9.140625" style="19"/>
+    <col min="24" max="24" width="9" style="19" customWidth="1"/>
+    <col min="25" max="34" width="9.140625" style="19"/>
     <col min="35" max="36" width="9.140625" style="1"/>
     <col min="37" max="37" width="9" style="1" customWidth="1"/>
     <col min="38" max="39" width="9.140625" style="1"/>
     <col min="40" max="44" width="9" style="1" customWidth="1"/>
-    <col min="45" max="95" width="9" style="20" customWidth="1"/>
+    <col min="45" max="95" width="9" style="19" customWidth="1"/>
     <col min="96" max="98" width="9" style="1" customWidth="1"/>
     <col min="99" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98">
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="Z1" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AA1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD1" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="AD1" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AE1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH1" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="15">
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="X2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="AC2" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AD2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AB2" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH2" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="AF2" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG2" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="AN2" s="2">
         <v>2020</v>
@@ -5524,207 +5536,207 @@
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AS2" s="21">
+      <c r="AS2" s="20">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AT2" s="21">
+      <c r="AT2" s="20">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AU2" s="21">
+      <c r="AU2" s="20">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AV2" s="21">
+      <c r="AV2" s="20">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AW2" s="21">
+      <c r="AW2" s="20">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AX2" s="21">
+      <c r="AX2" s="20">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AY2" s="21">
+      <c r="AY2" s="20">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AZ2" s="21">
+      <c r="AZ2" s="20">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="BA2" s="21">
+      <c r="BA2" s="20">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="BB2" s="21">
+      <c r="BB2" s="20">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="BC2" s="21">
+      <c r="BC2" s="20">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="BD2" s="21">
+      <c r="BD2" s="20">
         <f t="shared" ref="BD2" si="1">BC2+1</f>
         <v>2036</v>
       </c>
-      <c r="BE2" s="21">
+      <c r="BE2" s="20">
         <f t="shared" ref="BE2" si="2">BD2+1</f>
         <v>2037</v>
       </c>
-      <c r="BF2" s="21">
+      <c r="BF2" s="20">
         <f t="shared" ref="BF2" si="3">BE2+1</f>
         <v>2038</v>
       </c>
-      <c r="BG2" s="21">
+      <c r="BG2" s="20">
         <f t="shared" ref="BG2" si="4">BF2+1</f>
         <v>2039</v>
       </c>
-      <c r="BH2" s="21">
+      <c r="BH2" s="20">
         <f t="shared" ref="BH2" si="5">BG2+1</f>
         <v>2040</v>
       </c>
-      <c r="BI2" s="21">
+      <c r="BI2" s="20">
         <f t="shared" ref="BI2" si="6">BH2+1</f>
         <v>2041</v>
       </c>
-      <c r="BJ2" s="21">
+      <c r="BJ2" s="20">
         <f t="shared" ref="BJ2" si="7">BI2+1</f>
         <v>2042</v>
       </c>
-      <c r="BK2" s="21">
+      <c r="BK2" s="20">
         <f t="shared" ref="BK2" si="8">BJ2+1</f>
         <v>2043</v>
       </c>
-      <c r="BL2" s="21">
+      <c r="BL2" s="20">
         <f t="shared" ref="BL2" si="9">BK2+1</f>
         <v>2044</v>
       </c>
-      <c r="BM2" s="21">
+      <c r="BM2" s="20">
         <f t="shared" ref="BM2" si="10">BL2+1</f>
         <v>2045</v>
       </c>
-      <c r="BN2" s="21">
+      <c r="BN2" s="20">
         <f t="shared" ref="BN2" si="11">BM2+1</f>
         <v>2046</v>
       </c>
-      <c r="BO2" s="21">
+      <c r="BO2" s="20">
         <f t="shared" ref="BO2" si="12">BN2+1</f>
         <v>2047</v>
       </c>
-      <c r="BP2" s="21">
+      <c r="BP2" s="20">
         <f t="shared" ref="BP2" si="13">BO2+1</f>
         <v>2048</v>
       </c>
-      <c r="BQ2" s="21">
+      <c r="BQ2" s="20">
         <f t="shared" ref="BQ2" si="14">BP2+1</f>
         <v>2049</v>
       </c>
-      <c r="BR2" s="21">
+      <c r="BR2" s="20">
         <f t="shared" ref="BR2" si="15">BQ2+1</f>
         <v>2050</v>
       </c>
-      <c r="BS2" s="21">
+      <c r="BS2" s="20">
         <f t="shared" ref="BS2" si="16">BR2+1</f>
         <v>2051</v>
       </c>
-      <c r="BT2" s="21">
+      <c r="BT2" s="20">
         <f t="shared" ref="BT2" si="17">BS2+1</f>
         <v>2052</v>
       </c>
-      <c r="BU2" s="21">
+      <c r="BU2" s="20">
         <f t="shared" ref="BU2" si="18">BT2+1</f>
         <v>2053</v>
       </c>
-      <c r="BV2" s="21">
+      <c r="BV2" s="20">
         <f t="shared" ref="BV2" si="19">BU2+1</f>
         <v>2054</v>
       </c>
-      <c r="BW2" s="21">
+      <c r="BW2" s="20">
         <f t="shared" ref="BW2" si="20">BV2+1</f>
         <v>2055</v>
       </c>
-      <c r="BX2" s="21">
+      <c r="BX2" s="20">
         <f t="shared" ref="BX2" si="21">BW2+1</f>
         <v>2056</v>
       </c>
-      <c r="BY2" s="21">
+      <c r="BY2" s="20">
         <f t="shared" ref="BY2" si="22">BX2+1</f>
         <v>2057</v>
       </c>
-      <c r="BZ2" s="21">
+      <c r="BZ2" s="20">
         <f t="shared" ref="BZ2" si="23">BY2+1</f>
         <v>2058</v>
       </c>
-      <c r="CA2" s="21">
+      <c r="CA2" s="20">
         <f t="shared" ref="CA2" si="24">BZ2+1</f>
         <v>2059</v>
       </c>
-      <c r="CB2" s="21">
+      <c r="CB2" s="20">
         <f t="shared" ref="CB2" si="25">CA2+1</f>
         <v>2060</v>
       </c>
-      <c r="CC2" s="21">
+      <c r="CC2" s="20">
         <f t="shared" ref="CC2" si="26">CB2+1</f>
         <v>2061</v>
       </c>
-      <c r="CD2" s="21">
+      <c r="CD2" s="20">
         <f t="shared" ref="CD2" si="27">CC2+1</f>
         <v>2062</v>
       </c>
-      <c r="CE2" s="21">
+      <c r="CE2" s="20">
         <f t="shared" ref="CE2" si="28">CD2+1</f>
         <v>2063</v>
       </c>
-      <c r="CF2" s="21">
+      <c r="CF2" s="20">
         <f t="shared" ref="CF2" si="29">CE2+1</f>
         <v>2064</v>
       </c>
-      <c r="CG2" s="21">
+      <c r="CG2" s="20">
         <f t="shared" ref="CG2" si="30">CF2+1</f>
         <v>2065</v>
       </c>
-      <c r="CH2" s="21">
+      <c r="CH2" s="20">
         <f t="shared" ref="CH2" si="31">CG2+1</f>
         <v>2066</v>
       </c>
-      <c r="CI2" s="21">
+      <c r="CI2" s="20">
         <f t="shared" ref="CI2" si="32">CH2+1</f>
         <v>2067</v>
       </c>
-      <c r="CJ2" s="21">
+      <c r="CJ2" s="20">
         <f t="shared" ref="CJ2" si="33">CI2+1</f>
         <v>2068</v>
       </c>
-      <c r="CK2" s="21">
+      <c r="CK2" s="20">
         <f t="shared" ref="CK2" si="34">CJ2+1</f>
         <v>2069</v>
       </c>
-      <c r="CL2" s="21">
+      <c r="CL2" s="20">
         <f t="shared" ref="CL2" si="35">CK2+1</f>
         <v>2070</v>
       </c>
-      <c r="CM2" s="21">
+      <c r="CM2" s="20">
         <f t="shared" ref="CM2" si="36">CL2+1</f>
         <v>2071</v>
       </c>
-      <c r="CN2" s="21">
+      <c r="CN2" s="20">
         <f t="shared" ref="CN2" si="37">CM2+1</f>
         <v>2072</v>
       </c>
-      <c r="CO2" s="21">
+      <c r="CO2" s="20">
         <f t="shared" ref="CO2" si="38">CN2+1</f>
         <v>2073</v>
       </c>
-      <c r="CP2" s="21">
+      <c r="CP2" s="20">
         <f t="shared" ref="CP2" si="39">CO2+1</f>
         <v>2074</v>
       </c>
-      <c r="CQ2" s="21">
+      <c r="CQ2" s="20">
         <f t="shared" ref="CQ2" si="40">CP2+1</f>
         <v>2075</v>
       </c>
@@ -5734,7 +5746,7 @@
     </row>
     <row r="3" spans="1:98">
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>4215</v>
@@ -5824,34 +5836,34 @@
         <f>SUM(S3:V3)</f>
         <v>28842</v>
       </c>
-      <c r="AS3" s="20">
+      <c r="AS3" s="19">
         <f>AR3*(1+AS10)</f>
         <v>29707.260000000002</v>
       </c>
-      <c r="AT3" s="20">
+      <c r="AT3" s="19">
         <f t="shared" ref="AT3:AX3" si="41">AS3*(1+AT10)</f>
         <v>30598.477800000004</v>
       </c>
-      <c r="AU3" s="20">
+      <c r="AU3" s="19">
         <f t="shared" si="41"/>
         <v>31516.432134000006</v>
       </c>
-      <c r="AV3" s="20">
+      <c r="AV3" s="19">
         <f t="shared" si="41"/>
         <v>32461.925098020009</v>
       </c>
-      <c r="AW3" s="20">
+      <c r="AW3" s="19">
         <f t="shared" si="41"/>
         <v>33111.163599980406</v>
       </c>
-      <c r="AX3" s="20">
+      <c r="AX3" s="19">
         <f t="shared" si="41"/>
         <v>33773.386871980016</v>
       </c>
     </row>
     <row r="4" spans="1:98">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>403</v>
@@ -5941,34 +5953,34 @@
         <f>SUM(S4:V4)</f>
         <v>2955</v>
       </c>
-      <c r="AS4" s="20">
+      <c r="AS4" s="19">
         <f>AR4*(1+AS11)</f>
         <v>3132.3</v>
       </c>
-      <c r="AT4" s="20">
+      <c r="AT4" s="19">
         <f t="shared" ref="AT4:AX4" si="42">AS4*(1+AT11)</f>
         <v>3382.8840000000005</v>
       </c>
-      <c r="AU4" s="20">
+      <c r="AU4" s="19">
         <f t="shared" si="42"/>
         <v>3788.8300800000011</v>
       </c>
-      <c r="AV4" s="20">
+      <c r="AV4" s="19">
         <f t="shared" si="42"/>
         <v>4281.3779904000012</v>
       </c>
-      <c r="AW4" s="20">
+      <c r="AW4" s="19">
         <f t="shared" si="42"/>
         <v>4795.1433492480019</v>
       </c>
-      <c r="AX4" s="20">
+      <c r="AX4" s="19">
         <f t="shared" si="42"/>
         <v>5274.6576841728029</v>
       </c>
     </row>
     <row r="5" spans="1:98" ht="15">
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="43">SUM(C3:C4)</f>
@@ -6054,7 +6066,7 @@
         <f t="shared" si="52"/>
         <v>7791</v>
       </c>
-      <c r="X5" s="21"/>
+      <c r="X5" s="20"/>
       <c r="AN5" s="1">
         <f>SUM(C5:F5)</f>
         <v>21454</v>
@@ -6075,27 +6087,27 @@
         <f>SUM(S5:V5)</f>
         <v>31797</v>
       </c>
-      <c r="AS5" s="20">
+      <c r="AS5" s="19">
         <f>SUM(AS3:AS4)</f>
         <v>32839.560000000005</v>
       </c>
-      <c r="AT5" s="20">
+      <c r="AT5" s="19">
         <f t="shared" ref="AT5:AX5" si="54">SUM(AT3:AT4)</f>
         <v>33981.361800000006</v>
       </c>
-      <c r="AU5" s="20">
+      <c r="AU5" s="19">
         <f t="shared" si="54"/>
         <v>35305.262214000009</v>
       </c>
-      <c r="AV5" s="20">
+      <c r="AV5" s="19">
         <f t="shared" si="54"/>
         <v>36743.303088420013</v>
       </c>
-      <c r="AW5" s="20">
+      <c r="AW5" s="19">
         <f t="shared" si="54"/>
         <v>37906.306949228405</v>
       </c>
-      <c r="AX5" s="20">
+      <c r="AX5" s="19">
         <f t="shared" si="54"/>
         <v>39048.044556152818</v>
       </c>
@@ -6123,12 +6135,12 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="21"/>
+      <c r="X6" s="20"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" ref="C7:U7" si="55">C3/C5</f>
@@ -6214,17 +6226,17 @@
         <f t="shared" ref="W7" si="56">W3/W5</f>
         <v>0.90052624823514316</v>
       </c>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -6250,80 +6262,80 @@
         <f>AR3/AR5</f>
         <v>0.90706670440607606</v>
       </c>
-      <c r="AS7" s="22">
+      <c r="AS7" s="21">
         <f>AS3/AS5</f>
         <v>0.90461808867110272</v>
       </c>
-      <c r="AT7" s="22">
+      <c r="AT7" s="21">
         <f t="shared" ref="AT7:AX7" si="58">AT3/AT5</f>
         <v>0.90044883957534627</v>
       </c>
-      <c r="AU7" s="22">
+      <c r="AU7" s="21">
         <f t="shared" si="58"/>
         <v>0.8926837008875812</v>
       </c>
-      <c r="AV7" s="22">
+      <c r="AV7" s="21">
         <f t="shared" si="58"/>
         <v>0.88347868507909622</v>
       </c>
-      <c r="AW7" s="22">
+      <c r="AW7" s="21">
         <f t="shared" si="58"/>
         <v>0.87350011818163664</v>
       </c>
-      <c r="AX7" s="22">
+      <c r="AX7" s="21">
         <f t="shared" si="58"/>
         <v>0.86491877521324756</v>
       </c>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="22"/>
-      <c r="BA7" s="22"/>
-      <c r="BB7" s="22"/>
-      <c r="BC7" s="22"/>
-      <c r="BD7" s="22"/>
-      <c r="BE7" s="22"/>
-      <c r="BF7" s="22"/>
-      <c r="BG7" s="22"/>
-      <c r="BH7" s="22"/>
-      <c r="BI7" s="22"/>
-      <c r="BJ7" s="22"/>
-      <c r="BK7" s="22"/>
-      <c r="BL7" s="22"/>
-      <c r="BM7" s="22"/>
-      <c r="BN7" s="22"/>
-      <c r="BO7" s="22"/>
-      <c r="BP7" s="22"/>
-      <c r="BQ7" s="22"/>
-      <c r="BR7" s="22"/>
-      <c r="BS7" s="22"/>
-      <c r="BT7" s="22"/>
-      <c r="BU7" s="22"/>
-      <c r="BV7" s="22"/>
-      <c r="BW7" s="22"/>
-      <c r="BX7" s="22"/>
-      <c r="BY7" s="22"/>
-      <c r="BZ7" s="22"/>
-      <c r="CA7" s="22"/>
-      <c r="CB7" s="22"/>
-      <c r="CC7" s="22"/>
-      <c r="CD7" s="22"/>
-      <c r="CE7" s="22"/>
-      <c r="CF7" s="22"/>
-      <c r="CG7" s="22"/>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="22"/>
-      <c r="CJ7" s="22"/>
-      <c r="CK7" s="22"/>
-      <c r="CL7" s="22"/>
-      <c r="CM7" s="22"/>
-      <c r="CN7" s="22"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="22"/>
-      <c r="CQ7" s="22"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="21"/>
+      <c r="BW7" s="21"/>
+      <c r="BX7" s="21"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
+      <c r="CF7" s="21"/>
+      <c r="CG7" s="21"/>
+      <c r="CH7" s="21"/>
+      <c r="CI7" s="21"/>
+      <c r="CJ7" s="21"/>
+      <c r="CK7" s="21"/>
+      <c r="CL7" s="21"/>
+      <c r="CM7" s="21"/>
+      <c r="CN7" s="21"/>
+      <c r="CO7" s="21"/>
+      <c r="CP7" s="21"/>
+      <c r="CQ7" s="21"/>
     </row>
     <row r="8" spans="1:98" s="8" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" ref="C8:U8" si="59">C4/C5</f>
@@ -6409,17 +6421,17 @@
         <f t="shared" ref="W8" si="60">W4/W5</f>
         <v>9.9473751764856885E-2</v>
       </c>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -6445,90 +6457,90 @@
         <f>AR4/AR5</f>
         <v>9.2933295593923951E-2</v>
       </c>
-      <c r="AS8" s="22">
+      <c r="AS8" s="21">
         <f>AS4/AS5</f>
         <v>9.5381911328897215E-2</v>
       </c>
-      <c r="AT8" s="22">
+      <c r="AT8" s="21">
         <f t="shared" ref="AT8:AX8" si="62">AT4/AT5</f>
         <v>9.9551160424653728E-2</v>
       </c>
-      <c r="AU8" s="22">
+      <c r="AU8" s="21">
         <f t="shared" si="62"/>
         <v>0.10731629911241877</v>
       </c>
-      <c r="AV8" s="22">
+      <c r="AV8" s="21">
         <f t="shared" si="62"/>
         <v>0.11652131492090369</v>
       </c>
-      <c r="AW8" s="22">
+      <c r="AW8" s="21">
         <f t="shared" si="62"/>
         <v>0.12649988181836344</v>
       </c>
-      <c r="AX8" s="22">
+      <c r="AX8" s="21">
         <f t="shared" si="62"/>
         <v>0.13508122478675241</v>
       </c>
-      <c r="AY8" s="22"/>
-      <c r="AZ8" s="22"/>
-      <c r="BA8" s="22"/>
-      <c r="BB8" s="22"/>
-      <c r="BC8" s="22"/>
-      <c r="BD8" s="22"/>
-      <c r="BE8" s="22"/>
-      <c r="BF8" s="22"/>
-      <c r="BG8" s="22"/>
-      <c r="BH8" s="22"/>
-      <c r="BI8" s="22"/>
-      <c r="BJ8" s="22"/>
-      <c r="BK8" s="22"/>
-      <c r="BL8" s="22"/>
-      <c r="BM8" s="22"/>
-      <c r="BN8" s="22"/>
-      <c r="BO8" s="22"/>
-      <c r="BP8" s="22"/>
-      <c r="BQ8" s="22"/>
-      <c r="BR8" s="22"/>
-      <c r="BS8" s="22"/>
-      <c r="BT8" s="22"/>
-      <c r="BU8" s="22"/>
-      <c r="BV8" s="22"/>
-      <c r="BW8" s="22"/>
-      <c r="BX8" s="22"/>
-      <c r="BY8" s="22"/>
-      <c r="BZ8" s="22"/>
-      <c r="CA8" s="22"/>
-      <c r="CB8" s="22"/>
-      <c r="CC8" s="22"/>
-      <c r="CD8" s="22"/>
-      <c r="CE8" s="22"/>
-      <c r="CF8" s="22"/>
-      <c r="CG8" s="22"/>
-      <c r="CH8" s="22"/>
-      <c r="CI8" s="22"/>
-      <c r="CJ8" s="22"/>
-      <c r="CK8" s="22"/>
-      <c r="CL8" s="22"/>
-      <c r="CM8" s="22"/>
-      <c r="CN8" s="22"/>
-      <c r="CO8" s="22"/>
-      <c r="CP8" s="22"/>
-      <c r="CQ8" s="22"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="21"/>
+      <c r="BM8" s="21"/>
+      <c r="BN8" s="21"/>
+      <c r="BO8" s="21"/>
+      <c r="BP8" s="21"/>
+      <c r="BQ8" s="21"/>
+      <c r="BR8" s="21"/>
+      <c r="BS8" s="21"/>
+      <c r="BT8" s="21"/>
+      <c r="BU8" s="21"/>
+      <c r="BV8" s="21"/>
+      <c r="BW8" s="21"/>
+      <c r="BX8" s="21"/>
+      <c r="BY8" s="21"/>
+      <c r="BZ8" s="21"/>
+      <c r="CA8" s="21"/>
+      <c r="CB8" s="21"/>
+      <c r="CC8" s="21"/>
+      <c r="CD8" s="21"/>
+      <c r="CE8" s="21"/>
+      <c r="CF8" s="21"/>
+      <c r="CG8" s="21"/>
+      <c r="CH8" s="21"/>
+      <c r="CI8" s="21"/>
+      <c r="CJ8" s="21"/>
+      <c r="CK8" s="21"/>
+      <c r="CL8" s="21"/>
+      <c r="CM8" s="21"/>
+      <c r="CN8" s="21"/>
+      <c r="CO8" s="21"/>
+      <c r="CP8" s="21"/>
+      <c r="CQ8" s="21"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -6539,62 +6551,62 @@
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22"/>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22"/>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22"/>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22"/>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22"/>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22"/>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22"/>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22"/>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22"/>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22"/>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22"/>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22"/>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="22"/>
-      <c r="CQ9" s="22"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21"/>
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21"/>
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21"/>
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21"/>
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21"/>
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21"/>
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21"/>
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21"/>
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
+      <c r="CP9" s="21"/>
+      <c r="CQ9" s="21"/>
     </row>
     <row r="10" spans="1:98" s="8" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G10" s="8">
         <f>G3/C3-1</f>
@@ -6664,17 +6676,17 @@
         <f t="shared" si="63"/>
         <v>-2.5589991470003071E-3</v>
       </c>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -6696,74 +6708,74 @@
         <f>AR3/AQ3-1</f>
         <v>7.3909967606210714E-2</v>
       </c>
-      <c r="AS10" s="22">
+      <c r="AS10" s="21">
         <v>0.03</v>
       </c>
-      <c r="AT10" s="22">
+      <c r="AT10" s="21">
         <v>0.03</v>
       </c>
-      <c r="AU10" s="22">
+      <c r="AU10" s="21">
         <v>0.03</v>
       </c>
-      <c r="AV10" s="22">
+      <c r="AV10" s="21">
         <v>0.03</v>
       </c>
-      <c r="AW10" s="22">
+      <c r="AW10" s="21">
         <v>0.02</v>
       </c>
-      <c r="AX10" s="22">
+      <c r="AX10" s="21">
         <v>0.02</v>
       </c>
-      <c r="AY10" s="22"/>
-      <c r="AZ10" s="22"/>
-      <c r="BA10" s="22"/>
-      <c r="BB10" s="22"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="22"/>
-      <c r="BE10" s="22"/>
-      <c r="BF10" s="22"/>
-      <c r="BG10" s="22"/>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="22"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="22"/>
-      <c r="BL10" s="22"/>
-      <c r="BM10" s="22"/>
-      <c r="BN10" s="22"/>
-      <c r="BO10" s="22"/>
-      <c r="BP10" s="22"/>
-      <c r="BQ10" s="22"/>
-      <c r="BR10" s="22"/>
-      <c r="BS10" s="22"/>
-      <c r="BT10" s="22"/>
-      <c r="BU10" s="22"/>
-      <c r="BV10" s="22"/>
-      <c r="BW10" s="22"/>
-      <c r="BX10" s="22"/>
-      <c r="BY10" s="22"/>
-      <c r="BZ10" s="22"/>
-      <c r="CA10" s="22"/>
-      <c r="CB10" s="22"/>
-      <c r="CC10" s="22"/>
-      <c r="CD10" s="22"/>
-      <c r="CE10" s="22"/>
-      <c r="CF10" s="22"/>
-      <c r="CG10" s="22"/>
-      <c r="CH10" s="22"/>
-      <c r="CI10" s="22"/>
-      <c r="CJ10" s="22"/>
-      <c r="CK10" s="22"/>
-      <c r="CL10" s="22"/>
-      <c r="CM10" s="22"/>
-      <c r="CN10" s="22"/>
-      <c r="CO10" s="22"/>
-      <c r="CP10" s="22"/>
-      <c r="CQ10" s="22"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="21"/>
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="21"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="21"/>
+      <c r="BU10" s="21"/>
+      <c r="BV10" s="21"/>
+      <c r="BW10" s="21"/>
+      <c r="BX10" s="21"/>
+      <c r="BY10" s="21"/>
+      <c r="BZ10" s="21"/>
+      <c r="CA10" s="21"/>
+      <c r="CB10" s="21"/>
+      <c r="CC10" s="21"/>
+      <c r="CD10" s="21"/>
+      <c r="CE10" s="21"/>
+      <c r="CF10" s="21"/>
+      <c r="CG10" s="21"/>
+      <c r="CH10" s="21"/>
+      <c r="CI10" s="21"/>
+      <c r="CJ10" s="21"/>
+      <c r="CK10" s="21"/>
+      <c r="CL10" s="21"/>
+      <c r="CM10" s="21"/>
+      <c r="CN10" s="21"/>
+      <c r="CO10" s="21"/>
+      <c r="CP10" s="21"/>
+      <c r="CQ10" s="21"/>
     </row>
     <row r="11" spans="1:98" s="8" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" ref="G11:W11" si="65">G4/C4-1</f>
@@ -6833,17 +6845,17 @@
         <f t="shared" si="65"/>
         <v>0.16541353383458657</v>
       </c>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -6865,74 +6877,74 @@
         <f>AR4/AQ4-1</f>
         <v>1.4070006863418083E-2</v>
       </c>
-      <c r="AS11" s="22">
+      <c r="AS11" s="21">
         <v>0.06</v>
       </c>
-      <c r="AT11" s="22">
+      <c r="AT11" s="21">
         <v>0.08</v>
       </c>
-      <c r="AU11" s="22">
+      <c r="AU11" s="21">
         <v>0.12</v>
       </c>
-      <c r="AV11" s="22">
+      <c r="AV11" s="21">
         <v>0.13</v>
       </c>
-      <c r="AW11" s="22">
+      <c r="AW11" s="21">
         <v>0.12</v>
       </c>
-      <c r="AX11" s="22">
+      <c r="AX11" s="21">
         <v>0.1</v>
       </c>
-      <c r="AY11" s="22"/>
-      <c r="AZ11" s="22"/>
-      <c r="BA11" s="22"/>
-      <c r="BB11" s="22"/>
-      <c r="BC11" s="22"/>
-      <c r="BD11" s="22"/>
-      <c r="BE11" s="22"/>
-      <c r="BF11" s="22"/>
-      <c r="BG11" s="22"/>
-      <c r="BH11" s="22"/>
-      <c r="BI11" s="22"/>
-      <c r="BJ11" s="22"/>
-      <c r="BK11" s="22"/>
-      <c r="BL11" s="22"/>
-      <c r="BM11" s="22"/>
-      <c r="BN11" s="22"/>
-      <c r="BO11" s="22"/>
-      <c r="BP11" s="22"/>
-      <c r="BQ11" s="22"/>
-      <c r="BR11" s="22"/>
-      <c r="BS11" s="22"/>
-      <c r="BT11" s="22"/>
-      <c r="BU11" s="22"/>
-      <c r="BV11" s="22"/>
-      <c r="BW11" s="22"/>
-      <c r="BX11" s="22"/>
-      <c r="BY11" s="22"/>
-      <c r="BZ11" s="22"/>
-      <c r="CA11" s="22"/>
-      <c r="CB11" s="22"/>
-      <c r="CC11" s="22"/>
-      <c r="CD11" s="22"/>
-      <c r="CE11" s="22"/>
-      <c r="CF11" s="22"/>
-      <c r="CG11" s="22"/>
-      <c r="CH11" s="22"/>
-      <c r="CI11" s="22"/>
-      <c r="CJ11" s="22"/>
-      <c r="CK11" s="22"/>
-      <c r="CL11" s="22"/>
-      <c r="CM11" s="22"/>
-      <c r="CN11" s="22"/>
-      <c r="CO11" s="22"/>
-      <c r="CP11" s="22"/>
-      <c r="CQ11" s="22"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="21"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="21"/>
+      <c r="BM11" s="21"/>
+      <c r="BN11" s="21"/>
+      <c r="BO11" s="21"/>
+      <c r="BP11" s="21"/>
+      <c r="BQ11" s="21"/>
+      <c r="BR11" s="21"/>
+      <c r="BS11" s="21"/>
+      <c r="BT11" s="21"/>
+      <c r="BU11" s="21"/>
+      <c r="BV11" s="21"/>
+      <c r="BW11" s="21"/>
+      <c r="BX11" s="21"/>
+      <c r="BY11" s="21"/>
+      <c r="BZ11" s="21"/>
+      <c r="CA11" s="21"/>
+      <c r="CB11" s="21"/>
+      <c r="CC11" s="21"/>
+      <c r="CD11" s="21"/>
+      <c r="CE11" s="21"/>
+      <c r="CF11" s="21"/>
+      <c r="CG11" s="21"/>
+      <c r="CH11" s="21"/>
+      <c r="CI11" s="21"/>
+      <c r="CJ11" s="21"/>
+      <c r="CK11" s="21"/>
+      <c r="CL11" s="21"/>
+      <c r="CM11" s="21"/>
+      <c r="CN11" s="21"/>
+      <c r="CO11" s="21"/>
+      <c r="CP11" s="21"/>
+      <c r="CQ11" s="21"/>
     </row>
     <row r="12" spans="1:98" s="8" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" ref="G12:W12" si="67">G5/C5-1</f>
@@ -7002,17 +7014,17 @@
         <f t="shared" si="67"/>
         <v>1.1949603844655154E-2</v>
       </c>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -7034,207 +7046,207 @@
         <f>AR5/AQ5-1</f>
         <v>6.8052803063383793E-2</v>
       </c>
-      <c r="AS12" s="22">
+      <c r="AS12" s="21">
         <f>AS5/AR5-1</f>
         <v>3.2787998867817914E-2</v>
       </c>
-      <c r="AT12" s="22">
+      <c r="AT12" s="21">
         <f t="shared" ref="AT12:AX12" si="69">AT5/AS5-1</f>
         <v>3.4769095566444808E-2</v>
       </c>
-      <c r="AU12" s="22">
+      <c r="AU12" s="21">
         <f t="shared" si="69"/>
         <v>3.8959604438218998E-2</v>
       </c>
-      <c r="AV12" s="22">
+      <c r="AV12" s="21">
         <f t="shared" si="69"/>
         <v>4.0731629911241907E-2</v>
       </c>
-      <c r="AW12" s="22">
+      <c r="AW12" s="21">
         <f t="shared" si="69"/>
         <v>3.1652131492090119E-2</v>
       </c>
-      <c r="AX12" s="22">
+      <c r="AX12" s="21">
         <f t="shared" si="69"/>
         <v>3.0119990545469211E-2</v>
       </c>
-      <c r="AY12" s="22">
+      <c r="AY12" s="21">
         <f>AU51</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AZ12" s="22">
+      <c r="AZ12" s="21">
         <f>AY12</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BA12" s="22">
+      <c r="BA12" s="21">
         <f t="shared" ref="BA12:BM12" si="70">AZ12</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BB12" s="22">
+      <c r="BB12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BC12" s="22">
+      <c r="BC12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BD12" s="22">
+      <c r="BD12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BE12" s="22">
+      <c r="BE12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BF12" s="22">
+      <c r="BF12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BG12" s="22">
+      <c r="BG12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BH12" s="22">
+      <c r="BH12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BI12" s="22">
+      <c r="BI12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BJ12" s="22">
+      <c r="BJ12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BK12" s="22">
+      <c r="BK12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BL12" s="22">
+      <c r="BL12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BM12" s="22">
+      <c r="BM12" s="21">
         <f t="shared" si="70"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BN12" s="22">
+      <c r="BN12" s="21">
         <f t="shared" ref="BN12:BT12" si="71">BM12</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BO12" s="22">
+      <c r="BO12" s="21">
         <f t="shared" si="71"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BP12" s="22">
+      <c r="BP12" s="21">
         <f t="shared" si="71"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BQ12" s="22">
+      <c r="BQ12" s="21">
         <f t="shared" si="71"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BR12" s="22">
+      <c r="BR12" s="21">
         <f t="shared" si="71"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BS12" s="22">
+      <c r="BS12" s="21">
         <f t="shared" si="71"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BT12" s="22">
+      <c r="BT12" s="21">
         <f t="shared" si="71"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BU12" s="22">
+      <c r="BU12" s="21">
         <f t="shared" ref="BU12:CB12" si="72">BT12</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BV12" s="22">
+      <c r="BV12" s="21">
         <f t="shared" si="72"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BW12" s="22">
+      <c r="BW12" s="21">
         <f t="shared" si="72"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BX12" s="22">
+      <c r="BX12" s="21">
         <f t="shared" si="72"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BY12" s="22">
+      <c r="BY12" s="21">
         <f t="shared" si="72"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BZ12" s="22">
+      <c r="BZ12" s="21">
         <f t="shared" si="72"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CA12" s="22">
+      <c r="CA12" s="21">
         <f t="shared" si="72"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CB12" s="22">
+      <c r="CB12" s="21">
         <f t="shared" si="72"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CC12" s="22">
+      <c r="CC12" s="21">
         <f t="shared" ref="CC12:CG12" si="73">CB12</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CD12" s="22">
+      <c r="CD12" s="21">
         <f t="shared" si="73"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CE12" s="22">
+      <c r="CE12" s="21">
         <f t="shared" si="73"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CF12" s="22">
+      <c r="CF12" s="21">
         <f t="shared" si="73"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CG12" s="22">
+      <c r="CG12" s="21">
         <f t="shared" si="73"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CH12" s="22">
+      <c r="CH12" s="21">
         <f t="shared" ref="CH12:CQ12" si="74">CG12</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CI12" s="22">
+      <c r="CI12" s="21">
         <f t="shared" si="74"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CJ12" s="22">
+      <c r="CJ12" s="21">
         <f t="shared" si="74"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CK12" s="22">
+      <c r="CK12" s="21">
         <f t="shared" si="74"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CL12" s="22">
+      <c r="CL12" s="21">
         <f t="shared" si="74"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CM12" s="22">
+      <c r="CM12" s="21">
         <f t="shared" si="74"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CN12" s="22">
+      <c r="CN12" s="21">
         <f t="shared" si="74"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CO12" s="22">
+      <c r="CO12" s="21">
         <f t="shared" si="74"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CP12" s="22">
+      <c r="CP12" s="21">
         <f t="shared" si="74"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CQ12" s="22">
+      <c r="CQ12" s="21">
         <f t="shared" si="74"/>
         <v>1.4999999999999999E-2</v>
       </c>
@@ -7244,13 +7256,13 @@
     </row>
     <row r="14" spans="1:98" ht="15">
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:98">
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
         <v>2469</v>
@@ -7343,7 +7355,7 @@
     </row>
     <row r="16" spans="1:98">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <f>478+1671</f>
@@ -7442,7 +7454,7 @@
     </row>
     <row r="17" spans="2:98" ht="15">
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ref="C17" si="75">C16+C15</f>
@@ -7528,7 +7540,7 @@
         <f>W16+W15</f>
         <v>7791</v>
       </c>
-      <c r="X17" s="21"/>
+      <c r="X17" s="20"/>
       <c r="AN17" s="1">
         <f>SUM(C17:F17)</f>
         <v>21454</v>
@@ -7573,11 +7585,11 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="21"/>
+      <c r="X18" s="20"/>
     </row>
     <row r="19" spans="2:98">
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" ref="C19:U19" si="84">C15/C17</f>
@@ -7686,7 +7698,7 @@
     </row>
     <row r="20" spans="2:98">
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" ref="C20:U20" si="87">C16/C17</f>
@@ -7818,7 +7830,7 @@
     </row>
     <row r="22" spans="2:98">
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -7911,7 +7923,7 @@
     </row>
     <row r="23" spans="2:98">
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -8004,7 +8016,7 @@
     </row>
     <row r="24" spans="2:98">
       <c r="B24" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -8103,7 +8115,7 @@
     </row>
     <row r="26" spans="2:98">
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J26" s="1">
         <v>428</v>
@@ -8169,23 +8181,23 @@
     </row>
     <row r="27" spans="2:98">
       <c r="B27" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="W27" s="1"/>
       <c r="AN27" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AO27" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AP27" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AQ27" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="2:98">
@@ -8193,7 +8205,7 @@
     </row>
     <row r="29" spans="2:98" s="2" customFormat="1" ht="15">
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ref="C29:V29" si="96">C5</f>
@@ -8279,33 +8291,33 @@
         <f t="shared" ref="W29" si="97">W5</f>
         <v>7791</v>
       </c>
-      <c r="X29" s="21">
+      <c r="X29" s="20">
         <v>8.09</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="Y29" s="20">
         <v>8.16</v>
       </c>
-      <c r="Z29" s="21">
+      <c r="Z29" s="20">
         <v>8.73</v>
       </c>
-      <c r="AA29" s="21">
+      <c r="AA29" s="20">
         <v>8.2799999999999994</v>
       </c>
-      <c r="AB29" s="21">
+      <c r="AB29" s="20">
         <v>8.5299999999999994</v>
       </c>
-      <c r="AC29" s="21">
+      <c r="AC29" s="20">
         <v>8.6300000000000008</v>
       </c>
-      <c r="AD29" s="21">
+      <c r="AD29" s="20">
         <v>9.2100000000000009</v>
       </c>
-      <c r="AE29" s="21">
+      <c r="AE29" s="20">
         <v>8.94</v>
       </c>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="21"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
       <c r="AN29" s="2">
         <f t="shared" ref="AN29:AQ40" si="98">SUM(O29:R29)</f>
         <v>29771</v>
@@ -8326,217 +8338,217 @@
         <f>SUM(S29:V29)</f>
         <v>31797</v>
       </c>
-      <c r="AS29" s="23">
+      <c r="AS29" s="22">
         <f>AS5</f>
         <v>32839.560000000005</v>
       </c>
-      <c r="AT29" s="23">
+      <c r="AT29" s="22">
         <f t="shared" ref="AT29:AW29" si="99">AT5</f>
         <v>33981.361800000006</v>
       </c>
-      <c r="AU29" s="23">
+      <c r="AU29" s="22">
         <f t="shared" si="99"/>
         <v>35305.262214000009</v>
       </c>
-      <c r="AV29" s="23">
+      <c r="AV29" s="22">
         <f t="shared" si="99"/>
         <v>36743.303088420013</v>
       </c>
-      <c r="AW29" s="23">
+      <c r="AW29" s="22">
         <f t="shared" si="99"/>
         <v>37906.306949228405</v>
       </c>
-      <c r="AX29" s="23">
+      <c r="AX29" s="22">
         <f>AX5</f>
         <v>39048.044556152818</v>
       </c>
-      <c r="AY29" s="23">
+      <c r="AY29" s="22">
         <f t="shared" ref="AY29:CQ29" si="100">AX29*(1+$AU$51)</f>
         <v>39633.76522449511</v>
       </c>
-      <c r="AZ29" s="23">
+      <c r="AZ29" s="22">
         <f t="shared" si="100"/>
         <v>40228.271702862534</v>
       </c>
-      <c r="BA29" s="23">
+      <c r="BA29" s="22">
         <f t="shared" si="100"/>
         <v>40831.695778405468</v>
       </c>
-      <c r="BB29" s="23">
+      <c r="BB29" s="22">
         <f t="shared" si="100"/>
         <v>41444.171215081544</v>
       </c>
-      <c r="BC29" s="23">
+      <c r="BC29" s="22">
         <f t="shared" si="100"/>
         <v>42065.83378330776</v>
       </c>
-      <c r="BD29" s="23">
+      <c r="BD29" s="22">
         <f t="shared" si="100"/>
         <v>42696.821290057371</v>
       </c>
-      <c r="BE29" s="23">
+      <c r="BE29" s="22">
         <f t="shared" si="100"/>
         <v>43337.273609408228</v>
       </c>
-      <c r="BF29" s="23">
+      <c r="BF29" s="22">
         <f t="shared" si="100"/>
         <v>43987.332713549345</v>
       </c>
-      <c r="BG29" s="23">
+      <c r="BG29" s="22">
         <f t="shared" si="100"/>
         <v>44647.142704252583</v>
       </c>
-      <c r="BH29" s="23">
+      <c r="BH29" s="22">
         <f t="shared" si="100"/>
         <v>45316.849844816366</v>
       </c>
-      <c r="BI29" s="23">
+      <c r="BI29" s="22">
         <f t="shared" si="100"/>
         <v>45996.602592488605</v>
       </c>
-      <c r="BJ29" s="23">
+      <c r="BJ29" s="22">
         <f t="shared" si="100"/>
         <v>46686.551631375929</v>
       </c>
-      <c r="BK29" s="23">
+      <c r="BK29" s="22">
         <f t="shared" si="100"/>
         <v>47386.84990584656</v>
       </c>
-      <c r="BL29" s="23">
+      <c r="BL29" s="22">
         <f t="shared" si="100"/>
         <v>48097.652654434256</v>
       </c>
-      <c r="BM29" s="23">
+      <c r="BM29" s="22">
         <f t="shared" si="100"/>
         <v>48819.117444250762</v>
       </c>
-      <c r="BN29" s="23">
+      <c r="BN29" s="22">
         <f t="shared" si="100"/>
         <v>49551.404205914521</v>
       </c>
-      <c r="BO29" s="23">
+      <c r="BO29" s="22">
         <f t="shared" si="100"/>
         <v>50294.675269003237</v>
       </c>
-      <c r="BP29" s="23">
+      <c r="BP29" s="22">
         <f t="shared" si="100"/>
         <v>51049.095398038284</v>
       </c>
-      <c r="BQ29" s="23">
+      <c r="BQ29" s="22">
         <f t="shared" si="100"/>
         <v>51814.83182900885</v>
       </c>
-      <c r="BR29" s="23">
+      <c r="BR29" s="22">
         <f t="shared" si="100"/>
         <v>52592.054306443977</v>
       </c>
-      <c r="BS29" s="23">
+      <c r="BS29" s="22">
         <f t="shared" si="100"/>
         <v>53380.935121040631</v>
       </c>
-      <c r="BT29" s="23">
+      <c r="BT29" s="22">
         <f t="shared" si="100"/>
         <v>54181.649147856238</v>
       </c>
-      <c r="BU29" s="23">
+      <c r="BU29" s="22">
         <f t="shared" si="100"/>
         <v>54994.373885074077</v>
       </c>
-      <c r="BV29" s="23">
+      <c r="BV29" s="22">
         <f t="shared" si="100"/>
         <v>55819.289493350181</v>
       </c>
-      <c r="BW29" s="23">
+      <c r="BW29" s="22">
         <f t="shared" si="100"/>
         <v>56656.578835750428</v>
       </c>
-      <c r="BX29" s="23">
+      <c r="BX29" s="22">
         <f t="shared" si="100"/>
         <v>57506.427518286677</v>
       </c>
-      <c r="BY29" s="23">
+      <c r="BY29" s="22">
         <f t="shared" si="100"/>
         <v>58369.023931060969</v>
       </c>
-      <c r="BZ29" s="23">
+      <c r="BZ29" s="22">
         <f t="shared" si="100"/>
         <v>59244.559290026875</v>
       </c>
-      <c r="CA29" s="23">
+      <c r="CA29" s="22">
         <f t="shared" si="100"/>
         <v>60133.227679377269</v>
       </c>
-      <c r="CB29" s="23">
+      <c r="CB29" s="22">
         <f t="shared" si="100"/>
         <v>61035.226094567923</v>
       </c>
-      <c r="CC29" s="23">
+      <c r="CC29" s="22">
         <f t="shared" si="100"/>
         <v>61950.754485986436</v>
       </c>
-      <c r="CD29" s="23">
+      <c r="CD29" s="22">
         <f t="shared" si="100"/>
         <v>62880.015803276227</v>
       </c>
-      <c r="CE29" s="23">
+      <c r="CE29" s="22">
         <f t="shared" si="100"/>
         <v>63823.216040325366</v>
       </c>
-      <c r="CF29" s="23">
+      <c r="CF29" s="22">
         <f t="shared" si="100"/>
         <v>64780.564280930237</v>
       </c>
-      <c r="CG29" s="23">
+      <c r="CG29" s="22">
         <f t="shared" si="100"/>
         <v>65752.27274514419</v>
       </c>
-      <c r="CH29" s="23">
+      <c r="CH29" s="22">
         <f t="shared" si="100"/>
         <v>66738.556836321353</v>
       </c>
-      <c r="CI29" s="23">
+      <c r="CI29" s="22">
         <f t="shared" si="100"/>
         <v>67739.635188866174</v>
       </c>
-      <c r="CJ29" s="23">
+      <c r="CJ29" s="22">
         <f t="shared" si="100"/>
         <v>68755.729716699163</v>
       </c>
-      <c r="CK29" s="23">
+      <c r="CK29" s="22">
         <f t="shared" si="100"/>
         <v>69787.065662449648</v>
       </c>
-      <c r="CL29" s="23">
+      <c r="CL29" s="22">
         <f t="shared" si="100"/>
         <v>70833.87164738639</v>
       </c>
-      <c r="CM29" s="23">
+      <c r="CM29" s="22">
         <f t="shared" si="100"/>
         <v>71896.379722097176</v>
       </c>
-      <c r="CN29" s="23">
+      <c r="CN29" s="22">
         <f t="shared" si="100"/>
         <v>72974.82541792863</v>
       </c>
-      <c r="CO29" s="23">
+      <c r="CO29" s="22">
         <f t="shared" si="100"/>
         <v>74069.447799197558</v>
       </c>
-      <c r="CP29" s="23">
+      <c r="CP29" s="22">
         <f t="shared" si="100"/>
         <v>75180.489516185509</v>
       </c>
-      <c r="CQ29" s="23">
+      <c r="CQ29" s="22">
         <f t="shared" si="100"/>
         <v>76308.196858928291</v>
       </c>
-      <c r="CR29" s="19"/>
-      <c r="CS29" s="19"/>
-      <c r="CT29" s="19"/>
+      <c r="CR29" s="18"/>
+      <c r="CS29" s="18"/>
+      <c r="CT29" s="18"/>
     </row>
     <row r="30" spans="2:98">
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1">
         <v>1739</v>
@@ -8629,7 +8641,7 @@
     </row>
     <row r="31" spans="2:98">
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1">
         <v>591</v>
@@ -8722,7 +8734,7 @@
     </row>
     <row r="32" spans="2:98">
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1">
         <v>399</v>
@@ -8815,7 +8827,7 @@
     </row>
     <row r="33" spans="2:98">
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1">
         <v>371</v>
@@ -8908,7 +8920,7 @@
     </row>
     <row r="34" spans="2:98">
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1">
         <v>605</v>
@@ -9001,7 +9013,7 @@
     </row>
     <row r="35" spans="2:98">
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1">
         <v>486</v>
@@ -9094,7 +9106,7 @@
     </row>
     <row r="36" spans="2:98">
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1">
         <v>29</v>
@@ -9187,7 +9199,7 @@
     </row>
     <row r="37" spans="2:98">
       <c r="B37" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ref="C37:T37" si="103">C29-SUM(C30:C36)</f>
@@ -9293,207 +9305,207 @@
         <f>AR29-SUM(AR30:AR36)</f>
         <v>5325</v>
       </c>
-      <c r="AS37" s="24">
+      <c r="AS37" s="23">
         <f>AS29*AS47</f>
         <v>6469.393320000001</v>
       </c>
-      <c r="AT37" s="24">
+      <c r="AT37" s="23">
         <f t="shared" ref="AT37:BH37" si="105">AT29*AT47</f>
         <v>6966.1791690000009</v>
       </c>
-      <c r="AU37" s="24">
+      <c r="AU37" s="23">
         <f t="shared" si="105"/>
         <v>7308.1892782980012</v>
       </c>
-      <c r="AV37" s="24">
+      <c r="AV37" s="23">
         <f t="shared" si="105"/>
         <v>7679.3503454797819</v>
       </c>
-      <c r="AW37" s="24">
+      <c r="AW37" s="23">
         <f t="shared" si="105"/>
         <v>7960.324459337965</v>
       </c>
-      <c r="AX37" s="24">
+      <c r="AX37" s="23">
         <f t="shared" si="105"/>
         <v>8239.1374013482437</v>
       </c>
-      <c r="AY37" s="24">
+      <c r="AY37" s="23">
         <f t="shared" si="105"/>
         <v>8362.7244623684674</v>
       </c>
-      <c r="AZ37" s="24">
+      <c r="AZ37" s="23">
         <f t="shared" si="105"/>
         <v>8488.1653293039944</v>
       </c>
-      <c r="BA37" s="24">
+      <c r="BA37" s="23">
         <f t="shared" si="105"/>
         <v>8615.4878092435538</v>
       </c>
-      <c r="BB37" s="24">
+      <c r="BB37" s="23">
         <f t="shared" si="105"/>
         <v>8744.7201263822062</v>
       </c>
-      <c r="BC37" s="24">
+      <c r="BC37" s="23">
         <f t="shared" si="105"/>
         <v>8875.8909282779368</v>
       </c>
-      <c r="BD37" s="24">
+      <c r="BD37" s="23">
         <f t="shared" si="105"/>
         <v>9009.0292922021054</v>
       </c>
-      <c r="BE37" s="24">
+      <c r="BE37" s="23">
         <f t="shared" si="105"/>
         <v>9144.1647315851351</v>
       </c>
-      <c r="BF37" s="24">
+      <c r="BF37" s="23">
         <f t="shared" si="105"/>
         <v>9281.3272025589122</v>
       </c>
-      <c r="BG37" s="24">
+      <c r="BG37" s="23">
         <f t="shared" si="105"/>
         <v>9420.5471105972938</v>
       </c>
-      <c r="BH37" s="24">
+      <c r="BH37" s="23">
         <f t="shared" si="105"/>
         <v>9561.8553172562533</v>
       </c>
-      <c r="BI37" s="24">
+      <c r="BI37" s="23">
         <f t="shared" ref="BI37:CP37" si="106">BI29*BI47</f>
         <v>9705.2831470150959</v>
       </c>
-      <c r="BJ37" s="24">
+      <c r="BJ37" s="23">
         <f t="shared" si="106"/>
         <v>9850.8623942203212</v>
       </c>
-      <c r="BK37" s="24">
+      <c r="BK37" s="23">
         <f t="shared" si="106"/>
         <v>9998.6253301336237</v>
       </c>
-      <c r="BL37" s="24">
+      <c r="BL37" s="23">
         <f t="shared" si="106"/>
         <v>10148.604710085629</v>
       </c>
-      <c r="BM37" s="24">
+      <c r="BM37" s="23">
         <f t="shared" si="106"/>
         <v>10300.83378073691</v>
       </c>
-      <c r="BN37" s="24">
+      <c r="BN37" s="23">
         <f t="shared" si="106"/>
         <v>10455.346287447963</v>
       </c>
-      <c r="BO37" s="24">
+      <c r="BO37" s="23">
         <f t="shared" si="106"/>
         <v>10612.176481759683</v>
       </c>
-      <c r="BP37" s="24">
+      <c r="BP37" s="23">
         <f t="shared" si="106"/>
         <v>10771.359128986078</v>
       </c>
-      <c r="BQ37" s="24">
+      <c r="BQ37" s="23">
         <f t="shared" si="106"/>
         <v>10932.929515920867</v>
       </c>
-      <c r="BR37" s="24">
+      <c r="BR37" s="23">
         <f t="shared" si="106"/>
         <v>11096.923458659679</v>
       </c>
-      <c r="BS37" s="24">
+      <c r="BS37" s="23">
         <f t="shared" si="106"/>
         <v>11263.377310539572</v>
       </c>
-      <c r="BT37" s="24">
+      <c r="BT37" s="23">
         <f t="shared" si="106"/>
         <v>11432.327970197666</v>
       </c>
-      <c r="BU37" s="24">
+      <c r="BU37" s="23">
         <f t="shared" si="106"/>
         <v>11603.81288975063</v>
       </c>
-      <c r="BV37" s="24">
+      <c r="BV37" s="23">
         <f t="shared" si="106"/>
         <v>11777.870083096888</v>
       </c>
-      <c r="BW37" s="24">
+      <c r="BW37" s="23">
         <f t="shared" si="106"/>
         <v>11954.53813434334</v>
       </c>
-      <c r="BX37" s="24">
+      <c r="BX37" s="23">
         <f t="shared" si="106"/>
         <v>12133.856206358489</v>
       </c>
-      <c r="BY37" s="24">
+      <c r="BY37" s="23">
         <f t="shared" si="106"/>
         <v>12315.864049453863</v>
       </c>
-      <c r="BZ37" s="24">
+      <c r="BZ37" s="23">
         <f t="shared" si="106"/>
         <v>12500.602010195671</v>
       </c>
-      <c r="CA37" s="24">
+      <c r="CA37" s="23">
         <f t="shared" si="106"/>
         <v>12688.111040348604</v>
       </c>
-      <c r="CB37" s="24">
+      <c r="CB37" s="23">
         <f t="shared" si="106"/>
         <v>12878.432705953832</v>
       </c>
-      <c r="CC37" s="24">
+      <c r="CC37" s="23">
         <f t="shared" si="106"/>
         <v>13071.609196543137</v>
       </c>
-      <c r="CD37" s="24">
+      <c r="CD37" s="23">
         <f t="shared" si="106"/>
         <v>13267.683334491283</v>
       </c>
-      <c r="CE37" s="24">
+      <c r="CE37" s="23">
         <f t="shared" si="106"/>
         <v>13466.698584508651</v>
       </c>
-      <c r="CF37" s="24">
+      <c r="CF37" s="23">
         <f t="shared" si="106"/>
         <v>13668.699063276279</v>
       </c>
-      <c r="CG37" s="24">
+      <c r="CG37" s="23">
         <f t="shared" si="106"/>
         <v>13873.729549225423</v>
       </c>
-      <c r="CH37" s="24">
+      <c r="CH37" s="23">
         <f t="shared" si="106"/>
         <v>14081.835492463804</v>
       </c>
-      <c r="CI37" s="24">
+      <c r="CI37" s="23">
         <f t="shared" si="106"/>
         <v>14293.063024850762</v>
       </c>
-      <c r="CJ37" s="24">
+      <c r="CJ37" s="23">
         <f t="shared" si="106"/>
         <v>14507.458970223523</v>
       </c>
-      <c r="CK37" s="24">
+      <c r="CK37" s="23">
         <f t="shared" si="106"/>
         <v>14725.070854776875</v>
       </c>
-      <c r="CL37" s="24">
+      <c r="CL37" s="23">
         <f t="shared" si="106"/>
         <v>14945.946917598527</v>
       </c>
-      <c r="CM37" s="24">
+      <c r="CM37" s="23">
         <f t="shared" si="106"/>
         <v>15170.136121362504</v>
       </c>
-      <c r="CN37" s="24">
+      <c r="CN37" s="23">
         <f t="shared" si="106"/>
         <v>15397.68816318294</v>
       </c>
-      <c r="CO37" s="24">
+      <c r="CO37" s="23">
         <f t="shared" si="106"/>
         <v>15628.653485630684</v>
       </c>
-      <c r="CP37" s="24">
+      <c r="CP37" s="23">
         <f t="shared" si="106"/>
         <v>15863.083287915142</v>
       </c>
-      <c r="CQ37" s="24">
+      <c r="CQ37" s="23">
         <f>CQ29*CQ47</f>
         <v>16101.02953723387</v>
       </c>
@@ -9503,7 +9515,7 @@
     </row>
     <row r="38" spans="2:98">
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="1">
         <v>-135</v>
@@ -9596,7 +9608,7 @@
     </row>
     <row r="39" spans="2:98">
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ref="C39:U39" si="107">C37+C38</f>
@@ -9705,7 +9717,7 @@
     </row>
     <row r="40" spans="2:98">
       <c r="B40" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C40" s="1">
         <v>179</v>
@@ -9795,214 +9807,214 @@
         <f t="shared" si="102"/>
         <v>1182</v>
       </c>
-      <c r="AS40" s="20">
+      <c r="AS40" s="19">
         <f>AS37*0.21</f>
         <v>1358.5725972000002</v>
       </c>
-      <c r="AT40" s="20">
+      <c r="AT40" s="19">
         <f t="shared" ref="AT40:CQ40" si="110">AT37*0.21</f>
         <v>1462.8976254900001</v>
       </c>
-      <c r="AU40" s="20">
+      <c r="AU40" s="19">
         <f t="shared" si="110"/>
         <v>1534.7197484425801</v>
       </c>
-      <c r="AV40" s="20">
+      <c r="AV40" s="19">
         <f t="shared" si="110"/>
         <v>1612.6635725507542</v>
       </c>
-      <c r="AW40" s="20">
+      <c r="AW40" s="19">
         <f t="shared" si="110"/>
         <v>1671.6681364609726</v>
       </c>
-      <c r="AX40" s="20">
+      <c r="AX40" s="19">
         <f t="shared" si="110"/>
         <v>1730.2188542831311</v>
       </c>
-      <c r="AY40" s="20">
+      <c r="AY40" s="19">
         <f t="shared" si="110"/>
         <v>1756.172137097378</v>
       </c>
-      <c r="AZ40" s="20">
+      <c r="AZ40" s="19">
         <f t="shared" si="110"/>
         <v>1782.5147191538388</v>
       </c>
-      <c r="BA40" s="20">
+      <c r="BA40" s="19">
         <f t="shared" si="110"/>
         <v>1809.2524399411461</v>
       </c>
-      <c r="BB40" s="20">
+      <c r="BB40" s="19">
         <f t="shared" si="110"/>
         <v>1836.3912265402632</v>
       </c>
-      <c r="BC40" s="20">
+      <c r="BC40" s="19">
         <f t="shared" si="110"/>
         <v>1863.9370949383667</v>
       </c>
-      <c r="BD40" s="20">
+      <c r="BD40" s="19">
         <f t="shared" si="110"/>
         <v>1891.896151362442</v>
       </c>
-      <c r="BE40" s="20">
+      <c r="BE40" s="19">
         <f t="shared" si="110"/>
         <v>1920.2745936328784</v>
       </c>
-      <c r="BF40" s="20">
+      <c r="BF40" s="19">
         <f t="shared" si="110"/>
         <v>1949.0787125373715</v>
       </c>
-      <c r="BG40" s="20">
+      <c r="BG40" s="19">
         <f t="shared" si="110"/>
         <v>1978.3148932254317</v>
       </c>
-      <c r="BH40" s="20">
+      <c r="BH40" s="19">
         <f t="shared" si="110"/>
         <v>2007.9896166238132</v>
       </c>
-      <c r="BI40" s="20">
+      <c r="BI40" s="19">
         <f t="shared" si="110"/>
         <v>2038.1094608731701</v>
       </c>
-      <c r="BJ40" s="20">
+      <c r="BJ40" s="19">
         <f t="shared" si="110"/>
         <v>2068.6811027862673</v>
       </c>
-      <c r="BK40" s="20">
+      <c r="BK40" s="19">
         <f t="shared" si="110"/>
         <v>2099.7113193280611</v>
       </c>
-      <c r="BL40" s="20">
+      <c r="BL40" s="19">
         <f t="shared" si="110"/>
         <v>2131.2069891179817</v>
       </c>
-      <c r="BM40" s="20">
+      <c r="BM40" s="19">
         <f t="shared" si="110"/>
         <v>2163.175093954751</v>
       </c>
-      <c r="BN40" s="20">
+      <c r="BN40" s="19">
         <f t="shared" si="110"/>
         <v>2195.6227203640719</v>
       </c>
-      <c r="BO40" s="20">
+      <c r="BO40" s="19">
         <f t="shared" si="110"/>
         <v>2228.5570611695334</v>
       </c>
-      <c r="BP40" s="20">
+      <c r="BP40" s="19">
         <f t="shared" si="110"/>
         <v>2261.9854170870763</v>
       </c>
-      <c r="BQ40" s="20">
+      <c r="BQ40" s="19">
         <f t="shared" si="110"/>
         <v>2295.9151983433821</v>
       </c>
-      <c r="BR40" s="20">
+      <c r="BR40" s="19">
         <f t="shared" si="110"/>
         <v>2330.3539263185326</v>
       </c>
-      <c r="BS40" s="20">
+      <c r="BS40" s="19">
         <f t="shared" si="110"/>
         <v>2365.3092352133099</v>
       </c>
-      <c r="BT40" s="20">
+      <c r="BT40" s="19">
         <f t="shared" si="110"/>
         <v>2400.7888737415096</v>
       </c>
-      <c r="BU40" s="20">
+      <c r="BU40" s="19">
         <f t="shared" si="110"/>
         <v>2436.8007068476322</v>
       </c>
-      <c r="BV40" s="20">
+      <c r="BV40" s="19">
         <f t="shared" si="110"/>
         <v>2473.3527174503465</v>
       </c>
-      <c r="BW40" s="20">
+      <c r="BW40" s="19">
         <f t="shared" si="110"/>
         <v>2510.4530082121014</v>
       </c>
-      <c r="BX40" s="20">
+      <c r="BX40" s="19">
         <f t="shared" si="110"/>
         <v>2548.1098033352823</v>
       </c>
-      <c r="BY40" s="20">
+      <c r="BY40" s="19">
         <f t="shared" si="110"/>
         <v>2586.3314503853112</v>
       </c>
-      <c r="BZ40" s="20">
+      <c r="BZ40" s="19">
         <f t="shared" si="110"/>
         <v>2625.1264221410906</v>
       </c>
-      <c r="CA40" s="20">
+      <c r="CA40" s="19">
         <f t="shared" si="110"/>
         <v>2664.5033184732065</v>
       </c>
-      <c r="CB40" s="20">
+      <c r="CB40" s="19">
         <f t="shared" si="110"/>
         <v>2704.4708682503046</v>
       </c>
-      <c r="CC40" s="20">
+      <c r="CC40" s="19">
         <f t="shared" si="110"/>
         <v>2745.0379312740588</v>
       </c>
-      <c r="CD40" s="20">
+      <c r="CD40" s="19">
         <f t="shared" si="110"/>
         <v>2786.2135002431692</v>
       </c>
-      <c r="CE40" s="20">
+      <c r="CE40" s="19">
         <f t="shared" si="110"/>
         <v>2828.0067027468167</v>
       </c>
-      <c r="CF40" s="20">
+      <c r="CF40" s="19">
         <f t="shared" si="110"/>
         <v>2870.4268032880186</v>
       </c>
-      <c r="CG40" s="20">
+      <c r="CG40" s="19">
         <f t="shared" si="110"/>
         <v>2913.4832053373389</v>
       </c>
-      <c r="CH40" s="20">
+      <c r="CH40" s="19">
         <f t="shared" si="110"/>
         <v>2957.185453417399</v>
       </c>
-      <c r="CI40" s="20">
+      <c r="CI40" s="19">
         <f t="shared" si="110"/>
         <v>3001.5432352186599</v>
       </c>
-      <c r="CJ40" s="20">
+      <c r="CJ40" s="19">
         <f t="shared" si="110"/>
         <v>3046.5663837469397</v>
       </c>
-      <c r="CK40" s="20">
+      <c r="CK40" s="19">
         <f t="shared" si="110"/>
         <v>3092.2648795031437</v>
       </c>
-      <c r="CL40" s="20">
+      <c r="CL40" s="19">
         <f t="shared" si="110"/>
         <v>3138.6488526956905</v>
       </c>
-      <c r="CM40" s="20">
+      <c r="CM40" s="19">
         <f t="shared" si="110"/>
         <v>3185.7285854861257</v>
       </c>
-      <c r="CN40" s="20">
+      <c r="CN40" s="19">
         <f t="shared" si="110"/>
         <v>3233.5145142684173</v>
       </c>
-      <c r="CO40" s="20">
+      <c r="CO40" s="19">
         <f t="shared" si="110"/>
         <v>3282.0172319824437</v>
       </c>
-      <c r="CP40" s="20">
+      <c r="CP40" s="19">
         <f t="shared" si="110"/>
         <v>3331.2474904621799</v>
       </c>
-      <c r="CQ40" s="20">
+      <c r="CQ40" s="19">
         <f t="shared" si="110"/>
         <v>3381.2162028191124</v>
       </c>
     </row>
     <row r="41" spans="2:98" s="2" customFormat="1" ht="15">
       <c r="B41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" ref="C41:U41" si="111">C39-C40</f>
@@ -10088,33 +10100,33 @@
         <f t="shared" ref="W41" si="113">W39-W40</f>
         <v>1287</v>
       </c>
-      <c r="X41" s="21">
+      <c r="X41" s="20">
         <v>1150</v>
       </c>
-      <c r="Y41" s="21">
+      <c r="Y41" s="20">
         <v>1190</v>
       </c>
-      <c r="Z41" s="21">
+      <c r="Z41" s="20">
         <v>1290</v>
       </c>
-      <c r="AA41" s="21">
+      <c r="AA41" s="20">
         <v>1150</v>
       </c>
-      <c r="AB41" s="21">
+      <c r="AB41" s="20">
         <v>1200</v>
       </c>
-      <c r="AC41" s="21">
+      <c r="AC41" s="20">
         <v>1250</v>
       </c>
-      <c r="AD41" s="21">
+      <c r="AD41" s="20">
         <v>1380</v>
       </c>
-      <c r="AE41" s="21">
+      <c r="AE41" s="20">
         <v>1280</v>
       </c>
-      <c r="AF41" s="21"/>
-      <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
       <c r="AN41" s="2">
         <f>SUM(C41:F41)</f>
         <v>4202</v>
@@ -10135,214 +10147,214 @@
         <f t="shared" si="102"/>
         <v>4147</v>
       </c>
-      <c r="AS41" s="23">
+      <c r="AS41" s="22">
         <f>AS37-AS40</f>
         <v>5110.820722800001</v>
       </c>
-      <c r="AT41" s="21">
+      <c r="AT41" s="20">
         <f t="shared" ref="AT41:BM41" si="114">AT37-AT40</f>
         <v>5503.281543510001</v>
       </c>
-      <c r="AU41" s="21">
+      <c r="AU41" s="20">
         <f t="shared" si="114"/>
         <v>5773.4695298554216</v>
       </c>
-      <c r="AV41" s="21">
+      <c r="AV41" s="20">
         <f t="shared" si="114"/>
         <v>6066.6867729290279</v>
       </c>
-      <c r="AW41" s="21">
+      <c r="AW41" s="20">
         <f t="shared" si="114"/>
         <v>6288.6563228769919</v>
       </c>
-      <c r="AX41" s="21">
+      <c r="AX41" s="20">
         <f t="shared" si="114"/>
         <v>6508.9185470651128</v>
       </c>
-      <c r="AY41" s="21">
+      <c r="AY41" s="20">
         <f t="shared" si="114"/>
         <v>6606.5523252710891</v>
       </c>
-      <c r="AZ41" s="21">
+      <c r="AZ41" s="20">
         <f t="shared" si="114"/>
         <v>6705.6506101501554</v>
       </c>
-      <c r="BA41" s="21">
+      <c r="BA41" s="20">
         <f t="shared" si="114"/>
         <v>6806.2353693024079</v>
       </c>
-      <c r="BB41" s="21">
+      <c r="BB41" s="20">
         <f t="shared" si="114"/>
         <v>6908.328899841943</v>
       </c>
-      <c r="BC41" s="21">
+      <c r="BC41" s="20">
         <f t="shared" si="114"/>
         <v>7011.9538333395703</v>
       </c>
-      <c r="BD41" s="21">
+      <c r="BD41" s="20">
         <f t="shared" si="114"/>
         <v>7117.1331408396636</v>
       </c>
-      <c r="BE41" s="21">
+      <c r="BE41" s="20">
         <f t="shared" si="114"/>
         <v>7223.8901379522567</v>
       </c>
-      <c r="BF41" s="21">
+      <c r="BF41" s="20">
         <f t="shared" si="114"/>
         <v>7332.2484900215404</v>
       </c>
-      <c r="BG41" s="21">
+      <c r="BG41" s="20">
         <f t="shared" si="114"/>
         <v>7442.2322173718621</v>
       </c>
-      <c r="BH41" s="21">
+      <c r="BH41" s="20">
         <f t="shared" si="114"/>
         <v>7553.8657006324402</v>
       </c>
-      <c r="BI41" s="21">
+      <c r="BI41" s="20">
         <f t="shared" si="114"/>
         <v>7667.1736861419258</v>
       </c>
-      <c r="BJ41" s="21">
+      <c r="BJ41" s="20">
         <f t="shared" si="114"/>
         <v>7782.1812914340535</v>
       </c>
-      <c r="BK41" s="21">
+      <c r="BK41" s="20">
         <f t="shared" si="114"/>
         <v>7898.9140108055626</v>
       </c>
-      <c r="BL41" s="21">
+      <c r="BL41" s="20">
         <f t="shared" si="114"/>
         <v>8017.3977209676468</v>
       </c>
-      <c r="BM41" s="21">
+      <c r="BM41" s="20">
         <f t="shared" si="114"/>
         <v>8137.6586867821588</v>
       </c>
-      <c r="BN41" s="21">
+      <c r="BN41" s="20">
         <f t="shared" ref="BN41" si="115">BN37-BN40</f>
         <v>8259.7235670838909</v>
       </c>
-      <c r="BO41" s="21">
+      <c r="BO41" s="20">
         <f t="shared" ref="BO41" si="116">BO37-BO40</f>
         <v>8383.6194205901502</v>
       </c>
-      <c r="BP41" s="21">
+      <c r="BP41" s="20">
         <f t="shared" ref="BP41" si="117">BP37-BP40</f>
         <v>8509.3737118990011</v>
       </c>
-      <c r="BQ41" s="21">
+      <c r="BQ41" s="20">
         <f t="shared" ref="BQ41" si="118">BQ37-BQ40</f>
         <v>8637.0143175774847</v>
       </c>
-      <c r="BR41" s="21">
+      <c r="BR41" s="20">
         <f t="shared" ref="BR41" si="119">BR37-BR40</f>
         <v>8766.5695323411474</v>
       </c>
-      <c r="BS41" s="21">
+      <c r="BS41" s="20">
         <f t="shared" ref="BS41" si="120">BS37-BS40</f>
         <v>8898.0680753262623</v>
       </c>
-      <c r="BT41" s="21">
+      <c r="BT41" s="20">
         <f t="shared" ref="BT41" si="121">BT37-BT40</f>
         <v>9031.5390964561557</v>
       </c>
-      <c r="BU41" s="21">
+      <c r="BU41" s="20">
         <f t="shared" ref="BU41" si="122">BU37-BU40</f>
         <v>9167.0121829029977</v>
       </c>
-      <c r="BV41" s="21">
+      <c r="BV41" s="20">
         <f t="shared" ref="BV41" si="123">BV37-BV40</f>
         <v>9304.5173656465413</v>
       </c>
-      <c r="BW41" s="21">
+      <c r="BW41" s="20">
         <f t="shared" ref="BW41" si="124">BW37-BW40</f>
         <v>9444.0851261312382</v>
       </c>
-      <c r="BX41" s="21">
+      <c r="BX41" s="20">
         <f t="shared" ref="BX41" si="125">BX37-BX40</f>
         <v>9585.7464030232059</v>
       </c>
-      <c r="BY41" s="21">
+      <c r="BY41" s="20">
         <f t="shared" ref="BY41" si="126">BY37-BY40</f>
         <v>9729.5325990685524</v>
       </c>
-      <c r="BZ41" s="21">
+      <c r="BZ41" s="20">
         <f t="shared" ref="BZ41" si="127">BZ37-BZ40</f>
         <v>9875.4755880545799</v>
       </c>
-      <c r="CA41" s="21">
+      <c r="CA41" s="20">
         <f t="shared" ref="CA41" si="128">CA37-CA40</f>
         <v>10023.607721875396</v>
       </c>
-      <c r="CB41" s="21">
+      <c r="CB41" s="20">
         <f t="shared" ref="CB41" si="129">CB37-CB40</f>
         <v>10173.961837703528</v>
       </c>
-      <c r="CC41" s="21">
+      <c r="CC41" s="20">
         <f t="shared" ref="CC41" si="130">CC37-CC40</f>
         <v>10326.571265269078</v>
       </c>
-      <c r="CD41" s="21">
+      <c r="CD41" s="20">
         <f t="shared" ref="CD41" si="131">CD37-CD40</f>
         <v>10481.469834248113</v>
       </c>
-      <c r="CE41" s="21">
+      <c r="CE41" s="20">
         <f t="shared" ref="CE41" si="132">CE37-CE40</f>
         <v>10638.691881761835</v>
       </c>
-      <c r="CF41" s="21">
+      <c r="CF41" s="20">
         <f t="shared" ref="CF41" si="133">CF37-CF40</f>
         <v>10798.27225998826</v>
       </c>
-      <c r="CG41" s="21">
+      <c r="CG41" s="20">
         <f t="shared" ref="CG41" si="134">CG37-CG40</f>
         <v>10960.246343888084</v>
       </c>
-      <c r="CH41" s="21">
+      <c r="CH41" s="20">
         <f t="shared" ref="CH41" si="135">CH37-CH40</f>
         <v>11124.650039046406</v>
       </c>
-      <c r="CI41" s="21">
+      <c r="CI41" s="20">
         <f t="shared" ref="CI41" si="136">CI37-CI40</f>
         <v>11291.519789632102</v>
       </c>
-      <c r="CJ41" s="21">
+      <c r="CJ41" s="20">
         <f t="shared" ref="CJ41" si="137">CJ37-CJ40</f>
         <v>11460.892586476582</v>
       </c>
-      <c r="CK41" s="21">
+      <c r="CK41" s="20">
         <f t="shared" ref="CK41" si="138">CK37-CK40</f>
         <v>11632.805975273732</v>
       </c>
-      <c r="CL41" s="21">
+      <c r="CL41" s="20">
         <f t="shared" ref="CL41" si="139">CL37-CL40</f>
         <v>11807.298064902836</v>
       </c>
-      <c r="CM41" s="21">
+      <c r="CM41" s="20">
         <f t="shared" ref="CM41" si="140">CM37-CM40</f>
         <v>11984.407535876378</v>
       </c>
-      <c r="CN41" s="21">
+      <c r="CN41" s="20">
         <f t="shared" ref="CN41" si="141">CN37-CN40</f>
         <v>12164.173648914522</v>
       </c>
-      <c r="CO41" s="21">
+      <c r="CO41" s="20">
         <f t="shared" ref="CO41" si="142">CO37-CO40</f>
         <v>12346.636253648241</v>
       </c>
-      <c r="CP41" s="21">
+      <c r="CP41" s="20">
         <f t="shared" ref="CP41" si="143">CP37-CP40</f>
         <v>12531.835797452963</v>
       </c>
-      <c r="CQ41" s="21">
+      <c r="CQ41" s="20">
         <f t="shared" ref="CQ41" si="144">CQ37-CQ40</f>
         <v>12719.813334414757</v>
       </c>
     </row>
     <row r="42" spans="2:98">
       <c r="B42" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C42" s="1">
         <v>1185</v>
@@ -10407,35 +10419,35 @@
       <c r="W42" s="1">
         <v>986</v>
       </c>
-      <c r="X42" s="24">
+      <c r="X42" s="23">
         <f t="shared" ref="X42:AD42" si="145">X41/X43</f>
         <v>950.41322314049592</v>
       </c>
-      <c r="Y42" s="24">
+      <c r="Y42" s="23">
         <f t="shared" si="145"/>
         <v>937.00787401574803</v>
       </c>
-      <c r="Z42" s="24">
+      <c r="Z42" s="23">
         <f t="shared" si="145"/>
         <v>934.78260869565224</v>
       </c>
-      <c r="AA42" s="24">
+      <c r="AA42" s="23">
         <f t="shared" si="145"/>
         <v>891.47286821705427</v>
       </c>
-      <c r="AB42" s="24">
+      <c r="AB42" s="23">
         <f t="shared" si="145"/>
         <v>882.35294117647049</v>
       </c>
-      <c r="AC42" s="24">
+      <c r="AC42" s="23">
         <f t="shared" si="145"/>
         <v>886.52482269503548</v>
       </c>
-      <c r="AD42" s="24">
+      <c r="AD42" s="23">
         <f t="shared" si="145"/>
         <v>896.10389610389609</v>
       </c>
-      <c r="AE42" s="24">
+      <c r="AE42" s="23">
         <f>AE41/AE43</f>
         <v>876.71232876712327</v>
       </c>
@@ -10459,68 +10471,68 @@
         <f>V42</f>
         <v>989</v>
       </c>
-      <c r="AS42" s="24">
+      <c r="AS42" s="23">
         <v>947</v>
       </c>
-      <c r="AT42" s="24">
+      <c r="AT42" s="23">
         <v>885</v>
       </c>
-      <c r="AU42" s="24"/>
-      <c r="AV42" s="24"/>
-      <c r="AW42" s="24"/>
-      <c r="AX42" s="24"/>
-      <c r="AY42" s="24"/>
-      <c r="AZ42" s="24"/>
-      <c r="BA42" s="24"/>
-      <c r="BB42" s="24"/>
-      <c r="BC42" s="24"/>
-      <c r="BD42" s="24"/>
-      <c r="BE42" s="24"/>
-      <c r="BF42" s="24"/>
-      <c r="BG42" s="24"/>
-      <c r="BH42" s="24"/>
-      <c r="BI42" s="24"/>
-      <c r="BJ42" s="24"/>
-      <c r="BK42" s="24"/>
-      <c r="BL42" s="24"/>
-      <c r="BM42" s="24"/>
-      <c r="BN42" s="24"/>
-      <c r="BO42" s="24"/>
-      <c r="BP42" s="24"/>
-      <c r="BQ42" s="24"/>
-      <c r="BR42" s="24"/>
-      <c r="BS42" s="24"/>
-      <c r="BT42" s="24"/>
-      <c r="BU42" s="24"/>
-      <c r="BV42" s="24"/>
-      <c r="BW42" s="24"/>
-      <c r="BX42" s="24"/>
-      <c r="BY42" s="24"/>
-      <c r="BZ42" s="24"/>
-      <c r="CA42" s="24"/>
-      <c r="CB42" s="24"/>
-      <c r="CC42" s="24"/>
-      <c r="CD42" s="24"/>
-      <c r="CE42" s="24"/>
-      <c r="CF42" s="24"/>
-      <c r="CG42" s="24"/>
-      <c r="CH42" s="24"/>
-      <c r="CI42" s="24"/>
-      <c r="CJ42" s="24"/>
-      <c r="CK42" s="24"/>
-      <c r="CL42" s="24"/>
-      <c r="CM42" s="24"/>
-      <c r="CN42" s="24"/>
-      <c r="CO42" s="24"/>
-      <c r="CP42" s="24"/>
-      <c r="CQ42" s="24"/>
+      <c r="AU42" s="23"/>
+      <c r="AV42" s="23"/>
+      <c r="AW42" s="23"/>
+      <c r="AX42" s="23"/>
+      <c r="AY42" s="23"/>
+      <c r="AZ42" s="23"/>
+      <c r="BA42" s="23"/>
+      <c r="BB42" s="23"/>
+      <c r="BC42" s="23"/>
+      <c r="BD42" s="23"/>
+      <c r="BE42" s="23"/>
+      <c r="BF42" s="23"/>
+      <c r="BG42" s="23"/>
+      <c r="BH42" s="23"/>
+      <c r="BI42" s="23"/>
+      <c r="BJ42" s="23"/>
+      <c r="BK42" s="23"/>
+      <c r="BL42" s="23"/>
+      <c r="BM42" s="23"/>
+      <c r="BN42" s="23"/>
+      <c r="BO42" s="23"/>
+      <c r="BP42" s="23"/>
+      <c r="BQ42" s="23"/>
+      <c r="BR42" s="23"/>
+      <c r="BS42" s="23"/>
+      <c r="BT42" s="23"/>
+      <c r="BU42" s="23"/>
+      <c r="BV42" s="23"/>
+      <c r="BW42" s="23"/>
+      <c r="BX42" s="23"/>
+      <c r="BY42" s="23"/>
+      <c r="BZ42" s="23"/>
+      <c r="CA42" s="23"/>
+      <c r="CB42" s="23"/>
+      <c r="CC42" s="23"/>
+      <c r="CD42" s="23"/>
+      <c r="CE42" s="23"/>
+      <c r="CF42" s="23"/>
+      <c r="CG42" s="23"/>
+      <c r="CH42" s="23"/>
+      <c r="CI42" s="23"/>
+      <c r="CJ42" s="23"/>
+      <c r="CK42" s="23"/>
+      <c r="CL42" s="23"/>
+      <c r="CM42" s="23"/>
+      <c r="CN42" s="23"/>
+      <c r="CO42" s="23"/>
+      <c r="CP42" s="23"/>
+      <c r="CQ42" s="23"/>
       <c r="CR42" s="9"/>
       <c r="CS42" s="9"/>
       <c r="CT42" s="9"/>
     </row>
     <row r="43" spans="2:98">
       <c r="B43" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C43" s="6">
         <f t="shared" ref="C43:V43" si="147">C41/C42</f>
@@ -10606,28 +10618,28 @@
         <f t="shared" ref="W43" si="150">W41/W42</f>
         <v>1.3052738336713996</v>
       </c>
-      <c r="X43" s="25">
+      <c r="X43" s="24">
         <v>1.21</v>
       </c>
-      <c r="Y43" s="25">
+      <c r="Y43" s="24">
         <v>1.27</v>
       </c>
-      <c r="Z43" s="25">
+      <c r="Z43" s="24">
         <v>1.38</v>
       </c>
-      <c r="AA43" s="25">
+      <c r="AA43" s="24">
         <v>1.29</v>
       </c>
-      <c r="AB43" s="25">
+      <c r="AB43" s="24">
         <v>1.36</v>
       </c>
-      <c r="AC43" s="25">
+      <c r="AC43" s="24">
         <v>1.41</v>
       </c>
-      <c r="AD43" s="25">
+      <c r="AD43" s="24">
         <v>1.54</v>
       </c>
-      <c r="AE43" s="25">
+      <c r="AE43" s="24">
         <v>1.46</v>
       </c>
       <c r="AN43" s="6">
@@ -10650,70 +10662,70 @@
         <f>SUM(S43:V43)</f>
         <v>4.0255183804494692</v>
       </c>
-      <c r="AS43" s="25">
+      <c r="AS43" s="24">
         <f>AS41/AS42</f>
         <v>5.396853983949315</v>
       </c>
-      <c r="AT43" s="25">
+      <c r="AT43" s="24">
         <f t="shared" ref="AT43" si="151">AT41/AT42</f>
         <v>6.218397224305086</v>
       </c>
-      <c r="AU43" s="25"/>
-      <c r="AV43" s="25"/>
-      <c r="AW43" s="25"/>
-      <c r="AX43" s="25"/>
-      <c r="AY43" s="25"/>
-      <c r="AZ43" s="25"/>
-      <c r="BA43" s="25"/>
-      <c r="BB43" s="25"/>
-      <c r="BC43" s="25"/>
-      <c r="BD43" s="25"/>
-      <c r="BE43" s="25"/>
-      <c r="BF43" s="25"/>
-      <c r="BG43" s="25"/>
-      <c r="BH43" s="25"/>
-      <c r="BI43" s="25"/>
-      <c r="BJ43" s="25"/>
-      <c r="BK43" s="25"/>
-      <c r="BL43" s="25"/>
-      <c r="BM43" s="25"/>
-      <c r="BN43" s="25"/>
-      <c r="BO43" s="25"/>
-      <c r="BP43" s="25"/>
-      <c r="BQ43" s="25"/>
-      <c r="BR43" s="25"/>
-      <c r="BS43" s="25"/>
-      <c r="BT43" s="25"/>
-      <c r="BU43" s="25"/>
-      <c r="BV43" s="25"/>
-      <c r="BW43" s="25"/>
-      <c r="BX43" s="25"/>
-      <c r="BY43" s="25"/>
-      <c r="BZ43" s="25"/>
-      <c r="CA43" s="25"/>
-      <c r="CB43" s="25"/>
-      <c r="CC43" s="25"/>
-      <c r="CD43" s="25"/>
-      <c r="CE43" s="25"/>
-      <c r="CF43" s="25"/>
-      <c r="CG43" s="25"/>
-      <c r="CH43" s="25"/>
-      <c r="CI43" s="25"/>
-      <c r="CJ43" s="25"/>
-      <c r="CK43" s="25"/>
-      <c r="CL43" s="25"/>
-      <c r="CM43" s="25"/>
-      <c r="CN43" s="25"/>
-      <c r="CO43" s="25"/>
-      <c r="CP43" s="25"/>
-      <c r="CQ43" s="25"/>
+      <c r="AU43" s="24"/>
+      <c r="AV43" s="24"/>
+      <c r="AW43" s="24"/>
+      <c r="AX43" s="24"/>
+      <c r="AY43" s="24"/>
+      <c r="AZ43" s="24"/>
+      <c r="BA43" s="24"/>
+      <c r="BB43" s="24"/>
+      <c r="BC43" s="24"/>
+      <c r="BD43" s="24"/>
+      <c r="BE43" s="24"/>
+      <c r="BF43" s="24"/>
+      <c r="BG43" s="24"/>
+      <c r="BH43" s="24"/>
+      <c r="BI43" s="24"/>
+      <c r="BJ43" s="24"/>
+      <c r="BK43" s="24"/>
+      <c r="BL43" s="24"/>
+      <c r="BM43" s="24"/>
+      <c r="BN43" s="24"/>
+      <c r="BO43" s="24"/>
+      <c r="BP43" s="24"/>
+      <c r="BQ43" s="24"/>
+      <c r="BR43" s="24"/>
+      <c r="BS43" s="24"/>
+      <c r="BT43" s="24"/>
+      <c r="BU43" s="24"/>
+      <c r="BV43" s="24"/>
+      <c r="BW43" s="24"/>
+      <c r="BX43" s="24"/>
+      <c r="BY43" s="24"/>
+      <c r="BZ43" s="24"/>
+      <c r="CA43" s="24"/>
+      <c r="CB43" s="24"/>
+      <c r="CC43" s="24"/>
+      <c r="CD43" s="24"/>
+      <c r="CE43" s="24"/>
+      <c r="CF43" s="24"/>
+      <c r="CG43" s="24"/>
+      <c r="CH43" s="24"/>
+      <c r="CI43" s="24"/>
+      <c r="CJ43" s="24"/>
+      <c r="CK43" s="24"/>
+      <c r="CL43" s="24"/>
+      <c r="CM43" s="24"/>
+      <c r="CN43" s="24"/>
+      <c r="CO43" s="24"/>
+      <c r="CP43" s="24"/>
+      <c r="CQ43" s="24"/>
     </row>
     <row r="44" spans="2:98">
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="2:98">
       <c r="B45" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W45" s="1"/>
       <c r="AN45" s="7">
@@ -10739,7 +10751,7 @@
     </row>
     <row r="46" spans="2:98">
       <c r="B46" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="W46" s="1"/>
       <c r="AN46" s="7">
@@ -10765,7 +10777,7 @@
     </row>
     <row r="47" spans="2:98">
       <c r="B47" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" ref="C47:U47" si="154">C37/C29</f>
@@ -10871,208 +10883,208 @@
         <f>AR37/AR29</f>
         <v>0.16746862911595434</v>
       </c>
-      <c r="AS47" s="26">
+      <c r="AS47" s="25">
         <v>0.19700000000000001</v>
       </c>
-      <c r="AT47" s="26">
+      <c r="AT47" s="25">
         <v>0.20499999999999999</v>
       </c>
-      <c r="AU47" s="26">
+      <c r="AU47" s="25">
         <v>0.20699999999999999</v>
       </c>
-      <c r="AV47" s="26">
+      <c r="AV47" s="25">
         <v>0.20899999999999999</v>
       </c>
-      <c r="AW47" s="26">
+      <c r="AW47" s="25">
         <v>0.21</v>
       </c>
-      <c r="AX47" s="26">
+      <c r="AX47" s="25">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AY47" s="26">
+      <c r="AY47" s="25">
         <f>$AX$47</f>
         <v>0.21099999999999999</v>
       </c>
-      <c r="AZ47" s="26">
+      <c r="AZ47" s="25">
         <f t="shared" ref="AZ47:CQ47" si="157">$AX$47</f>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BA47" s="26">
+      <c r="BA47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BB47" s="26">
+      <c r="BB47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BC47" s="26">
+      <c r="BC47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BD47" s="26">
+      <c r="BD47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BE47" s="26">
+      <c r="BE47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BF47" s="26">
+      <c r="BF47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BG47" s="26">
+      <c r="BG47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BH47" s="26">
+      <c r="BH47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BI47" s="26">
+      <c r="BI47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BJ47" s="26">
+      <c r="BJ47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BK47" s="26">
+      <c r="BK47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BL47" s="26">
+      <c r="BL47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BM47" s="26">
+      <c r="BM47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BN47" s="26">
+      <c r="BN47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BO47" s="26">
+      <c r="BO47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BP47" s="26">
+      <c r="BP47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BQ47" s="26">
+      <c r="BQ47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BR47" s="26">
+      <c r="BR47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BS47" s="26">
+      <c r="BS47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BT47" s="26">
+      <c r="BT47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BU47" s="26">
+      <c r="BU47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BV47" s="26">
+      <c r="BV47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BW47" s="26">
+      <c r="BW47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BX47" s="26">
+      <c r="BX47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BY47" s="26">
+      <c r="BY47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="BZ47" s="26">
+      <c r="BZ47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CA47" s="26">
+      <c r="CA47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CB47" s="26">
+      <c r="CB47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CC47" s="26">
+      <c r="CC47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CD47" s="26">
+      <c r="CD47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CE47" s="26">
+      <c r="CE47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CF47" s="26">
+      <c r="CF47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CG47" s="26">
+      <c r="CG47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CH47" s="26">
+      <c r="CH47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CI47" s="26">
+      <c r="CI47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CJ47" s="26">
+      <c r="CJ47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CK47" s="26">
+      <c r="CK47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CL47" s="26">
+      <c r="CL47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CM47" s="26">
+      <c r="CM47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CN47" s="26">
+      <c r="CN47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CO47" s="26">
+      <c r="CO47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CP47" s="26">
+      <c r="CP47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="CQ47" s="26">
+      <c r="CQ47" s="25">
         <f t="shared" si="157"/>
         <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="48" spans="2:98">
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" ref="C48:V48" si="158">C41/C29</f>
@@ -11178,207 +11190,207 @@
         <f t="shared" si="160"/>
         <v>0.13042110890964556</v>
       </c>
-      <c r="AS48" s="26">
+      <c r="AS48" s="25">
         <f t="shared" si="160"/>
         <v>0.15563000000000002</v>
       </c>
-      <c r="AT48" s="26">
+      <c r="AT48" s="25">
         <f t="shared" si="160"/>
         <v>0.16195000000000001</v>
       </c>
-      <c r="AU48" s="26">
+      <c r="AU48" s="25">
         <f t="shared" si="160"/>
         <v>0.16353000000000001</v>
       </c>
-      <c r="AV48" s="26">
+      <c r="AV48" s="25">
         <f t="shared" si="160"/>
         <v>0.16510999999999998</v>
       </c>
-      <c r="AW48" s="26">
+      <c r="AW48" s="25">
         <f t="shared" si="160"/>
         <v>0.16589999999999999</v>
       </c>
-      <c r="AX48" s="26">
+      <c r="AX48" s="25">
         <f t="shared" si="160"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="AY48" s="26">
+      <c r="AY48" s="25">
         <f>$AX$48</f>
         <v>0.16668999999999998</v>
       </c>
-      <c r="AZ48" s="26">
+      <c r="AZ48" s="25">
         <f t="shared" ref="AZ48:CQ48" si="161">$AX$48</f>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BA48" s="26">
+      <c r="BA48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BB48" s="26">
+      <c r="BB48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BC48" s="26">
+      <c r="BC48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BD48" s="26">
+      <c r="BD48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BE48" s="26">
+      <c r="BE48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BF48" s="26">
+      <c r="BF48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BG48" s="26">
+      <c r="BG48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BH48" s="26">
+      <c r="BH48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BI48" s="26">
+      <c r="BI48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BJ48" s="26">
+      <c r="BJ48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BK48" s="26">
+      <c r="BK48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BL48" s="26">
+      <c r="BL48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BM48" s="26">
+      <c r="BM48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BN48" s="26">
+      <c r="BN48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BO48" s="26">
+      <c r="BO48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BP48" s="26">
+      <c r="BP48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BQ48" s="26">
+      <c r="BQ48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BR48" s="26">
+      <c r="BR48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BS48" s="26">
+      <c r="BS48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BT48" s="26">
+      <c r="BT48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BU48" s="26">
+      <c r="BU48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BV48" s="26">
+      <c r="BV48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BW48" s="26">
+      <c r="BW48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BX48" s="26">
+      <c r="BX48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BY48" s="26">
+      <c r="BY48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="BZ48" s="26">
+      <c r="BZ48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CA48" s="26">
+      <c r="CA48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CB48" s="26">
+      <c r="CB48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CC48" s="26">
+      <c r="CC48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CD48" s="26">
+      <c r="CD48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CE48" s="26">
+      <c r="CE48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CF48" s="26">
+      <c r="CF48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CG48" s="26">
+      <c r="CG48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CH48" s="26">
+      <c r="CH48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CI48" s="26">
+      <c r="CI48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CJ48" s="26">
+      <c r="CJ48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CK48" s="26">
+      <c r="CK48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CL48" s="26">
+      <c r="CL48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CM48" s="26">
+      <c r="CM48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CN48" s="26">
+      <c r="CN48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CO48" s="26">
+      <c r="CO48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CP48" s="26">
+      <c r="CP48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
-      <c r="CQ48" s="26">
+      <c r="CQ48" s="25">
         <f t="shared" si="161"/>
         <v>0.16668999999999998</v>
       </c>
@@ -11408,7 +11420,7 @@
     </row>
     <row r="50" spans="2:67">
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J50" s="1">
         <v>4794</v>
@@ -11464,17 +11476,17 @@
       <c r="AR50" s="1">
         <v>6561</v>
       </c>
-      <c r="AT50" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU50" s="27">
+      <c r="AT50" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU50" s="26">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="BO50" s="25"/>
+      <c r="BO50" s="24"/>
     </row>
     <row r="51" spans="2:67">
       <c r="B51" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J51" s="1">
         <v>8289</v>
@@ -11530,16 +11542,16 @@
       <c r="AR51" s="1">
         <v>4262</v>
       </c>
-      <c r="AT51" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="AU51" s="27">
+      <c r="AT51" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU51" s="26">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="2:67">
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J52" s="1">
         <v>577</v>
@@ -11595,17 +11607,17 @@
       <c r="AR52" s="1">
         <v>984</v>
       </c>
-      <c r="AT52" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU52" s="24">
+      <c r="AT52" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU52" s="23">
         <f>NPV(AU50,AS41:CQ41)</f>
         <v>81427.130098096677</v>
       </c>
     </row>
     <row r="53" spans="2:67">
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -11661,16 +11673,16 @@
       <c r="AR53" s="1">
         <v>541</v>
       </c>
-      <c r="AT53" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU53" s="24">
+      <c r="AT53" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU53" s="23">
         <v>989</v>
       </c>
     </row>
     <row r="54" spans="2:67">
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J54" s="1">
         <v>2769</v>
@@ -11726,18 +11738,18 @@
       <c r="AR54" s="1">
         <v>6422</v>
       </c>
-      <c r="AT54" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AU54" s="28">
+      <c r="AT54" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU54" s="27">
         <f>AU52/AU53</f>
         <v>82.332790796862156</v>
       </c>
-      <c r="AW54" s="25"/>
+      <c r="AW54" s="24"/>
     </row>
     <row r="55" spans="2:67">
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J55" s="1">
         <v>33418</v>
@@ -11793,16 +11805,16 @@
       <c r="AR55" s="1">
         <v>37671</v>
       </c>
-      <c r="AT55" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="AU55" s="28">
+      <c r="AT55" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU55" s="27">
         <v>62.66</v>
       </c>
     </row>
     <row r="56" spans="2:67">
       <c r="B56" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1">
         <v>1148</v>
@@ -11858,18 +11870,18 @@
       <c r="AR56" s="1">
         <v>4651</v>
       </c>
-      <c r="AU56" s="27">
+      <c r="AU56" s="26">
         <f>AU54/AU55-1</f>
         <v>0.31396091281299321</v>
       </c>
-      <c r="AV56" s="20" t="str">
+      <c r="AV56" s="19" t="str">
         <f>IF(AU56&gt;0,"Upside","Downside")</f>
         <v>Upside</v>
       </c>
     </row>
     <row r="57" spans="2:67">
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J57" s="1">
         <v>6089</v>
@@ -11928,7 +11940,7 @@
     </row>
     <row r="58" spans="2:67">
       <c r="B58" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J58" s="1">
         <v>1807</v>
@@ -11987,7 +11999,7 @@
     </row>
     <row r="59" spans="2:67">
       <c r="B59" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J59" s="1">
         <v>9135</v>
@@ -12046,7 +12058,7 @@
     </row>
     <row r="60" spans="2:67">
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J60" s="1">
         <v>1048</v>
@@ -12105,7 +12117,7 @@
     </row>
     <row r="61" spans="2:67">
       <c r="B61" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J61" s="1">
         <v>1305</v>
@@ -12164,7 +12176,7 @@
     </row>
     <row r="62" spans="2:67" ht="15">
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" ref="J62:V62" si="162">SUM(J50:J61)</f>
@@ -12244,7 +12256,7 @@
     </row>
     <row r="64" spans="2:67">
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J64" s="1">
         <v>252</v>
@@ -12303,7 +12315,7 @@
     </row>
     <row r="65" spans="2:44">
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J65" s="1">
         <v>35418</v>
@@ -12362,7 +12374,7 @@
     </row>
     <row r="66" spans="2:44">
       <c r="B66" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J66" s="1">
         <f>2648+129</f>
@@ -12431,7 +12443,7 @@
     </row>
     <row r="67" spans="2:44">
       <c r="B67" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J67" s="1">
         <v>2930</v>
@@ -12490,7 +12502,7 @@
     </row>
     <row r="68" spans="2:44">
       <c r="B68" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J68" s="1">
         <v>8939</v>
@@ -12549,7 +12561,7 @@
     </row>
     <row r="69" spans="2:44" ht="15">
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" ref="J69:U69" si="168">SUM(J64:J68)</f>
@@ -12626,7 +12638,7 @@
     </row>
     <row r="70" spans="2:44">
       <c r="B70" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J70" s="1">
         <v>20063</v>
@@ -12685,7 +12697,7 @@
     </row>
     <row r="71" spans="2:44" ht="15">
       <c r="B71" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J71" s="1">
         <f t="shared" ref="J71:V71" si="173">J70+J69</f>
@@ -12766,7 +12778,7 @@
     </row>
     <row r="73" spans="2:44" hidden="1">
       <c r="B73" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J73" s="6">
         <f t="shared" ref="J73:V73" si="175">SUM(J50:J56)/SUM(J64:J66)</f>
@@ -12843,7 +12855,7 @@
     </row>
     <row r="74" spans="2:44" hidden="1">
       <c r="B74" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J74" s="6">
         <f t="shared" ref="J74:V74" si="178">J29/J62</f>
@@ -12920,7 +12932,7 @@
     </row>
     <row r="75" spans="2:44" hidden="1">
       <c r="B75" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J75" s="5">
         <f t="shared" ref="J75:V75" si="180">J41/J62</f>
@@ -12978,17 +12990,17 @@
         <f t="shared" ref="W75" si="181">W41/W62</f>
         <v>1.5835322489356991E-2</v>
       </c>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="27"/>
-      <c r="Z75" s="27"/>
-      <c r="AA75" s="27"/>
-      <c r="AB75" s="27"/>
-      <c r="AC75" s="27"/>
-      <c r="AD75" s="27"/>
-      <c r="AE75" s="27"/>
-      <c r="AF75" s="27"/>
-      <c r="AG75" s="27"/>
-      <c r="AH75" s="27"/>
+      <c r="X75" s="26"/>
+      <c r="Y75" s="26"/>
+      <c r="Z75" s="26"/>
+      <c r="AA75" s="26"/>
+      <c r="AB75" s="26"/>
+      <c r="AC75" s="26"/>
+      <c r="AD75" s="26"/>
+      <c r="AE75" s="26"/>
+      <c r="AF75" s="26"/>
+      <c r="AG75" s="26"/>
+      <c r="AH75" s="26"/>
       <c r="AI75" s="5"/>
       <c r="AJ75" s="5"/>
       <c r="AK75" s="5"/>
@@ -13014,7 +13026,7 @@
     </row>
     <row r="76" spans="2:44" hidden="1">
       <c r="B76" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J76" s="5">
         <f t="shared" ref="J76:V76" si="183">J41/J70</f>
@@ -13072,17 +13084,17 @@
         <f t="shared" ref="W76" si="184">W41/W70</f>
         <v>6.3543003851091143E-2</v>
       </c>
-      <c r="X76" s="27"/>
-      <c r="Y76" s="27"/>
-      <c r="Z76" s="27"/>
-      <c r="AA76" s="27"/>
-      <c r="AB76" s="27"/>
-      <c r="AC76" s="27"/>
-      <c r="AD76" s="27"/>
-      <c r="AE76" s="27"/>
-      <c r="AF76" s="27"/>
-      <c r="AG76" s="27"/>
-      <c r="AH76" s="27"/>
+      <c r="X76" s="26"/>
+      <c r="Y76" s="26"/>
+      <c r="Z76" s="26"/>
+      <c r="AA76" s="26"/>
+      <c r="AB76" s="26"/>
+      <c r="AC76" s="26"/>
+      <c r="AD76" s="26"/>
+      <c r="AE76" s="26"/>
+      <c r="AF76" s="26"/>
+      <c r="AG76" s="26"/>
+      <c r="AH76" s="26"/>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="5"/>
       <c r="AK76" s="5"/>
@@ -13111,7 +13123,7 @@
     </row>
     <row r="78" spans="2:44">
       <c r="B78" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" ref="C78:V78" si="186">C41</f>
@@ -13220,7 +13232,7 @@
     </row>
     <row r="79" spans="2:44">
       <c r="B79" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C79" s="1">
         <v>591</v>
@@ -13323,7 +13335,7 @@
     </row>
     <row r="80" spans="2:44">
       <c r="B80" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C80" s="1">
         <v>293</v>
@@ -13426,10 +13438,10 @@
     </row>
     <row r="81" spans="1:44">
       <c r="A81" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C81" s="1">
         <v>283</v>
@@ -13532,7 +13544,7 @@
     </row>
     <row r="82" spans="1:44">
       <c r="B82" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C82" s="1">
         <v>-79</v>
@@ -13635,7 +13647,7 @@
     </row>
     <row r="83" spans="1:44">
       <c r="B83" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C83" s="1">
         <v>124</v>
@@ -13738,7 +13750,7 @@
     </row>
     <row r="84" spans="1:44">
       <c r="B84" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -13826,7 +13838,7 @@
     </row>
     <row r="85" spans="1:44">
       <c r="B85" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -13921,7 +13933,7 @@
     </row>
     <row r="86" spans="1:44">
       <c r="B86" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -14015,7 +14027,7 @@
     </row>
     <row r="87" spans="1:44">
       <c r="B87" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C87" s="1">
         <v>-5</v>
@@ -14118,7 +14130,7 @@
     </row>
     <row r="88" spans="1:44">
       <c r="B88" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -14212,7 +14224,7 @@
     </row>
     <row r="89" spans="1:44">
       <c r="B89" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -14306,7 +14318,7 @@
     </row>
     <row r="90" spans="1:44">
       <c r="B90" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C90" s="1">
         <f>77-21+51+21</f>
@@ -14415,7 +14427,7 @@
     </row>
     <row r="91" spans="1:44" ht="15">
       <c r="B91" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C91" s="1">
         <f t="shared" ref="C91:R91" si="194">C78+SUM(C79:C90)</f>
@@ -14527,7 +14539,7 @@
     </row>
     <row r="93" spans="1:44">
       <c r="B93" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C93" s="1">
         <f t="shared" ref="C93:R93" si="197">C91</f>
@@ -14636,7 +14648,7 @@
     </row>
     <row r="94" spans="1:44">
       <c r="B94" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C94" s="1">
         <f>-206+119</f>
@@ -14743,7 +14755,7 @@
     </row>
     <row r="95" spans="1:44" ht="15">
       <c r="B95" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C95" s="1">
         <f t="shared" ref="C95:U95" si="200">C93+C94</f>
@@ -14852,7 +14864,7 @@
     </row>
     <row r="96" spans="1:44">
       <c r="B96" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C96" s="1">
         <f t="shared" ref="C96:V96" si="202">C42</f>
@@ -14961,7 +14973,7 @@
     </row>
     <row r="97" spans="2:44">
       <c r="B97" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C97" s="6">
         <f t="shared" ref="C97:Q97" si="204">C95/C96</f>
@@ -15174,8 +15186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955662-3904-47FE-BB6C-F0C83886CFDD}">
   <dimension ref="B1:CN287"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -15205,10 +15217,10 @@
     </row>
     <row r="2" spans="2:92" ht="15">
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:92" ht="15">
@@ -15216,115 +15228,115 @@
     </row>
     <row r="4" spans="2:92" ht="15">
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:92">
       <c r="R5" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="2:92">
       <c r="R6" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="2:92">
       <c r="S7" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="2:92">
       <c r="Q9" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="2:92">
       <c r="R10" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="2:92">
       <c r="Q12" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="2:92">
       <c r="R13" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="2:92">
       <c r="R14" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="2:92">
       <c r="Q15" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="2:92">
       <c r="R16" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="17:18">
       <c r="R17" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="17:18">
       <c r="Q19" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="17:18">
       <c r="Q20" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="R20" s="12"/>
     </row>
     <row r="21" spans="17:18">
       <c r="Q21" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="R21" s="12"/>
     </row>
     <row r="22" spans="17:18">
       <c r="Q22" s="12"/>
       <c r="R22" s="12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="17:18">
       <c r="Q23" s="12"/>
       <c r="R23" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="17:18">
       <c r="Q24" s="12"/>
       <c r="R24" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="17:18">
       <c r="Q25" s="12"/>
       <c r="R25" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15">
       <c r="B35" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -15332,28 +15344,28 @@
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K37" s="14">
         <f>MAX(H37:H286)</f>
@@ -15377,14 +15389,14 @@
         <v>6678611</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H38" s="16">
         <f t="shared" ref="H38:H101" si="0">B38/E38-1</f>
         <v>-1.9718309859154681E-3</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K38" s="14">
         <f>MIN(H37:H286)</f>
@@ -15408,14 +15420,14 @@
         <v>9911035</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="0"/>
         <v>-8.1062194269740928E-3</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K39" s="14">
         <f>_xlfn.STDEV.S(H35:H286)</f>
@@ -15439,14 +15451,14 @@
         <v>14484685</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" si="0"/>
         <v>2.2879626930923935E-2</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K40" s="14">
         <f>AVERAGE(H37:H286)</f>
@@ -15470,7 +15482,7 @@
         <v>7453575</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H41" s="16">
         <f t="shared" si="0"/>
@@ -15494,21 +15506,21 @@
         <v>6876430</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H42" s="16">
         <f t="shared" si="0"/>
         <v>1.3024602026049381E-2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L42" s="5">
         <f>K39*3</f>
         <v>4.9340461424289918E-2</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="2:13">
@@ -15528,14 +15540,14 @@
         <v>7520849</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H43" s="16">
         <f t="shared" si="0"/>
         <v>-2.7508324887794977E-3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L43" s="5"/>
     </row>
@@ -15556,7 +15568,7 @@
         <v>7971219</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H44" s="16">
         <f t="shared" si="0"/>
@@ -15580,7 +15592,7 @@
         <v>9828715</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H45" s="16">
         <f t="shared" si="0"/>
@@ -15604,7 +15616,7 @@
         <v>9778264</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="0"/>
@@ -15628,7 +15640,7 @@
         <v>11545839</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H47" s="16">
         <f t="shared" si="0"/>
@@ -15652,7 +15664,7 @@
         <v>12133067</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H48" s="16">
         <f t="shared" si="0"/>
@@ -15676,7 +15688,7 @@
         <v>15035191</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H49" s="16">
         <f t="shared" si="0"/>
@@ -15700,7 +15712,7 @@
         <v>16388274</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H50" s="16">
         <f t="shared" si="0"/>
@@ -15724,7 +15736,7 @@
         <v>11226928</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" si="0"/>
@@ -15748,7 +15760,7 @@
         <v>14464271</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H52" s="16">
         <f t="shared" si="0"/>
@@ -15772,7 +15784,7 @@
         <v>20179966</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H53" s="16">
         <f t="shared" si="0"/>
@@ -15796,7 +15808,7 @@
         <v>15753699</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H54" s="16">
         <f t="shared" si="0"/>
@@ -15820,7 +15832,7 @@
         <v>13601324</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H55" s="16">
         <f t="shared" si="0"/>
@@ -15844,7 +15856,7 @@
         <v>11661160</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H56" s="16">
         <f t="shared" si="0"/>
@@ -15868,7 +15880,7 @@
         <v>15296804</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H57" s="16">
         <f t="shared" si="0"/>
@@ -15892,7 +15904,7 @@
         <v>20647167</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H58" s="16">
         <f t="shared" si="0"/>
@@ -15916,7 +15928,7 @@
         <v>12873277</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H59" s="16">
         <f t="shared" si="0"/>
@@ -15940,7 +15952,7 @@
         <v>15171686</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H60" s="16">
         <f t="shared" si="0"/>
@@ -15964,7 +15976,7 @@
         <v>9319311</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H61" s="16">
         <f t="shared" si="0"/>
@@ -15988,7 +16000,7 @@
         <v>9082256</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H62" s="16">
         <f t="shared" si="0"/>
@@ -16012,7 +16024,7 @@
         <v>11281243</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H63" s="16">
         <f t="shared" si="0"/>
@@ -16036,7 +16048,7 @@
         <v>10504560</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H64" s="16">
         <f t="shared" si="0"/>
@@ -16060,7 +16072,7 @@
         <v>9958597</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H65" s="16">
         <f t="shared" si="0"/>
@@ -16084,7 +16096,7 @@
         <v>11782529</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H66" s="16">
         <f t="shared" si="0"/>
@@ -16108,7 +16120,7 @@
         <v>15769395</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H67" s="16">
         <f t="shared" si="0"/>
@@ -16132,7 +16144,7 @@
         <v>11815591</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H68" s="16">
         <f t="shared" si="0"/>
@@ -16156,7 +16168,7 @@
         <v>13597269</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H69" s="16">
         <f t="shared" si="0"/>
@@ -16180,7 +16192,7 @@
         <v>14440462</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H70" s="16">
         <f t="shared" si="0"/>
@@ -16204,7 +16216,7 @@
         <v>23646046</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H71" s="16">
         <f t="shared" si="0"/>
@@ -16228,7 +16240,7 @@
         <v>58801889</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H72" s="16">
         <f t="shared" si="0"/>
@@ -16252,7 +16264,7 @@
         <v>11215041</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H73" s="16">
         <f t="shared" si="0"/>
@@ -16276,7 +16288,7 @@
         <v>8338934</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H74" s="16">
         <f t="shared" si="0"/>
@@ -16300,7 +16312,7 @@
         <v>7708468</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H75" s="16">
         <f t="shared" si="0"/>
@@ -16324,7 +16336,7 @@
         <v>5234468</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H76" s="16">
         <f t="shared" si="0"/>
@@ -16348,7 +16360,7 @@
         <v>8665994</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H77" s="16">
         <f t="shared" si="0"/>
@@ -16372,7 +16384,7 @@
         <v>6923826</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H78" s="16">
         <f t="shared" si="0"/>
@@ -16396,7 +16408,7 @@
         <v>6004674</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H79" s="16">
         <f t="shared" si="0"/>
@@ -16420,7 +16432,7 @@
         <v>7540610</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H80" s="16">
         <f t="shared" si="0"/>
@@ -16444,7 +16456,7 @@
         <v>7345739</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H81" s="16">
         <f t="shared" si="0"/>
@@ -16468,7 +16480,7 @@
         <v>12629343</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H82" s="16">
         <f t="shared" si="0"/>
@@ -16492,7 +16504,7 @@
         <v>16499703</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H83" s="16">
         <f t="shared" si="0"/>
@@ -16516,7 +16528,7 @@
         <v>5816351</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H84" s="16">
         <f t="shared" si="0"/>
@@ -16540,7 +16552,7 @@
         <v>10024081</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H85" s="16">
         <f t="shared" si="0"/>
@@ -16564,7 +16576,7 @@
         <v>8958442</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H86" s="16">
         <f t="shared" si="0"/>
@@ -16588,7 +16600,7 @@
         <v>7402380</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H87" s="16">
         <f t="shared" si="0"/>
@@ -16612,7 +16624,7 @@
         <v>11341216</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H88" s="16">
         <f t="shared" si="0"/>
@@ -16636,7 +16648,7 @@
         <v>7400030</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H89" s="16">
         <f t="shared" si="0"/>
@@ -16660,7 +16672,7 @@
         <v>6080796</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H90" s="16">
         <f t="shared" si="0"/>
@@ -16684,7 +16696,7 @@
         <v>7869184</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H91" s="16">
         <f t="shared" si="0"/>
@@ -16708,7 +16720,7 @@
         <v>6136427</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H92" s="16">
         <f t="shared" si="0"/>
@@ -16732,7 +16744,7 @@
         <v>6227776</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H93" s="16">
         <f t="shared" si="0"/>
@@ -16756,7 +16768,7 @@
         <v>4533202</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H94" s="16">
         <f t="shared" si="0"/>
@@ -16780,7 +16792,7 @@
         <v>5855039</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H95" s="16">
         <f t="shared" si="0"/>
@@ -16804,7 +16816,7 @@
         <v>5124993</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H96" s="16">
         <f t="shared" si="0"/>
@@ -16828,7 +16840,7 @@
         <v>4802170</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H97" s="16">
         <f t="shared" si="0"/>
@@ -16852,7 +16864,7 @@
         <v>3276344</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H98" s="16">
         <f t="shared" si="0"/>
@@ -16876,7 +16888,7 @@
         <v>5633131</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H99" s="16">
         <f t="shared" si="0"/>
@@ -16900,7 +16912,7 @@
         <v>22052710</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H100" s="16">
         <f t="shared" si="0"/>
@@ -16924,7 +16936,7 @@
         <v>9522428</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H101" s="16">
         <f t="shared" si="0"/>
@@ -16948,7 +16960,7 @@
         <v>12583697</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H102" s="16">
         <f t="shared" ref="H102:H165" si="1">B102/E102-1</f>
@@ -16972,7 +16984,7 @@
         <v>8395584</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H103" s="16">
         <f t="shared" si="1"/>
@@ -16996,7 +17008,7 @@
         <v>7402470</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H104" s="16">
         <f t="shared" si="1"/>
@@ -17020,7 +17032,7 @@
         <v>8358050</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H105" s="16">
         <f t="shared" si="1"/>
@@ -17044,7 +17056,7 @@
         <v>4711138</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H106" s="16">
         <f t="shared" si="1"/>
@@ -17068,7 +17080,7 @@
         <v>6657199</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H107" s="16">
         <f t="shared" si="1"/>
@@ -17092,7 +17104,7 @@
         <v>6697466</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H108" s="16">
         <f t="shared" si="1"/>
@@ -17116,7 +17128,7 @@
         <v>10714196</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H109" s="16">
         <f t="shared" si="1"/>
@@ -17140,7 +17152,7 @@
         <v>6955544</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H110" s="16">
         <f t="shared" si="1"/>
@@ -17164,7 +17176,7 @@
         <v>9025551</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H111" s="16">
         <f t="shared" si="1"/>
@@ -17188,7 +17200,7 @@
         <v>15535961</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H112" s="16">
         <f t="shared" si="1"/>
@@ -17212,7 +17224,7 @@
         <v>8189778</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H113" s="16">
         <f t="shared" si="1"/>
@@ -17236,7 +17248,7 @@
         <v>7273536</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H114" s="16">
         <f t="shared" si="1"/>
@@ -17260,7 +17272,7 @@
         <v>4469740</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H115" s="16">
         <f t="shared" si="1"/>
@@ -17284,7 +17296,7 @@
         <v>5477894</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H116" s="16">
         <f t="shared" si="1"/>
@@ -17308,7 +17320,7 @@
         <v>5610415</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H117" s="16">
         <f t="shared" si="1"/>
@@ -17332,7 +17344,7 @@
         <v>12998272</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H118" s="16">
         <f t="shared" si="1"/>
@@ -17356,7 +17368,7 @@
         <v>6785992</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H119" s="16">
         <f t="shared" si="1"/>
@@ -17380,7 +17392,7 @@
         <v>7250051</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H120" s="16">
         <f t="shared" si="1"/>
@@ -17404,7 +17416,7 @@
         <v>6076348</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H121" s="16">
         <f t="shared" si="1"/>
@@ -17428,7 +17440,7 @@
         <v>12442731</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H122" s="16">
         <f t="shared" si="1"/>
@@ -17452,7 +17464,7 @@
         <v>10152571</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H123" s="16">
         <f t="shared" si="1"/>
@@ -17476,7 +17488,7 @@
         <v>8083167</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H124" s="16">
         <f t="shared" si="1"/>
@@ -17500,7 +17512,7 @@
         <v>8468252</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H125" s="16">
         <f t="shared" si="1"/>
@@ -17524,7 +17536,7 @@
         <v>9256571</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H126" s="16">
         <f t="shared" si="1"/>
@@ -17548,7 +17560,7 @@
         <v>10036908</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H127" s="16">
         <f t="shared" si="1"/>
@@ -17572,7 +17584,7 @@
         <v>15459383</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H128" s="16">
         <f t="shared" si="1"/>
@@ -17596,7 +17608,7 @@
         <v>8144180</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H129" s="16">
         <f t="shared" si="1"/>
@@ -17620,7 +17632,7 @@
         <v>7994293</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H130" s="16">
         <f t="shared" si="1"/>
@@ -17644,7 +17656,7 @@
         <v>11546541</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H131" s="16">
         <f t="shared" si="1"/>
@@ -17668,7 +17680,7 @@
         <v>6573919</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H132" s="16">
         <f t="shared" si="1"/>
@@ -17692,7 +17704,7 @@
         <v>10257036</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H133" s="16">
         <f t="shared" si="1"/>
@@ -17716,7 +17728,7 @@
         <v>16473606</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H134" s="16">
         <f t="shared" si="1"/>
@@ -17740,7 +17752,7 @@
         <v>13919255</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H135" s="16">
         <f t="shared" si="1"/>
@@ -17764,7 +17776,7 @@
         <v>14910497</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H136" s="16">
         <f t="shared" si="1"/>
@@ -17788,7 +17800,7 @@
         <v>35206386</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H137" s="16">
         <f t="shared" si="1"/>
@@ -17812,7 +17824,7 @@
         <v>15243510</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H138" s="16">
         <f t="shared" si="1"/>
@@ -17836,7 +17848,7 @@
         <v>7201013</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H139" s="16">
         <f t="shared" si="1"/>
@@ -17860,7 +17872,7 @@
         <v>7398779</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H140" s="16">
         <f t="shared" si="1"/>
@@ -17884,7 +17896,7 @@
         <v>7632139</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H141" s="16">
         <f t="shared" si="1"/>
@@ -17908,7 +17920,7 @@
         <v>7571253</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H142" s="16">
         <f t="shared" si="1"/>
@@ -17932,7 +17944,7 @@
         <v>7450264</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H143" s="16">
         <f t="shared" si="1"/>
@@ -17956,7 +17968,7 @@
         <v>8844338</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H144" s="16">
         <f t="shared" si="1"/>
@@ -17980,7 +17992,7 @@
         <v>8653971</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H145" s="16">
         <f t="shared" si="1"/>
@@ -18004,7 +18016,7 @@
         <v>5434792</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H146" s="16">
         <f t="shared" si="1"/>
@@ -18028,7 +18040,7 @@
         <v>7291606</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H147" s="16">
         <f t="shared" si="1"/>
@@ -18052,7 +18064,7 @@
         <v>5865449</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H148" s="16">
         <f t="shared" si="1"/>
@@ -18076,7 +18088,7 @@
         <v>7744777</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H149" s="16">
         <f t="shared" si="1"/>
@@ -18100,7 +18112,7 @@
         <v>11326106</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H150" s="16">
         <f t="shared" si="1"/>
@@ -18124,7 +18136,7 @@
         <v>6925969</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H151" s="16">
         <f t="shared" si="1"/>
@@ -18148,7 +18160,7 @@
         <v>8618496</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H152" s="16">
         <f t="shared" si="1"/>
@@ -18172,7 +18184,7 @@
         <v>9206569</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H153" s="16">
         <f t="shared" si="1"/>
@@ -18196,7 +18208,7 @@
         <v>10083594</v>
       </c>
       <c r="G154" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H154" s="16">
         <f t="shared" si="1"/>
@@ -18220,7 +18232,7 @@
         <v>9121261</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H155" s="16">
         <f t="shared" si="1"/>
@@ -18244,7 +18256,7 @@
         <v>8073322</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H156" s="16">
         <f t="shared" si="1"/>
@@ -18268,7 +18280,7 @@
         <v>10608717</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H157" s="16">
         <f t="shared" si="1"/>
@@ -18292,7 +18304,7 @@
         <v>6853835</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H158" s="16">
         <f t="shared" si="1"/>
@@ -18316,7 +18328,7 @@
         <v>11575282</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H159" s="16">
         <f t="shared" si="1"/>
@@ -18340,7 +18352,7 @@
         <v>13316657</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H160" s="16">
         <f t="shared" si="1"/>
@@ -18364,7 +18376,7 @@
         <v>13822395</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H161" s="16">
         <f t="shared" si="1"/>
@@ -18388,7 +18400,7 @@
         <v>14724836</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H162" s="16">
         <f t="shared" si="1"/>
@@ -18412,7 +18424,7 @@
         <v>12839810</v>
       </c>
       <c r="G163" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H163" s="16">
         <f t="shared" si="1"/>
@@ -18436,7 +18448,7 @@
         <v>27274648</v>
       </c>
       <c r="G164" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H164" s="16">
         <f t="shared" si="1"/>
@@ -18460,7 +18472,7 @@
         <v>21662377</v>
       </c>
       <c r="G165" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H165" s="16">
         <f t="shared" si="1"/>
@@ -18484,7 +18496,7 @@
         <v>13498163</v>
       </c>
       <c r="G166" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H166" s="16">
         <f t="shared" ref="H166:H229" si="2">B166/E166-1</f>
@@ -18508,7 +18520,7 @@
         <v>6187212</v>
       </c>
       <c r="G167" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H167" s="16">
         <f t="shared" si="2"/>
@@ -18532,7 +18544,7 @@
         <v>6494997</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H168" s="16">
         <f t="shared" si="2"/>
@@ -18556,7 +18568,7 @@
         <v>7572594</v>
       </c>
       <c r="G169" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H169" s="16">
         <f t="shared" si="2"/>
@@ -18580,7 +18592,7 @@
         <v>8376713</v>
       </c>
       <c r="G170" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H170" s="16">
         <f t="shared" si="2"/>
@@ -18604,7 +18616,7 @@
         <v>12344870</v>
       </c>
       <c r="G171" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H171" s="16">
         <f t="shared" si="2"/>
@@ -18628,7 +18640,7 @@
         <v>12317452</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H172" s="16">
         <f t="shared" si="2"/>
@@ -18652,7 +18664,7 @@
         <v>11869340</v>
       </c>
       <c r="G173" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H173" s="16">
         <f t="shared" si="2"/>
@@ -18676,7 +18688,7 @@
         <v>12315821</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H174" s="16">
         <f t="shared" si="2"/>
@@ -18700,7 +18712,7 @@
         <v>11473844</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H175" s="16">
         <f t="shared" si="2"/>
@@ -18724,7 +18736,7 @@
         <v>8368990</v>
       </c>
       <c r="G176" s="15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H176" s="16">
         <f t="shared" si="2"/>
@@ -18748,7 +18760,7 @@
         <v>8571345</v>
       </c>
       <c r="G177" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H177" s="16">
         <f t="shared" si="2"/>
@@ -18772,7 +18784,7 @@
         <v>9634963</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H178" s="16">
         <f t="shared" si="2"/>
@@ -18796,7 +18808,7 @@
         <v>13181591</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H179" s="16">
         <f t="shared" si="2"/>
@@ -18820,7 +18832,7 @@
         <v>9277660</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H180" s="16">
         <f t="shared" si="2"/>
@@ -18844,7 +18856,7 @@
         <v>9396932</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H181" s="16">
         <f t="shared" si="2"/>
@@ -18868,7 +18880,7 @@
         <v>9062957</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H182" s="16">
         <f t="shared" si="2"/>
@@ -18892,7 +18904,7 @@
         <v>8222231</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H183" s="16">
         <f t="shared" si="2"/>
@@ -18916,7 +18928,7 @@
         <v>11811123</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H184" s="16">
         <f t="shared" si="2"/>
@@ -18940,7 +18952,7 @@
         <v>10455485</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H185" s="16">
         <f t="shared" si="2"/>
@@ -18964,7 +18976,7 @@
         <v>23545969</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H186" s="16">
         <f t="shared" si="2"/>
@@ -18988,7 +19000,7 @@
         <v>9578068</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H187" s="16">
         <f t="shared" si="2"/>
@@ -19012,7 +19024,7 @@
         <v>9526778</v>
       </c>
       <c r="G188" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H188" s="16">
         <f t="shared" si="2"/>
@@ -19036,7 +19048,7 @@
         <v>12968279</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H189" s="16">
         <f t="shared" si="2"/>
@@ -19060,7 +19072,7 @@
         <v>8944776</v>
       </c>
       <c r="G190" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H190" s="16">
         <f t="shared" si="2"/>
@@ -19084,7 +19096,7 @@
         <v>8638603</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H191" s="16">
         <f t="shared" si="2"/>
@@ -19108,7 +19120,7 @@
         <v>7519467</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H192" s="16">
         <f t="shared" si="2"/>
@@ -19132,7 +19144,7 @@
         <v>8605324</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H193" s="16">
         <f t="shared" si="2"/>
@@ -19156,7 +19168,7 @@
         <v>9761208</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H194" s="16">
         <f t="shared" si="2"/>
@@ -19180,7 +19192,7 @@
         <v>13464354</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H195" s="16">
         <f t="shared" si="2"/>
@@ -19204,7 +19216,7 @@
         <v>14358874</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H196" s="16">
         <f t="shared" si="2"/>
@@ -19228,7 +19240,7 @@
         <v>17445401</v>
       </c>
       <c r="G197" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H197" s="16">
         <f t="shared" si="2"/>
@@ -19252,7 +19264,7 @@
         <v>23117055</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H198" s="16">
         <f t="shared" si="2"/>
@@ -19276,7 +19288,7 @@
         <v>19086364</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H199" s="16">
         <f t="shared" si="2"/>
@@ -19300,7 +19312,7 @@
         <v>25825919</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H200" s="16">
         <f t="shared" si="2"/>
@@ -19324,7 +19336,7 @@
         <v>44232794</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H201" s="16">
         <f t="shared" si="2"/>
@@ -19348,7 +19360,7 @@
         <v>12346842</v>
       </c>
       <c r="G202" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H202" s="16">
         <f t="shared" si="2"/>
@@ -19372,7 +19384,7 @@
         <v>11323434</v>
       </c>
       <c r="G203" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H203" s="16">
         <f t="shared" si="2"/>
@@ -19396,7 +19408,7 @@
         <v>12515747</v>
       </c>
       <c r="G204" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H204" s="16">
         <f t="shared" si="2"/>
@@ -19420,7 +19432,7 @@
         <v>11801729</v>
       </c>
       <c r="G205" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H205" s="16">
         <f t="shared" si="2"/>
@@ -19444,7 +19456,7 @@
         <v>7572010</v>
       </c>
       <c r="G206" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H206" s="16">
         <f t="shared" si="2"/>
@@ -19468,7 +19480,7 @@
         <v>7489501</v>
       </c>
       <c r="G207" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H207" s="16">
         <f t="shared" si="2"/>
@@ -19492,7 +19504,7 @@
         <v>9352934</v>
       </c>
       <c r="G208" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H208" s="16">
         <f t="shared" si="2"/>
@@ -19516,7 +19528,7 @@
         <v>9102024</v>
       </c>
       <c r="G209" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H209" s="16">
         <f t="shared" si="2"/>
@@ -19540,7 +19552,7 @@
         <v>8322110</v>
       </c>
       <c r="G210" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H210" s="16">
         <f t="shared" si="2"/>
@@ -19564,7 +19576,7 @@
         <v>9198845</v>
       </c>
       <c r="G211" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H211" s="16">
         <f t="shared" si="2"/>
@@ -19588,7 +19600,7 @@
         <v>9442989</v>
       </c>
       <c r="G212" s="15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H212" s="16">
         <f t="shared" si="2"/>
@@ -19612,7 +19624,7 @@
         <v>8166185</v>
       </c>
       <c r="G213" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H213" s="16">
         <f t="shared" si="2"/>
@@ -19636,7 +19648,7 @@
         <v>13081969</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H214" s="16">
         <f t="shared" si="2"/>
@@ -19660,7 +19672,7 @@
         <v>7697110</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H215" s="16">
         <f t="shared" si="2"/>
@@ -19684,7 +19696,7 @@
         <v>8477370</v>
       </c>
       <c r="G216" s="15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H216" s="16">
         <f t="shared" si="2"/>
@@ -19708,7 +19720,7 @@
         <v>10320364</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H217" s="16">
         <f t="shared" si="2"/>
@@ -19732,7 +19744,7 @@
         <v>12243845</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H218" s="16">
         <f t="shared" si="2"/>
@@ -19756,7 +19768,7 @@
         <v>6908317</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H219" s="16">
         <f t="shared" si="2"/>
@@ -19780,7 +19792,7 @@
         <v>13231566</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H220" s="16">
         <f t="shared" si="2"/>
@@ -19804,7 +19816,7 @@
         <v>12237467</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H221" s="16">
         <f t="shared" si="2"/>
@@ -19828,7 +19840,7 @@
         <v>28102011</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H222" s="16">
         <f t="shared" si="2"/>
@@ -19852,7 +19864,7 @@
         <v>11648923</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H223" s="16">
         <f t="shared" si="2"/>
@@ -19876,7 +19888,7 @@
         <v>12599367</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H224" s="16">
         <f t="shared" si="2"/>
@@ -19900,7 +19912,7 @@
         <v>9359170</v>
       </c>
       <c r="G225" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H225" s="16">
         <f t="shared" si="2"/>
@@ -19924,7 +19936,7 @@
         <v>10464729</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H226" s="16">
         <f t="shared" si="2"/>
@@ -19948,7 +19960,7 @@
         <v>18888289</v>
       </c>
       <c r="G227" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H227" s="16">
         <f t="shared" si="2"/>
@@ -19972,7 +19984,7 @@
         <v>12928493</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H228" s="16">
         <f t="shared" si="2"/>
@@ -19996,7 +20008,7 @@
         <v>13500311</v>
       </c>
       <c r="G229" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H229" s="16">
         <f t="shared" si="2"/>
@@ -20020,7 +20032,7 @@
         <v>13558487</v>
       </c>
       <c r="G230" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H230" s="16">
         <f t="shared" ref="H230:H287" si="3">B230/E230-1</f>
@@ -20044,7 +20056,7 @@
         <v>10366037</v>
       </c>
       <c r="G231" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H231" s="16">
         <f t="shared" si="3"/>
@@ -20068,7 +20080,7 @@
         <v>11985383</v>
       </c>
       <c r="G232" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H232" s="16">
         <f t="shared" si="3"/>
@@ -20092,7 +20104,7 @@
         <v>14137513</v>
       </c>
       <c r="G233" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H233" s="16">
         <f t="shared" si="3"/>
@@ -20116,7 +20128,7 @@
         <v>15108667</v>
       </c>
       <c r="G234" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H234" s="16">
         <f t="shared" si="3"/>
@@ -20140,7 +20152,7 @@
         <v>11978817</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H235" s="16">
         <f t="shared" si="3"/>
@@ -20164,7 +20176,7 @@
         <v>13194960</v>
       </c>
       <c r="G236" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H236" s="16">
         <f t="shared" si="3"/>
@@ -20188,7 +20200,7 @@
         <v>22068792</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H237" s="16">
         <f t="shared" si="3"/>
@@ -20212,7 +20224,7 @@
         <v>8846106</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H238" s="16">
         <f t="shared" si="3"/>
@@ -20236,7 +20248,7 @@
         <v>9046058</v>
       </c>
       <c r="G239" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H239" s="16">
         <f t="shared" si="3"/>
@@ -20260,7 +20272,7 @@
         <v>9039816</v>
       </c>
       <c r="G240" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H240" s="16">
         <f t="shared" si="3"/>
@@ -20284,7 +20296,7 @@
         <v>14269038</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H241" s="16">
         <f t="shared" si="3"/>
@@ -20308,7 +20320,7 @@
         <v>11874710</v>
       </c>
       <c r="G242" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H242" s="16">
         <f t="shared" si="3"/>
@@ -20332,7 +20344,7 @@
         <v>8142812</v>
       </c>
       <c r="G243" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H243" s="16">
         <f t="shared" si="3"/>
@@ -20356,7 +20368,7 @@
         <v>11159562</v>
       </c>
       <c r="G244" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H244" s="16">
         <f t="shared" si="3"/>
@@ -20380,7 +20392,7 @@
         <v>8176776</v>
       </c>
       <c r="G245" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H245" s="16">
         <f t="shared" si="3"/>
@@ -20404,7 +20416,7 @@
         <v>10533414</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H246" s="16">
         <f t="shared" si="3"/>
@@ -20428,7 +20440,7 @@
         <v>14532237</v>
       </c>
       <c r="G247" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H247" s="16">
         <f t="shared" si="3"/>
@@ -20452,7 +20464,7 @@
         <v>6576018</v>
       </c>
       <c r="G248" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H248" s="16">
         <f t="shared" si="3"/>
@@ -20476,7 +20488,7 @@
         <v>6429049</v>
       </c>
       <c r="G249" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H249" s="16">
         <f t="shared" si="3"/>
@@ -20500,7 +20512,7 @@
         <v>8204812</v>
       </c>
       <c r="G250" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H250" s="16">
         <f t="shared" si="3"/>
@@ -20524,7 +20536,7 @@
         <v>8113565</v>
       </c>
       <c r="G251" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H251" s="16">
         <f t="shared" si="3"/>
@@ -20548,7 +20560,7 @@
         <v>10972601</v>
       </c>
       <c r="G252" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H252" s="16">
         <f t="shared" si="3"/>
@@ -20572,7 +20584,7 @@
         <v>7556453</v>
       </c>
       <c r="G253" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H253" s="16">
         <f t="shared" si="3"/>
@@ -20596,7 +20608,7 @@
         <v>7311644</v>
       </c>
       <c r="G254" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H254" s="16">
         <f t="shared" si="3"/>
@@ -20620,7 +20632,7 @@
         <v>8745768</v>
       </c>
       <c r="G255" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H255" s="16">
         <f t="shared" si="3"/>
@@ -20644,7 +20656,7 @@
         <v>8368668</v>
       </c>
       <c r="G256" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H256" s="16">
         <f t="shared" si="3"/>
@@ -20668,7 +20680,7 @@
         <v>11183819</v>
       </c>
       <c r="G257" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H257" s="16">
         <f t="shared" si="3"/>
@@ -20692,7 +20704,7 @@
         <v>9232204</v>
       </c>
       <c r="G258" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H258" s="16">
         <f t="shared" si="3"/>
@@ -20716,7 +20728,7 @@
         <v>11257563</v>
       </c>
       <c r="G259" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H259" s="16">
         <f t="shared" si="3"/>
@@ -20740,7 +20752,7 @@
         <v>15435157</v>
       </c>
       <c r="G260" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H260" s="16">
         <f t="shared" si="3"/>
@@ -20764,7 +20776,7 @@
         <v>14480564</v>
       </c>
       <c r="G261" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H261" s="16">
         <f t="shared" si="3"/>
@@ -20788,7 +20800,7 @@
         <v>17966526</v>
       </c>
       <c r="G262" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H262" s="16">
         <f t="shared" si="3"/>
@@ -20812,7 +20824,7 @@
         <v>43903402</v>
       </c>
       <c r="G263" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H263" s="16">
         <f t="shared" si="3"/>
@@ -20836,7 +20848,7 @@
         <v>19142390</v>
       </c>
       <c r="G264" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H264" s="16">
         <f t="shared" si="3"/>
@@ -20860,7 +20872,7 @@
         <v>14200886</v>
       </c>
       <c r="G265" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H265" s="16">
         <f t="shared" si="3"/>
@@ -20884,7 +20896,7 @@
         <v>11711244</v>
       </c>
       <c r="G266" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H266" s="16">
         <f t="shared" si="3"/>
@@ -20908,7 +20920,7 @@
         <v>8189112</v>
       </c>
       <c r="G267" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H267" s="16">
         <f t="shared" si="3"/>
@@ -20932,7 +20944,7 @@
         <v>9912958</v>
       </c>
       <c r="G268" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H268" s="16">
         <f t="shared" si="3"/>
@@ -20956,7 +20968,7 @@
         <v>9958232</v>
       </c>
       <c r="G269" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H269" s="16">
         <f t="shared" si="3"/>
@@ -20980,7 +20992,7 @@
         <v>13177880</v>
       </c>
       <c r="G270" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H270" s="16">
         <f t="shared" si="3"/>
@@ -21004,7 +21016,7 @@
         <v>9240022</v>
       </c>
       <c r="G271" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H271" s="16">
         <f t="shared" si="3"/>
@@ -21028,7 +21040,7 @@
         <v>8000869</v>
       </c>
       <c r="G272" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H272" s="16">
         <f t="shared" si="3"/>
@@ -21052,7 +21064,7 @@
         <v>9912670</v>
       </c>
       <c r="G273" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H273" s="16">
         <f t="shared" si="3"/>
@@ -21076,7 +21088,7 @@
         <v>11008660</v>
       </c>
       <c r="G274" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H274" s="16">
         <f t="shared" si="3"/>
@@ -21100,7 +21112,7 @@
         <v>9933991</v>
       </c>
       <c r="G275" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H275" s="16">
         <f t="shared" si="3"/>
@@ -21124,7 +21136,7 @@
         <v>8785482</v>
       </c>
       <c r="G276" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H276" s="16">
         <f t="shared" si="3"/>
@@ -21148,7 +21160,7 @@
         <v>8566270</v>
       </c>
       <c r="G277" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H277" s="16">
         <f t="shared" si="3"/>
@@ -21172,7 +21184,7 @@
         <v>8459879</v>
       </c>
       <c r="G278" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H278" s="16">
         <f t="shared" si="3"/>
@@ -21196,7 +21208,7 @@
         <v>8421432</v>
       </c>
       <c r="G279" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H279" s="16">
         <f t="shared" si="3"/>
@@ -21220,7 +21232,7 @@
         <v>8062301</v>
       </c>
       <c r="G280" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H280" s="16">
         <f t="shared" si="3"/>
@@ -21244,7 +21256,7 @@
         <v>9933370</v>
       </c>
       <c r="G281" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H281" s="16">
         <f t="shared" si="3"/>
@@ -21268,7 +21280,7 @@
         <v>7176112</v>
       </c>
       <c r="G282" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H282" s="16">
         <f t="shared" si="3"/>
@@ -21292,7 +21304,7 @@
         <v>10329272</v>
       </c>
       <c r="G283" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H283" s="16">
         <f t="shared" si="3"/>
@@ -21316,7 +21328,7 @@
         <v>9840525</v>
       </c>
       <c r="G284" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H284" s="16">
         <f t="shared" si="3"/>
@@ -21340,7 +21352,7 @@
         <v>10775822</v>
       </c>
       <c r="G285" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H285" s="16">
         <f t="shared" si="3"/>
@@ -21364,7 +21376,7 @@
         <v>10591212</v>
       </c>
       <c r="G286" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H286" s="16">
         <f t="shared" si="3"/>
@@ -21388,7 +21400,7 @@
         <v>14826401</v>
       </c>
       <c r="G287" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H287" s="16">
         <f t="shared" si="3"/>
@@ -21420,12 +21432,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -21449,12 +21461,12 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/PYPL_Model.xlsx
+++ b/PYPL_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF55276-61ED-4396-AB75-BA492BB207EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6499B249-368D-4999-B16A-B68B2E13CD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main | Overview" sheetId="1" r:id="rId1"/>
@@ -2692,9 +2692,6 @@
     <t>Master</t>
   </si>
   <si>
-    <t>User growth has stagnated for the last couple of years, TPV is still growing faster than GDP… check against inflation/money supply growth</t>
-  </si>
-  <si>
     <t>PayPal operates in many high value markets including:</t>
   </si>
   <si>
@@ -2810,6 +2807,9 @@
       </rPr>
       <t xml:space="preserve"> upon approval</t>
     </r>
+  </si>
+  <si>
+    <t>User growth has stagnated for the last couple of years; TPV is still growing faster than GDP… check against inflation/money supply growth</t>
   </si>
 </sst>
 </file>
@@ -4744,11 +4744,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:BZ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView topLeftCell="A59" zoomScale="88" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
@@ -4761,18 +4759,21 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:78">
       <c r="A1" s="28" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15">
+      <c r="BZ1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78" ht="15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:78">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4785,9 +4786,9 @@
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:78">
       <c r="B4" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C4" s="1">
         <v>989</v>
@@ -4796,7 +4797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:78">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:78">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4819,7 +4820,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:78">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4832,7 +4833,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:78">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4842,27 +4843,27 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:78" ht="15">
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:78" ht="15">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:78">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:78">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:78">
       <c r="B16" s="1" t="s">
         <v>134</v>
       </c>
@@ -4933,14 +4934,14 @@
         <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="3:5" ht="15">
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="15">
@@ -5294,10 +5295,10 @@
   <dimension ref="A1:CT101"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AP26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS45" sqref="AS45"/>
+      <selection pane="bottomRight" activeCell="AE43" sqref="AE43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -9717,7 +9718,7 @@
     </row>
     <row r="40" spans="2:98">
       <c r="B40" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C40" s="1">
         <v>179</v>
@@ -10532,7 +10533,7 @@
     </row>
     <row r="43" spans="2:98">
       <c r="B43" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C43" s="6">
         <f t="shared" ref="C43:V43" si="147">C41/C42</f>
@@ -10725,7 +10726,7 @@
     </row>
     <row r="45" spans="2:98">
       <c r="B45" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W45" s="1"/>
       <c r="AN45" s="7">
@@ -10751,7 +10752,7 @@
     </row>
     <row r="46" spans="2:98">
       <c r="B46" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W46" s="1"/>
       <c r="AN46" s="7">
@@ -12778,7 +12779,7 @@
     </row>
     <row r="73" spans="2:44" hidden="1">
       <c r="B73" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J73" s="6">
         <f t="shared" ref="J73:V73" si="175">SUM(J50:J56)/SUM(J64:J66)</f>
@@ -12855,7 +12856,7 @@
     </row>
     <row r="74" spans="2:44" hidden="1">
       <c r="B74" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J74" s="6">
         <f t="shared" ref="J74:V74" si="178">J29/J62</f>
@@ -12932,7 +12933,7 @@
     </row>
     <row r="75" spans="2:44" hidden="1">
       <c r="B75" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J75" s="5">
         <f t="shared" ref="J75:V75" si="180">J41/J62</f>
@@ -13026,7 +13027,7 @@
     </row>
     <row r="76" spans="2:44" hidden="1">
       <c r="B76" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J76" s="5">
         <f t="shared" ref="J76:V76" si="183">J41/J70</f>
@@ -15186,8 +15187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955662-3904-47FE-BB6C-F0C83886CFDD}">
   <dimension ref="B1:CN287"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -15236,20 +15237,20 @@
     </row>
     <row r="5" spans="2:92">
       <c r="R5" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="2:92">
       <c r="R6" s="1" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="2:92">
       <c r="S7" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="9" spans="2:92">
@@ -15294,44 +15295,44 @@
     </row>
     <row r="19" spans="17:18">
       <c r="Q19" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="17:18">
       <c r="Q20" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R20" s="12"/>
     </row>
     <row r="21" spans="17:18">
       <c r="Q21" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R21" s="12"/>
     </row>
     <row r="22" spans="17:18">
       <c r="Q22" s="12"/>
       <c r="R22" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="17:18">
       <c r="Q23" s="12"/>
       <c r="R23" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="17:18">
       <c r="Q24" s="12"/>
       <c r="R24" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="17:18">
       <c r="Q25" s="12"/>
       <c r="R25" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15">

--- a/PYPL_Model.xlsx
+++ b/PYPL_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6499B249-368D-4999-B16A-B68B2E13CD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC9DEB-8DB8-40BA-B180-13E622504460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main | Overview" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Founded: 1998</t>
-  </si>
-  <si>
-    <t>Headquarted: San Jose</t>
   </si>
   <si>
     <t>Employees: 24,400</t>
@@ -2662,9 +2659,6 @@
     <t>3 σ 1-Day Delta: ±</t>
   </si>
   <si>
-    <t>You could hypothetically lever up 20x on a paypal position and remain in the clear/unliquidated from a 1-day 3 σ move… will Paypal's day-to-day EQ returns be more volatile going forward? Hahaha, lever up 20x… f around. find out</t>
-  </si>
-  <si>
     <t>A brief observation I had while scoping out the balance sheet was in regards to the refinancing of $1.5 billion in bonds terming out in 2025</t>
   </si>
   <si>
@@ -2674,9 +2668,6 @@
     <t xml:space="preserve">The newly issued notes have effective interest rates between 4.5-5%, a 2-3x increase in borrowing costs </t>
   </si>
   <si>
-    <t xml:space="preserve">2025 is is expected to see a disproportionately large wave of corporate debt refinancing from the 2020-2021 low rate era. Refinancing will happen at a much higher rate across the board. </t>
-  </si>
-  <si>
     <t>Operating income margin will be important to track very closely for short term modeling</t>
   </si>
   <si>
@@ -2695,9 +2686,6 @@
     <t>PayPal operates in many high value markets including:</t>
   </si>
   <si>
-    <t xml:space="preserve">My model is relatively conservative with most future projected figures, except for operating margin (which I believe will see some decent expansion over FY '25 due to braintree contract renegotiations). I believe PayPal is a decent long around the ($55-65) range and have an intial price target of ~$85… could be an incredible value trap though as there are a few challeneges I feel will be difficult for the firm to overcome.  </t>
-  </si>
-  <si>
     <t>Digital wallets (competing with AAPL, GOOG, XYZ, Zelle)</t>
   </si>
   <si>
@@ -2717,9 +2705,6 @@
   </si>
   <si>
     <t>https://www.usatoday.com/story/entertainment/music/2025/04/16/concert-ticket-prices-lead-to-payment-plans/83099353007/</t>
-  </si>
-  <si>
-    <t>The Company's valuation multiples is discounted in comparison to peers... the firm has anemic user growth, and is continuing to spend on expensive marketing campaigns, all while competing firms continue to seize market share in virtually every category Paypal operates in</t>
   </si>
   <si>
     <t>R&amp;D as % of Revenues</t>
@@ -2810,6 +2795,21 @@
   </si>
   <si>
     <t>User growth has stagnated for the last couple of years; TPV is still growing faster than GDP… check against inflation/money supply growth</t>
+  </si>
+  <si>
+    <t>Headquarters: San Jose, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025 is  expected to see a disproportionately large wave of corporate debt refinancing from the 2020-2021 low rate era. Refinancing will happen at a much higher rate across the board. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My model is relatively conservative with most future projected figures, except for operating margin (which I believe will see some decent expansion over FY '25 due to Braintree contract renegotiations). I believe PayPal is a decent long around the ($55-65) range and have an initial price target of ~$85… could be an incredible value trap though as there are a few challenges I feel will be difficult for the firm to overcome.  </t>
+  </si>
+  <si>
+    <t>The Company's valuation multiples is discounted in comparison to peers... the firm has anemic user growth, and is continuing to spend on expensive marketing campaigns, all while competing firms continue to seize market share in virtually every category PayPal operates in</t>
+  </si>
+  <si>
+    <t>You could hypothetically lever up 20x on a PayPal position and remain in the clear/unliquidated from a 1-day 3 σ move… will PayPal's day-to-day EQ returns be more volatile going forward? Hahaha, lever up 20x… f around. find out</t>
   </si>
 </sst>
 </file>
@@ -4744,24 +4744,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BZ94"/>
+  <dimension ref="A1:BZ92"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="88" workbookViewId="0"/>
+    <sheetView topLeftCell="A62" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78">
       <c r="A1" s="28" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="BZ1" s="1">
         <v>0</v>
@@ -4788,7 +4789,7 @@
     </row>
     <row r="4" spans="1:78">
       <c r="B4" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C4" s="1">
         <v>989</v>
@@ -4850,7 +4851,7 @@
     </row>
     <row r="12" spans="1:78" ht="15">
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:78">
@@ -4860,100 +4861,100 @@
     </row>
     <row r="15" spans="1:78">
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:78">
       <c r="B16" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
       <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15">
+    </row>
+    <row r="20" spans="1:5" ht="15">
       <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="15">
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="15">
-      <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15">
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="15">
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="E30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="15">
-      <c r="E28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="15">
-      <c r="E29" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="15">
-      <c r="E30" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="15">
-      <c r="C32" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="3:5" ht="15">
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="15">
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="15" customHeight="1">
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="15" customHeight="1">
@@ -4962,273 +4963,272 @@
     </row>
     <row r="37" spans="3:5" ht="15">
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="15">
       <c r="E38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="15">
       <c r="E39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="15">
       <c r="E40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="15">
       <c r="E41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="3:5" ht="15">
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="3:5" ht="15">
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="3:5" ht="15">
       <c r="E45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="3:5" ht="15">
       <c r="E46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="3:5" ht="15">
       <c r="E47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="3:5" ht="15">
       <c r="E48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="3:5">
       <c r="C50" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="3:5">
       <c r="E51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="3:5">
       <c r="E52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="3:5">
       <c r="E53" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="3:5">
       <c r="E54" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="3:5">
       <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="3:5" ht="15" customHeight="1">
       <c r="E57" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="3:5">
       <c r="E58" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="3:5">
       <c r="E59" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="3:5">
       <c r="D60" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="3:5">
       <c r="C62" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="3:5">
       <c r="E63" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="3:5">
       <c r="E64" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="E65" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
-      <c r="E65" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="1:7">
       <c r="D66" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="C68" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="E69" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="E70" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
-      <c r="E70" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="1:7">
       <c r="E71" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="15">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15">
       <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15">
+      <c r="A75" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15">
-      <c r="B75" s="2" t="s">
+    <row r="76" spans="1:7" ht="15">
+      <c r="B76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15">
+      <c r="B77" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15">
+      <c r="B78" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="C79" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15">
+      <c r="B80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="15">
+      <c r="C81" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="15">
+      <c r="D82" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="D83" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="15">
+      <c r="C84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="2:7" ht="15">
+      <c r="D85" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="15">
+      <c r="D86" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" ht="15">
-      <c r="B77" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="15">
-      <c r="B78" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="15">
-      <c r="C79" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="C80" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="15">
-      <c r="B82" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="2:7" ht="15">
-      <c r="B83" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="15">
-      <c r="C84" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="C85" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="15">
-      <c r="B86" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="2:7" ht="15">
       <c r="C87" s="1" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="15">
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2"/>
+      <c r="D88" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" spans="2:7" ht="15">
-      <c r="B89" s="1" t="s">
-        <v>137</v>
+      <c r="D89" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="15">
-      <c r="B90" s="2"/>
-      <c r="C90" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="2:7" ht="15">
-      <c r="C91" s="1" t="s">
-        <v>32</v>
+      <c r="D90" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="15">
-      <c r="C92" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="15">
-      <c r="B94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5294,8 +5294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB43A2-E51B-468E-8B2C-40F5D1CFF37E}">
   <dimension ref="A1:CT101"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AE43" sqref="AE43"/>
@@ -5321,103 +5321,103 @@
   <sheetData>
     <row r="1" spans="1:98">
       <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="Z1" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD1" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AG1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH1" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="15">
@@ -5425,100 +5425,100 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="20" t="s">
-        <v>87</v>
-      </c>
       <c r="Y2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z2" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AB2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AC2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AD2" s="20" t="s">
-        <v>145</v>
-      </c>
       <c r="AE2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AG2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AH2" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="AH2" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="AN2" s="2">
         <v>2020</v>
@@ -6141,7 +6141,7 @@
     <row r="7" spans="1:98" s="8" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" ref="C7:U7" si="55">C3/C5</f>
@@ -6336,7 +6336,7 @@
     <row r="8" spans="1:98" s="8" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" ref="C8:U8" si="59">C4/C5</f>
@@ -6607,7 +6607,7 @@
     <row r="10" spans="1:98" s="8" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G10" s="8">
         <f>G3/C3-1</f>
@@ -6776,7 +6776,7 @@
     <row r="11" spans="1:98" s="8" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" ref="G11:W11" si="65">G4/C4-1</f>
@@ -6945,7 +6945,7 @@
     <row r="12" spans="1:98" s="8" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" ref="G12:W12" si="67">G5/C5-1</f>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="19" spans="2:98">
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" ref="C19:U19" si="84">C15/C17</f>
@@ -7699,7 +7699,7 @@
     </row>
     <row r="20" spans="2:98">
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" ref="C20:U20" si="87">C16/C17</f>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="22" spans="2:98">
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="23" spans="2:98">
       <c r="B23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -8017,7 +8017,7 @@
     </row>
     <row r="24" spans="2:98">
       <c r="B24" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="26" spans="2:98">
       <c r="B26" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J26" s="1">
         <v>428</v>
@@ -8182,23 +8182,23 @@
     </row>
     <row r="27" spans="2:98">
       <c r="B27" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W27" s="1"/>
       <c r="AN27" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AO27" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP27" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AQ27" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:98">
@@ -8642,7 +8642,7 @@
     </row>
     <row r="31" spans="2:98">
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1">
         <v>591</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="32" spans="2:98">
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1">
         <v>399</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="33" spans="2:98">
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1">
         <v>371</v>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="34" spans="2:98">
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1">
         <v>605</v>
@@ -9014,7 +9014,7 @@
     </row>
     <row r="35" spans="2:98">
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1">
         <v>486</v>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="36" spans="2:98">
       <c r="B36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="1">
         <v>29</v>
@@ -9200,7 +9200,7 @@
     </row>
     <row r="37" spans="2:98">
       <c r="B37" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ref="C37:T37" si="103">C29-SUM(C30:C36)</f>
@@ -9718,7 +9718,7 @@
     </row>
     <row r="40" spans="2:98">
       <c r="B40" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C40" s="1">
         <v>179</v>
@@ -10355,7 +10355,7 @@
     </row>
     <row r="42" spans="2:98">
       <c r="B42" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42" s="1">
         <v>1185</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="43" spans="2:98">
       <c r="B43" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C43" s="6">
         <f t="shared" ref="C43:V43" si="147">C41/C42</f>
@@ -10726,7 +10726,7 @@
     </row>
     <row r="45" spans="2:98">
       <c r="B45" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="W45" s="1"/>
       <c r="AN45" s="7">
@@ -10752,7 +10752,7 @@
     </row>
     <row r="46" spans="2:98">
       <c r="B46" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="W46" s="1"/>
       <c r="AN46" s="7">
@@ -10778,7 +10778,7 @@
     </row>
     <row r="47" spans="2:98">
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" ref="C47:U47" si="154">C37/C29</f>
@@ -11085,7 +11085,7 @@
     </row>
     <row r="48" spans="2:98">
       <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" ref="C48:V48" si="158">C41/C29</f>
@@ -11421,7 +11421,7 @@
     </row>
     <row r="50" spans="2:67">
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J50" s="1">
         <v>4794</v>
@@ -11478,7 +11478,7 @@
         <v>6561</v>
       </c>
       <c r="AT50" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AU50" s="26">
         <v>8.5000000000000006E-2</v>
@@ -11487,7 +11487,7 @@
     </row>
     <row r="51" spans="2:67">
       <c r="B51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J51" s="1">
         <v>8289</v>
@@ -11544,7 +11544,7 @@
         <v>4262</v>
       </c>
       <c r="AT51" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AU51" s="26">
         <v>1.4999999999999999E-2</v>
@@ -11552,7 +11552,7 @@
     </row>
     <row r="52" spans="2:67">
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J52" s="1">
         <v>577</v>
@@ -11609,7 +11609,7 @@
         <v>984</v>
       </c>
       <c r="AT52" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AU52" s="23">
         <f>NPV(AU50,AS41:CQ41)</f>
@@ -11618,7 +11618,7 @@
     </row>
     <row r="53" spans="2:67">
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -11675,7 +11675,7 @@
         <v>541</v>
       </c>
       <c r="AT53" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AU53" s="23">
         <v>989</v>
@@ -11683,7 +11683,7 @@
     </row>
     <row r="54" spans="2:67">
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J54" s="1">
         <v>2769</v>
@@ -11740,7 +11740,7 @@
         <v>6422</v>
       </c>
       <c r="AT54" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AU54" s="27">
         <f>AU52/AU53</f>
@@ -11750,7 +11750,7 @@
     </row>
     <row r="55" spans="2:67">
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J55" s="1">
         <v>33418</v>
@@ -11807,7 +11807,7 @@
         <v>37671</v>
       </c>
       <c r="AT55" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AU55" s="27">
         <v>62.66</v>
@@ -11815,7 +11815,7 @@
     </row>
     <row r="56" spans="2:67">
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J56" s="1">
         <v>1148</v>
@@ -11882,7 +11882,7 @@
     </row>
     <row r="57" spans="2:67">
       <c r="B57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J57" s="1">
         <v>6089</v>
@@ -11941,7 +11941,7 @@
     </row>
     <row r="58" spans="2:67">
       <c r="B58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J58" s="1">
         <v>1807</v>
@@ -12000,7 +12000,7 @@
     </row>
     <row r="59" spans="2:67">
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J59" s="1">
         <v>9135</v>
@@ -12059,7 +12059,7 @@
     </row>
     <row r="60" spans="2:67">
       <c r="B60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J60" s="1">
         <v>1048</v>
@@ -12118,7 +12118,7 @@
     </row>
     <row r="61" spans="2:67">
       <c r="B61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J61" s="1">
         <v>1305</v>
@@ -12177,7 +12177,7 @@
     </row>
     <row r="62" spans="2:67" ht="15">
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" ref="J62:V62" si="162">SUM(J50:J61)</f>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="64" spans="2:67">
       <c r="B64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J64" s="1">
         <v>252</v>
@@ -12316,7 +12316,7 @@
     </row>
     <row r="65" spans="2:44">
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J65" s="1">
         <v>35418</v>
@@ -12375,7 +12375,7 @@
     </row>
     <row r="66" spans="2:44">
       <c r="B66" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J66" s="1">
         <f>2648+129</f>
@@ -12444,7 +12444,7 @@
     </row>
     <row r="67" spans="2:44">
       <c r="B67" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J67" s="1">
         <v>2930</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="68" spans="2:44">
       <c r="B68" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J68" s="1">
         <v>8939</v>
@@ -12562,7 +12562,7 @@
     </row>
     <row r="69" spans="2:44" ht="15">
       <c r="B69" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" ref="J69:U69" si="168">SUM(J64:J68)</f>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="70" spans="2:44">
       <c r="B70" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J70" s="1">
         <v>20063</v>
@@ -12698,7 +12698,7 @@
     </row>
     <row r="71" spans="2:44" ht="15">
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J71" s="1">
         <f t="shared" ref="J71:V71" si="173">J70+J69</f>
@@ -12779,7 +12779,7 @@
     </row>
     <row r="73" spans="2:44" hidden="1">
       <c r="B73" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="J73" s="6">
         <f t="shared" ref="J73:V73" si="175">SUM(J50:J56)/SUM(J64:J66)</f>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="74" spans="2:44" hidden="1">
       <c r="B74" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J74" s="6">
         <f t="shared" ref="J74:V74" si="178">J29/J62</f>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="75" spans="2:44" hidden="1">
       <c r="B75" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="J75" s="5">
         <f t="shared" ref="J75:V75" si="180">J41/J62</f>
@@ -13027,7 +13027,7 @@
     </row>
     <row r="76" spans="2:44" hidden="1">
       <c r="B76" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="J76" s="5">
         <f t="shared" ref="J76:V76" si="183">J41/J70</f>
@@ -13233,7 +13233,7 @@
     </row>
     <row r="79" spans="2:44">
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1">
         <v>591</v>
@@ -13336,7 +13336,7 @@
     </row>
     <row r="80" spans="2:44">
       <c r="B80" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" s="1">
         <v>293</v>
@@ -13439,10 +13439,10 @@
     </row>
     <row r="81" spans="1:44">
       <c r="A81" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="1">
         <v>283</v>
@@ -13545,7 +13545,7 @@
     </row>
     <row r="82" spans="1:44">
       <c r="B82" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="1">
         <v>-79</v>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="83" spans="1:44">
       <c r="B83" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" s="1">
         <v>124</v>
@@ -13751,7 +13751,7 @@
     </row>
     <row r="84" spans="1:44">
       <c r="B84" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -13839,7 +13839,7 @@
     </row>
     <row r="85" spans="1:44">
       <c r="B85" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -13934,7 +13934,7 @@
     </row>
     <row r="86" spans="1:44">
       <c r="B86" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -14028,7 +14028,7 @@
     </row>
     <row r="87" spans="1:44">
       <c r="B87" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C87" s="1">
         <v>-5</v>
@@ -14131,7 +14131,7 @@
     </row>
     <row r="88" spans="1:44">
       <c r="B88" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -14225,7 +14225,7 @@
     </row>
     <row r="89" spans="1:44">
       <c r="B89" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -14319,7 +14319,7 @@
     </row>
     <row r="90" spans="1:44">
       <c r="B90" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C90" s="1">
         <f>77-21+51+21</f>
@@ -14428,7 +14428,7 @@
     </row>
     <row r="91" spans="1:44" ht="15">
       <c r="B91" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C91" s="1">
         <f t="shared" ref="C91:R91" si="194">C78+SUM(C79:C90)</f>
@@ -14540,7 +14540,7 @@
     </row>
     <row r="93" spans="1:44">
       <c r="B93" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C93" s="1">
         <f t="shared" ref="C93:R93" si="197">C91</f>
@@ -14649,7 +14649,7 @@
     </row>
     <row r="94" spans="1:44">
       <c r="B94" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C94" s="1">
         <f>-206+119</f>
@@ -14756,7 +14756,7 @@
     </row>
     <row r="95" spans="1:44" ht="15">
       <c r="B95" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C95" s="1">
         <f t="shared" ref="C95:U95" si="200">C93+C94</f>
@@ -14865,7 +14865,7 @@
     </row>
     <row r="96" spans="1:44">
       <c r="B96" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C96" s="1">
         <f t="shared" ref="C96:V96" si="202">C42</f>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="97" spans="2:44">
       <c r="B97" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="6">
         <f t="shared" ref="C97:Q97" si="204">C95/C96</f>
@@ -15187,8 +15187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955662-3904-47FE-BB6C-F0C83886CFDD}">
   <dimension ref="B1:CN287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -15218,10 +15218,10 @@
     </row>
     <row r="2" spans="2:92" ht="15">
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:92" ht="15">
@@ -15229,115 +15229,115 @@
     </row>
     <row r="4" spans="2:92" ht="15">
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:92">
       <c r="R5" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="2:92">
       <c r="R6" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="2:92">
       <c r="S7" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="2:92">
       <c r="Q9" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="2:92">
       <c r="R10" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="2:92">
       <c r="Q12" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="2:92">
       <c r="R13" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="2:92">
       <c r="R14" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="2:92">
       <c r="Q15" s="1" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="2:92">
       <c r="R16" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="17:18">
       <c r="R17" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="17:18">
       <c r="Q19" s="12" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="17:18">
       <c r="Q20" s="12" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="R20" s="12"/>
     </row>
     <row r="21" spans="17:18">
       <c r="Q21" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R21" s="12"/>
     </row>
     <row r="22" spans="17:18">
       <c r="Q22" s="12"/>
       <c r="R22" s="12" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="17:18">
       <c r="Q23" s="12"/>
       <c r="R23" s="12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="17:18">
       <c r="Q24" s="12"/>
       <c r="R24" s="12" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="17:18">
       <c r="Q25" s="12"/>
       <c r="R25" s="12" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15">
       <c r="B35" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -15345,28 +15345,28 @@
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K37" s="14">
         <f>MAX(H37:H286)</f>
@@ -15390,14 +15390,14 @@
         <v>6678611</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H38" s="16">
         <f t="shared" ref="H38:H101" si="0">B38/E38-1</f>
         <v>-1.9718309859154681E-3</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K38" s="14">
         <f>MIN(H37:H286)</f>
@@ -15421,14 +15421,14 @@
         <v>9911035</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="0"/>
         <v>-8.1062194269740928E-3</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K39" s="14">
         <f>_xlfn.STDEV.S(H35:H286)</f>
@@ -15452,14 +15452,14 @@
         <v>14484685</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" si="0"/>
         <v>2.2879626930923935E-2</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K40" s="14">
         <f>AVERAGE(H37:H286)</f>
@@ -15483,7 +15483,7 @@
         <v>7453575</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H41" s="16">
         <f t="shared" si="0"/>
@@ -15507,21 +15507,21 @@
         <v>6876430</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H42" s="16">
         <f t="shared" si="0"/>
         <v>1.3024602026049381E-2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L42" s="5">
         <f>K39*3</f>
         <v>4.9340461424289918E-2</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="2:13">
@@ -15541,14 +15541,14 @@
         <v>7520849</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H43" s="16">
         <f t="shared" si="0"/>
         <v>-2.7508324887794977E-3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="L43" s="5"/>
     </row>
@@ -15569,7 +15569,7 @@
         <v>7971219</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H44" s="16">
         <f t="shared" si="0"/>
@@ -15593,7 +15593,7 @@
         <v>9828715</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H45" s="16">
         <f t="shared" si="0"/>
@@ -15617,7 +15617,7 @@
         <v>9778264</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="0"/>
@@ -15641,7 +15641,7 @@
         <v>11545839</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H47" s="16">
         <f t="shared" si="0"/>
@@ -15665,7 +15665,7 @@
         <v>12133067</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H48" s="16">
         <f t="shared" si="0"/>
@@ -15689,7 +15689,7 @@
         <v>15035191</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H49" s="16">
         <f t="shared" si="0"/>
@@ -15713,7 +15713,7 @@
         <v>16388274</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H50" s="16">
         <f t="shared" si="0"/>
@@ -15737,7 +15737,7 @@
         <v>11226928</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" si="0"/>
@@ -15761,7 +15761,7 @@
         <v>14464271</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H52" s="16">
         <f t="shared" si="0"/>
@@ -15785,7 +15785,7 @@
         <v>20179966</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H53" s="16">
         <f t="shared" si="0"/>
@@ -15809,7 +15809,7 @@
         <v>15753699</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H54" s="16">
         <f t="shared" si="0"/>
@@ -15833,7 +15833,7 @@
         <v>13601324</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H55" s="16">
         <f t="shared" si="0"/>
@@ -15857,7 +15857,7 @@
         <v>11661160</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H56" s="16">
         <f t="shared" si="0"/>
@@ -15881,7 +15881,7 @@
         <v>15296804</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H57" s="16">
         <f t="shared" si="0"/>
@@ -15905,7 +15905,7 @@
         <v>20647167</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H58" s="16">
         <f t="shared" si="0"/>
@@ -15929,7 +15929,7 @@
         <v>12873277</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H59" s="16">
         <f t="shared" si="0"/>
@@ -15953,7 +15953,7 @@
         <v>15171686</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H60" s="16">
         <f t="shared" si="0"/>
@@ -15977,7 +15977,7 @@
         <v>9319311</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H61" s="16">
         <f t="shared" si="0"/>
@@ -16001,7 +16001,7 @@
         <v>9082256</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H62" s="16">
         <f t="shared" si="0"/>
@@ -16025,7 +16025,7 @@
         <v>11281243</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H63" s="16">
         <f t="shared" si="0"/>
@@ -16049,7 +16049,7 @@
         <v>10504560</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H64" s="16">
         <f t="shared" si="0"/>
@@ -16073,7 +16073,7 @@
         <v>9958597</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H65" s="16">
         <f t="shared" si="0"/>
@@ -16097,7 +16097,7 @@
         <v>11782529</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H66" s="16">
         <f t="shared" si="0"/>
@@ -16121,7 +16121,7 @@
         <v>15769395</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H67" s="16">
         <f t="shared" si="0"/>
@@ -16145,7 +16145,7 @@
         <v>11815591</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H68" s="16">
         <f t="shared" si="0"/>
@@ -16169,7 +16169,7 @@
         <v>13597269</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H69" s="16">
         <f t="shared" si="0"/>
@@ -16193,7 +16193,7 @@
         <v>14440462</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H70" s="16">
         <f t="shared" si="0"/>
@@ -16217,7 +16217,7 @@
         <v>23646046</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H71" s="16">
         <f t="shared" si="0"/>
@@ -16241,7 +16241,7 @@
         <v>58801889</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H72" s="16">
         <f t="shared" si="0"/>
@@ -16265,7 +16265,7 @@
         <v>11215041</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H73" s="16">
         <f t="shared" si="0"/>
@@ -16289,7 +16289,7 @@
         <v>8338934</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H74" s="16">
         <f t="shared" si="0"/>
@@ -16313,7 +16313,7 @@
         <v>7708468</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H75" s="16">
         <f t="shared" si="0"/>
@@ -16337,7 +16337,7 @@
         <v>5234468</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H76" s="16">
         <f t="shared" si="0"/>
@@ -16361,7 +16361,7 @@
         <v>8665994</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H77" s="16">
         <f t="shared" si="0"/>
@@ -16385,7 +16385,7 @@
         <v>6923826</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H78" s="16">
         <f t="shared" si="0"/>
@@ -16409,7 +16409,7 @@
         <v>6004674</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H79" s="16">
         <f t="shared" si="0"/>
@@ -16433,7 +16433,7 @@
         <v>7540610</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H80" s="16">
         <f t="shared" si="0"/>
@@ -16457,7 +16457,7 @@
         <v>7345739</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H81" s="16">
         <f t="shared" si="0"/>
@@ -16481,7 +16481,7 @@
         <v>12629343</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H82" s="16">
         <f t="shared" si="0"/>
@@ -16505,7 +16505,7 @@
         <v>16499703</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H83" s="16">
         <f t="shared" si="0"/>
@@ -16529,7 +16529,7 @@
         <v>5816351</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H84" s="16">
         <f t="shared" si="0"/>
@@ -16553,7 +16553,7 @@
         <v>10024081</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H85" s="16">
         <f t="shared" si="0"/>
@@ -16577,7 +16577,7 @@
         <v>8958442</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H86" s="16">
         <f t="shared" si="0"/>
@@ -16601,7 +16601,7 @@
         <v>7402380</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H87" s="16">
         <f t="shared" si="0"/>
@@ -16625,7 +16625,7 @@
         <v>11341216</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H88" s="16">
         <f t="shared" si="0"/>
@@ -16649,7 +16649,7 @@
         <v>7400030</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H89" s="16">
         <f t="shared" si="0"/>
@@ -16673,7 +16673,7 @@
         <v>6080796</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H90" s="16">
         <f t="shared" si="0"/>
@@ -16697,7 +16697,7 @@
         <v>7869184</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H91" s="16">
         <f t="shared" si="0"/>
@@ -16721,7 +16721,7 @@
         <v>6136427</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H92" s="16">
         <f t="shared" si="0"/>
@@ -16745,7 +16745,7 @@
         <v>6227776</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H93" s="16">
         <f t="shared" si="0"/>
@@ -16769,7 +16769,7 @@
         <v>4533202</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H94" s="16">
         <f t="shared" si="0"/>
@@ -16793,7 +16793,7 @@
         <v>5855039</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H95" s="16">
         <f t="shared" si="0"/>
@@ -16817,7 +16817,7 @@
         <v>5124993</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H96" s="16">
         <f t="shared" si="0"/>
@@ -16841,7 +16841,7 @@
         <v>4802170</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H97" s="16">
         <f t="shared" si="0"/>
@@ -16865,7 +16865,7 @@
         <v>3276344</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H98" s="16">
         <f t="shared" si="0"/>
@@ -16889,7 +16889,7 @@
         <v>5633131</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H99" s="16">
         <f t="shared" si="0"/>
@@ -16913,7 +16913,7 @@
         <v>22052710</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H100" s="16">
         <f t="shared" si="0"/>
@@ -16937,7 +16937,7 @@
         <v>9522428</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H101" s="16">
         <f t="shared" si="0"/>
@@ -16961,7 +16961,7 @@
         <v>12583697</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H102" s="16">
         <f t="shared" ref="H102:H165" si="1">B102/E102-1</f>
@@ -16985,7 +16985,7 @@
         <v>8395584</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H103" s="16">
         <f t="shared" si="1"/>
@@ -17009,7 +17009,7 @@
         <v>7402470</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H104" s="16">
         <f t="shared" si="1"/>
@@ -17033,7 +17033,7 @@
         <v>8358050</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H105" s="16">
         <f t="shared" si="1"/>
@@ -17057,7 +17057,7 @@
         <v>4711138</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H106" s="16">
         <f t="shared" si="1"/>
@@ -17081,7 +17081,7 @@
         <v>6657199</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H107" s="16">
         <f t="shared" si="1"/>
@@ -17105,7 +17105,7 @@
         <v>6697466</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H108" s="16">
         <f t="shared" si="1"/>
@@ -17129,7 +17129,7 @@
         <v>10714196</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H109" s="16">
         <f t="shared" si="1"/>
@@ -17153,7 +17153,7 @@
         <v>6955544</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H110" s="16">
         <f t="shared" si="1"/>
@@ -17177,7 +17177,7 @@
         <v>9025551</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H111" s="16">
         <f t="shared" si="1"/>
@@ -17201,7 +17201,7 @@
         <v>15535961</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H112" s="16">
         <f t="shared" si="1"/>
@@ -17225,7 +17225,7 @@
         <v>8189778</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H113" s="16">
         <f t="shared" si="1"/>
@@ -17249,7 +17249,7 @@
         <v>7273536</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H114" s="16">
         <f t="shared" si="1"/>
@@ -17273,7 +17273,7 @@
         <v>4469740</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H115" s="16">
         <f t="shared" si="1"/>
@@ -17297,7 +17297,7 @@
         <v>5477894</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H116" s="16">
         <f t="shared" si="1"/>
@@ -17321,7 +17321,7 @@
         <v>5610415</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H117" s="16">
         <f t="shared" si="1"/>
@@ -17345,7 +17345,7 @@
         <v>12998272</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H118" s="16">
         <f t="shared" si="1"/>
@@ -17369,7 +17369,7 @@
         <v>6785992</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H119" s="16">
         <f t="shared" si="1"/>
@@ -17393,7 +17393,7 @@
         <v>7250051</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H120" s="16">
         <f t="shared" si="1"/>
@@ -17417,7 +17417,7 @@
         <v>6076348</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H121" s="16">
         <f t="shared" si="1"/>
@@ -17441,7 +17441,7 @@
         <v>12442731</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H122" s="16">
         <f t="shared" si="1"/>
@@ -17465,7 +17465,7 @@
         <v>10152571</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H123" s="16">
         <f t="shared" si="1"/>
@@ -17489,7 +17489,7 @@
         <v>8083167</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H124" s="16">
         <f t="shared" si="1"/>
@@ -17513,7 +17513,7 @@
         <v>8468252</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H125" s="16">
         <f t="shared" si="1"/>
@@ -17537,7 +17537,7 @@
         <v>9256571</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H126" s="16">
         <f t="shared" si="1"/>
@@ -17561,7 +17561,7 @@
         <v>10036908</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H127" s="16">
         <f t="shared" si="1"/>
@@ -17585,7 +17585,7 @@
         <v>15459383</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H128" s="16">
         <f t="shared" si="1"/>
@@ -17609,7 +17609,7 @@
         <v>8144180</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H129" s="16">
         <f t="shared" si="1"/>
@@ -17633,7 +17633,7 @@
         <v>7994293</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H130" s="16">
         <f t="shared" si="1"/>
@@ -17657,7 +17657,7 @@
         <v>11546541</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H131" s="16">
         <f t="shared" si="1"/>
@@ -17681,7 +17681,7 @@
         <v>6573919</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H132" s="16">
         <f t="shared" si="1"/>
@@ -17705,7 +17705,7 @@
         <v>10257036</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H133" s="16">
         <f t="shared" si="1"/>
@@ -17729,7 +17729,7 @@
         <v>16473606</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H134" s="16">
         <f t="shared" si="1"/>
@@ -17753,7 +17753,7 @@
         <v>13919255</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H135" s="16">
         <f t="shared" si="1"/>
@@ -17777,7 +17777,7 @@
         <v>14910497</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H136" s="16">
         <f t="shared" si="1"/>
@@ -17801,7 +17801,7 @@
         <v>35206386</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H137" s="16">
         <f t="shared" si="1"/>
@@ -17825,7 +17825,7 @@
         <v>15243510</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H138" s="16">
         <f t="shared" si="1"/>
@@ -17849,7 +17849,7 @@
         <v>7201013</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H139" s="16">
         <f t="shared" si="1"/>
@@ -17873,7 +17873,7 @@
         <v>7398779</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H140" s="16">
         <f t="shared" si="1"/>
@@ -17897,7 +17897,7 @@
         <v>7632139</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H141" s="16">
         <f t="shared" si="1"/>
@@ -17921,7 +17921,7 @@
         <v>7571253</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H142" s="16">
         <f t="shared" si="1"/>
@@ -17945,7 +17945,7 @@
         <v>7450264</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H143" s="16">
         <f t="shared" si="1"/>
@@ -17969,7 +17969,7 @@
         <v>8844338</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H144" s="16">
         <f t="shared" si="1"/>
@@ -17993,7 +17993,7 @@
         <v>8653971</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H145" s="16">
         <f t="shared" si="1"/>
@@ -18017,7 +18017,7 @@
         <v>5434792</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H146" s="16">
         <f t="shared" si="1"/>
@@ -18041,7 +18041,7 @@
         <v>7291606</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H147" s="16">
         <f t="shared" si="1"/>
@@ -18065,7 +18065,7 @@
         <v>5865449</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H148" s="16">
         <f t="shared" si="1"/>
@@ -18089,7 +18089,7 @@
         <v>7744777</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H149" s="16">
         <f t="shared" si="1"/>
@@ -18113,7 +18113,7 @@
         <v>11326106</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H150" s="16">
         <f t="shared" si="1"/>
@@ -18137,7 +18137,7 @@
         <v>6925969</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H151" s="16">
         <f t="shared" si="1"/>
@@ -18161,7 +18161,7 @@
         <v>8618496</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H152" s="16">
         <f t="shared" si="1"/>
@@ -18185,7 +18185,7 @@
         <v>9206569</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H153" s="16">
         <f t="shared" si="1"/>
@@ -18209,7 +18209,7 @@
         <v>10083594</v>
       </c>
       <c r="G154" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H154" s="16">
         <f t="shared" si="1"/>
@@ -18233,7 +18233,7 @@
         <v>9121261</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H155" s="16">
         <f t="shared" si="1"/>
@@ -18257,7 +18257,7 @@
         <v>8073322</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H156" s="16">
         <f t="shared" si="1"/>
@@ -18281,7 +18281,7 @@
         <v>10608717</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H157" s="16">
         <f t="shared" si="1"/>
@@ -18305,7 +18305,7 @@
         <v>6853835</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H158" s="16">
         <f t="shared" si="1"/>
@@ -18329,7 +18329,7 @@
         <v>11575282</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H159" s="16">
         <f t="shared" si="1"/>
@@ -18353,7 +18353,7 @@
         <v>13316657</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H160" s="16">
         <f t="shared" si="1"/>
@@ -18377,7 +18377,7 @@
         <v>13822395</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H161" s="16">
         <f t="shared" si="1"/>
@@ -18401,7 +18401,7 @@
         <v>14724836</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H162" s="16">
         <f t="shared" si="1"/>
@@ -18425,7 +18425,7 @@
         <v>12839810</v>
       </c>
       <c r="G163" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H163" s="16">
         <f t="shared" si="1"/>
@@ -18449,7 +18449,7 @@
         <v>27274648</v>
       </c>
       <c r="G164" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H164" s="16">
         <f t="shared" si="1"/>
@@ -18473,7 +18473,7 @@
         <v>21662377</v>
       </c>
       <c r="G165" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H165" s="16">
         <f t="shared" si="1"/>
@@ -18497,7 +18497,7 @@
         <v>13498163</v>
       </c>
       <c r="G166" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H166" s="16">
         <f t="shared" ref="H166:H229" si="2">B166/E166-1</f>
@@ -18521,7 +18521,7 @@
         <v>6187212</v>
       </c>
       <c r="G167" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H167" s="16">
         <f t="shared" si="2"/>
@@ -18545,7 +18545,7 @@
         <v>6494997</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H168" s="16">
         <f t="shared" si="2"/>
@@ -18569,7 +18569,7 @@
         <v>7572594</v>
       </c>
       <c r="G169" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H169" s="16">
         <f t="shared" si="2"/>
@@ -18593,7 +18593,7 @@
         <v>8376713</v>
       </c>
       <c r="G170" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H170" s="16">
         <f t="shared" si="2"/>
@@ -18617,7 +18617,7 @@
         <v>12344870</v>
       </c>
       <c r="G171" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H171" s="16">
         <f t="shared" si="2"/>
@@ -18641,7 +18641,7 @@
         <v>12317452</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H172" s="16">
         <f t="shared" si="2"/>
@@ -18665,7 +18665,7 @@
         <v>11869340</v>
       </c>
       <c r="G173" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H173" s="16">
         <f t="shared" si="2"/>
@@ -18689,7 +18689,7 @@
         <v>12315821</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H174" s="16">
         <f t="shared" si="2"/>
@@ -18713,7 +18713,7 @@
         <v>11473844</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H175" s="16">
         <f t="shared" si="2"/>
@@ -18737,7 +18737,7 @@
         <v>8368990</v>
       </c>
       <c r="G176" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H176" s="16">
         <f t="shared" si="2"/>
@@ -18761,7 +18761,7 @@
         <v>8571345</v>
       </c>
       <c r="G177" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H177" s="16">
         <f t="shared" si="2"/>
@@ -18785,7 +18785,7 @@
         <v>9634963</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H178" s="16">
         <f t="shared" si="2"/>
@@ -18809,7 +18809,7 @@
         <v>13181591</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H179" s="16">
         <f t="shared" si="2"/>
@@ -18833,7 +18833,7 @@
         <v>9277660</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H180" s="16">
         <f t="shared" si="2"/>
@@ -18857,7 +18857,7 @@
         <v>9396932</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H181" s="16">
         <f t="shared" si="2"/>
@@ -18881,7 +18881,7 @@
         <v>9062957</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H182" s="16">
         <f t="shared" si="2"/>
@@ -18905,7 +18905,7 @@
         <v>8222231</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H183" s="16">
         <f t="shared" si="2"/>
@@ -18929,7 +18929,7 @@
         <v>11811123</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H184" s="16">
         <f t="shared" si="2"/>
@@ -18953,7 +18953,7 @@
         <v>10455485</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H185" s="16">
         <f t="shared" si="2"/>
@@ -18977,7 +18977,7 @@
         <v>23545969</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H186" s="16">
         <f t="shared" si="2"/>
@@ -19001,7 +19001,7 @@
         <v>9578068</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H187" s="16">
         <f t="shared" si="2"/>
@@ -19025,7 +19025,7 @@
         <v>9526778</v>
       </c>
       <c r="G188" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H188" s="16">
         <f t="shared" si="2"/>
@@ -19049,7 +19049,7 @@
         <v>12968279</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H189" s="16">
         <f t="shared" si="2"/>
@@ -19073,7 +19073,7 @@
         <v>8944776</v>
       </c>
       <c r="G190" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H190" s="16">
         <f t="shared" si="2"/>
@@ -19097,7 +19097,7 @@
         <v>8638603</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H191" s="16">
         <f t="shared" si="2"/>
@@ -19121,7 +19121,7 @@
         <v>7519467</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H192" s="16">
         <f t="shared" si="2"/>
@@ -19145,7 +19145,7 @@
         <v>8605324</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H193" s="16">
         <f t="shared" si="2"/>
@@ -19169,7 +19169,7 @@
         <v>9761208</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H194" s="16">
         <f t="shared" si="2"/>
@@ -19193,7 +19193,7 @@
         <v>13464354</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H195" s="16">
         <f t="shared" si="2"/>
@@ -19217,7 +19217,7 @@
         <v>14358874</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H196" s="16">
         <f t="shared" si="2"/>
@@ -19241,7 +19241,7 @@
         <v>17445401</v>
       </c>
       <c r="G197" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H197" s="16">
         <f t="shared" si="2"/>
@@ -19265,7 +19265,7 @@
         <v>23117055</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H198" s="16">
         <f t="shared" si="2"/>
@@ -19289,7 +19289,7 @@
         <v>19086364</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H199" s="16">
         <f t="shared" si="2"/>
@@ -19313,7 +19313,7 @@
         <v>25825919</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H200" s="16">
         <f t="shared" si="2"/>
@@ -19337,7 +19337,7 @@
         <v>44232794</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H201" s="16">
         <f t="shared" si="2"/>
@@ -19361,7 +19361,7 @@
         <v>12346842</v>
       </c>
       <c r="G202" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H202" s="16">
         <f t="shared" si="2"/>
@@ -19385,7 +19385,7 @@
         <v>11323434</v>
       </c>
       <c r="G203" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H203" s="16">
         <f t="shared" si="2"/>
@@ -19409,7 +19409,7 @@
         <v>12515747</v>
       </c>
       <c r="G204" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H204" s="16">
         <f t="shared" si="2"/>
@@ -19433,7 +19433,7 @@
         <v>11801729</v>
       </c>
       <c r="G205" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H205" s="16">
         <f t="shared" si="2"/>
@@ -19457,7 +19457,7 @@
         <v>7572010</v>
       </c>
       <c r="G206" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H206" s="16">
         <f t="shared" si="2"/>
@@ -19481,7 +19481,7 @@
         <v>7489501</v>
       </c>
       <c r="G207" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H207" s="16">
         <f t="shared" si="2"/>
@@ -19505,7 +19505,7 @@
         <v>9352934</v>
       </c>
       <c r="G208" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H208" s="16">
         <f t="shared" si="2"/>
@@ -19529,7 +19529,7 @@
         <v>9102024</v>
       </c>
       <c r="G209" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H209" s="16">
         <f t="shared" si="2"/>
@@ -19553,7 +19553,7 @@
         <v>8322110</v>
       </c>
       <c r="G210" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H210" s="16">
         <f t="shared" si="2"/>
@@ -19577,7 +19577,7 @@
         <v>9198845</v>
       </c>
       <c r="G211" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H211" s="16">
         <f t="shared" si="2"/>
@@ -19601,7 +19601,7 @@
         <v>9442989</v>
       </c>
       <c r="G212" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H212" s="16">
         <f t="shared" si="2"/>
@@ -19625,7 +19625,7 @@
         <v>8166185</v>
       </c>
       <c r="G213" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H213" s="16">
         <f t="shared" si="2"/>
@@ -19649,7 +19649,7 @@
         <v>13081969</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H214" s="16">
         <f t="shared" si="2"/>
@@ -19673,7 +19673,7 @@
         <v>7697110</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H215" s="16">
         <f t="shared" si="2"/>
@@ -19697,7 +19697,7 @@
         <v>8477370</v>
       </c>
       <c r="G216" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H216" s="16">
         <f t="shared" si="2"/>
@@ -19721,7 +19721,7 @@
         <v>10320364</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H217" s="16">
         <f t="shared" si="2"/>
@@ -19745,7 +19745,7 @@
         <v>12243845</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H218" s="16">
         <f t="shared" si="2"/>
@@ -19769,7 +19769,7 @@
         <v>6908317</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H219" s="16">
         <f t="shared" si="2"/>
@@ -19793,7 +19793,7 @@
         <v>13231566</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H220" s="16">
         <f t="shared" si="2"/>
@@ -19817,7 +19817,7 @@
         <v>12237467</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H221" s="16">
         <f t="shared" si="2"/>
@@ -19841,7 +19841,7 @@
         <v>28102011</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H222" s="16">
         <f t="shared" si="2"/>
@@ -19865,7 +19865,7 @@
         <v>11648923</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H223" s="16">
         <f t="shared" si="2"/>
@@ -19889,7 +19889,7 @@
         <v>12599367</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H224" s="16">
         <f t="shared" si="2"/>
@@ -19913,7 +19913,7 @@
         <v>9359170</v>
       </c>
       <c r="G225" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H225" s="16">
         <f t="shared" si="2"/>
@@ -19937,7 +19937,7 @@
         <v>10464729</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H226" s="16">
         <f t="shared" si="2"/>
@@ -19961,7 +19961,7 @@
         <v>18888289</v>
       </c>
       <c r="G227" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H227" s="16">
         <f t="shared" si="2"/>
@@ -19985,7 +19985,7 @@
         <v>12928493</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H228" s="16">
         <f t="shared" si="2"/>
@@ -20009,7 +20009,7 @@
         <v>13500311</v>
       </c>
       <c r="G229" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H229" s="16">
         <f t="shared" si="2"/>
@@ -20033,7 +20033,7 @@
         <v>13558487</v>
       </c>
       <c r="G230" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H230" s="16">
         <f t="shared" ref="H230:H287" si="3">B230/E230-1</f>
@@ -20057,7 +20057,7 @@
         <v>10366037</v>
       </c>
       <c r="G231" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H231" s="16">
         <f t="shared" si="3"/>
@@ -20081,7 +20081,7 @@
         <v>11985383</v>
       </c>
       <c r="G232" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H232" s="16">
         <f t="shared" si="3"/>
@@ -20105,7 +20105,7 @@
         <v>14137513</v>
       </c>
       <c r="G233" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H233" s="16">
         <f t="shared" si="3"/>
@@ -20129,7 +20129,7 @@
         <v>15108667</v>
       </c>
       <c r="G234" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H234" s="16">
         <f t="shared" si="3"/>
@@ -20153,7 +20153,7 @@
         <v>11978817</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H235" s="16">
         <f t="shared" si="3"/>
@@ -20177,7 +20177,7 @@
         <v>13194960</v>
       </c>
       <c r="G236" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H236" s="16">
         <f t="shared" si="3"/>
@@ -20201,7 +20201,7 @@
         <v>22068792</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H237" s="16">
         <f t="shared" si="3"/>
@@ -20225,7 +20225,7 @@
         <v>8846106</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H238" s="16">
         <f t="shared" si="3"/>
@@ -20249,7 +20249,7 @@
         <v>9046058</v>
       </c>
       <c r="G239" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H239" s="16">
         <f t="shared" si="3"/>
@@ -20273,7 +20273,7 @@
         <v>9039816</v>
       </c>
       <c r="G240" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H240" s="16">
         <f t="shared" si="3"/>
@@ -20297,7 +20297,7 @@
         <v>14269038</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H241" s="16">
         <f t="shared" si="3"/>
@@ -20321,7 +20321,7 @@
         <v>11874710</v>
       </c>
       <c r="G242" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H242" s="16">
         <f t="shared" si="3"/>
@@ -20345,7 +20345,7 @@
         <v>8142812</v>
       </c>
       <c r="G243" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H243" s="16">
         <f t="shared" si="3"/>
@@ -20369,7 +20369,7 @@
         <v>11159562</v>
       </c>
       <c r="G244" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H244" s="16">
         <f t="shared" si="3"/>
@@ -20393,7 +20393,7 @@
         <v>8176776</v>
       </c>
       <c r="G245" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H245" s="16">
         <f t="shared" si="3"/>
@@ -20417,7 +20417,7 @@
         <v>10533414</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H246" s="16">
         <f t="shared" si="3"/>
@@ -20441,7 +20441,7 @@
         <v>14532237</v>
       </c>
       <c r="G247" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H247" s="16">
         <f t="shared" si="3"/>
@@ -20465,7 +20465,7 @@
         <v>6576018</v>
       </c>
       <c r="G248" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H248" s="16">
         <f t="shared" si="3"/>
@@ -20489,7 +20489,7 @@
         <v>6429049</v>
       </c>
       <c r="G249" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H249" s="16">
         <f t="shared" si="3"/>
@@ -20513,7 +20513,7 @@
         <v>8204812</v>
       </c>
       <c r="G250" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H250" s="16">
         <f t="shared" si="3"/>
@@ -20537,7 +20537,7 @@
         <v>8113565</v>
       </c>
       <c r="G251" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H251" s="16">
         <f t="shared" si="3"/>
@@ -20561,7 +20561,7 @@
         <v>10972601</v>
       </c>
       <c r="G252" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H252" s="16">
         <f t="shared" si="3"/>
@@ -20585,7 +20585,7 @@
         <v>7556453</v>
       </c>
       <c r="G253" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H253" s="16">
         <f t="shared" si="3"/>
@@ -20609,7 +20609,7 @@
         <v>7311644</v>
       </c>
       <c r="G254" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H254" s="16">
         <f t="shared" si="3"/>
@@ -20633,7 +20633,7 @@
         <v>8745768</v>
       </c>
       <c r="G255" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H255" s="16">
         <f t="shared" si="3"/>
@@ -20657,7 +20657,7 @@
         <v>8368668</v>
       </c>
       <c r="G256" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H256" s="16">
         <f t="shared" si="3"/>
@@ -20681,7 +20681,7 @@
         <v>11183819</v>
       </c>
       <c r="G257" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H257" s="16">
         <f t="shared" si="3"/>
@@ -20705,7 +20705,7 @@
         <v>9232204</v>
       </c>
       <c r="G258" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H258" s="16">
         <f t="shared" si="3"/>
@@ -20729,7 +20729,7 @@
         <v>11257563</v>
       </c>
       <c r="G259" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H259" s="16">
         <f t="shared" si="3"/>
@@ -20753,7 +20753,7 @@
         <v>15435157</v>
       </c>
       <c r="G260" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H260" s="16">
         <f t="shared" si="3"/>
@@ -20777,7 +20777,7 @@
         <v>14480564</v>
       </c>
       <c r="G261" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H261" s="16">
         <f t="shared" si="3"/>
@@ -20801,7 +20801,7 @@
         <v>17966526</v>
       </c>
       <c r="G262" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H262" s="16">
         <f t="shared" si="3"/>
@@ -20825,7 +20825,7 @@
         <v>43903402</v>
       </c>
       <c r="G263" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H263" s="16">
         <f t="shared" si="3"/>
@@ -20849,7 +20849,7 @@
         <v>19142390</v>
       </c>
       <c r="G264" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H264" s="16">
         <f t="shared" si="3"/>
@@ -20873,7 +20873,7 @@
         <v>14200886</v>
       </c>
       <c r="G265" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H265" s="16">
         <f t="shared" si="3"/>
@@ -20897,7 +20897,7 @@
         <v>11711244</v>
       </c>
       <c r="G266" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H266" s="16">
         <f t="shared" si="3"/>
@@ -20921,7 +20921,7 @@
         <v>8189112</v>
       </c>
       <c r="G267" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H267" s="16">
         <f t="shared" si="3"/>
@@ -20945,7 +20945,7 @@
         <v>9912958</v>
       </c>
       <c r="G268" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H268" s="16">
         <f t="shared" si="3"/>
@@ -20969,7 +20969,7 @@
         <v>9958232</v>
       </c>
       <c r="G269" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H269" s="16">
         <f t="shared" si="3"/>
@@ -20993,7 +20993,7 @@
         <v>13177880</v>
       </c>
       <c r="G270" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H270" s="16">
         <f t="shared" si="3"/>
@@ -21017,7 +21017,7 @@
         <v>9240022</v>
       </c>
       <c r="G271" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H271" s="16">
         <f t="shared" si="3"/>
@@ -21041,7 +21041,7 @@
         <v>8000869</v>
       </c>
       <c r="G272" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H272" s="16">
         <f t="shared" si="3"/>
@@ -21065,7 +21065,7 @@
         <v>9912670</v>
       </c>
       <c r="G273" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H273" s="16">
         <f t="shared" si="3"/>
@@ -21089,7 +21089,7 @@
         <v>11008660</v>
       </c>
       <c r="G274" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H274" s="16">
         <f t="shared" si="3"/>
@@ -21113,7 +21113,7 @@
         <v>9933991</v>
       </c>
       <c r="G275" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H275" s="16">
         <f t="shared" si="3"/>
@@ -21137,7 +21137,7 @@
         <v>8785482</v>
       </c>
       <c r="G276" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H276" s="16">
         <f t="shared" si="3"/>
@@ -21161,7 +21161,7 @@
         <v>8566270</v>
       </c>
       <c r="G277" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H277" s="16">
         <f t="shared" si="3"/>
@@ -21185,7 +21185,7 @@
         <v>8459879</v>
       </c>
       <c r="G278" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H278" s="16">
         <f t="shared" si="3"/>
@@ -21209,7 +21209,7 @@
         <v>8421432</v>
       </c>
       <c r="G279" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H279" s="16">
         <f t="shared" si="3"/>
@@ -21233,7 +21233,7 @@
         <v>8062301</v>
       </c>
       <c r="G280" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H280" s="16">
         <f t="shared" si="3"/>
@@ -21257,7 +21257,7 @@
         <v>9933370</v>
       </c>
       <c r="G281" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H281" s="16">
         <f t="shared" si="3"/>
@@ -21281,7 +21281,7 @@
         <v>7176112</v>
       </c>
       <c r="G282" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H282" s="16">
         <f t="shared" si="3"/>
@@ -21305,7 +21305,7 @@
         <v>10329272</v>
       </c>
       <c r="G283" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H283" s="16">
         <f t="shared" si="3"/>
@@ -21329,7 +21329,7 @@
         <v>9840525</v>
       </c>
       <c r="G284" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H284" s="16">
         <f t="shared" si="3"/>
@@ -21353,7 +21353,7 @@
         <v>10775822</v>
       </c>
       <c r="G285" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H285" s="16">
         <f t="shared" si="3"/>
@@ -21377,7 +21377,7 @@
         <v>10591212</v>
       </c>
       <c r="G286" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H286" s="16">
         <f t="shared" si="3"/>
@@ -21401,7 +21401,7 @@
         <v>14826401</v>
       </c>
       <c r="G287" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H287" s="16">
         <f t="shared" si="3"/>
@@ -21433,12 +21433,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -21462,12 +21462,12 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
